--- a/Documents/Table_List/00_TableList.xlsx
+++ b/Documents/Table_List/00_TableList.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-01\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-02\Desktop\github\DefensiveDungeon\Documents\Table_List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FD3F3BE-B8D2-4CF7-B5FB-74ED6DFB0E4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13020B1F-7646-4147-A22E-7051E990A052}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{81B8BADF-0D58-4324-99A2-78BDE441F027}"/>
+    <workbookView xWindow="150" yWindow="330" windowWidth="21600" windowHeight="11385" xr2:uid="{81B8BADF-0D58-4324-99A2-78BDE441F027}"/>
   </bookViews>
   <sheets>
     <sheet name="Table_List" sheetId="1" r:id="rId1"/>
@@ -1755,14 +1755,17 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1773,34 +1776,31 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
@@ -1808,30 +1808,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1845,22 +1821,46 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2179,11 +2179,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2830DD9-FF1F-44AD-8D27-2F6B2C372548}">
   <dimension ref="A1:K261"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q37" sqref="Q37"/>
+    <sheetView tabSelected="1" topLeftCell="A235" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="2.25" style="25" customWidth="1"/>
     <col min="2" max="2" width="3.625" style="2" customWidth="1"/>
@@ -2194,11 +2194,12 @@
     <col min="8" max="8" width="3.25" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="69.625" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="2"/>
+    <col min="11" max="11" width="2.25" style="25" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="2" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" s="25" customFormat="1"/>
-    <row r="2" spans="2:11">
+    <row r="1" spans="2:10" s="25" customFormat="1"/>
+    <row r="2" spans="2:10">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -2214,17 +2215,16 @@
       <c r="F2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="32" t="s">
+      <c r="G2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="28"/>
-      <c r="I2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="28"/>
       <c r="J2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="25"/>
-    </row>
-    <row r="3" spans="2:11">
+    </row>
+    <row r="3" spans="2:10">
       <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
@@ -2240,156 +2240,149 @@
       <c r="F3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="33" t="s">
+      <c r="G3" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="28"/>
-      <c r="I3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="28"/>
       <c r="J3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="25"/>
-    </row>
-    <row r="4" spans="2:11">
+    </row>
+    <row r="4" spans="2:10">
       <c r="B4" s="5">
         <v>1</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="30" t="s">
         <v>423</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="27"/>
+      <c r="E4" s="28"/>
       <c r="F4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="28"/>
-      <c r="I4" s="27"/>
+      <c r="G4" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="27"/>
+      <c r="I4" s="28"/>
       <c r="J4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="25"/>
-    </row>
-    <row r="5" spans="2:11">
+    </row>
+    <row r="5" spans="2:10">
       <c r="B5" s="5">
         <v>2</v>
       </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="26" t="s">
+      <c r="C5" s="31"/>
+      <c r="D5" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="27"/>
+      <c r="E5" s="28"/>
       <c r="F5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="26" t="s">
+      <c r="G5" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="28"/>
-      <c r="I5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="28"/>
       <c r="J5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="25"/>
-    </row>
-    <row r="6" spans="2:11">
+    </row>
+    <row r="6" spans="2:10">
       <c r="B6" s="5">
         <v>3</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="26" t="s">
+      <c r="C6" s="31"/>
+      <c r="D6" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="27"/>
+      <c r="E6" s="28"/>
       <c r="F6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="26" t="s">
+      <c r="G6" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="28"/>
-      <c r="I6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="28"/>
       <c r="J6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="K6" s="25"/>
-    </row>
-    <row r="7" spans="2:11">
+    </row>
+    <row r="7" spans="2:10">
       <c r="B7" s="5">
         <v>4</v>
       </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="26" t="s">
+      <c r="C7" s="31"/>
+      <c r="D7" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="27"/>
+      <c r="E7" s="28"/>
       <c r="F7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="28"/>
-      <c r="I7" s="27"/>
+      <c r="G7" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="27"/>
+      <c r="I7" s="28"/>
       <c r="J7" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="K7" s="25"/>
-    </row>
-    <row r="8" spans="2:11">
+    </row>
+    <row r="8" spans="2:10">
       <c r="B8" s="5">
         <v>5</v>
       </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="26" t="s">
+      <c r="C8" s="31"/>
+      <c r="D8" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="27"/>
+      <c r="E8" s="28"/>
       <c r="F8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="28"/>
-      <c r="I8" s="27"/>
+      <c r="G8" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="27"/>
+      <c r="I8" s="28"/>
       <c r="J8" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="K8" s="25"/>
-    </row>
-    <row r="9" spans="2:11" ht="27">
+    </row>
+    <row r="9" spans="2:10" ht="27">
       <c r="B9" s="5">
         <v>6</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="26" t="s">
+      <c r="C9" s="31"/>
+      <c r="D9" s="33" t="s">
         <v>385</v>
       </c>
-      <c r="E9" s="27"/>
+      <c r="E9" s="28"/>
       <c r="F9" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="28"/>
-      <c r="I9" s="27"/>
+      <c r="G9" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="27"/>
+      <c r="I9" s="28"/>
       <c r="J9" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="K9" s="25"/>
-    </row>
-    <row r="10" spans="2:11">
+    </row>
+    <row r="10" spans="2:10">
       <c r="B10" s="5">
         <v>7</v>
       </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="29" t="s">
+      <c r="C10" s="31"/>
+      <c r="D10" s="30" t="s">
         <v>29</v>
       </c>
       <c r="E10" s="6" t="s">
@@ -2398,110 +2391,105 @@
       <c r="F10" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="26" t="s">
+      <c r="G10" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="28"/>
-      <c r="I10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="28"/>
       <c r="J10" s="6" t="s">
         <v>389</v>
       </c>
-      <c r="K10" s="25"/>
-    </row>
-    <row r="11" spans="2:11" ht="27">
+    </row>
+    <row r="11" spans="2:10" ht="27">
       <c r="B11" s="5">
         <v>8</v>
       </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
       <c r="E11" s="6" t="s">
         <v>33</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G11" s="26" t="s">
+      <c r="G11" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="H11" s="28"/>
-      <c r="I11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="28"/>
       <c r="J11" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="K11" s="25"/>
-    </row>
-    <row r="12" spans="2:11">
+    </row>
+    <row r="12" spans="2:10">
       <c r="B12" s="5">
         <v>9</v>
       </c>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
       <c r="E12" s="6" t="s">
         <v>36</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="G12" s="26" t="s">
+      <c r="G12" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="H12" s="28"/>
-      <c r="I12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="28"/>
       <c r="J12" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="K12" s="25"/>
-    </row>
-    <row r="13" spans="2:11">
+    </row>
+    <row r="13" spans="2:10">
       <c r="B13" s="5">
         <v>10</v>
       </c>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
       <c r="E13" s="6" t="s">
         <v>39</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="G13" s="26" t="s">
+      <c r="G13" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="H13" s="28"/>
-      <c r="I13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="28"/>
       <c r="J13" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="K13" s="25"/>
-    </row>
-    <row r="14" spans="2:11">
+    </row>
+    <row r="14" spans="2:10">
       <c r="B14" s="5">
         <v>11</v>
       </c>
-      <c r="C14" s="30"/>
-      <c r="D14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="32"/>
       <c r="E14" s="6" t="s">
         <v>42</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="G14" s="26" t="s">
+      <c r="G14" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="H14" s="28"/>
-      <c r="I14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="28"/>
       <c r="J14" s="6" t="s">
         <v>390</v>
       </c>
-      <c r="K14" s="25"/>
-    </row>
-    <row r="15" spans="2:11">
+    </row>
+    <row r="15" spans="2:10">
       <c r="B15" s="5">
         <v>12</v>
       </c>
-      <c r="C15" s="30"/>
-      <c r="D15" s="29" t="s">
+      <c r="C15" s="31"/>
+      <c r="D15" s="30" t="s">
         <v>44</v>
       </c>
       <c r="E15" s="6" t="s">
@@ -2510,103 +2498,98 @@
       <c r="F15" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="G15" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" s="28"/>
-      <c r="I15" s="27"/>
+      <c r="G15" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="27"/>
+      <c r="I15" s="28"/>
       <c r="J15" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="K15" s="25"/>
-    </row>
-    <row r="16" spans="2:11">
+    </row>
+    <row r="16" spans="2:10">
       <c r="B16" s="5">
         <v>13</v>
       </c>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
       <c r="E16" s="6" t="s">
         <v>47</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="G16" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" s="28"/>
-      <c r="I16" s="27"/>
+      <c r="G16" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="27"/>
+      <c r="I16" s="28"/>
       <c r="J16" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="K16" s="25"/>
     </row>
     <row r="17" spans="1:11">
       <c r="B17" s="5">
         <v>14</v>
       </c>
-      <c r="C17" s="30"/>
-      <c r="D17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="32"/>
       <c r="E17" s="6" t="s">
         <v>50</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="G17" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="H17" s="28"/>
-      <c r="I17" s="27"/>
+      <c r="G17" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="27"/>
+      <c r="I17" s="28"/>
       <c r="J17" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="K17" s="25"/>
     </row>
     <row r="18" spans="1:11">
       <c r="B18" s="5">
         <v>15</v>
       </c>
-      <c r="C18" s="30"/>
-      <c r="D18" s="26" t="s">
+      <c r="C18" s="31"/>
+      <c r="D18" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="E18" s="27"/>
+      <c r="E18" s="28"/>
       <c r="F18" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="G18" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="H18" s="28"/>
-      <c r="I18" s="27"/>
+      <c r="G18" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="27"/>
+      <c r="I18" s="28"/>
       <c r="J18" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="K18" s="25"/>
     </row>
     <row r="19" spans="1:11">
       <c r="B19" s="5">
         <v>16</v>
       </c>
-      <c r="C19" s="31"/>
-      <c r="D19" s="26" t="s">
+      <c r="C19" s="32"/>
+      <c r="D19" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="E19" s="27"/>
+      <c r="E19" s="28"/>
       <c r="F19" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G19" s="26" t="s">
+      <c r="G19" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="H19" s="28"/>
-      <c r="I19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="28"/>
       <c r="J19" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="K19" s="25"/>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="1"/>
@@ -2638,11 +2621,11 @@
       <c r="F21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G21" s="32" t="s">
+      <c r="G21" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="H21" s="28"/>
-      <c r="I21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="28"/>
       <c r="J21" s="3" t="s">
         <v>6</v>
       </c>
@@ -2665,11 +2648,11 @@
       <c r="F22" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G22" s="33" t="s">
+      <c r="G22" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="H22" s="28"/>
-      <c r="I22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="28"/>
       <c r="J22" s="4" t="s">
         <v>13</v>
       </c>
@@ -2680,21 +2663,21 @@
       <c r="B23" s="5">
         <v>1</v>
       </c>
-      <c r="C23" s="29" t="s">
+      <c r="C23" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="26" t="s">
+      <c r="D23" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="E23" s="27"/>
+      <c r="E23" s="28"/>
       <c r="F23" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G23" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="H23" s="28"/>
-      <c r="I23" s="27"/>
+      <c r="G23" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" s="27"/>
+      <c r="I23" s="28"/>
       <c r="J23" s="6" t="s">
         <v>16</v>
       </c>
@@ -2705,19 +2688,19 @@
       <c r="B24" s="5">
         <v>2</v>
       </c>
-      <c r="C24" s="30"/>
-      <c r="D24" s="26" t="s">
+      <c r="C24" s="31"/>
+      <c r="D24" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="E24" s="27"/>
+      <c r="E24" s="28"/>
       <c r="F24" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G24" s="26" t="s">
+      <c r="G24" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="H24" s="28"/>
-      <c r="I24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="28"/>
       <c r="J24" s="6" t="s">
         <v>19</v>
       </c>
@@ -2728,19 +2711,19 @@
       <c r="B25" s="5">
         <v>3</v>
       </c>
-      <c r="C25" s="30"/>
-      <c r="D25" s="26" t="s">
+      <c r="C25" s="31"/>
+      <c r="D25" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="E25" s="27"/>
+      <c r="E25" s="28"/>
       <c r="F25" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G25" s="26" t="s">
+      <c r="G25" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="H25" s="28"/>
-      <c r="I25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="28"/>
       <c r="J25" s="6" t="s">
         <v>21</v>
       </c>
@@ -2751,19 +2734,19 @@
       <c r="B26" s="5">
         <v>4</v>
       </c>
-      <c r="C26" s="30"/>
-      <c r="D26" s="26" t="s">
+      <c r="C26" s="31"/>
+      <c r="D26" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="E26" s="27"/>
+      <c r="E26" s="28"/>
       <c r="F26" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G26" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="H26" s="28"/>
-      <c r="I26" s="27"/>
+      <c r="G26" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" s="27"/>
+      <c r="I26" s="28"/>
       <c r="J26" s="6" t="s">
         <v>384</v>
       </c>
@@ -2774,19 +2757,19 @@
       <c r="B27" s="5">
         <v>5</v>
       </c>
-      <c r="C27" s="30"/>
-      <c r="D27" s="26" t="s">
+      <c r="C27" s="31"/>
+      <c r="D27" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="E27" s="27"/>
+      <c r="E27" s="28"/>
       <c r="F27" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G27" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="H27" s="28"/>
-      <c r="I27" s="27"/>
+      <c r="G27" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" s="27"/>
+      <c r="I27" s="28"/>
       <c r="J27" s="7" t="s">
         <v>26</v>
       </c>
@@ -2797,19 +2780,19 @@
       <c r="B28" s="5">
         <v>6</v>
       </c>
-      <c r="C28" s="30"/>
-      <c r="D28" s="26" t="s">
+      <c r="C28" s="31"/>
+      <c r="D28" s="33" t="s">
         <v>385</v>
       </c>
-      <c r="E28" s="27"/>
+      <c r="E28" s="28"/>
       <c r="F28" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G28" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="H28" s="28"/>
-      <c r="I28" s="27"/>
+      <c r="G28" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="H28" s="27"/>
+      <c r="I28" s="28"/>
       <c r="J28" s="7" t="s">
         <v>386</v>
       </c>
@@ -2820,19 +2803,19 @@
       <c r="B29" s="5">
         <v>7</v>
       </c>
-      <c r="C29" s="30"/>
-      <c r="D29" s="58" t="s">
+      <c r="C29" s="31"/>
+      <c r="D29" s="34" t="s">
         <v>387</v>
       </c>
-      <c r="E29" s="61"/>
+      <c r="E29" s="35"/>
       <c r="F29" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="G29" s="58" t="s">
-        <v>15</v>
-      </c>
-      <c r="H29" s="59"/>
-      <c r="I29" s="60"/>
+      <c r="G29" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29" s="36"/>
+      <c r="I29" s="37"/>
       <c r="J29" s="24" t="s">
         <v>388</v>
       </c>
@@ -2843,8 +2826,8 @@
       <c r="B30" s="5">
         <v>8</v>
       </c>
-      <c r="C30" s="30"/>
-      <c r="D30" s="29" t="s">
+      <c r="C30" s="31"/>
+      <c r="D30" s="30" t="s">
         <v>29</v>
       </c>
       <c r="E30" s="6" t="s">
@@ -2853,11 +2836,11 @@
       <c r="F30" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G30" s="26" t="s">
+      <c r="G30" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="H30" s="28"/>
-      <c r="I30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="28"/>
       <c r="J30" s="6" t="s">
         <v>389</v>
       </c>
@@ -2868,19 +2851,19 @@
       <c r="B31" s="5">
         <v>11</v>
       </c>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
       <c r="E31" s="6" t="s">
         <v>39</v>
       </c>
       <c r="F31" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="G31" s="26" t="s">
+      <c r="G31" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="H31" s="28"/>
-      <c r="I31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="28"/>
       <c r="J31" s="6" t="s">
         <v>41</v>
       </c>
@@ -2891,19 +2874,19 @@
       <c r="B32" s="5">
         <v>12</v>
       </c>
-      <c r="C32" s="30"/>
-      <c r="D32" s="31"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="32"/>
       <c r="E32" s="6" t="s">
         <v>42</v>
       </c>
       <c r="F32" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="G32" s="26" t="s">
+      <c r="G32" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="H32" s="28"/>
-      <c r="I32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="28"/>
       <c r="J32" s="6" t="s">
         <v>390</v>
       </c>
@@ -2914,8 +2897,8 @@
       <c r="B33" s="5">
         <v>13</v>
       </c>
-      <c r="C33" s="30"/>
-      <c r="D33" s="29" t="s">
+      <c r="C33" s="31"/>
+      <c r="D33" s="30" t="s">
         <v>44</v>
       </c>
       <c r="E33" s="6" t="s">
@@ -2924,11 +2907,11 @@
       <c r="F33" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="G33" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="H33" s="28"/>
-      <c r="I33" s="27"/>
+      <c r="G33" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="H33" s="27"/>
+      <c r="I33" s="28"/>
       <c r="J33" s="6" t="s">
         <v>391</v>
       </c>
@@ -2939,19 +2922,19 @@
       <c r="B34" s="5">
         <v>14</v>
       </c>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="31"/>
       <c r="E34" s="6" t="s">
         <v>47</v>
       </c>
       <c r="F34" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="G34" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="H34" s="28"/>
-      <c r="I34" s="27"/>
+      <c r="G34" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="H34" s="27"/>
+      <c r="I34" s="28"/>
       <c r="J34" s="6" t="s">
         <v>49</v>
       </c>
@@ -2962,19 +2945,19 @@
       <c r="B35" s="5">
         <v>15</v>
       </c>
-      <c r="C35" s="30"/>
-      <c r="D35" s="31"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="32"/>
       <c r="E35" s="6" t="s">
         <v>50</v>
       </c>
       <c r="F35" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="G35" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="H35" s="28"/>
-      <c r="I35" s="27"/>
+      <c r="G35" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="H35" s="27"/>
+      <c r="I35" s="28"/>
       <c r="J35" s="6" t="s">
         <v>49</v>
       </c>
@@ -2985,8 +2968,8 @@
       <c r="B36" s="5">
         <v>16</v>
       </c>
-      <c r="C36" s="30"/>
-      <c r="D36" s="29" t="s">
+      <c r="C36" s="31"/>
+      <c r="D36" s="30" t="s">
         <v>52</v>
       </c>
       <c r="E36" s="6" t="s">
@@ -2995,11 +2978,11 @@
       <c r="F36" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="G36" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="H36" s="28"/>
-      <c r="I36" s="27"/>
+      <c r="G36" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="H36" s="27"/>
+      <c r="I36" s="28"/>
       <c r="J36" s="6" t="s">
         <v>55</v>
       </c>
@@ -3010,19 +2993,19 @@
       <c r="B37" s="5">
         <v>17</v>
       </c>
-      <c r="C37" s="30"/>
-      <c r="D37" s="31"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="32"/>
       <c r="E37" s="6" t="s">
         <v>56</v>
       </c>
       <c r="F37" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="G37" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="H37" s="28"/>
-      <c r="I37" s="27"/>
+      <c r="G37" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="H37" s="27"/>
+      <c r="I37" s="28"/>
       <c r="J37" s="6" t="s">
         <v>55</v>
       </c>
@@ -3033,19 +3016,19 @@
       <c r="B38" s="5">
         <v>18</v>
       </c>
-      <c r="C38" s="30"/>
-      <c r="D38" s="56" t="s">
+      <c r="C38" s="31"/>
+      <c r="D38" s="38" t="s">
         <v>392</v>
       </c>
-      <c r="E38" s="57"/>
+      <c r="E38" s="39"/>
       <c r="F38" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="G38" s="58" t="s">
-        <v>15</v>
-      </c>
-      <c r="H38" s="59"/>
-      <c r="I38" s="60"/>
+      <c r="G38" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="H38" s="36"/>
+      <c r="I38" s="37"/>
       <c r="J38" s="23" t="s">
         <v>393</v>
       </c>
@@ -3056,19 +3039,19 @@
       <c r="B39" s="5">
         <v>19</v>
       </c>
-      <c r="C39" s="30"/>
-      <c r="D39" s="26" t="s">
+      <c r="C39" s="31"/>
+      <c r="D39" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="E39" s="27"/>
+      <c r="E39" s="28"/>
       <c r="F39" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="G39" s="26" t="s">
+      <c r="G39" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="H39" s="28"/>
-      <c r="I39" s="27"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="28"/>
       <c r="J39" s="6" t="s">
         <v>61</v>
       </c>
@@ -3079,19 +3062,19 @@
       <c r="B40" s="5">
         <v>20</v>
       </c>
-      <c r="C40" s="30"/>
-      <c r="D40" s="26" t="s">
+      <c r="C40" s="31"/>
+      <c r="D40" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="E40" s="27"/>
+      <c r="E40" s="28"/>
       <c r="F40" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="G40" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="H40" s="28"/>
-      <c r="I40" s="27"/>
+      <c r="G40" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="H40" s="27"/>
+      <c r="I40" s="28"/>
       <c r="J40" s="6" t="s">
         <v>64</v>
       </c>
@@ -3102,19 +3085,19 @@
       <c r="B41" s="5">
         <v>21</v>
       </c>
-      <c r="C41" s="31"/>
-      <c r="D41" s="26" t="s">
+      <c r="C41" s="32"/>
+      <c r="D41" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="E41" s="27"/>
+      <c r="E41" s="28"/>
       <c r="F41" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G41" s="26" t="s">
+      <c r="G41" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="H41" s="28"/>
-      <c r="I41" s="27"/>
+      <c r="H41" s="27"/>
+      <c r="I41" s="28"/>
       <c r="J41" s="6" t="s">
         <v>67</v>
       </c>
@@ -3150,11 +3133,11 @@
       <c r="F43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G43" s="32" t="s">
+      <c r="G43" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="H43" s="28"/>
-      <c r="I43" s="27"/>
+      <c r="H43" s="27"/>
+      <c r="I43" s="28"/>
       <c r="J43" s="3" t="s">
         <v>6</v>
       </c>
@@ -3177,11 +3160,11 @@
       <c r="F44" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G44" s="33" t="s">
+      <c r="G44" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="H44" s="28"/>
-      <c r="I44" s="27"/>
+      <c r="H44" s="27"/>
+      <c r="I44" s="28"/>
       <c r="J44" s="4" t="s">
         <v>13</v>
       </c>
@@ -3192,21 +3175,21 @@
       <c r="B45" s="5">
         <v>1</v>
       </c>
-      <c r="C45" s="29" t="s">
+      <c r="C45" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="D45" s="26" t="s">
+      <c r="D45" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="E45" s="27"/>
+      <c r="E45" s="28"/>
       <c r="F45" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G45" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="H45" s="28"/>
-      <c r="I45" s="27"/>
+      <c r="G45" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="H45" s="27"/>
+      <c r="I45" s="28"/>
       <c r="J45" s="6" t="s">
         <v>16</v>
       </c>
@@ -3217,19 +3200,19 @@
       <c r="B46" s="5">
         <v>2</v>
       </c>
-      <c r="C46" s="30"/>
-      <c r="D46" s="26" t="s">
+      <c r="C46" s="31"/>
+      <c r="D46" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="E46" s="27"/>
+      <c r="E46" s="28"/>
       <c r="F46" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G46" s="26" t="s">
+      <c r="G46" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="H46" s="28"/>
-      <c r="I46" s="27"/>
+      <c r="H46" s="27"/>
+      <c r="I46" s="28"/>
       <c r="J46" s="6" t="s">
         <v>19</v>
       </c>
@@ -3240,19 +3223,19 @@
       <c r="B47" s="5">
         <v>3</v>
       </c>
-      <c r="C47" s="30"/>
-      <c r="D47" s="26" t="s">
+      <c r="C47" s="31"/>
+      <c r="D47" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="E47" s="27"/>
+      <c r="E47" s="28"/>
       <c r="F47" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G47" s="26" t="s">
+      <c r="G47" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="H47" s="28"/>
-      <c r="I47" s="27"/>
+      <c r="H47" s="27"/>
+      <c r="I47" s="28"/>
       <c r="J47" s="6" t="s">
         <v>21</v>
       </c>
@@ -3263,19 +3246,19 @@
       <c r="B48" s="5">
         <v>4</v>
       </c>
-      <c r="C48" s="30"/>
-      <c r="D48" s="26" t="s">
+      <c r="C48" s="31"/>
+      <c r="D48" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="E48" s="27"/>
+      <c r="E48" s="28"/>
       <c r="F48" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G48" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="H48" s="28"/>
-      <c r="I48" s="27"/>
+      <c r="G48" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="H48" s="27"/>
+      <c r="I48" s="28"/>
       <c r="J48" s="6" t="s">
         <v>69</v>
       </c>
@@ -3286,15 +3269,15 @@
       <c r="B49" s="5">
         <v>5</v>
       </c>
-      <c r="C49" s="30"/>
-      <c r="D49" s="48" t="s">
+      <c r="C49" s="31"/>
+      <c r="D49" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="E49" s="38"/>
-      <c r="F49" s="29" t="s">
+      <c r="E49" s="41"/>
+      <c r="F49" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="G49" s="29" t="s">
+      <c r="G49" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H49" s="6">
@@ -3313,11 +3296,11 @@
       <c r="B50" s="5">
         <v>6</v>
       </c>
-      <c r="C50" s="30"/>
+      <c r="C50" s="31"/>
       <c r="D50" s="42"/>
       <c r="E50" s="43"/>
-      <c r="F50" s="31"/>
-      <c r="G50" s="31"/>
+      <c r="F50" s="32"/>
+      <c r="G50" s="32"/>
       <c r="H50" s="6">
         <v>2</v>
       </c>
@@ -3334,8 +3317,8 @@
       <c r="B51" s="5">
         <v>7</v>
       </c>
-      <c r="C51" s="30"/>
-      <c r="D51" s="29" t="s">
+      <c r="C51" s="31"/>
+      <c r="D51" s="30" t="s">
         <v>29</v>
       </c>
       <c r="E51" s="6" t="s">
@@ -3344,11 +3327,11 @@
       <c r="F51" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G51" s="26" t="s">
+      <c r="G51" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="H51" s="28"/>
-      <c r="I51" s="27"/>
+      <c r="H51" s="27"/>
+      <c r="I51" s="28"/>
       <c r="J51" s="6" t="s">
         <v>75</v>
       </c>
@@ -3359,19 +3342,19 @@
       <c r="B52" s="5">
         <v>9</v>
       </c>
-      <c r="C52" s="30"/>
-      <c r="D52" s="30"/>
+      <c r="C52" s="31"/>
+      <c r="D52" s="31"/>
       <c r="E52" s="6" t="s">
         <v>33</v>
       </c>
       <c r="F52" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="G52" s="26" t="s">
+      <c r="G52" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="H52" s="28"/>
-      <c r="I52" s="27"/>
+      <c r="H52" s="27"/>
+      <c r="I52" s="28"/>
       <c r="J52" s="6" t="s">
         <v>77</v>
       </c>
@@ -3382,19 +3365,19 @@
       <c r="B53" s="5">
         <v>10</v>
       </c>
-      <c r="C53" s="30"/>
-      <c r="D53" s="30"/>
+      <c r="C53" s="31"/>
+      <c r="D53" s="31"/>
       <c r="E53" s="6" t="s">
         <v>36</v>
       </c>
       <c r="F53" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="G53" s="26" t="s">
+      <c r="G53" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="H53" s="28"/>
-      <c r="I53" s="27"/>
+      <c r="H53" s="27"/>
+      <c r="I53" s="28"/>
       <c r="J53" s="6" t="s">
         <v>78</v>
       </c>
@@ -3405,19 +3388,19 @@
       <c r="B54" s="5">
         <v>11</v>
       </c>
-      <c r="C54" s="30"/>
-      <c r="D54" s="30"/>
+      <c r="C54" s="31"/>
+      <c r="D54" s="31"/>
       <c r="E54" s="6" t="s">
         <v>79</v>
       </c>
       <c r="F54" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="G54" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="H54" s="28"/>
-      <c r="I54" s="27"/>
+      <c r="G54" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="H54" s="27"/>
+      <c r="I54" s="28"/>
       <c r="J54" s="6" t="s">
         <v>81</v>
       </c>
@@ -3428,19 +3411,19 @@
       <c r="B55" s="5">
         <v>12</v>
       </c>
-      <c r="C55" s="30"/>
-      <c r="D55" s="31"/>
+      <c r="C55" s="31"/>
+      <c r="D55" s="32"/>
       <c r="E55" s="6" t="s">
         <v>82</v>
       </c>
       <c r="F55" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="G55" s="26" t="s">
+      <c r="G55" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="H55" s="28"/>
-      <c r="I55" s="27"/>
+      <c r="H55" s="27"/>
+      <c r="I55" s="28"/>
       <c r="J55" s="6" t="s">
         <v>84</v>
       </c>
@@ -3451,21 +3434,21 @@
       <c r="B56" s="5">
         <v>13</v>
       </c>
-      <c r="C56" s="30"/>
-      <c r="D56" s="29" t="s">
+      <c r="C56" s="31"/>
+      <c r="D56" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="E56" s="29" t="s">
+      <c r="E56" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="F56" s="29" t="s">
+      <c r="F56" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="G56" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="H56" s="53"/>
-      <c r="I56" s="54"/>
+      <c r="G56" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="H56" s="45"/>
+      <c r="I56" s="46"/>
       <c r="J56" s="7" t="s">
         <v>88</v>
       </c>
@@ -3476,11 +3459,11 @@
       <c r="B57" s="5">
         <v>14</v>
       </c>
-      <c r="C57" s="30"/>
-      <c r="D57" s="30"/>
-      <c r="E57" s="30"/>
-      <c r="F57" s="30"/>
-      <c r="G57" s="55" t="s">
+      <c r="C57" s="31"/>
+      <c r="D57" s="31"/>
+      <c r="E57" s="31"/>
+      <c r="F57" s="31"/>
+      <c r="G57" s="47" t="s">
         <v>15</v>
       </c>
       <c r="H57" s="6">
@@ -3499,11 +3482,11 @@
       <c r="B58" s="5">
         <v>15</v>
       </c>
-      <c r="C58" s="30"/>
-      <c r="D58" s="30"/>
-      <c r="E58" s="30"/>
-      <c r="F58" s="30"/>
-      <c r="G58" s="30"/>
+      <c r="C58" s="31"/>
+      <c r="D58" s="31"/>
+      <c r="E58" s="31"/>
+      <c r="F58" s="31"/>
+      <c r="G58" s="31"/>
       <c r="H58" s="6">
         <v>2</v>
       </c>
@@ -3520,11 +3503,11 @@
       <c r="B59" s="5">
         <v>16</v>
       </c>
-      <c r="C59" s="30"/>
-      <c r="D59" s="30"/>
-      <c r="E59" s="30"/>
-      <c r="F59" s="30"/>
-      <c r="G59" s="30"/>
+      <c r="C59" s="31"/>
+      <c r="D59" s="31"/>
+      <c r="E59" s="31"/>
+      <c r="F59" s="31"/>
+      <c r="G59" s="31"/>
       <c r="H59" s="6">
         <v>3</v>
       </c>
@@ -3541,11 +3524,11 @@
       <c r="B60" s="5">
         <v>17</v>
       </c>
-      <c r="C60" s="30"/>
-      <c r="D60" s="30"/>
-      <c r="E60" s="30"/>
-      <c r="F60" s="30"/>
-      <c r="G60" s="30"/>
+      <c r="C60" s="31"/>
+      <c r="D60" s="31"/>
+      <c r="E60" s="31"/>
+      <c r="F60" s="31"/>
+      <c r="G60" s="31"/>
       <c r="H60" s="6">
         <v>4</v>
       </c>
@@ -3562,11 +3545,11 @@
       <c r="B61" s="5">
         <v>18</v>
       </c>
-      <c r="C61" s="30"/>
-      <c r="D61" s="30"/>
-      <c r="E61" s="30"/>
-      <c r="F61" s="30"/>
-      <c r="G61" s="30"/>
+      <c r="C61" s="31"/>
+      <c r="D61" s="31"/>
+      <c r="E61" s="31"/>
+      <c r="F61" s="31"/>
+      <c r="G61" s="31"/>
       <c r="H61" s="6">
         <v>5</v>
       </c>
@@ -3583,11 +3566,11 @@
       <c r="B62" s="5">
         <v>19</v>
       </c>
-      <c r="C62" s="30"/>
-      <c r="D62" s="30"/>
-      <c r="E62" s="30"/>
-      <c r="F62" s="30"/>
-      <c r="G62" s="30"/>
+      <c r="C62" s="31"/>
+      <c r="D62" s="31"/>
+      <c r="E62" s="31"/>
+      <c r="F62" s="31"/>
+      <c r="G62" s="31"/>
       <c r="H62" s="6">
         <v>6</v>
       </c>
@@ -3604,11 +3587,11 @@
       <c r="B63" s="5">
         <v>20</v>
       </c>
-      <c r="C63" s="30"/>
-      <c r="D63" s="30"/>
-      <c r="E63" s="30"/>
-      <c r="F63" s="30"/>
-      <c r="G63" s="30"/>
+      <c r="C63" s="31"/>
+      <c r="D63" s="31"/>
+      <c r="E63" s="31"/>
+      <c r="F63" s="31"/>
+      <c r="G63" s="31"/>
       <c r="H63" s="6">
         <v>7</v>
       </c>
@@ -3625,11 +3608,11 @@
       <c r="B64" s="5">
         <v>21</v>
       </c>
-      <c r="C64" s="30"/>
-      <c r="D64" s="30"/>
-      <c r="E64" s="30"/>
-      <c r="F64" s="30"/>
-      <c r="G64" s="30"/>
+      <c r="C64" s="31"/>
+      <c r="D64" s="31"/>
+      <c r="E64" s="31"/>
+      <c r="F64" s="31"/>
+      <c r="G64" s="31"/>
       <c r="H64" s="6">
         <v>8</v>
       </c>
@@ -3646,11 +3629,11 @@
       <c r="B65" s="5">
         <v>22</v>
       </c>
-      <c r="C65" s="30"/>
-      <c r="D65" s="30"/>
-      <c r="E65" s="30"/>
-      <c r="F65" s="30"/>
-      <c r="G65" s="30"/>
+      <c r="C65" s="31"/>
+      <c r="D65" s="31"/>
+      <c r="E65" s="31"/>
+      <c r="F65" s="31"/>
+      <c r="G65" s="31"/>
       <c r="H65" s="6">
         <v>9</v>
       </c>
@@ -3667,11 +3650,11 @@
       <c r="B66" s="5">
         <v>23</v>
       </c>
-      <c r="C66" s="30"/>
-      <c r="D66" s="30"/>
-      <c r="E66" s="30"/>
-      <c r="F66" s="30"/>
-      <c r="G66" s="30"/>
+      <c r="C66" s="31"/>
+      <c r="D66" s="31"/>
+      <c r="E66" s="31"/>
+      <c r="F66" s="31"/>
+      <c r="G66" s="31"/>
       <c r="H66" s="6">
         <v>10</v>
       </c>
@@ -3688,11 +3671,11 @@
       <c r="B67" s="5">
         <v>24</v>
       </c>
-      <c r="C67" s="30"/>
-      <c r="D67" s="30"/>
-      <c r="E67" s="30"/>
-      <c r="F67" s="30"/>
-      <c r="G67" s="30"/>
+      <c r="C67" s="31"/>
+      <c r="D67" s="31"/>
+      <c r="E67" s="31"/>
+      <c r="F67" s="31"/>
+      <c r="G67" s="31"/>
       <c r="H67" s="6">
         <v>11</v>
       </c>
@@ -3709,11 +3692,11 @@
       <c r="B68" s="5">
         <v>25</v>
       </c>
-      <c r="C68" s="30"/>
-      <c r="D68" s="31"/>
-      <c r="E68" s="30"/>
-      <c r="F68" s="30"/>
-      <c r="G68" s="31"/>
+      <c r="C68" s="31"/>
+      <c r="D68" s="32"/>
+      <c r="E68" s="31"/>
+      <c r="F68" s="31"/>
+      <c r="G68" s="32"/>
       <c r="H68" s="6">
         <v>12</v>
       </c>
@@ -3730,8 +3713,8 @@
       <c r="B69" s="5">
         <v>26</v>
       </c>
-      <c r="C69" s="30"/>
-      <c r="D69" s="29" t="s">
+      <c r="C69" s="31"/>
+      <c r="D69" s="30" t="s">
         <v>44</v>
       </c>
       <c r="E69" s="6" t="s">
@@ -3740,11 +3723,11 @@
       <c r="F69" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="G69" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="H69" s="28"/>
-      <c r="I69" s="27"/>
+      <c r="G69" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="H69" s="27"/>
+      <c r="I69" s="28"/>
       <c r="J69" s="6" t="s">
         <v>108</v>
       </c>
@@ -3755,19 +3738,19 @@
       <c r="B70" s="5">
         <v>27</v>
       </c>
-      <c r="C70" s="30"/>
-      <c r="D70" s="30"/>
+      <c r="C70" s="31"/>
+      <c r="D70" s="31"/>
       <c r="E70" s="6" t="s">
         <v>47</v>
       </c>
       <c r="F70" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="G70" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="H70" s="28"/>
-      <c r="I70" s="27"/>
+      <c r="G70" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="H70" s="27"/>
+      <c r="I70" s="28"/>
       <c r="J70" s="6" t="s">
         <v>49</v>
       </c>
@@ -3778,19 +3761,19 @@
       <c r="B71" s="5">
         <v>28</v>
       </c>
-      <c r="C71" s="30"/>
-      <c r="D71" s="30"/>
+      <c r="C71" s="31"/>
+      <c r="D71" s="31"/>
       <c r="E71" s="6" t="s">
         <v>50</v>
       </c>
       <c r="F71" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="G71" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="H71" s="28"/>
-      <c r="I71" s="27"/>
+      <c r="G71" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="H71" s="27"/>
+      <c r="I71" s="28"/>
       <c r="J71" s="6" t="s">
         <v>396</v>
       </c>
@@ -3801,19 +3784,19 @@
       <c r="B72" s="5">
         <v>29</v>
       </c>
-      <c r="C72" s="30"/>
-      <c r="D72" s="31"/>
+      <c r="C72" s="31"/>
+      <c r="D72" s="32"/>
       <c r="E72" s="6" t="s">
         <v>109</v>
       </c>
       <c r="F72" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="G72" s="26" t="s">
+      <c r="G72" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="H72" s="28"/>
-      <c r="I72" s="27"/>
+      <c r="H72" s="27"/>
+      <c r="I72" s="28"/>
       <c r="J72" s="6" t="s">
         <v>397</v>
       </c>
@@ -3824,19 +3807,19 @@
       <c r="B73" s="5">
         <v>30</v>
       </c>
-      <c r="C73" s="30"/>
-      <c r="D73" s="26" t="s">
+      <c r="C73" s="31"/>
+      <c r="D73" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="E73" s="27"/>
+      <c r="E73" s="28"/>
       <c r="F73" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="G73" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="H73" s="28"/>
-      <c r="I73" s="27"/>
+      <c r="G73" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="H73" s="27"/>
+      <c r="I73" s="28"/>
       <c r="J73" s="6" t="s">
         <v>398</v>
       </c>
@@ -3847,19 +3830,19 @@
       <c r="B74" s="5">
         <v>31</v>
       </c>
-      <c r="C74" s="31"/>
-      <c r="D74" s="26" t="s">
+      <c r="C74" s="32"/>
+      <c r="D74" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="E74" s="27"/>
+      <c r="E74" s="28"/>
       <c r="F74" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G74" s="26" t="s">
+      <c r="G74" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="H74" s="28"/>
-      <c r="I74" s="27"/>
+      <c r="H74" s="27"/>
+      <c r="I74" s="28"/>
       <c r="J74" s="6" t="s">
         <v>67</v>
       </c>
@@ -3895,11 +3878,11 @@
       <c r="F76" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G76" s="32" t="s">
+      <c r="G76" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="H76" s="28"/>
-      <c r="I76" s="27"/>
+      <c r="H76" s="27"/>
+      <c r="I76" s="28"/>
       <c r="J76" s="3" t="s">
         <v>6</v>
       </c>
@@ -3922,11 +3905,11 @@
       <c r="F77" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G77" s="33" t="s">
+      <c r="G77" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="H77" s="28"/>
-      <c r="I77" s="27"/>
+      <c r="H77" s="27"/>
+      <c r="I77" s="28"/>
       <c r="J77" s="4" t="s">
         <v>13</v>
       </c>
@@ -3937,21 +3920,21 @@
       <c r="B78" s="5">
         <v>1</v>
       </c>
-      <c r="C78" s="29" t="s">
+      <c r="C78" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="D78" s="26" t="s">
+      <c r="D78" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="E78" s="27"/>
+      <c r="E78" s="28"/>
       <c r="F78" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G78" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="H78" s="28"/>
-      <c r="I78" s="27"/>
+      <c r="G78" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="H78" s="27"/>
+      <c r="I78" s="28"/>
       <c r="J78" s="6" t="s">
         <v>399</v>
       </c>
@@ -3962,19 +3945,19 @@
       <c r="B79" s="5">
         <v>2</v>
       </c>
-      <c r="C79" s="30"/>
-      <c r="D79" s="26" t="s">
+      <c r="C79" s="31"/>
+      <c r="D79" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="27"/>
+      <c r="E79" s="28"/>
       <c r="F79" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G79" s="26" t="s">
+      <c r="G79" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="H79" s="28"/>
-      <c r="I79" s="27"/>
+      <c r="H79" s="27"/>
+      <c r="I79" s="28"/>
       <c r="J79" s="6" t="s">
         <v>400</v>
       </c>
@@ -3985,19 +3968,19 @@
       <c r="B80" s="5">
         <v>3</v>
       </c>
-      <c r="C80" s="30"/>
-      <c r="D80" s="26" t="s">
+      <c r="C80" s="31"/>
+      <c r="D80" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="E80" s="27"/>
+      <c r="E80" s="28"/>
       <c r="F80" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G80" s="26" t="s">
+      <c r="G80" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="H80" s="28"/>
-      <c r="I80" s="27"/>
+      <c r="H80" s="27"/>
+      <c r="I80" s="28"/>
       <c r="J80" s="6" t="s">
         <v>401</v>
       </c>
@@ -4008,19 +3991,19 @@
       <c r="B81" s="5">
         <v>4</v>
       </c>
-      <c r="C81" s="30"/>
-      <c r="D81" s="26" t="s">
+      <c r="C81" s="31"/>
+      <c r="D81" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="E81" s="27"/>
+      <c r="E81" s="28"/>
       <c r="F81" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G81" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="H81" s="28"/>
-      <c r="I81" s="27"/>
+      <c r="G81" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="H81" s="27"/>
+      <c r="I81" s="28"/>
       <c r="J81" s="6" t="s">
         <v>384</v>
       </c>
@@ -4031,17 +4014,17 @@
       <c r="B82" s="5">
         <v>5</v>
       </c>
-      <c r="C82" s="30"/>
-      <c r="D82" s="29" t="s">
+      <c r="C82" s="31"/>
+      <c r="D82" s="30" t="s">
         <v>402</v>
       </c>
-      <c r="E82" s="51" t="s">
+      <c r="E82" s="50" t="s">
         <v>403</v>
       </c>
-      <c r="F82" s="29" t="s">
+      <c r="F82" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="G82" s="29" t="s">
+      <c r="G82" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H82" s="6">
@@ -4058,11 +4041,11 @@
     <row r="83" spans="1:11" ht="15" customHeight="1">
       <c r="A83" s="1"/>
       <c r="B83" s="5"/>
-      <c r="C83" s="30"/>
-      <c r="D83" s="30"/>
-      <c r="E83" s="41"/>
-      <c r="F83" s="30"/>
-      <c r="G83" s="30"/>
+      <c r="C83" s="31"/>
+      <c r="D83" s="31"/>
+      <c r="E83" s="49"/>
+      <c r="F83" s="31"/>
+      <c r="G83" s="31"/>
       <c r="H83" s="8">
         <v>2</v>
       </c>
@@ -4079,11 +4062,11 @@
       <c r="B84" s="5">
         <v>6</v>
       </c>
-      <c r="C84" s="30"/>
-      <c r="D84" s="30"/>
+      <c r="C84" s="31"/>
+      <c r="D84" s="31"/>
       <c r="E84" s="43"/>
-      <c r="F84" s="31"/>
-      <c r="G84" s="31"/>
+      <c r="F84" s="32"/>
+      <c r="G84" s="32"/>
       <c r="H84" s="8">
         <v>3</v>
       </c>
@@ -4100,21 +4083,21 @@
       <c r="B85" s="5">
         <v>7</v>
       </c>
-      <c r="C85" s="30"/>
-      <c r="D85" s="30"/>
-      <c r="E85" s="51" t="s">
+      <c r="C85" s="31"/>
+      <c r="D85" s="31"/>
+      <c r="E85" s="50" t="s">
         <v>408</v>
       </c>
-      <c r="F85" s="29" t="s">
+      <c r="F85" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="G85" s="48" t="s">
+      <c r="G85" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="H85" s="26" t="b">
+      <c r="H85" s="33" t="b">
         <v>1</v>
       </c>
-      <c r="I85" s="27"/>
+      <c r="I85" s="28"/>
       <c r="J85" s="9" t="s">
         <v>409</v>
       </c>
@@ -4125,15 +4108,15 @@
       <c r="B86" s="5">
         <v>8</v>
       </c>
-      <c r="C86" s="30"/>
-      <c r="D86" s="31"/>
+      <c r="C86" s="31"/>
+      <c r="D86" s="32"/>
       <c r="E86" s="43"/>
-      <c r="F86" s="31"/>
+      <c r="F86" s="32"/>
       <c r="G86" s="42"/>
-      <c r="H86" s="26" t="b">
+      <c r="H86" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="I86" s="27"/>
+      <c r="I86" s="28"/>
       <c r="J86" s="9" t="s">
         <v>410</v>
       </c>
@@ -4144,15 +4127,15 @@
       <c r="B87" s="5">
         <v>9</v>
       </c>
-      <c r="C87" s="30"/>
-      <c r="D87" s="48" t="s">
+      <c r="C87" s="31"/>
+      <c r="D87" s="40" t="s">
         <v>117</v>
       </c>
-      <c r="E87" s="38"/>
-      <c r="F87" s="29" t="s">
+      <c r="E87" s="41"/>
+      <c r="F87" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="G87" s="29" t="s">
+      <c r="G87" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H87" s="10">
@@ -4171,11 +4154,11 @@
       <c r="B88" s="5">
         <v>10</v>
       </c>
-      <c r="C88" s="30"/>
-      <c r="D88" s="40"/>
-      <c r="E88" s="41"/>
-      <c r="F88" s="30"/>
-      <c r="G88" s="30"/>
+      <c r="C88" s="31"/>
+      <c r="D88" s="48"/>
+      <c r="E88" s="49"/>
+      <c r="F88" s="31"/>
+      <c r="G88" s="31"/>
       <c r="H88" s="6">
         <v>2</v>
       </c>
@@ -4192,11 +4175,11 @@
       <c r="B89" s="5">
         <v>11</v>
       </c>
-      <c r="C89" s="30"/>
-      <c r="D89" s="40"/>
-      <c r="E89" s="41"/>
-      <c r="F89" s="30"/>
-      <c r="G89" s="30"/>
+      <c r="C89" s="31"/>
+      <c r="D89" s="48"/>
+      <c r="E89" s="49"/>
+      <c r="F89" s="31"/>
+      <c r="G89" s="31"/>
       <c r="H89" s="6">
         <v>3</v>
       </c>
@@ -4213,11 +4196,11 @@
       <c r="B90" s="5">
         <v>12</v>
       </c>
-      <c r="C90" s="30"/>
-      <c r="D90" s="40"/>
-      <c r="E90" s="41"/>
-      <c r="F90" s="30"/>
-      <c r="G90" s="30"/>
+      <c r="C90" s="31"/>
+      <c r="D90" s="48"/>
+      <c r="E90" s="49"/>
+      <c r="F90" s="31"/>
+      <c r="G90" s="31"/>
       <c r="H90" s="6">
         <v>4</v>
       </c>
@@ -4234,15 +4217,15 @@
       <c r="B91" s="5">
         <v>14</v>
       </c>
-      <c r="C91" s="30"/>
-      <c r="D91" s="48" t="s">
+      <c r="C91" s="31"/>
+      <c r="D91" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="E91" s="38"/>
-      <c r="F91" s="29" t="s">
+      <c r="E91" s="41"/>
+      <c r="F91" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="G91" s="29" t="s">
+      <c r="G91" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H91" s="6">
@@ -4261,11 +4244,11 @@
       <c r="B92" s="5">
         <v>15</v>
       </c>
-      <c r="C92" s="30"/>
-      <c r="D92" s="40"/>
-      <c r="E92" s="41"/>
-      <c r="F92" s="30"/>
-      <c r="G92" s="30"/>
+      <c r="C92" s="31"/>
+      <c r="D92" s="48"/>
+      <c r="E92" s="49"/>
+      <c r="F92" s="31"/>
+      <c r="G92" s="31"/>
       <c r="H92" s="6">
         <v>2</v>
       </c>
@@ -4282,11 +4265,11 @@
       <c r="B93" s="5">
         <v>16</v>
       </c>
-      <c r="C93" s="30"/>
+      <c r="C93" s="31"/>
       <c r="D93" s="42"/>
       <c r="E93" s="43"/>
-      <c r="F93" s="31"/>
-      <c r="G93" s="31"/>
+      <c r="F93" s="32"/>
+      <c r="G93" s="32"/>
       <c r="H93" s="6">
         <v>3</v>
       </c>
@@ -4303,15 +4286,15 @@
       <c r="B94" s="5">
         <v>17</v>
       </c>
-      <c r="C94" s="30"/>
-      <c r="D94" s="48" t="s">
+      <c r="C94" s="31"/>
+      <c r="D94" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="E94" s="38"/>
-      <c r="F94" s="29" t="s">
+      <c r="E94" s="41"/>
+      <c r="F94" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="G94" s="29" t="s">
+      <c r="G94" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H94" s="6">
@@ -4330,11 +4313,11 @@
       <c r="B95" s="5">
         <v>18</v>
       </c>
-      <c r="C95" s="30"/>
-      <c r="D95" s="40"/>
-      <c r="E95" s="41"/>
-      <c r="F95" s="30"/>
-      <c r="G95" s="30"/>
+      <c r="C95" s="31"/>
+      <c r="D95" s="48"/>
+      <c r="E95" s="49"/>
+      <c r="F95" s="31"/>
+      <c r="G95" s="31"/>
       <c r="H95" s="6">
         <v>2</v>
       </c>
@@ -4351,11 +4334,11 @@
       <c r="B96" s="5">
         <v>19</v>
       </c>
-      <c r="C96" s="30"/>
-      <c r="D96" s="40"/>
-      <c r="E96" s="41"/>
-      <c r="F96" s="30"/>
-      <c r="G96" s="30"/>
+      <c r="C96" s="31"/>
+      <c r="D96" s="48"/>
+      <c r="E96" s="49"/>
+      <c r="F96" s="31"/>
+      <c r="G96" s="31"/>
       <c r="H96" s="6">
         <v>3</v>
       </c>
@@ -4372,11 +4355,11 @@
       <c r="B97" s="5">
         <v>20</v>
       </c>
-      <c r="C97" s="30"/>
-      <c r="D97" s="40"/>
-      <c r="E97" s="41"/>
-      <c r="F97" s="30"/>
-      <c r="G97" s="30"/>
+      <c r="C97" s="31"/>
+      <c r="D97" s="48"/>
+      <c r="E97" s="49"/>
+      <c r="F97" s="31"/>
+      <c r="G97" s="31"/>
       <c r="H97" s="6">
         <v>4</v>
       </c>
@@ -4393,17 +4376,17 @@
       <c r="B98" s="5">
         <v>21</v>
       </c>
-      <c r="C98" s="30"/>
-      <c r="D98" s="29" t="s">
+      <c r="C98" s="31"/>
+      <c r="D98" s="30" t="s">
         <v>145</v>
       </c>
-      <c r="E98" s="29" t="s">
+      <c r="E98" s="30" t="s">
         <v>146</v>
       </c>
-      <c r="F98" s="29" t="s">
+      <c r="F98" s="30" t="s">
         <v>147</v>
       </c>
-      <c r="G98" s="29" t="s">
+      <c r="G98" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H98" s="6">
@@ -4422,11 +4405,11 @@
       <c r="B99" s="5">
         <v>22</v>
       </c>
-      <c r="C99" s="30"/>
-      <c r="D99" s="30"/>
-      <c r="E99" s="31"/>
-      <c r="F99" s="31"/>
-      <c r="G99" s="31"/>
+      <c r="C99" s="31"/>
+      <c r="D99" s="31"/>
+      <c r="E99" s="32"/>
+      <c r="F99" s="32"/>
+      <c r="G99" s="32"/>
       <c r="H99" s="6">
         <v>2</v>
       </c>
@@ -4443,19 +4426,19 @@
       <c r="B100" s="5">
         <v>23</v>
       </c>
-      <c r="C100" s="30"/>
-      <c r="D100" s="30"/>
+      <c r="C100" s="31"/>
+      <c r="D100" s="31"/>
       <c r="E100" s="6" t="s">
         <v>152</v>
       </c>
       <c r="F100" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="G100" s="26" t="s">
+      <c r="G100" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="H100" s="28"/>
-      <c r="I100" s="27"/>
+      <c r="H100" s="27"/>
+      <c r="I100" s="28"/>
       <c r="J100" s="6" t="s">
         <v>154</v>
       </c>
@@ -4466,19 +4449,19 @@
       <c r="B101" s="5">
         <v>24</v>
       </c>
-      <c r="C101" s="30"/>
-      <c r="D101" s="31"/>
+      <c r="C101" s="31"/>
+      <c r="D101" s="32"/>
       <c r="E101" s="6" t="s">
         <v>155</v>
       </c>
       <c r="F101" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="G101" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="H101" s="28"/>
-      <c r="I101" s="27"/>
+      <c r="G101" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="H101" s="27"/>
+      <c r="I101" s="28"/>
       <c r="J101" s="6" t="s">
         <v>157</v>
       </c>
@@ -4489,8 +4472,8 @@
       <c r="B102" s="5">
         <v>25</v>
       </c>
-      <c r="C102" s="30"/>
-      <c r="D102" s="29" t="s">
+      <c r="C102" s="31"/>
+      <c r="D102" s="30" t="s">
         <v>158</v>
       </c>
       <c r="E102" s="6" t="s">
@@ -4499,11 +4482,11 @@
       <c r="F102" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="G102" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="H102" s="28"/>
-      <c r="I102" s="27"/>
+      <c r="G102" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="H102" s="27"/>
+      <c r="I102" s="28"/>
       <c r="J102" s="6" t="s">
         <v>161</v>
       </c>
@@ -4514,19 +4497,19 @@
       <c r="B103" s="5">
         <v>26</v>
       </c>
-      <c r="C103" s="30"/>
-      <c r="D103" s="30"/>
+      <c r="C103" s="31"/>
+      <c r="D103" s="31"/>
       <c r="E103" s="6" t="s">
         <v>162</v>
       </c>
       <c r="F103" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="G103" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="H103" s="28"/>
-      <c r="I103" s="27"/>
+      <c r="G103" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="H103" s="27"/>
+      <c r="I103" s="28"/>
       <c r="J103" s="6" t="s">
         <v>164</v>
       </c>
@@ -4537,19 +4520,19 @@
       <c r="B104" s="5">
         <v>27</v>
       </c>
-      <c r="C104" s="30"/>
-      <c r="D104" s="31"/>
+      <c r="C104" s="31"/>
+      <c r="D104" s="32"/>
       <c r="E104" s="6" t="s">
         <v>165</v>
       </c>
       <c r="F104" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="G104" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="H104" s="28"/>
-      <c r="I104" s="27"/>
+      <c r="G104" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="H104" s="27"/>
+      <c r="I104" s="28"/>
       <c r="J104" s="6" t="s">
         <v>167</v>
       </c>
@@ -4560,19 +4543,19 @@
       <c r="B105" s="5">
         <v>28</v>
       </c>
-      <c r="C105" s="30"/>
-      <c r="D105" s="26" t="s">
+      <c r="C105" s="31"/>
+      <c r="D105" s="33" t="s">
         <v>168</v>
       </c>
-      <c r="E105" s="27"/>
+      <c r="E105" s="28"/>
       <c r="F105" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="G105" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="H105" s="28"/>
-      <c r="I105" s="27"/>
+      <c r="G105" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="H105" s="27"/>
+      <c r="I105" s="28"/>
       <c r="J105" s="6" t="s">
         <v>411</v>
       </c>
@@ -4583,19 +4566,19 @@
       <c r="B106" s="5">
         <v>29</v>
       </c>
-      <c r="C106" s="30"/>
-      <c r="D106" s="26" t="s">
+      <c r="C106" s="31"/>
+      <c r="D106" s="33" t="s">
         <v>170</v>
       </c>
-      <c r="E106" s="27"/>
+      <c r="E106" s="28"/>
       <c r="F106" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="G106" s="26" t="s">
+      <c r="G106" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="H106" s="28"/>
-      <c r="I106" s="27"/>
+      <c r="H106" s="27"/>
+      <c r="I106" s="28"/>
       <c r="J106" s="6" t="s">
         <v>172</v>
       </c>
@@ -4606,19 +4589,19 @@
       <c r="B107" s="5">
         <v>30</v>
       </c>
-      <c r="C107" s="31"/>
-      <c r="D107" s="26" t="s">
+      <c r="C107" s="32"/>
+      <c r="D107" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="E107" s="27"/>
+      <c r="E107" s="28"/>
       <c r="F107" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G107" s="26" t="s">
+      <c r="G107" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="H107" s="28"/>
-      <c r="I107" s="27"/>
+      <c r="H107" s="27"/>
+      <c r="I107" s="28"/>
       <c r="J107" s="6" t="s">
         <v>67</v>
       </c>
@@ -4654,11 +4637,11 @@
       <c r="F109" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G109" s="32" t="s">
+      <c r="G109" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="H109" s="28"/>
-      <c r="I109" s="27"/>
+      <c r="H109" s="27"/>
+      <c r="I109" s="28"/>
       <c r="J109" s="3" t="s">
         <v>6</v>
       </c>
@@ -4681,11 +4664,11 @@
       <c r="F110" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G110" s="33" t="s">
+      <c r="G110" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="H110" s="28"/>
-      <c r="I110" s="27"/>
+      <c r="H110" s="27"/>
+      <c r="I110" s="28"/>
       <c r="J110" s="4" t="s">
         <v>13</v>
       </c>
@@ -4696,21 +4679,21 @@
       <c r="B111" s="5">
         <v>1</v>
       </c>
-      <c r="C111" s="29" t="s">
+      <c r="C111" s="30" t="s">
         <v>173</v>
       </c>
-      <c r="D111" s="26" t="s">
+      <c r="D111" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="E111" s="27"/>
+      <c r="E111" s="28"/>
       <c r="F111" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G111" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="H111" s="28"/>
-      <c r="I111" s="27"/>
+      <c r="G111" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="H111" s="27"/>
+      <c r="I111" s="28"/>
       <c r="J111" s="6" t="s">
         <v>16</v>
       </c>
@@ -4721,19 +4704,19 @@
       <c r="B112" s="5">
         <v>2</v>
       </c>
-      <c r="C112" s="30"/>
-      <c r="D112" s="26" t="s">
+      <c r="C112" s="31"/>
+      <c r="D112" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="E112" s="27"/>
+      <c r="E112" s="28"/>
       <c r="F112" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G112" s="26" t="s">
+      <c r="G112" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="H112" s="28"/>
-      <c r="I112" s="27"/>
+      <c r="H112" s="27"/>
+      <c r="I112" s="28"/>
       <c r="J112" s="6" t="s">
         <v>19</v>
       </c>
@@ -4744,19 +4727,19 @@
       <c r="B113" s="5">
         <v>3</v>
       </c>
-      <c r="C113" s="30"/>
-      <c r="D113" s="26" t="s">
+      <c r="C113" s="31"/>
+      <c r="D113" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="E113" s="27"/>
+      <c r="E113" s="28"/>
       <c r="F113" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G113" s="26" t="s">
+      <c r="G113" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="H113" s="28"/>
-      <c r="I113" s="27"/>
+      <c r="H113" s="27"/>
+      <c r="I113" s="28"/>
       <c r="J113" s="6" t="s">
         <v>21</v>
       </c>
@@ -4767,19 +4750,19 @@
       <c r="B114" s="5">
         <v>4</v>
       </c>
-      <c r="C114" s="30"/>
-      <c r="D114" s="26" t="s">
+      <c r="C114" s="31"/>
+      <c r="D114" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="E114" s="27"/>
+      <c r="E114" s="28"/>
       <c r="F114" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G114" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="H114" s="28"/>
-      <c r="I114" s="27"/>
+      <c r="G114" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="H114" s="27"/>
+      <c r="I114" s="28"/>
       <c r="J114" s="6" t="s">
         <v>69</v>
       </c>
@@ -4790,8 +4773,8 @@
       <c r="B115" s="5">
         <v>5</v>
       </c>
-      <c r="C115" s="30"/>
-      <c r="D115" s="29" t="s">
+      <c r="C115" s="31"/>
+      <c r="D115" s="30" t="s">
         <v>174</v>
       </c>
       <c r="E115" s="6" t="s">
@@ -4800,11 +4783,11 @@
       <c r="F115" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="G115" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="H115" s="28"/>
-      <c r="I115" s="27"/>
+      <c r="G115" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="H115" s="27"/>
+      <c r="I115" s="28"/>
       <c r="J115" s="6" t="s">
         <v>177</v>
       </c>
@@ -4815,19 +4798,19 @@
       <c r="B116" s="5">
         <v>6</v>
       </c>
-      <c r="C116" s="30"/>
-      <c r="D116" s="31"/>
+      <c r="C116" s="31"/>
+      <c r="D116" s="32"/>
       <c r="E116" s="6" t="s">
         <v>178</v>
       </c>
       <c r="F116" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="G116" s="26" t="s">
+      <c r="G116" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="H116" s="28"/>
-      <c r="I116" s="27"/>
+      <c r="H116" s="27"/>
+      <c r="I116" s="28"/>
       <c r="J116" s="6" t="s">
         <v>180</v>
       </c>
@@ -4838,19 +4821,19 @@
       <c r="B117" s="5">
         <v>7</v>
       </c>
-      <c r="C117" s="30"/>
-      <c r="D117" s="26" t="s">
+      <c r="C117" s="31"/>
+      <c r="D117" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="E117" s="27"/>
+      <c r="E117" s="28"/>
       <c r="F117" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="G117" s="26" t="s">
+      <c r="G117" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="H117" s="28"/>
-      <c r="I117" s="27"/>
+      <c r="H117" s="27"/>
+      <c r="I117" s="28"/>
       <c r="J117" s="6" t="s">
         <v>183</v>
       </c>
@@ -4861,19 +4844,19 @@
       <c r="B118" s="5">
         <v>8</v>
       </c>
-      <c r="C118" s="30"/>
-      <c r="D118" s="26" t="s">
+      <c r="C118" s="31"/>
+      <c r="D118" s="33" t="s">
         <v>412</v>
       </c>
-      <c r="E118" s="47"/>
+      <c r="E118" s="52"/>
       <c r="F118" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="G118" s="26" t="s">
+      <c r="G118" s="33" t="s">
         <v>185</v>
       </c>
-      <c r="H118" s="50"/>
-      <c r="I118" s="47"/>
+      <c r="H118" s="53"/>
+      <c r="I118" s="52"/>
       <c r="J118" s="6" t="s">
         <v>413</v>
       </c>
@@ -4884,19 +4867,19 @@
       <c r="B119" s="5">
         <v>9</v>
       </c>
-      <c r="C119" s="30"/>
-      <c r="D119" s="48" t="s">
+      <c r="C119" s="31"/>
+      <c r="D119" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="E119" s="38"/>
+      <c r="E119" s="41"/>
       <c r="F119" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="G119" s="26" t="s">
+      <c r="G119" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="H119" s="28"/>
-      <c r="I119" s="27"/>
+      <c r="H119" s="27"/>
+      <c r="I119" s="28"/>
       <c r="J119" s="6" t="s">
         <v>187</v>
       </c>
@@ -4907,19 +4890,19 @@
       <c r="B120" s="5">
         <v>10</v>
       </c>
-      <c r="C120" s="30"/>
-      <c r="D120" s="26" t="s">
+      <c r="C120" s="31"/>
+      <c r="D120" s="33" t="s">
         <v>188</v>
       </c>
-      <c r="E120" s="27"/>
+      <c r="E120" s="28"/>
       <c r="F120" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="G120" s="26" t="s">
+      <c r="G120" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="H120" s="28"/>
-      <c r="I120" s="27"/>
+      <c r="H120" s="27"/>
+      <c r="I120" s="28"/>
       <c r="J120" s="6" t="s">
         <v>190</v>
       </c>
@@ -4930,19 +4913,19 @@
       <c r="B121" s="5">
         <v>11</v>
       </c>
-      <c r="C121" s="30"/>
-      <c r="D121" s="49" t="s">
+      <c r="C121" s="31"/>
+      <c r="D121" s="51" t="s">
         <v>191</v>
       </c>
       <c r="E121" s="43"/>
       <c r="F121" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="G121" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="H121" s="28"/>
-      <c r="I121" s="27"/>
+      <c r="G121" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="H121" s="27"/>
+      <c r="I121" s="28"/>
       <c r="J121" s="6" t="s">
         <v>193</v>
       </c>
@@ -4953,19 +4936,19 @@
       <c r="B122" s="5">
         <v>12</v>
       </c>
-      <c r="C122" s="30"/>
-      <c r="D122" s="26" t="s">
+      <c r="C122" s="31"/>
+      <c r="D122" s="33" t="s">
         <v>194</v>
       </c>
-      <c r="E122" s="27"/>
+      <c r="E122" s="28"/>
       <c r="F122" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="G122" s="26" t="s">
+      <c r="G122" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="H122" s="28"/>
-      <c r="I122" s="27"/>
+      <c r="H122" s="27"/>
+      <c r="I122" s="28"/>
       <c r="J122" s="6" t="s">
         <v>196</v>
       </c>
@@ -4976,19 +4959,19 @@
       <c r="B123" s="5">
         <v>13</v>
       </c>
-      <c r="C123" s="30"/>
-      <c r="D123" s="26" t="s">
+      <c r="C123" s="31"/>
+      <c r="D123" s="33" t="s">
         <v>197</v>
       </c>
-      <c r="E123" s="27"/>
+      <c r="E123" s="28"/>
       <c r="F123" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="G123" s="26" t="s">
+      <c r="G123" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="H123" s="28"/>
-      <c r="I123" s="27"/>
+      <c r="H123" s="27"/>
+      <c r="I123" s="28"/>
       <c r="J123" s="6" t="s">
         <v>199</v>
       </c>
@@ -4999,19 +4982,19 @@
       <c r="B124" s="5">
         <v>14</v>
       </c>
-      <c r="C124" s="30"/>
-      <c r="D124" s="26" t="s">
+      <c r="C124" s="31"/>
+      <c r="D124" s="33" t="s">
         <v>200</v>
       </c>
-      <c r="E124" s="27"/>
+      <c r="E124" s="28"/>
       <c r="F124" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="G124" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="H124" s="28"/>
-      <c r="I124" s="27"/>
+      <c r="G124" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="H124" s="27"/>
+      <c r="I124" s="28"/>
       <c r="J124" s="6" t="s">
         <v>202</v>
       </c>
@@ -5022,19 +5005,19 @@
       <c r="B125" s="5">
         <v>15</v>
       </c>
-      <c r="C125" s="30"/>
-      <c r="D125" s="26" t="s">
+      <c r="C125" s="31"/>
+      <c r="D125" s="33" t="s">
         <v>203</v>
       </c>
-      <c r="E125" s="27"/>
+      <c r="E125" s="28"/>
       <c r="F125" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="G125" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="H125" s="28"/>
-      <c r="I125" s="27"/>
+      <c r="G125" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="H125" s="27"/>
+      <c r="I125" s="28"/>
       <c r="J125" s="6" t="s">
         <v>205</v>
       </c>
@@ -5045,19 +5028,19 @@
       <c r="B126" s="5">
         <v>16</v>
       </c>
-      <c r="C126" s="31"/>
-      <c r="D126" s="26" t="s">
+      <c r="C126" s="32"/>
+      <c r="D126" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="E126" s="27"/>
+      <c r="E126" s="28"/>
       <c r="F126" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G126" s="26" t="s">
+      <c r="G126" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="H126" s="28"/>
-      <c r="I126" s="27"/>
+      <c r="H126" s="27"/>
+      <c r="I126" s="28"/>
       <c r="J126" s="6" t="s">
         <v>67</v>
       </c>
@@ -5093,11 +5076,11 @@
       <c r="F128" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G128" s="32" t="s">
+      <c r="G128" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="H128" s="28"/>
-      <c r="I128" s="27"/>
+      <c r="H128" s="27"/>
+      <c r="I128" s="28"/>
       <c r="J128" s="3" t="s">
         <v>6</v>
       </c>
@@ -5120,11 +5103,11 @@
       <c r="F129" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G129" s="33" t="s">
+      <c r="G129" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="H129" s="28"/>
-      <c r="I129" s="27"/>
+      <c r="H129" s="27"/>
+      <c r="I129" s="28"/>
       <c r="J129" s="4" t="s">
         <v>13</v>
       </c>
@@ -5135,21 +5118,21 @@
       <c r="B130" s="5">
         <v>1</v>
       </c>
-      <c r="C130" s="29" t="s">
+      <c r="C130" s="30" t="s">
         <v>206</v>
       </c>
-      <c r="D130" s="26" t="s">
+      <c r="D130" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="E130" s="27"/>
+      <c r="E130" s="28"/>
       <c r="F130" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G130" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="H130" s="28"/>
-      <c r="I130" s="27"/>
+      <c r="G130" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="H130" s="27"/>
+      <c r="I130" s="28"/>
       <c r="J130" s="6" t="s">
         <v>16</v>
       </c>
@@ -5160,19 +5143,19 @@
       <c r="B131" s="5">
         <v>2</v>
       </c>
-      <c r="C131" s="30"/>
-      <c r="D131" s="26" t="s">
+      <c r="C131" s="31"/>
+      <c r="D131" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="E131" s="27"/>
+      <c r="E131" s="28"/>
       <c r="F131" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G131" s="26" t="s">
+      <c r="G131" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="H131" s="28"/>
-      <c r="I131" s="27"/>
+      <c r="H131" s="27"/>
+      <c r="I131" s="28"/>
       <c r="J131" s="6" t="s">
         <v>19</v>
       </c>
@@ -5183,19 +5166,19 @@
       <c r="B132" s="5">
         <v>3</v>
       </c>
-      <c r="C132" s="30"/>
-      <c r="D132" s="26" t="s">
+      <c r="C132" s="31"/>
+      <c r="D132" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="E132" s="27"/>
+      <c r="E132" s="28"/>
       <c r="F132" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G132" s="26" t="s">
+      <c r="G132" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="H132" s="28"/>
-      <c r="I132" s="27"/>
+      <c r="H132" s="27"/>
+      <c r="I132" s="28"/>
       <c r="J132" s="6" t="s">
         <v>21</v>
       </c>
@@ -5206,19 +5189,19 @@
       <c r="B133" s="5">
         <v>4</v>
       </c>
-      <c r="C133" s="30"/>
-      <c r="D133" s="26" t="s">
+      <c r="C133" s="31"/>
+      <c r="D133" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="E133" s="27"/>
+      <c r="E133" s="28"/>
       <c r="F133" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G133" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="H133" s="28"/>
-      <c r="I133" s="27"/>
+      <c r="G133" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="H133" s="27"/>
+      <c r="I133" s="28"/>
       <c r="J133" s="6" t="s">
         <v>69</v>
       </c>
@@ -5229,17 +5212,17 @@
       <c r="B134" s="5">
         <v>5</v>
       </c>
-      <c r="C134" s="30"/>
-      <c r="D134" s="29" t="s">
+      <c r="C134" s="31"/>
+      <c r="D134" s="30" t="s">
         <v>207</v>
       </c>
-      <c r="E134" s="29" t="s">
+      <c r="E134" s="30" t="s">
         <v>208</v>
       </c>
-      <c r="F134" s="29" t="s">
+      <c r="F134" s="30" t="s">
         <v>209</v>
       </c>
-      <c r="G134" s="29" t="s">
+      <c r="G134" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H134" s="6">
@@ -5258,11 +5241,11 @@
       <c r="B135" s="5">
         <v>6</v>
       </c>
-      <c r="C135" s="30"/>
-      <c r="D135" s="30"/>
-      <c r="E135" s="30"/>
-      <c r="F135" s="30"/>
-      <c r="G135" s="30"/>
+      <c r="C135" s="31"/>
+      <c r="D135" s="31"/>
+      <c r="E135" s="31"/>
+      <c r="F135" s="31"/>
+      <c r="G135" s="31"/>
       <c r="H135" s="6">
         <v>2</v>
       </c>
@@ -5279,11 +5262,11 @@
       <c r="B136" s="5">
         <v>7</v>
       </c>
-      <c r="C136" s="30"/>
-      <c r="D136" s="30"/>
-      <c r="E136" s="30"/>
-      <c r="F136" s="30"/>
-      <c r="G136" s="30"/>
+      <c r="C136" s="31"/>
+      <c r="D136" s="31"/>
+      <c r="E136" s="31"/>
+      <c r="F136" s="31"/>
+      <c r="G136" s="31"/>
       <c r="H136" s="6">
         <v>3</v>
       </c>
@@ -5300,11 +5283,11 @@
       <c r="B137" s="5">
         <v>8</v>
       </c>
-      <c r="C137" s="30"/>
-      <c r="D137" s="30"/>
-      <c r="E137" s="30"/>
-      <c r="F137" s="30"/>
-      <c r="G137" s="30"/>
+      <c r="C137" s="31"/>
+      <c r="D137" s="31"/>
+      <c r="E137" s="31"/>
+      <c r="F137" s="31"/>
+      <c r="G137" s="31"/>
       <c r="H137" s="6">
         <v>4</v>
       </c>
@@ -5321,11 +5304,11 @@
       <c r="B138" s="5">
         <v>9</v>
       </c>
-      <c r="C138" s="30"/>
-      <c r="D138" s="30"/>
-      <c r="E138" s="30"/>
-      <c r="F138" s="30"/>
-      <c r="G138" s="30"/>
+      <c r="C138" s="31"/>
+      <c r="D138" s="31"/>
+      <c r="E138" s="31"/>
+      <c r="F138" s="31"/>
+      <c r="G138" s="31"/>
       <c r="H138" s="6">
         <v>5</v>
       </c>
@@ -5342,11 +5325,11 @@
       <c r="B139" s="5">
         <v>10</v>
       </c>
-      <c r="C139" s="30"/>
-      <c r="D139" s="30"/>
-      <c r="E139" s="30"/>
-      <c r="F139" s="30"/>
-      <c r="G139" s="30"/>
+      <c r="C139" s="31"/>
+      <c r="D139" s="31"/>
+      <c r="E139" s="31"/>
+      <c r="F139" s="31"/>
+      <c r="G139" s="31"/>
       <c r="H139" s="6">
         <v>6</v>
       </c>
@@ -5363,11 +5346,11 @@
       <c r="B140" s="5">
         <v>11</v>
       </c>
-      <c r="C140" s="30"/>
-      <c r="D140" s="30"/>
-      <c r="E140" s="30"/>
-      <c r="F140" s="30"/>
-      <c r="G140" s="30"/>
+      <c r="C140" s="31"/>
+      <c r="D140" s="31"/>
+      <c r="E140" s="31"/>
+      <c r="F140" s="31"/>
+      <c r="G140" s="31"/>
       <c r="H140" s="6">
         <v>7</v>
       </c>
@@ -5384,11 +5367,11 @@
       <c r="B141" s="5">
         <v>12</v>
       </c>
-      <c r="C141" s="30"/>
-      <c r="D141" s="30"/>
-      <c r="E141" s="30"/>
-      <c r="F141" s="30"/>
-      <c r="G141" s="30"/>
+      <c r="C141" s="31"/>
+      <c r="D141" s="31"/>
+      <c r="E141" s="31"/>
+      <c r="F141" s="31"/>
+      <c r="G141" s="31"/>
       <c r="H141" s="6">
         <v>8</v>
       </c>
@@ -5405,11 +5388,11 @@
       <c r="B142" s="5">
         <v>13</v>
       </c>
-      <c r="C142" s="30"/>
-      <c r="D142" s="30"/>
-      <c r="E142" s="30"/>
-      <c r="F142" s="30"/>
-      <c r="G142" s="30"/>
+      <c r="C142" s="31"/>
+      <c r="D142" s="31"/>
+      <c r="E142" s="31"/>
+      <c r="F142" s="31"/>
+      <c r="G142" s="31"/>
       <c r="H142" s="6">
         <v>9</v>
       </c>
@@ -5426,11 +5409,11 @@
       <c r="B143" s="5">
         <v>14</v>
       </c>
-      <c r="C143" s="30"/>
-      <c r="D143" s="30"/>
-      <c r="E143" s="30"/>
-      <c r="F143" s="30"/>
-      <c r="G143" s="30"/>
+      <c r="C143" s="31"/>
+      <c r="D143" s="31"/>
+      <c r="E143" s="31"/>
+      <c r="F143" s="31"/>
+      <c r="G143" s="31"/>
       <c r="H143" s="6">
         <v>10</v>
       </c>
@@ -5447,11 +5430,11 @@
       <c r="B144" s="5">
         <v>15</v>
       </c>
-      <c r="C144" s="30"/>
-      <c r="D144" s="30"/>
-      <c r="E144" s="30"/>
-      <c r="F144" s="30"/>
-      <c r="G144" s="30"/>
+      <c r="C144" s="31"/>
+      <c r="D144" s="31"/>
+      <c r="E144" s="31"/>
+      <c r="F144" s="31"/>
+      <c r="G144" s="31"/>
       <c r="H144" s="6">
         <v>11</v>
       </c>
@@ -5468,11 +5451,11 @@
       <c r="B145" s="5">
         <v>16</v>
       </c>
-      <c r="C145" s="30"/>
-      <c r="D145" s="30"/>
-      <c r="E145" s="30"/>
-      <c r="F145" s="30"/>
-      <c r="G145" s="30"/>
+      <c r="C145" s="31"/>
+      <c r="D145" s="31"/>
+      <c r="E145" s="31"/>
+      <c r="F145" s="31"/>
+      <c r="G145" s="31"/>
       <c r="H145" s="6">
         <v>12</v>
       </c>
@@ -5489,11 +5472,11 @@
       <c r="B146" s="5">
         <v>17</v>
       </c>
-      <c r="C146" s="30"/>
-      <c r="D146" s="30"/>
-      <c r="E146" s="30"/>
-      <c r="F146" s="30"/>
-      <c r="G146" s="30"/>
+      <c r="C146" s="31"/>
+      <c r="D146" s="31"/>
+      <c r="E146" s="31"/>
+      <c r="F146" s="31"/>
+      <c r="G146" s="31"/>
       <c r="H146" s="6">
         <v>13</v>
       </c>
@@ -5510,11 +5493,11 @@
       <c r="B147" s="5">
         <v>18</v>
       </c>
-      <c r="C147" s="30"/>
-      <c r="D147" s="30"/>
-      <c r="E147" s="30"/>
-      <c r="F147" s="30"/>
-      <c r="G147" s="30"/>
+      <c r="C147" s="31"/>
+      <c r="D147" s="31"/>
+      <c r="E147" s="31"/>
+      <c r="F147" s="31"/>
+      <c r="G147" s="31"/>
       <c r="H147" s="6">
         <v>14</v>
       </c>
@@ -5531,11 +5514,11 @@
       <c r="B148" s="5">
         <v>19</v>
       </c>
-      <c r="C148" s="30"/>
-      <c r="D148" s="30"/>
-      <c r="E148" s="31"/>
-      <c r="F148" s="31"/>
-      <c r="G148" s="31"/>
+      <c r="C148" s="31"/>
+      <c r="D148" s="31"/>
+      <c r="E148" s="32"/>
+      <c r="F148" s="32"/>
+      <c r="G148" s="32"/>
       <c r="H148" s="6">
         <v>15</v>
       </c>
@@ -5552,15 +5535,15 @@
       <c r="B149" s="5">
         <v>20</v>
       </c>
-      <c r="C149" s="30"/>
-      <c r="D149" s="30"/>
-      <c r="E149" s="29" t="s">
+      <c r="C149" s="31"/>
+      <c r="D149" s="31"/>
+      <c r="E149" s="30" t="s">
         <v>231</v>
       </c>
-      <c r="F149" s="29" t="s">
+      <c r="F149" s="30" t="s">
         <v>232</v>
       </c>
-      <c r="G149" s="29" t="s">
+      <c r="G149" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H149" s="6">
@@ -5579,11 +5562,11 @@
       <c r="B150" s="5">
         <v>21</v>
       </c>
-      <c r="C150" s="30"/>
-      <c r="D150" s="30"/>
-      <c r="E150" s="31"/>
-      <c r="F150" s="31"/>
-      <c r="G150" s="31"/>
+      <c r="C150" s="31"/>
+      <c r="D150" s="31"/>
+      <c r="E150" s="32"/>
+      <c r="F150" s="32"/>
+      <c r="G150" s="32"/>
       <c r="H150" s="6">
         <v>2</v>
       </c>
@@ -5600,19 +5583,19 @@
       <c r="B151" s="5">
         <v>22</v>
       </c>
-      <c r="C151" s="30"/>
-      <c r="D151" s="30"/>
+      <c r="C151" s="31"/>
+      <c r="D151" s="31"/>
       <c r="E151" s="6" t="s">
         <v>237</v>
       </c>
       <c r="F151" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="G151" s="26" t="s">
+      <c r="G151" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="H151" s="28"/>
-      <c r="I151" s="27"/>
+      <c r="H151" s="27"/>
+      <c r="I151" s="28"/>
       <c r="J151" s="7" t="s">
         <v>239</v>
       </c>
@@ -5623,19 +5606,19 @@
       <c r="B152" s="5">
         <v>23</v>
       </c>
-      <c r="C152" s="30"/>
-      <c r="D152" s="30"/>
+      <c r="C152" s="31"/>
+      <c r="D152" s="31"/>
       <c r="E152" s="6" t="s">
         <v>240</v>
       </c>
       <c r="F152" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="G152" s="26" t="s">
+      <c r="G152" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="H152" s="28"/>
-      <c r="I152" s="27"/>
+      <c r="H152" s="27"/>
+      <c r="I152" s="28"/>
       <c r="J152" s="6" t="s">
         <v>242</v>
       </c>
@@ -5646,19 +5629,19 @@
       <c r="B153" s="5">
         <v>24</v>
       </c>
-      <c r="C153" s="30"/>
-      <c r="D153" s="31"/>
+      <c r="C153" s="31"/>
+      <c r="D153" s="32"/>
       <c r="E153" s="6" t="s">
         <v>243</v>
       </c>
       <c r="F153" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="G153" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="H153" s="28"/>
-      <c r="I153" s="27"/>
+      <c r="G153" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="H153" s="27"/>
+      <c r="I153" s="28"/>
       <c r="J153" s="6" t="s">
         <v>245</v>
       </c>
@@ -5669,19 +5652,19 @@
       <c r="B154" s="5">
         <v>25</v>
       </c>
-      <c r="C154" s="30"/>
-      <c r="D154" s="26" t="s">
+      <c r="C154" s="31"/>
+      <c r="D154" s="33" t="s">
         <v>197</v>
       </c>
-      <c r="E154" s="27"/>
+      <c r="E154" s="28"/>
       <c r="F154" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="G154" s="26" t="s">
+      <c r="G154" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="H154" s="28"/>
-      <c r="I154" s="27"/>
+      <c r="H154" s="27"/>
+      <c r="I154" s="28"/>
       <c r="J154" s="6" t="s">
         <v>247</v>
       </c>
@@ -5692,19 +5675,19 @@
       <c r="B155" s="5">
         <v>26</v>
       </c>
-      <c r="C155" s="30"/>
-      <c r="D155" s="26" t="s">
+      <c r="C155" s="31"/>
+      <c r="D155" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="E155" s="27"/>
+      <c r="E155" s="28"/>
       <c r="F155" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="G155" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="H155" s="28"/>
-      <c r="I155" s="27"/>
+      <c r="G155" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="H155" s="27"/>
+      <c r="I155" s="28"/>
       <c r="J155" s="6" t="s">
         <v>248</v>
       </c>
@@ -5715,19 +5698,19 @@
       <c r="B156" s="5">
         <v>27</v>
       </c>
-      <c r="C156" s="31"/>
-      <c r="D156" s="26" t="s">
+      <c r="C156" s="32"/>
+      <c r="D156" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="E156" s="27"/>
+      <c r="E156" s="28"/>
       <c r="F156" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G156" s="26" t="s">
+      <c r="G156" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="H156" s="28"/>
-      <c r="I156" s="27"/>
+      <c r="H156" s="27"/>
+      <c r="I156" s="28"/>
       <c r="J156" s="6" t="s">
         <v>67</v>
       </c>
@@ -5763,11 +5746,11 @@
       <c r="F158" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G158" s="32" t="s">
+      <c r="G158" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="H158" s="28"/>
-      <c r="I158" s="27"/>
+      <c r="H158" s="27"/>
+      <c r="I158" s="28"/>
       <c r="J158" s="3" t="s">
         <v>6</v>
       </c>
@@ -5790,11 +5773,11 @@
       <c r="F159" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G159" s="33" t="s">
+      <c r="G159" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="H159" s="28"/>
-      <c r="I159" s="27"/>
+      <c r="H159" s="27"/>
+      <c r="I159" s="28"/>
       <c r="J159" s="4" t="s">
         <v>13</v>
       </c>
@@ -5805,21 +5788,21 @@
       <c r="B160" s="5">
         <v>1</v>
       </c>
-      <c r="C160" s="29" t="s">
+      <c r="C160" s="30" t="s">
         <v>249</v>
       </c>
-      <c r="D160" s="26" t="s">
+      <c r="D160" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="E160" s="27"/>
+      <c r="E160" s="28"/>
       <c r="F160" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G160" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="H160" s="28"/>
-      <c r="I160" s="27"/>
+      <c r="G160" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="H160" s="27"/>
+      <c r="I160" s="28"/>
       <c r="J160" s="6" t="s">
         <v>16</v>
       </c>
@@ -5830,19 +5813,19 @@
       <c r="B161" s="5">
         <v>2</v>
       </c>
-      <c r="C161" s="30"/>
-      <c r="D161" s="26" t="s">
+      <c r="C161" s="31"/>
+      <c r="D161" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="E161" s="27"/>
+      <c r="E161" s="28"/>
       <c r="F161" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G161" s="26" t="s">
+      <c r="G161" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="H161" s="28"/>
-      <c r="I161" s="27"/>
+      <c r="H161" s="27"/>
+      <c r="I161" s="28"/>
       <c r="J161" s="6" t="s">
         <v>19</v>
       </c>
@@ -5853,19 +5836,19 @@
       <c r="B162" s="5">
         <v>3</v>
       </c>
-      <c r="C162" s="30"/>
-      <c r="D162" s="26" t="s">
+      <c r="C162" s="31"/>
+      <c r="D162" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="E162" s="27"/>
+      <c r="E162" s="28"/>
       <c r="F162" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G162" s="26" t="s">
+      <c r="G162" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="H162" s="28"/>
-      <c r="I162" s="27"/>
+      <c r="H162" s="27"/>
+      <c r="I162" s="28"/>
       <c r="J162" s="6" t="s">
         <v>21</v>
       </c>
@@ -5876,19 +5859,19 @@
       <c r="B163" s="5">
         <v>4</v>
       </c>
-      <c r="C163" s="30"/>
-      <c r="D163" s="26" t="s">
+      <c r="C163" s="31"/>
+      <c r="D163" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="E163" s="27"/>
+      <c r="E163" s="28"/>
       <c r="F163" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G163" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="H163" s="28"/>
-      <c r="I163" s="27"/>
+      <c r="G163" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="H163" s="27"/>
+      <c r="I163" s="28"/>
       <c r="J163" s="6" t="s">
         <v>69</v>
       </c>
@@ -5899,19 +5882,19 @@
       <c r="B164" s="5">
         <v>5</v>
       </c>
-      <c r="C164" s="30"/>
-      <c r="D164" s="26" t="s">
+      <c r="C164" s="31"/>
+      <c r="D164" s="33" t="s">
         <v>250</v>
       </c>
-      <c r="E164" s="27"/>
+      <c r="E164" s="28"/>
       <c r="F164" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G164" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="H164" s="28"/>
-      <c r="I164" s="27"/>
+      <c r="G164" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="H164" s="27"/>
+      <c r="I164" s="28"/>
       <c r="J164" s="6" t="s">
         <v>251</v>
       </c>
@@ -5922,19 +5905,19 @@
       <c r="B165" s="5">
         <v>6</v>
       </c>
-      <c r="C165" s="30"/>
-      <c r="D165" s="26" t="s">
+      <c r="C165" s="31"/>
+      <c r="D165" s="33" t="s">
         <v>252</v>
       </c>
-      <c r="E165" s="27"/>
+      <c r="E165" s="28"/>
       <c r="F165" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="G165" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="H165" s="28"/>
-      <c r="I165" s="27"/>
+      <c r="G165" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="H165" s="27"/>
+      <c r="I165" s="28"/>
       <c r="J165" s="6" t="s">
         <v>254</v>
       </c>
@@ -5945,15 +5928,15 @@
       <c r="B166" s="5">
         <v>7</v>
       </c>
-      <c r="C166" s="30"/>
-      <c r="D166" s="48" t="s">
+      <c r="C166" s="31"/>
+      <c r="D166" s="40" t="s">
         <v>255</v>
       </c>
-      <c r="E166" s="38"/>
-      <c r="F166" s="29" t="s">
+      <c r="E166" s="41"/>
+      <c r="F166" s="30" t="s">
         <v>256</v>
       </c>
-      <c r="G166" s="29" t="s">
+      <c r="G166" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H166" s="6">
@@ -5972,11 +5955,11 @@
       <c r="B167" s="5">
         <v>8</v>
       </c>
-      <c r="C167" s="30"/>
+      <c r="C167" s="31"/>
       <c r="D167" s="42"/>
       <c r="E167" s="43"/>
-      <c r="F167" s="31"/>
-      <c r="G167" s="31"/>
+      <c r="F167" s="32"/>
+      <c r="G167" s="32"/>
       <c r="H167" s="6">
         <v>2</v>
       </c>
@@ -5993,17 +5976,17 @@
       <c r="B168" s="5">
         <v>9</v>
       </c>
-      <c r="C168" s="30"/>
-      <c r="D168" s="29" t="s">
+      <c r="C168" s="31"/>
+      <c r="D168" s="30" t="s">
         <v>261</v>
       </c>
-      <c r="E168" s="29" t="s">
+      <c r="E168" s="30" t="s">
         <v>262</v>
       </c>
-      <c r="F168" s="29" t="s">
+      <c r="F168" s="30" t="s">
         <v>263</v>
       </c>
-      <c r="G168" s="29" t="s">
+      <c r="G168" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H168" s="6">
@@ -6022,11 +6005,11 @@
       <c r="B169" s="5">
         <v>10</v>
       </c>
-      <c r="C169" s="30"/>
-      <c r="D169" s="30"/>
-      <c r="E169" s="30"/>
-      <c r="F169" s="30"/>
-      <c r="G169" s="30"/>
+      <c r="C169" s="31"/>
+      <c r="D169" s="31"/>
+      <c r="E169" s="31"/>
+      <c r="F169" s="31"/>
+      <c r="G169" s="31"/>
       <c r="H169" s="6">
         <v>2</v>
       </c>
@@ -6043,11 +6026,11 @@
       <c r="B170" s="5">
         <v>11</v>
       </c>
-      <c r="C170" s="30"/>
-      <c r="D170" s="30"/>
-      <c r="E170" s="30"/>
-      <c r="F170" s="30"/>
-      <c r="G170" s="30"/>
+      <c r="C170" s="31"/>
+      <c r="D170" s="31"/>
+      <c r="E170" s="31"/>
+      <c r="F170" s="31"/>
+      <c r="G170" s="31"/>
       <c r="H170" s="6">
         <v>3</v>
       </c>
@@ -6064,11 +6047,11 @@
       <c r="B171" s="5">
         <v>12</v>
       </c>
-      <c r="C171" s="30"/>
-      <c r="D171" s="30"/>
-      <c r="E171" s="30"/>
-      <c r="F171" s="30"/>
-      <c r="G171" s="30"/>
+      <c r="C171" s="31"/>
+      <c r="D171" s="31"/>
+      <c r="E171" s="31"/>
+      <c r="F171" s="31"/>
+      <c r="G171" s="31"/>
       <c r="H171" s="6">
         <v>4</v>
       </c>
@@ -6085,11 +6068,11 @@
       <c r="B172" s="5">
         <v>13</v>
       </c>
-      <c r="C172" s="30"/>
-      <c r="D172" s="30"/>
-      <c r="E172" s="31"/>
-      <c r="F172" s="31"/>
-      <c r="G172" s="31"/>
+      <c r="C172" s="31"/>
+      <c r="D172" s="31"/>
+      <c r="E172" s="32"/>
+      <c r="F172" s="32"/>
+      <c r="G172" s="32"/>
       <c r="H172" s="6">
         <v>5</v>
       </c>
@@ -6106,15 +6089,15 @@
       <c r="B173" s="5">
         <v>14</v>
       </c>
-      <c r="C173" s="30"/>
-      <c r="D173" s="30"/>
-      <c r="E173" s="29" t="s">
+      <c r="C173" s="31"/>
+      <c r="D173" s="31"/>
+      <c r="E173" s="30" t="s">
         <v>274</v>
       </c>
-      <c r="F173" s="29" t="s">
+      <c r="F173" s="30" t="s">
         <v>275</v>
       </c>
-      <c r="G173" s="29" t="s">
+      <c r="G173" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H173" s="6">
@@ -6133,11 +6116,11 @@
       <c r="B174" s="5">
         <v>15</v>
       </c>
-      <c r="C174" s="30"/>
-      <c r="D174" s="30"/>
-      <c r="E174" s="30"/>
-      <c r="F174" s="30"/>
-      <c r="G174" s="30"/>
+      <c r="C174" s="31"/>
+      <c r="D174" s="31"/>
+      <c r="E174" s="31"/>
+      <c r="F174" s="31"/>
+      <c r="G174" s="31"/>
       <c r="H174" s="6">
         <v>2</v>
       </c>
@@ -6154,11 +6137,11 @@
       <c r="B175" s="5">
         <v>16</v>
       </c>
-      <c r="C175" s="30"/>
-      <c r="D175" s="30"/>
-      <c r="E175" s="31"/>
-      <c r="F175" s="31"/>
-      <c r="G175" s="31"/>
+      <c r="C175" s="31"/>
+      <c r="D175" s="31"/>
+      <c r="E175" s="32"/>
+      <c r="F175" s="32"/>
+      <c r="G175" s="32"/>
       <c r="H175" s="6">
         <v>3</v>
       </c>
@@ -6175,19 +6158,19 @@
       <c r="B176" s="5">
         <v>17</v>
       </c>
-      <c r="C176" s="30"/>
-      <c r="D176" s="30"/>
+      <c r="C176" s="31"/>
+      <c r="D176" s="31"/>
       <c r="E176" s="6" t="s">
         <v>281</v>
       </c>
       <c r="F176" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="G176" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="H176" s="28"/>
-      <c r="I176" s="27"/>
+      <c r="G176" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="H176" s="27"/>
+      <c r="I176" s="28"/>
       <c r="J176" s="6" t="s">
         <v>283</v>
       </c>
@@ -6198,15 +6181,15 @@
       <c r="B177" s="5">
         <v>18</v>
       </c>
-      <c r="C177" s="30"/>
-      <c r="D177" s="30"/>
-      <c r="E177" s="29" t="s">
+      <c r="C177" s="31"/>
+      <c r="D177" s="31"/>
+      <c r="E177" s="30" t="s">
         <v>284</v>
       </c>
-      <c r="F177" s="29" t="s">
+      <c r="F177" s="30" t="s">
         <v>285</v>
       </c>
-      <c r="G177" s="29" t="s">
+      <c r="G177" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H177" s="6">
@@ -6225,11 +6208,11 @@
       <c r="B178" s="5">
         <v>19</v>
       </c>
-      <c r="C178" s="30"/>
-      <c r="D178" s="30"/>
-      <c r="E178" s="30"/>
-      <c r="F178" s="30"/>
-      <c r="G178" s="30"/>
+      <c r="C178" s="31"/>
+      <c r="D178" s="31"/>
+      <c r="E178" s="31"/>
+      <c r="F178" s="31"/>
+      <c r="G178" s="31"/>
       <c r="H178" s="6">
         <v>2</v>
       </c>
@@ -6246,11 +6229,11 @@
       <c r="B179" s="5">
         <v>20</v>
       </c>
-      <c r="C179" s="30"/>
-      <c r="D179" s="30"/>
-      <c r="E179" s="30"/>
-      <c r="F179" s="30"/>
-      <c r="G179" s="30"/>
+      <c r="C179" s="31"/>
+      <c r="D179" s="31"/>
+      <c r="E179" s="31"/>
+      <c r="F179" s="31"/>
+      <c r="G179" s="31"/>
       <c r="H179" s="6">
         <v>3</v>
       </c>
@@ -6267,11 +6250,11 @@
       <c r="B180" s="5">
         <v>21</v>
       </c>
-      <c r="C180" s="30"/>
-      <c r="D180" s="30"/>
-      <c r="E180" s="31"/>
-      <c r="F180" s="31"/>
-      <c r="G180" s="31"/>
+      <c r="C180" s="31"/>
+      <c r="D180" s="31"/>
+      <c r="E180" s="32"/>
+      <c r="F180" s="32"/>
+      <c r="G180" s="32"/>
       <c r="H180" s="6">
         <v>4</v>
       </c>
@@ -6288,19 +6271,19 @@
       <c r="B181" s="5">
         <v>22</v>
       </c>
-      <c r="C181" s="30"/>
-      <c r="D181" s="30"/>
+      <c r="C181" s="31"/>
+      <c r="D181" s="31"/>
       <c r="E181" s="6" t="s">
         <v>290</v>
       </c>
       <c r="F181" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G181" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="H181" s="28"/>
-      <c r="I181" s="27"/>
+      <c r="G181" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="H181" s="27"/>
+      <c r="I181" s="28"/>
       <c r="J181" s="6" t="s">
         <v>292</v>
       </c>
@@ -6311,19 +6294,19 @@
       <c r="B182" s="5">
         <v>23</v>
       </c>
-      <c r="C182" s="30"/>
-      <c r="D182" s="31"/>
+      <c r="C182" s="31"/>
+      <c r="D182" s="32"/>
       <c r="E182" s="6" t="s">
         <v>240</v>
       </c>
       <c r="F182" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="G182" s="26" t="s">
+      <c r="G182" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="H182" s="28"/>
-      <c r="I182" s="27"/>
+      <c r="H182" s="27"/>
+      <c r="I182" s="28"/>
       <c r="J182" s="6" t="s">
         <v>242</v>
       </c>
@@ -6334,19 +6317,19 @@
       <c r="B183" s="5">
         <v>24</v>
       </c>
-      <c r="C183" s="30"/>
-      <c r="D183" s="26" t="s">
+      <c r="C183" s="31"/>
+      <c r="D183" s="33" t="s">
         <v>168</v>
       </c>
-      <c r="E183" s="27"/>
+      <c r="E183" s="28"/>
       <c r="F183" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="G183" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="H183" s="28"/>
-      <c r="I183" s="27"/>
+      <c r="G183" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="H183" s="27"/>
+      <c r="I183" s="28"/>
       <c r="J183" s="6" t="s">
         <v>414</v>
       </c>
@@ -6357,19 +6340,19 @@
       <c r="B184" s="5">
         <v>25</v>
       </c>
-      <c r="C184" s="30"/>
-      <c r="D184" s="26" t="s">
+      <c r="C184" s="31"/>
+      <c r="D184" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="E184" s="27"/>
+      <c r="E184" s="28"/>
       <c r="F184" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="G184" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="H184" s="28"/>
-      <c r="I184" s="27"/>
+      <c r="G184" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="H184" s="27"/>
+      <c r="I184" s="28"/>
       <c r="J184" s="6" t="s">
         <v>294</v>
       </c>
@@ -6380,19 +6363,19 @@
       <c r="B185" s="5">
         <v>26</v>
       </c>
-      <c r="C185" s="30"/>
-      <c r="D185" s="26" t="s">
+      <c r="C185" s="31"/>
+      <c r="D185" s="33" t="s">
         <v>170</v>
       </c>
-      <c r="E185" s="27"/>
+      <c r="E185" s="28"/>
       <c r="F185" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="G185" s="26" t="s">
+      <c r="G185" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="H185" s="28"/>
-      <c r="I185" s="27"/>
+      <c r="H185" s="27"/>
+      <c r="I185" s="28"/>
       <c r="J185" s="6" t="s">
         <v>415</v>
       </c>
@@ -6403,19 +6386,19 @@
       <c r="B186" s="5">
         <v>27</v>
       </c>
-      <c r="C186" s="30"/>
-      <c r="D186" s="26" t="s">
+      <c r="C186" s="31"/>
+      <c r="D186" s="33" t="s">
         <v>296</v>
       </c>
-      <c r="E186" s="27"/>
+      <c r="E186" s="28"/>
       <c r="F186" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="G186" s="26" t="s">
+      <c r="G186" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="H186" s="28"/>
-      <c r="I186" s="27"/>
+      <c r="H186" s="27"/>
+      <c r="I186" s="28"/>
       <c r="J186" s="6" t="s">
         <v>298</v>
       </c>
@@ -6426,19 +6409,19 @@
       <c r="B187" s="5">
         <v>28</v>
       </c>
-      <c r="C187" s="31"/>
-      <c r="D187" s="26" t="s">
+      <c r="C187" s="32"/>
+      <c r="D187" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="E187" s="27"/>
+      <c r="E187" s="28"/>
       <c r="F187" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G187" s="26" t="s">
+      <c r="G187" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="H187" s="28"/>
-      <c r="I187" s="27"/>
+      <c r="H187" s="27"/>
+      <c r="I187" s="28"/>
       <c r="J187" s="6" t="s">
         <v>67</v>
       </c>
@@ -6474,11 +6457,11 @@
       <c r="F189" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G189" s="32" t="s">
+      <c r="G189" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="H189" s="28"/>
-      <c r="I189" s="27"/>
+      <c r="H189" s="27"/>
+      <c r="I189" s="28"/>
       <c r="J189" s="3" t="s">
         <v>6</v>
       </c>
@@ -6501,11 +6484,11 @@
       <c r="F190" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G190" s="36" t="s">
+      <c r="G190" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="H190" s="37"/>
-      <c r="I190" s="38"/>
+      <c r="H190" s="55"/>
+      <c r="I190" s="41"/>
       <c r="J190" s="12" t="s">
         <v>13</v>
       </c>
@@ -6516,21 +6499,21 @@
       <c r="B191" s="5">
         <v>1</v>
       </c>
-      <c r="C191" s="29" t="s">
+      <c r="C191" s="30" t="s">
         <v>299</v>
       </c>
-      <c r="D191" s="26" t="s">
+      <c r="D191" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="E191" s="27"/>
+      <c r="E191" s="28"/>
       <c r="F191" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G191" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="H191" s="28"/>
-      <c r="I191" s="27"/>
+      <c r="G191" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="H191" s="27"/>
+      <c r="I191" s="28"/>
       <c r="J191" s="6" t="s">
         <v>16</v>
       </c>
@@ -6541,19 +6524,19 @@
       <c r="B192" s="5">
         <v>2</v>
       </c>
-      <c r="C192" s="30"/>
-      <c r="D192" s="26" t="s">
+      <c r="C192" s="31"/>
+      <c r="D192" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="E192" s="27"/>
+      <c r="E192" s="28"/>
       <c r="F192" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G192" s="26" t="s">
+      <c r="G192" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="H192" s="28"/>
-      <c r="I192" s="27"/>
+      <c r="H192" s="27"/>
+      <c r="I192" s="28"/>
       <c r="J192" s="6" t="s">
         <v>19</v>
       </c>
@@ -6564,19 +6547,19 @@
       <c r="B193" s="5">
         <v>3</v>
       </c>
-      <c r="C193" s="30"/>
-      <c r="D193" s="26" t="s">
+      <c r="C193" s="31"/>
+      <c r="D193" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="E193" s="27"/>
+      <c r="E193" s="28"/>
       <c r="F193" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G193" s="26" t="s">
+      <c r="G193" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="H193" s="28"/>
-      <c r="I193" s="27"/>
+      <c r="H193" s="27"/>
+      <c r="I193" s="28"/>
       <c r="J193" s="6" t="s">
         <v>21</v>
       </c>
@@ -6587,19 +6570,19 @@
       <c r="B194" s="5">
         <v>4</v>
       </c>
-      <c r="C194" s="30"/>
-      <c r="D194" s="26" t="s">
+      <c r="C194" s="31"/>
+      <c r="D194" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="E194" s="27"/>
+      <c r="E194" s="28"/>
       <c r="F194" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="G194" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="H194" s="37"/>
-      <c r="I194" s="38"/>
+      <c r="G194" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="H194" s="55"/>
+      <c r="I194" s="41"/>
       <c r="J194" s="8" t="s">
         <v>69</v>
       </c>
@@ -6610,19 +6593,19 @@
       <c r="B195" s="5">
         <v>5</v>
       </c>
-      <c r="C195" s="30"/>
-      <c r="D195" s="26" t="s">
+      <c r="C195" s="31"/>
+      <c r="D195" s="33" t="s">
         <v>300</v>
       </c>
-      <c r="E195" s="27"/>
+      <c r="E195" s="28"/>
       <c r="F195" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="G195" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="H195" s="28"/>
-      <c r="I195" s="27"/>
+      <c r="G195" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="H195" s="27"/>
+      <c r="I195" s="28"/>
       <c r="J195" s="6" t="s">
         <v>302</v>
       </c>
@@ -6633,15 +6616,15 @@
       <c r="B196" s="5">
         <v>6</v>
       </c>
-      <c r="C196" s="30"/>
-      <c r="D196" s="48" t="s">
+      <c r="C196" s="31"/>
+      <c r="D196" s="40" t="s">
         <v>303</v>
       </c>
-      <c r="E196" s="38"/>
-      <c r="F196" s="29" t="s">
+      <c r="E196" s="41"/>
+      <c r="F196" s="30" t="s">
         <v>304</v>
       </c>
-      <c r="G196" s="29" t="s">
+      <c r="G196" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H196" s="6">
@@ -6660,11 +6643,11 @@
       <c r="B197" s="5">
         <v>7</v>
       </c>
-      <c r="C197" s="30"/>
-      <c r="D197" s="40"/>
-      <c r="E197" s="41"/>
-      <c r="F197" s="30"/>
-      <c r="G197" s="30"/>
+      <c r="C197" s="31"/>
+      <c r="D197" s="48"/>
+      <c r="E197" s="49"/>
+      <c r="F197" s="31"/>
+      <c r="G197" s="31"/>
       <c r="H197" s="6">
         <v>2</v>
       </c>
@@ -6681,11 +6664,11 @@
       <c r="B198" s="5">
         <v>8</v>
       </c>
-      <c r="C198" s="30"/>
+      <c r="C198" s="31"/>
       <c r="D198" s="42"/>
       <c r="E198" s="43"/>
-      <c r="F198" s="31"/>
-      <c r="G198" s="31"/>
+      <c r="F198" s="32"/>
+      <c r="G198" s="32"/>
       <c r="H198" s="6">
         <v>3</v>
       </c>
@@ -6702,19 +6685,19 @@
       <c r="B199" s="5">
         <v>9</v>
       </c>
-      <c r="C199" s="30"/>
-      <c r="D199" s="26" t="s">
+      <c r="C199" s="31"/>
+      <c r="D199" s="33" t="s">
         <v>311</v>
       </c>
-      <c r="E199" s="27"/>
+      <c r="E199" s="28"/>
       <c r="F199" s="13" t="s">
         <v>312</v>
       </c>
-      <c r="G199" s="26" t="s">
+      <c r="G199" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="H199" s="28"/>
-      <c r="I199" s="27"/>
+      <c r="H199" s="27"/>
+      <c r="I199" s="28"/>
       <c r="J199" s="8" t="s">
         <v>313</v>
       </c>
@@ -6725,19 +6708,19 @@
       <c r="B200" s="5">
         <v>10</v>
       </c>
-      <c r="C200" s="30"/>
-      <c r="D200" s="35" t="s">
+      <c r="C200" s="31"/>
+      <c r="D200" s="56" t="s">
         <v>314</v>
       </c>
-      <c r="E200" s="27"/>
+      <c r="E200" s="28"/>
       <c r="F200" s="14" t="s">
         <v>416</v>
       </c>
-      <c r="G200" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="H200" s="28"/>
-      <c r="I200" s="27"/>
+      <c r="G200" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="H200" s="27"/>
+      <c r="I200" s="28"/>
       <c r="J200" s="15" t="s">
         <v>417</v>
       </c>
@@ -6748,19 +6731,19 @@
       <c r="B201" s="5">
         <v>11</v>
       </c>
-      <c r="C201" s="30"/>
-      <c r="D201" s="26" t="s">
+      <c r="C201" s="31"/>
+      <c r="D201" s="33" t="s">
         <v>315</v>
       </c>
-      <c r="E201" s="27"/>
+      <c r="E201" s="28"/>
       <c r="F201" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="G201" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="H201" s="28"/>
-      <c r="I201" s="27"/>
+      <c r="G201" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="H201" s="27"/>
+      <c r="I201" s="28"/>
       <c r="J201" s="6" t="s">
         <v>317</v>
       </c>
@@ -6771,19 +6754,19 @@
       <c r="B202" s="5">
         <v>12</v>
       </c>
-      <c r="C202" s="30"/>
-      <c r="D202" s="26" t="s">
+      <c r="C202" s="31"/>
+      <c r="D202" s="33" t="s">
         <v>318</v>
       </c>
-      <c r="E202" s="27"/>
+      <c r="E202" s="28"/>
       <c r="F202" s="9" t="s">
         <v>319</v>
       </c>
-      <c r="G202" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="H202" s="28"/>
-      <c r="I202" s="27"/>
+      <c r="G202" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="H202" s="27"/>
+      <c r="I202" s="28"/>
       <c r="J202" s="6" t="s">
         <v>320</v>
       </c>
@@ -6792,19 +6775,19 @@
     <row r="203" spans="1:11" ht="15" customHeight="1">
       <c r="A203" s="1"/>
       <c r="B203" s="5"/>
-      <c r="C203" s="30"/>
-      <c r="D203" s="26" t="s">
+      <c r="C203" s="31"/>
+      <c r="D203" s="33" t="s">
         <v>418</v>
       </c>
-      <c r="E203" s="47"/>
+      <c r="E203" s="52"/>
       <c r="F203" s="9" t="s">
         <v>321</v>
       </c>
-      <c r="G203" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="H203" s="28"/>
-      <c r="I203" s="27"/>
+      <c r="G203" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="H203" s="27"/>
+      <c r="I203" s="28"/>
       <c r="J203" s="6" t="s">
         <v>419</v>
       </c>
@@ -6815,19 +6798,19 @@
       <c r="B204" s="5">
         <v>13</v>
       </c>
-      <c r="C204" s="30"/>
-      <c r="D204" s="26" t="s">
+      <c r="C204" s="31"/>
+      <c r="D204" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="E204" s="27"/>
+      <c r="E204" s="28"/>
       <c r="F204" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="G204" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="H204" s="28"/>
-      <c r="I204" s="27"/>
+      <c r="G204" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="H204" s="27"/>
+      <c r="I204" s="28"/>
       <c r="J204" s="6" t="s">
         <v>322</v>
       </c>
@@ -6838,19 +6821,19 @@
       <c r="B205" s="5">
         <v>14</v>
       </c>
-      <c r="C205" s="31"/>
-      <c r="D205" s="26" t="s">
+      <c r="C205" s="32"/>
+      <c r="D205" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="E205" s="27"/>
+      <c r="E205" s="28"/>
       <c r="F205" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="G205" s="26" t="s">
+      <c r="G205" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="H205" s="28"/>
-      <c r="I205" s="27"/>
+      <c r="H205" s="27"/>
+      <c r="I205" s="28"/>
       <c r="J205" s="6" t="s">
         <v>67</v>
       </c>
@@ -6886,11 +6869,11 @@
       <c r="F207" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G207" s="32" t="s">
+      <c r="G207" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="H207" s="28"/>
-      <c r="I207" s="27"/>
+      <c r="H207" s="27"/>
+      <c r="I207" s="28"/>
       <c r="J207" s="3" t="s">
         <v>6</v>
       </c>
@@ -6913,11 +6896,11 @@
       <c r="F208" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G208" s="36" t="s">
+      <c r="G208" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="H208" s="37"/>
-      <c r="I208" s="38"/>
+      <c r="H208" s="55"/>
+      <c r="I208" s="41"/>
       <c r="J208" s="12" t="s">
         <v>13</v>
       </c>
@@ -6928,21 +6911,21 @@
       <c r="B209" s="5">
         <v>1</v>
       </c>
-      <c r="C209" s="46" t="s">
+      <c r="C209" s="57" t="s">
         <v>323</v>
       </c>
-      <c r="D209" s="44" t="s">
+      <c r="D209" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="E209" s="27"/>
+      <c r="E209" s="28"/>
       <c r="F209" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G209" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="H209" s="28"/>
-      <c r="I209" s="27"/>
+      <c r="G209" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="H209" s="27"/>
+      <c r="I209" s="28"/>
       <c r="J209" s="19" t="s">
         <v>16</v>
       </c>
@@ -6953,19 +6936,19 @@
       <c r="B210" s="5">
         <v>2</v>
       </c>
-      <c r="C210" s="30"/>
-      <c r="D210" s="44" t="s">
+      <c r="C210" s="31"/>
+      <c r="D210" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="E210" s="27"/>
+      <c r="E210" s="28"/>
       <c r="F210" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="G210" s="44" t="s">
+      <c r="G210" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="H210" s="28"/>
-      <c r="I210" s="27"/>
+      <c r="H210" s="27"/>
+      <c r="I210" s="28"/>
       <c r="J210" s="19" t="s">
         <v>19</v>
       </c>
@@ -6976,19 +6959,19 @@
       <c r="B211" s="5">
         <v>3</v>
       </c>
-      <c r="C211" s="30"/>
-      <c r="D211" s="44" t="s">
+      <c r="C211" s="31"/>
+      <c r="D211" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="E211" s="27"/>
+      <c r="E211" s="28"/>
       <c r="F211" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="G211" s="44" t="s">
+      <c r="G211" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="H211" s="28"/>
-      <c r="I211" s="27"/>
+      <c r="H211" s="27"/>
+      <c r="I211" s="28"/>
       <c r="J211" s="20" t="s">
         <v>21</v>
       </c>
@@ -6999,19 +6982,19 @@
       <c r="B212" s="5">
         <v>4</v>
       </c>
-      <c r="C212" s="30"/>
-      <c r="D212" s="45" t="s">
+      <c r="C212" s="31"/>
+      <c r="D212" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="E212" s="38"/>
+      <c r="E212" s="41"/>
       <c r="F212" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="G212" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="H212" s="37"/>
-      <c r="I212" s="37"/>
+      <c r="G212" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="H212" s="55"/>
+      <c r="I212" s="55"/>
       <c r="J212" s="19" t="s">
         <v>69</v>
       </c>
@@ -7022,15 +7005,15 @@
       <c r="B213" s="5">
         <v>5</v>
       </c>
-      <c r="C213" s="30"/>
-      <c r="D213" s="45" t="s">
+      <c r="C213" s="31"/>
+      <c r="D213" s="59" t="s">
         <v>324</v>
       </c>
-      <c r="E213" s="38"/>
-      <c r="F213" s="46" t="s">
+      <c r="E213" s="41"/>
+      <c r="F213" s="57" t="s">
         <v>325</v>
       </c>
-      <c r="G213" s="46" t="s">
+      <c r="G213" s="57" t="s">
         <v>15</v>
       </c>
       <c r="H213" s="19">
@@ -7049,11 +7032,11 @@
       <c r="B214" s="5">
         <v>6</v>
       </c>
-      <c r="C214" s="30"/>
-      <c r="D214" s="40"/>
-      <c r="E214" s="41"/>
-      <c r="F214" s="30"/>
-      <c r="G214" s="30"/>
+      <c r="C214" s="31"/>
+      <c r="D214" s="48"/>
+      <c r="E214" s="49"/>
+      <c r="F214" s="31"/>
+      <c r="G214" s="31"/>
       <c r="H214" s="19">
         <v>2</v>
       </c>
@@ -7070,11 +7053,11 @@
       <c r="B215" s="5">
         <v>7</v>
       </c>
-      <c r="C215" s="30"/>
-      <c r="D215" s="40"/>
-      <c r="E215" s="41"/>
-      <c r="F215" s="30"/>
-      <c r="G215" s="30"/>
+      <c r="C215" s="31"/>
+      <c r="D215" s="48"/>
+      <c r="E215" s="49"/>
+      <c r="F215" s="31"/>
+      <c r="G215" s="31"/>
       <c r="H215" s="19">
         <v>3</v>
       </c>
@@ -7091,11 +7074,11 @@
       <c r="B216" s="5">
         <v>8</v>
       </c>
-      <c r="C216" s="30"/>
+      <c r="C216" s="31"/>
       <c r="D216" s="42"/>
       <c r="E216" s="43"/>
-      <c r="F216" s="31"/>
-      <c r="G216" s="31"/>
+      <c r="F216" s="32"/>
+      <c r="G216" s="32"/>
       <c r="H216" s="19">
         <v>4</v>
       </c>
@@ -7112,19 +7095,19 @@
       <c r="B217" s="5">
         <v>9</v>
       </c>
-      <c r="C217" s="30"/>
-      <c r="D217" s="44" t="s">
+      <c r="C217" s="31"/>
+      <c r="D217" s="58" t="s">
         <v>331</v>
       </c>
-      <c r="E217" s="27"/>
+      <c r="E217" s="28"/>
       <c r="F217" s="19" t="s">
         <v>332</v>
       </c>
-      <c r="G217" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="H217" s="28"/>
-      <c r="I217" s="28"/>
+      <c r="G217" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="H217" s="27"/>
+      <c r="I217" s="27"/>
       <c r="J217" s="19" t="s">
         <v>333</v>
       </c>
@@ -7135,19 +7118,19 @@
       <c r="B218" s="5">
         <v>10</v>
       </c>
-      <c r="C218" s="30"/>
-      <c r="D218" s="44" t="s">
+      <c r="C218" s="31"/>
+      <c r="D218" s="58" t="s">
         <v>334</v>
       </c>
-      <c r="E218" s="27"/>
+      <c r="E218" s="28"/>
       <c r="F218" s="19" t="s">
         <v>335</v>
       </c>
-      <c r="G218" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="H218" s="28"/>
-      <c r="I218" s="28"/>
+      <c r="G218" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="H218" s="27"/>
+      <c r="I218" s="27"/>
       <c r="J218" s="19" t="s">
         <v>421</v>
       </c>
@@ -7158,19 +7141,19 @@
       <c r="B219" s="5">
         <v>11</v>
       </c>
-      <c r="C219" s="30"/>
-      <c r="D219" s="44" t="s">
+      <c r="C219" s="31"/>
+      <c r="D219" s="58" t="s">
         <v>336</v>
       </c>
-      <c r="E219" s="27"/>
+      <c r="E219" s="28"/>
       <c r="F219" s="19" t="s">
         <v>337</v>
       </c>
-      <c r="G219" s="44" t="s">
+      <c r="G219" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="H219" s="28"/>
-      <c r="I219" s="28"/>
+      <c r="H219" s="27"/>
+      <c r="I219" s="27"/>
       <c r="J219" s="19" t="s">
         <v>338</v>
       </c>
@@ -7181,19 +7164,19 @@
       <c r="B220" s="5">
         <v>12</v>
       </c>
-      <c r="C220" s="30"/>
-      <c r="D220" s="44" t="s">
+      <c r="C220" s="31"/>
+      <c r="D220" s="58" t="s">
         <v>339</v>
       </c>
-      <c r="E220" s="27"/>
+      <c r="E220" s="28"/>
       <c r="F220" s="19" t="s">
         <v>340</v>
       </c>
-      <c r="G220" s="44" t="s">
+      <c r="G220" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="H220" s="28"/>
-      <c r="I220" s="28"/>
+      <c r="H220" s="27"/>
+      <c r="I220" s="27"/>
       <c r="J220" s="19" t="s">
         <v>341</v>
       </c>
@@ -7204,19 +7187,19 @@
       <c r="B221" s="5">
         <v>13</v>
       </c>
-      <c r="C221" s="31"/>
-      <c r="D221" s="44" t="s">
+      <c r="C221" s="32"/>
+      <c r="D221" s="58" t="s">
         <v>65</v>
       </c>
-      <c r="E221" s="27"/>
+      <c r="E221" s="28"/>
       <c r="F221" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="G221" s="44" t="s">
+      <c r="G221" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="H221" s="28"/>
-      <c r="I221" s="27"/>
+      <c r="H221" s="27"/>
+      <c r="I221" s="28"/>
       <c r="J221" s="19" t="s">
         <v>67</v>
       </c>
@@ -7252,11 +7235,11 @@
       <c r="F223" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G223" s="32" t="s">
+      <c r="G223" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="H223" s="28"/>
-      <c r="I223" s="27"/>
+      <c r="H223" s="27"/>
+      <c r="I223" s="28"/>
       <c r="J223" s="3" t="s">
         <v>6</v>
       </c>
@@ -7279,11 +7262,11 @@
       <c r="F224" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G224" s="36" t="s">
+      <c r="G224" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="H224" s="37"/>
-      <c r="I224" s="38"/>
+      <c r="H224" s="55"/>
+      <c r="I224" s="41"/>
       <c r="J224" s="12" t="s">
         <v>13</v>
       </c>
@@ -7294,21 +7277,21 @@
       <c r="B225" s="5">
         <v>1</v>
       </c>
-      <c r="C225" s="29" t="s">
+      <c r="C225" s="30" t="s">
         <v>342</v>
       </c>
-      <c r="D225" s="26" t="s">
+      <c r="D225" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="E225" s="27"/>
+      <c r="E225" s="28"/>
       <c r="F225" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G225" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="H225" s="28"/>
-      <c r="I225" s="27"/>
+      <c r="G225" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="H225" s="27"/>
+      <c r="I225" s="28"/>
       <c r="J225" s="6" t="s">
         <v>16</v>
       </c>
@@ -7319,19 +7302,19 @@
       <c r="B226" s="5">
         <v>2</v>
       </c>
-      <c r="C226" s="30"/>
-      <c r="D226" s="26" t="s">
+      <c r="C226" s="31"/>
+      <c r="D226" s="33" t="s">
         <v>343</v>
       </c>
-      <c r="E226" s="27"/>
+      <c r="E226" s="28"/>
       <c r="F226" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="G226" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="H226" s="28"/>
-      <c r="I226" s="27"/>
+      <c r="G226" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="H226" s="27"/>
+      <c r="I226" s="28"/>
       <c r="J226" s="6" t="s">
         <v>345</v>
       </c>
@@ -7342,19 +7325,19 @@
       <c r="B227" s="5">
         <v>3</v>
       </c>
-      <c r="C227" s="30"/>
-      <c r="D227" s="26" t="s">
+      <c r="C227" s="31"/>
+      <c r="D227" s="33" t="s">
         <v>346</v>
       </c>
-      <c r="E227" s="27"/>
+      <c r="E227" s="28"/>
       <c r="F227" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="G227" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="H227" s="28"/>
-      <c r="I227" s="27"/>
+      <c r="G227" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="H227" s="27"/>
+      <c r="I227" s="28"/>
       <c r="J227" s="6" t="s">
         <v>348</v>
       </c>
@@ -7365,19 +7348,19 @@
       <c r="B228" s="5">
         <v>4</v>
       </c>
-      <c r="C228" s="30"/>
-      <c r="D228" s="26" t="s">
+      <c r="C228" s="31"/>
+      <c r="D228" s="33" t="s">
         <v>349</v>
       </c>
-      <c r="E228" s="27"/>
+      <c r="E228" s="28"/>
       <c r="F228" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="G228" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="H228" s="28"/>
-      <c r="I228" s="27"/>
+      <c r="G228" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="H228" s="27"/>
+      <c r="I228" s="28"/>
       <c r="J228" s="6" t="s">
         <v>351</v>
       </c>
@@ -7388,19 +7371,19 @@
       <c r="B229" s="5">
         <v>5</v>
       </c>
-      <c r="C229" s="30"/>
-      <c r="D229" s="26" t="s">
+      <c r="C229" s="31"/>
+      <c r="D229" s="33" t="s">
         <v>352</v>
       </c>
-      <c r="E229" s="27"/>
+      <c r="E229" s="28"/>
       <c r="F229" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="G229" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="H229" s="28"/>
-      <c r="I229" s="27"/>
+      <c r="G229" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="H229" s="27"/>
+      <c r="I229" s="28"/>
       <c r="J229" s="6" t="s">
         <v>422</v>
       </c>
@@ -7411,19 +7394,19 @@
       <c r="B230" s="5">
         <v>6</v>
       </c>
-      <c r="C230" s="31"/>
-      <c r="D230" s="26" t="s">
+      <c r="C230" s="32"/>
+      <c r="D230" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="E230" s="27"/>
+      <c r="E230" s="28"/>
       <c r="F230" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="G230" s="26" t="s">
+      <c r="G230" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="H230" s="28"/>
-      <c r="I230" s="27"/>
+      <c r="H230" s="27"/>
+      <c r="I230" s="28"/>
       <c r="J230" s="6" t="s">
         <v>67</v>
       </c>
@@ -7459,11 +7442,11 @@
       <c r="F232" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G232" s="32" t="s">
+      <c r="G232" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="H232" s="28"/>
-      <c r="I232" s="27"/>
+      <c r="H232" s="27"/>
+      <c r="I232" s="28"/>
       <c r="J232" s="3" t="s">
         <v>6</v>
       </c>
@@ -7486,11 +7469,11 @@
       <c r="F233" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G233" s="36" t="s">
+      <c r="G233" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="H233" s="37"/>
-      <c r="I233" s="38"/>
+      <c r="H233" s="55"/>
+      <c r="I233" s="41"/>
       <c r="J233" s="12" t="s">
         <v>13</v>
       </c>
@@ -7501,21 +7484,21 @@
       <c r="B234" s="5">
         <v>1</v>
       </c>
-      <c r="C234" s="34" t="s">
+      <c r="C234" s="60" t="s">
         <v>354</v>
       </c>
-      <c r="D234" s="35" t="s">
+      <c r="D234" s="56" t="s">
         <v>343</v>
       </c>
-      <c r="E234" s="27"/>
+      <c r="E234" s="28"/>
       <c r="F234" s="15" t="s">
         <v>344</v>
       </c>
-      <c r="G234" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="H234" s="28"/>
-      <c r="I234" s="27"/>
+      <c r="G234" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="H234" s="27"/>
+      <c r="I234" s="28"/>
       <c r="J234" s="15" t="s">
         <v>345</v>
       </c>
@@ -7526,8 +7509,8 @@
       <c r="B235" s="5">
         <v>2</v>
       </c>
-      <c r="C235" s="30"/>
-      <c r="D235" s="34" t="s">
+      <c r="C235" s="31"/>
+      <c r="D235" s="60" t="s">
         <v>355</v>
       </c>
       <c r="E235" s="15" t="s">
@@ -7536,11 +7519,11 @@
       <c r="F235" s="15" t="s">
         <v>357</v>
       </c>
-      <c r="G235" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="H235" s="28"/>
-      <c r="I235" s="27"/>
+      <c r="G235" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="H235" s="27"/>
+      <c r="I235" s="28"/>
       <c r="J235" s="15" t="s">
         <v>358</v>
       </c>
@@ -7551,19 +7534,19 @@
       <c r="B236" s="5">
         <v>3</v>
       </c>
-      <c r="C236" s="30"/>
-      <c r="D236" s="31"/>
+      <c r="C236" s="31"/>
+      <c r="D236" s="32"/>
       <c r="E236" s="15" t="s">
         <v>359</v>
       </c>
       <c r="F236" s="15" t="s">
         <v>360</v>
       </c>
-      <c r="G236" s="35" t="s">
+      <c r="G236" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="H236" s="28"/>
-      <c r="I236" s="27"/>
+      <c r="H236" s="27"/>
+      <c r="I236" s="28"/>
       <c r="J236" s="15" t="s">
         <v>361</v>
       </c>
@@ -7574,15 +7557,15 @@
       <c r="B237" s="5">
         <v>4</v>
       </c>
-      <c r="C237" s="30"/>
-      <c r="D237" s="39" t="s">
+      <c r="C237" s="31"/>
+      <c r="D237" s="61" t="s">
         <v>362</v>
       </c>
-      <c r="E237" s="38"/>
-      <c r="F237" s="34" t="s">
+      <c r="E237" s="41"/>
+      <c r="F237" s="60" t="s">
         <v>363</v>
       </c>
-      <c r="G237" s="34" t="s">
+      <c r="G237" s="60" t="s">
         <v>15</v>
       </c>
       <c r="H237" s="15">
@@ -7601,11 +7584,11 @@
       <c r="B238" s="5">
         <v>5</v>
       </c>
-      <c r="C238" s="30"/>
-      <c r="D238" s="40"/>
-      <c r="E238" s="41"/>
-      <c r="F238" s="30"/>
-      <c r="G238" s="30"/>
+      <c r="C238" s="31"/>
+      <c r="D238" s="48"/>
+      <c r="E238" s="49"/>
+      <c r="F238" s="31"/>
+      <c r="G238" s="31"/>
       <c r="H238" s="15">
         <v>2</v>
       </c>
@@ -7622,11 +7605,11 @@
       <c r="B239" s="5">
         <v>6</v>
       </c>
-      <c r="C239" s="30"/>
-      <c r="D239" s="40"/>
-      <c r="E239" s="41"/>
-      <c r="F239" s="30"/>
-      <c r="G239" s="30"/>
+      <c r="C239" s="31"/>
+      <c r="D239" s="48"/>
+      <c r="E239" s="49"/>
+      <c r="F239" s="31"/>
+      <c r="G239" s="31"/>
       <c r="H239" s="15">
         <v>3</v>
       </c>
@@ -7643,11 +7626,11 @@
       <c r="B240" s="5">
         <v>7</v>
       </c>
-      <c r="C240" s="30"/>
-      <c r="D240" s="40"/>
-      <c r="E240" s="41"/>
-      <c r="F240" s="30"/>
-      <c r="G240" s="30"/>
+      <c r="C240" s="31"/>
+      <c r="D240" s="48"/>
+      <c r="E240" s="49"/>
+      <c r="F240" s="31"/>
+      <c r="G240" s="31"/>
       <c r="H240" s="15">
         <v>4</v>
       </c>
@@ -7664,11 +7647,11 @@
       <c r="B241" s="5">
         <v>8</v>
       </c>
-      <c r="C241" s="30"/>
+      <c r="C241" s="31"/>
       <c r="D241" s="42"/>
       <c r="E241" s="43"/>
-      <c r="F241" s="31"/>
-      <c r="G241" s="31"/>
+      <c r="F241" s="32"/>
+      <c r="G241" s="32"/>
       <c r="H241" s="15">
         <v>5</v>
       </c>
@@ -7685,19 +7668,19 @@
       <c r="B242" s="5">
         <v>9</v>
       </c>
-      <c r="C242" s="30"/>
-      <c r="D242" s="35" t="s">
+      <c r="C242" s="31"/>
+      <c r="D242" s="56" t="s">
         <v>374</v>
       </c>
-      <c r="E242" s="27"/>
+      <c r="E242" s="28"/>
       <c r="F242" s="15" t="s">
         <v>375</v>
       </c>
-      <c r="G242" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="H242" s="28"/>
-      <c r="I242" s="27"/>
+      <c r="G242" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="H242" s="27"/>
+      <c r="I242" s="28"/>
       <c r="J242" s="15" t="s">
         <v>376</v>
       </c>
@@ -7708,19 +7691,19 @@
       <c r="B243" s="5">
         <v>10</v>
       </c>
-      <c r="C243" s="31"/>
-      <c r="D243" s="35" t="s">
+      <c r="C243" s="32"/>
+      <c r="D243" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="E243" s="27"/>
+      <c r="E243" s="28"/>
       <c r="F243" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="G243" s="35" t="s">
+      <c r="G243" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="H243" s="28"/>
-      <c r="I243" s="27"/>
+      <c r="H243" s="27"/>
+      <c r="I243" s="28"/>
       <c r="J243" s="15" t="s">
         <v>67</v>
       </c>
@@ -7756,11 +7739,11 @@
       <c r="F245" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G245" s="32" t="s">
+      <c r="G245" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="H245" s="28"/>
-      <c r="I245" s="27"/>
+      <c r="H245" s="27"/>
+      <c r="I245" s="28"/>
       <c r="J245" s="3" t="s">
         <v>6</v>
       </c>
@@ -7783,11 +7766,11 @@
       <c r="F246" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G246" s="36" t="s">
+      <c r="G246" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="H246" s="37"/>
-      <c r="I246" s="38"/>
+      <c r="H246" s="55"/>
+      <c r="I246" s="41"/>
       <c r="J246" s="12" t="s">
         <v>13</v>
       </c>
@@ -7798,21 +7781,21 @@
       <c r="B247" s="5">
         <v>1</v>
       </c>
-      <c r="C247" s="34" t="s">
+      <c r="C247" s="60" t="s">
         <v>377</v>
       </c>
-      <c r="D247" s="26" t="s">
+      <c r="D247" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="E247" s="27"/>
+      <c r="E247" s="28"/>
       <c r="F247" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G247" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="H247" s="28"/>
-      <c r="I247" s="27"/>
+      <c r="G247" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="H247" s="27"/>
+      <c r="I247" s="28"/>
       <c r="J247" s="6" t="s">
         <v>16</v>
       </c>
@@ -7823,19 +7806,19 @@
       <c r="B248" s="5">
         <v>2</v>
       </c>
-      <c r="C248" s="30"/>
-      <c r="D248" s="26" t="s">
+      <c r="C248" s="31"/>
+      <c r="D248" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="E248" s="27"/>
+      <c r="E248" s="28"/>
       <c r="F248" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G248" s="26" t="s">
+      <c r="G248" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="H248" s="28"/>
-      <c r="I248" s="27"/>
+      <c r="H248" s="27"/>
+      <c r="I248" s="28"/>
       <c r="J248" s="6" t="s">
         <v>19</v>
       </c>
@@ -7846,19 +7829,19 @@
       <c r="B249" s="5">
         <v>3</v>
       </c>
-      <c r="C249" s="30"/>
-      <c r="D249" s="26" t="s">
+      <c r="C249" s="31"/>
+      <c r="D249" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="E249" s="27"/>
+      <c r="E249" s="28"/>
       <c r="F249" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G249" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="H249" s="28"/>
-      <c r="I249" s="27"/>
+      <c r="G249" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="H249" s="27"/>
+      <c r="I249" s="28"/>
       <c r="J249" s="6" t="s">
         <v>69</v>
       </c>
@@ -7869,19 +7852,19 @@
       <c r="B250" s="5">
         <v>4</v>
       </c>
-      <c r="C250" s="30"/>
-      <c r="D250" s="26" t="s">
+      <c r="C250" s="31"/>
+      <c r="D250" s="33" t="s">
         <v>378</v>
       </c>
-      <c r="E250" s="27"/>
+      <c r="E250" s="28"/>
       <c r="F250" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="G250" s="35" t="s">
+      <c r="G250" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="H250" s="28"/>
-      <c r="I250" s="27"/>
+      <c r="H250" s="27"/>
+      <c r="I250" s="28"/>
       <c r="J250" s="6" t="s">
         <v>379</v>
       </c>
@@ -7892,19 +7875,19 @@
       <c r="B251" s="5">
         <v>5</v>
       </c>
-      <c r="C251" s="30"/>
-      <c r="D251" s="35" t="s">
+      <c r="C251" s="31"/>
+      <c r="D251" s="56" t="s">
         <v>380</v>
       </c>
-      <c r="E251" s="27"/>
+      <c r="E251" s="28"/>
       <c r="F251" s="15" t="s">
         <v>381</v>
       </c>
-      <c r="G251" s="26" t="s">
+      <c r="G251" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="H251" s="28"/>
-      <c r="I251" s="27"/>
+      <c r="H251" s="27"/>
+      <c r="I251" s="28"/>
       <c r="J251" s="15" t="s">
         <v>382</v>
       </c>
@@ -7915,19 +7898,19 @@
       <c r="B252" s="5">
         <v>6</v>
       </c>
-      <c r="C252" s="31"/>
-      <c r="D252" s="26" t="s">
+      <c r="C252" s="32"/>
+      <c r="D252" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="E252" s="27"/>
+      <c r="E252" s="28"/>
       <c r="F252" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G252" s="26" t="s">
+      <c r="G252" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="H252" s="28"/>
-      <c r="I252" s="27"/>
+      <c r="H252" s="27"/>
+      <c r="I252" s="28"/>
       <c r="J252" s="6" t="s">
         <v>67</v>
       </c>
@@ -7963,11 +7946,11 @@
       <c r="F254" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G254" s="32" t="s">
+      <c r="G254" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="H254" s="28"/>
-      <c r="I254" s="27"/>
+      <c r="H254" s="27"/>
+      <c r="I254" s="28"/>
       <c r="J254" s="3" t="s">
         <v>6</v>
       </c>
@@ -7990,11 +7973,11 @@
       <c r="F255" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G255" s="36" t="s">
+      <c r="G255" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="H255" s="37"/>
-      <c r="I255" s="38"/>
+      <c r="H255" s="55"/>
+      <c r="I255" s="41"/>
       <c r="J255" s="12" t="s">
         <v>13</v>
       </c>
@@ -8005,21 +7988,21 @@
       <c r="B256" s="5">
         <v>1</v>
       </c>
-      <c r="C256" s="34" t="s">
+      <c r="C256" s="60" t="s">
         <v>383</v>
       </c>
-      <c r="D256" s="26" t="s">
+      <c r="D256" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="E256" s="27"/>
+      <c r="E256" s="28"/>
       <c r="F256" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G256" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="H256" s="28"/>
-      <c r="I256" s="27"/>
+      <c r="G256" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="H256" s="27"/>
+      <c r="I256" s="28"/>
       <c r="J256" s="6" t="s">
         <v>16</v>
       </c>
@@ -8030,19 +8013,19 @@
       <c r="B257" s="5">
         <v>2</v>
       </c>
-      <c r="C257" s="30"/>
-      <c r="D257" s="26" t="s">
+      <c r="C257" s="31"/>
+      <c r="D257" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="E257" s="27"/>
+      <c r="E257" s="28"/>
       <c r="F257" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G257" s="26" t="s">
+      <c r="G257" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="H257" s="28"/>
-      <c r="I257" s="27"/>
+      <c r="H257" s="27"/>
+      <c r="I257" s="28"/>
       <c r="J257" s="6" t="s">
         <v>19</v>
       </c>
@@ -8053,19 +8036,19 @@
       <c r="B258" s="5">
         <v>3</v>
       </c>
-      <c r="C258" s="30"/>
-      <c r="D258" s="26" t="s">
+      <c r="C258" s="31"/>
+      <c r="D258" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="E258" s="27"/>
+      <c r="E258" s="28"/>
       <c r="F258" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G258" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="H258" s="28"/>
-      <c r="I258" s="27"/>
+      <c r="G258" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="H258" s="27"/>
+      <c r="I258" s="28"/>
       <c r="J258" s="6" t="s">
         <v>69</v>
       </c>
@@ -8076,19 +8059,19 @@
       <c r="B259" s="5">
         <v>4</v>
       </c>
-      <c r="C259" s="30"/>
-      <c r="D259" s="35" t="s">
+      <c r="C259" s="31"/>
+      <c r="D259" s="56" t="s">
         <v>380</v>
       </c>
-      <c r="E259" s="27"/>
+      <c r="E259" s="28"/>
       <c r="F259" s="15" t="s">
         <v>381</v>
       </c>
-      <c r="G259" s="26" t="s">
+      <c r="G259" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="H259" s="28"/>
-      <c r="I259" s="27"/>
+      <c r="H259" s="27"/>
+      <c r="I259" s="28"/>
       <c r="J259" s="15" t="s">
         <v>382</v>
       </c>
@@ -8099,19 +8082,19 @@
       <c r="B260" s="5">
         <v>5</v>
       </c>
-      <c r="C260" s="31"/>
-      <c r="D260" s="26" t="s">
+      <c r="C260" s="32"/>
+      <c r="D260" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="E260" s="27"/>
+      <c r="E260" s="28"/>
       <c r="F260" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G260" s="26" t="s">
+      <c r="G260" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="H260" s="28"/>
-      <c r="I260" s="27"/>
+      <c r="H260" s="27"/>
+      <c r="I260" s="28"/>
       <c r="J260" s="6" t="s">
         <v>67</v>
       </c>
@@ -8132,6 +8115,340 @@
     </row>
   </sheetData>
   <mergeCells count="358">
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="D10:D14"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="G260:I260"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="G237:G241"/>
+    <mergeCell ref="D242:E242"/>
+    <mergeCell ref="G242:I242"/>
+    <mergeCell ref="D243:E243"/>
+    <mergeCell ref="G243:I243"/>
+    <mergeCell ref="G245:I245"/>
+    <mergeCell ref="G232:I232"/>
+    <mergeCell ref="G233:I233"/>
+    <mergeCell ref="D221:E221"/>
+    <mergeCell ref="G221:I221"/>
+    <mergeCell ref="G223:I223"/>
+    <mergeCell ref="G224:I224"/>
+    <mergeCell ref="D218:E218"/>
+    <mergeCell ref="G218:I218"/>
+    <mergeCell ref="D219:E219"/>
+    <mergeCell ref="C4:C19"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="C256:C260"/>
+    <mergeCell ref="D256:E256"/>
+    <mergeCell ref="G256:I256"/>
+    <mergeCell ref="D257:E257"/>
+    <mergeCell ref="G257:I257"/>
+    <mergeCell ref="D258:E258"/>
+    <mergeCell ref="G258:I258"/>
+    <mergeCell ref="D259:E259"/>
+    <mergeCell ref="G259:I259"/>
+    <mergeCell ref="D260:E260"/>
+    <mergeCell ref="D251:E251"/>
+    <mergeCell ref="G251:I251"/>
+    <mergeCell ref="D252:E252"/>
+    <mergeCell ref="G252:I252"/>
+    <mergeCell ref="G254:I254"/>
+    <mergeCell ref="G255:I255"/>
+    <mergeCell ref="G246:I246"/>
+    <mergeCell ref="C247:C252"/>
+    <mergeCell ref="D247:E247"/>
+    <mergeCell ref="G247:I247"/>
+    <mergeCell ref="D248:E248"/>
+    <mergeCell ref="G248:I248"/>
+    <mergeCell ref="D249:E249"/>
+    <mergeCell ref="G249:I249"/>
+    <mergeCell ref="D250:E250"/>
+    <mergeCell ref="G250:I250"/>
+    <mergeCell ref="C234:C243"/>
+    <mergeCell ref="D234:E234"/>
+    <mergeCell ref="G234:I234"/>
+    <mergeCell ref="D235:D236"/>
+    <mergeCell ref="G235:I235"/>
+    <mergeCell ref="G236:I236"/>
+    <mergeCell ref="D237:E241"/>
+    <mergeCell ref="F237:F241"/>
+    <mergeCell ref="G227:I227"/>
+    <mergeCell ref="D228:E228"/>
+    <mergeCell ref="G228:I228"/>
+    <mergeCell ref="D229:E229"/>
+    <mergeCell ref="G229:I229"/>
+    <mergeCell ref="D230:E230"/>
+    <mergeCell ref="G230:I230"/>
+    <mergeCell ref="C225:C230"/>
+    <mergeCell ref="D225:E225"/>
+    <mergeCell ref="G225:I225"/>
+    <mergeCell ref="D226:E226"/>
+    <mergeCell ref="G226:I226"/>
+    <mergeCell ref="D227:E227"/>
+    <mergeCell ref="D201:E201"/>
+    <mergeCell ref="G201:I201"/>
+    <mergeCell ref="D202:E202"/>
+    <mergeCell ref="G202:I202"/>
+    <mergeCell ref="G207:I207"/>
+    <mergeCell ref="G208:I208"/>
+    <mergeCell ref="C209:C221"/>
+    <mergeCell ref="D209:E209"/>
+    <mergeCell ref="G209:I209"/>
+    <mergeCell ref="D210:E210"/>
+    <mergeCell ref="G210:I210"/>
+    <mergeCell ref="D211:E211"/>
+    <mergeCell ref="G211:I211"/>
+    <mergeCell ref="D212:E212"/>
+    <mergeCell ref="G219:I219"/>
+    <mergeCell ref="D220:E220"/>
+    <mergeCell ref="G220:I220"/>
+    <mergeCell ref="G212:I212"/>
+    <mergeCell ref="D213:E216"/>
+    <mergeCell ref="F213:F216"/>
+    <mergeCell ref="G213:G216"/>
+    <mergeCell ref="D217:E217"/>
+    <mergeCell ref="G217:I217"/>
+    <mergeCell ref="G195:I195"/>
+    <mergeCell ref="D196:E198"/>
+    <mergeCell ref="F196:F198"/>
+    <mergeCell ref="G196:G198"/>
+    <mergeCell ref="D199:E199"/>
+    <mergeCell ref="G199:I199"/>
+    <mergeCell ref="C191:C205"/>
+    <mergeCell ref="D191:E191"/>
+    <mergeCell ref="G191:I191"/>
+    <mergeCell ref="D192:E192"/>
+    <mergeCell ref="G192:I192"/>
+    <mergeCell ref="D193:E193"/>
+    <mergeCell ref="G193:I193"/>
+    <mergeCell ref="D194:E194"/>
+    <mergeCell ref="G194:I194"/>
+    <mergeCell ref="D195:E195"/>
+    <mergeCell ref="D203:E203"/>
+    <mergeCell ref="G203:I203"/>
+    <mergeCell ref="D204:E204"/>
+    <mergeCell ref="G204:I204"/>
+    <mergeCell ref="D205:E205"/>
+    <mergeCell ref="G205:I205"/>
+    <mergeCell ref="D200:E200"/>
+    <mergeCell ref="G200:I200"/>
+    <mergeCell ref="D186:E186"/>
+    <mergeCell ref="G186:I186"/>
+    <mergeCell ref="D187:E187"/>
+    <mergeCell ref="G187:I187"/>
+    <mergeCell ref="G189:I189"/>
+    <mergeCell ref="G190:I190"/>
+    <mergeCell ref="D183:E183"/>
+    <mergeCell ref="G183:I183"/>
+    <mergeCell ref="D184:E184"/>
+    <mergeCell ref="G184:I184"/>
+    <mergeCell ref="D185:E185"/>
+    <mergeCell ref="G185:I185"/>
+    <mergeCell ref="G176:I176"/>
+    <mergeCell ref="E177:E180"/>
+    <mergeCell ref="F177:F180"/>
+    <mergeCell ref="G177:G180"/>
+    <mergeCell ref="G181:I181"/>
+    <mergeCell ref="G182:I182"/>
+    <mergeCell ref="D166:E167"/>
+    <mergeCell ref="F166:F167"/>
+    <mergeCell ref="G166:G167"/>
+    <mergeCell ref="D168:D182"/>
+    <mergeCell ref="E168:E172"/>
+    <mergeCell ref="F168:F172"/>
+    <mergeCell ref="G168:G172"/>
+    <mergeCell ref="E173:E175"/>
+    <mergeCell ref="F173:F175"/>
+    <mergeCell ref="G173:G175"/>
+    <mergeCell ref="C160:C187"/>
+    <mergeCell ref="D160:E160"/>
+    <mergeCell ref="G160:I160"/>
+    <mergeCell ref="D161:E161"/>
+    <mergeCell ref="G161:I161"/>
+    <mergeCell ref="D162:E162"/>
+    <mergeCell ref="G151:I151"/>
+    <mergeCell ref="G152:I152"/>
+    <mergeCell ref="G153:I153"/>
+    <mergeCell ref="D154:E154"/>
+    <mergeCell ref="G154:I154"/>
+    <mergeCell ref="D155:E155"/>
+    <mergeCell ref="G155:I155"/>
+    <mergeCell ref="G162:I162"/>
+    <mergeCell ref="D163:E163"/>
+    <mergeCell ref="G163:I163"/>
+    <mergeCell ref="D164:E164"/>
+    <mergeCell ref="G164:I164"/>
+    <mergeCell ref="D165:E165"/>
+    <mergeCell ref="G165:I165"/>
+    <mergeCell ref="D156:E156"/>
+    <mergeCell ref="G156:I156"/>
+    <mergeCell ref="G158:I158"/>
+    <mergeCell ref="G159:I159"/>
+    <mergeCell ref="E134:E148"/>
+    <mergeCell ref="F134:F148"/>
+    <mergeCell ref="G134:G148"/>
+    <mergeCell ref="E149:E150"/>
+    <mergeCell ref="F149:F150"/>
+    <mergeCell ref="G149:G150"/>
+    <mergeCell ref="C130:C156"/>
+    <mergeCell ref="D130:E130"/>
+    <mergeCell ref="G130:I130"/>
+    <mergeCell ref="D131:E131"/>
+    <mergeCell ref="G131:I131"/>
+    <mergeCell ref="D132:E132"/>
+    <mergeCell ref="G132:I132"/>
+    <mergeCell ref="D133:E133"/>
+    <mergeCell ref="G133:I133"/>
+    <mergeCell ref="D134:D153"/>
+    <mergeCell ref="D126:E126"/>
+    <mergeCell ref="G126:I126"/>
+    <mergeCell ref="G128:I128"/>
+    <mergeCell ref="G129:I129"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="G122:I122"/>
+    <mergeCell ref="D123:E123"/>
+    <mergeCell ref="G123:I123"/>
+    <mergeCell ref="D124:E124"/>
+    <mergeCell ref="G124:I124"/>
+    <mergeCell ref="C111:C126"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="G111:I111"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="G112:I112"/>
+    <mergeCell ref="D113:E113"/>
+    <mergeCell ref="G113:I113"/>
+    <mergeCell ref="D114:E114"/>
+    <mergeCell ref="G114:I114"/>
+    <mergeCell ref="D115:D116"/>
+    <mergeCell ref="D119:E119"/>
+    <mergeCell ref="G119:I119"/>
+    <mergeCell ref="D120:E120"/>
+    <mergeCell ref="G120:I120"/>
+    <mergeCell ref="D121:E121"/>
+    <mergeCell ref="G121:I121"/>
+    <mergeCell ref="G115:I115"/>
+    <mergeCell ref="G116:I116"/>
+    <mergeCell ref="D117:E117"/>
+    <mergeCell ref="G117:I117"/>
+    <mergeCell ref="D118:E118"/>
+    <mergeCell ref="G118:I118"/>
+    <mergeCell ref="D125:E125"/>
+    <mergeCell ref="G125:I125"/>
+    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="G106:I106"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="G107:I107"/>
+    <mergeCell ref="G109:I109"/>
+    <mergeCell ref="G110:I110"/>
+    <mergeCell ref="D102:D104"/>
+    <mergeCell ref="G102:I102"/>
+    <mergeCell ref="G103:I103"/>
+    <mergeCell ref="G104:I104"/>
+    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="G105:I105"/>
+    <mergeCell ref="D94:E97"/>
+    <mergeCell ref="F94:F97"/>
+    <mergeCell ref="G94:G97"/>
+    <mergeCell ref="D98:D101"/>
+    <mergeCell ref="E98:E99"/>
+    <mergeCell ref="F98:F99"/>
+    <mergeCell ref="G98:G99"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="G101:I101"/>
+    <mergeCell ref="C78:C107"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="G78:I78"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="G79:I79"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="G80:I80"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="G81:I81"/>
+    <mergeCell ref="D82:D86"/>
+    <mergeCell ref="H85:I85"/>
+    <mergeCell ref="H86:I86"/>
+    <mergeCell ref="D87:E90"/>
+    <mergeCell ref="F87:F90"/>
+    <mergeCell ref="G87:G90"/>
+    <mergeCell ref="D91:E93"/>
+    <mergeCell ref="F91:F93"/>
+    <mergeCell ref="G91:G93"/>
+    <mergeCell ref="E82:E84"/>
+    <mergeCell ref="F82:F84"/>
+    <mergeCell ref="G82:G84"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="G74:I74"/>
+    <mergeCell ref="G76:I76"/>
+    <mergeCell ref="G77:I77"/>
+    <mergeCell ref="D56:D68"/>
+    <mergeCell ref="E56:E68"/>
+    <mergeCell ref="F56:F68"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="G57:G68"/>
+    <mergeCell ref="D69:D72"/>
+    <mergeCell ref="G69:I69"/>
+    <mergeCell ref="G70:I70"/>
+    <mergeCell ref="G71:I71"/>
+    <mergeCell ref="G72:I72"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="C45:C74"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D51:D55"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="D49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="G73:I73"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="G37:I37"/>
     <mergeCell ref="G21:I21"/>
     <mergeCell ref="G22:I22"/>
     <mergeCell ref="C23:C41"/>
@@ -8156,340 +8473,6 @@
     <mergeCell ref="D38:E38"/>
     <mergeCell ref="G38:I38"/>
     <mergeCell ref="D39:E39"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="C45:C74"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D51:D55"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="D49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="G73:I73"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="G74:I74"/>
-    <mergeCell ref="G76:I76"/>
-    <mergeCell ref="G77:I77"/>
-    <mergeCell ref="D56:D68"/>
-    <mergeCell ref="E56:E68"/>
-    <mergeCell ref="F56:F68"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="G57:G68"/>
-    <mergeCell ref="D69:D72"/>
-    <mergeCell ref="G69:I69"/>
-    <mergeCell ref="G70:I70"/>
-    <mergeCell ref="G71:I71"/>
-    <mergeCell ref="G72:I72"/>
-    <mergeCell ref="C78:C107"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="G78:I78"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="G79:I79"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="G80:I80"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="G81:I81"/>
-    <mergeCell ref="D82:D86"/>
-    <mergeCell ref="H85:I85"/>
-    <mergeCell ref="H86:I86"/>
-    <mergeCell ref="D87:E90"/>
-    <mergeCell ref="F87:F90"/>
-    <mergeCell ref="G87:G90"/>
-    <mergeCell ref="D91:E93"/>
-    <mergeCell ref="F91:F93"/>
-    <mergeCell ref="G91:G93"/>
-    <mergeCell ref="E82:E84"/>
-    <mergeCell ref="F82:F84"/>
-    <mergeCell ref="G82:G84"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="D94:E97"/>
-    <mergeCell ref="F94:F97"/>
-    <mergeCell ref="G94:G97"/>
-    <mergeCell ref="D98:D101"/>
-    <mergeCell ref="E98:E99"/>
-    <mergeCell ref="F98:F99"/>
-    <mergeCell ref="G98:G99"/>
-    <mergeCell ref="G100:I100"/>
-    <mergeCell ref="G101:I101"/>
-    <mergeCell ref="D106:E106"/>
-    <mergeCell ref="G106:I106"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="G107:I107"/>
-    <mergeCell ref="G109:I109"/>
-    <mergeCell ref="G110:I110"/>
-    <mergeCell ref="D102:D104"/>
-    <mergeCell ref="G102:I102"/>
-    <mergeCell ref="G103:I103"/>
-    <mergeCell ref="G104:I104"/>
-    <mergeCell ref="D105:E105"/>
-    <mergeCell ref="G105:I105"/>
-    <mergeCell ref="C111:C126"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="G111:I111"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="G112:I112"/>
-    <mergeCell ref="D113:E113"/>
-    <mergeCell ref="G113:I113"/>
-    <mergeCell ref="D114:E114"/>
-    <mergeCell ref="G114:I114"/>
-    <mergeCell ref="D115:D116"/>
-    <mergeCell ref="D119:E119"/>
-    <mergeCell ref="G119:I119"/>
-    <mergeCell ref="D120:E120"/>
-    <mergeCell ref="G120:I120"/>
-    <mergeCell ref="D121:E121"/>
-    <mergeCell ref="G121:I121"/>
-    <mergeCell ref="G115:I115"/>
-    <mergeCell ref="G116:I116"/>
-    <mergeCell ref="D117:E117"/>
-    <mergeCell ref="G117:I117"/>
-    <mergeCell ref="D118:E118"/>
-    <mergeCell ref="G118:I118"/>
-    <mergeCell ref="D125:E125"/>
-    <mergeCell ref="G125:I125"/>
-    <mergeCell ref="D126:E126"/>
-    <mergeCell ref="G126:I126"/>
-    <mergeCell ref="G128:I128"/>
-    <mergeCell ref="G129:I129"/>
-    <mergeCell ref="D122:E122"/>
-    <mergeCell ref="G122:I122"/>
-    <mergeCell ref="D123:E123"/>
-    <mergeCell ref="G123:I123"/>
-    <mergeCell ref="D124:E124"/>
-    <mergeCell ref="G124:I124"/>
-    <mergeCell ref="E134:E148"/>
-    <mergeCell ref="F134:F148"/>
-    <mergeCell ref="G134:G148"/>
-    <mergeCell ref="E149:E150"/>
-    <mergeCell ref="F149:F150"/>
-    <mergeCell ref="G149:G150"/>
-    <mergeCell ref="C130:C156"/>
-    <mergeCell ref="D130:E130"/>
-    <mergeCell ref="G130:I130"/>
-    <mergeCell ref="D131:E131"/>
-    <mergeCell ref="G131:I131"/>
-    <mergeCell ref="D132:E132"/>
-    <mergeCell ref="G132:I132"/>
-    <mergeCell ref="D133:E133"/>
-    <mergeCell ref="G133:I133"/>
-    <mergeCell ref="D134:D153"/>
-    <mergeCell ref="C160:C187"/>
-    <mergeCell ref="D160:E160"/>
-    <mergeCell ref="G160:I160"/>
-    <mergeCell ref="D161:E161"/>
-    <mergeCell ref="G161:I161"/>
-    <mergeCell ref="D162:E162"/>
-    <mergeCell ref="G151:I151"/>
-    <mergeCell ref="G152:I152"/>
-    <mergeCell ref="G153:I153"/>
-    <mergeCell ref="D154:E154"/>
-    <mergeCell ref="G154:I154"/>
-    <mergeCell ref="D155:E155"/>
-    <mergeCell ref="G155:I155"/>
-    <mergeCell ref="G162:I162"/>
-    <mergeCell ref="D163:E163"/>
-    <mergeCell ref="G163:I163"/>
-    <mergeCell ref="D164:E164"/>
-    <mergeCell ref="G164:I164"/>
-    <mergeCell ref="D165:E165"/>
-    <mergeCell ref="G165:I165"/>
-    <mergeCell ref="D156:E156"/>
-    <mergeCell ref="G156:I156"/>
-    <mergeCell ref="G158:I158"/>
-    <mergeCell ref="G159:I159"/>
-    <mergeCell ref="G176:I176"/>
-    <mergeCell ref="E177:E180"/>
-    <mergeCell ref="F177:F180"/>
-    <mergeCell ref="G177:G180"/>
-    <mergeCell ref="G181:I181"/>
-    <mergeCell ref="G182:I182"/>
-    <mergeCell ref="D166:E167"/>
-    <mergeCell ref="F166:F167"/>
-    <mergeCell ref="G166:G167"/>
-    <mergeCell ref="D168:D182"/>
-    <mergeCell ref="E168:E172"/>
-    <mergeCell ref="F168:F172"/>
-    <mergeCell ref="G168:G172"/>
-    <mergeCell ref="E173:E175"/>
-    <mergeCell ref="F173:F175"/>
-    <mergeCell ref="G173:G175"/>
-    <mergeCell ref="D186:E186"/>
-    <mergeCell ref="G186:I186"/>
-    <mergeCell ref="D187:E187"/>
-    <mergeCell ref="G187:I187"/>
-    <mergeCell ref="G189:I189"/>
-    <mergeCell ref="G190:I190"/>
-    <mergeCell ref="D183:E183"/>
-    <mergeCell ref="G183:I183"/>
-    <mergeCell ref="D184:E184"/>
-    <mergeCell ref="G184:I184"/>
-    <mergeCell ref="D185:E185"/>
-    <mergeCell ref="G185:I185"/>
-    <mergeCell ref="G195:I195"/>
-    <mergeCell ref="D196:E198"/>
-    <mergeCell ref="F196:F198"/>
-    <mergeCell ref="G196:G198"/>
-    <mergeCell ref="D199:E199"/>
-    <mergeCell ref="G199:I199"/>
-    <mergeCell ref="C191:C205"/>
-    <mergeCell ref="D191:E191"/>
-    <mergeCell ref="G191:I191"/>
-    <mergeCell ref="D192:E192"/>
-    <mergeCell ref="G192:I192"/>
-    <mergeCell ref="D193:E193"/>
-    <mergeCell ref="G193:I193"/>
-    <mergeCell ref="D194:E194"/>
-    <mergeCell ref="G194:I194"/>
-    <mergeCell ref="D195:E195"/>
-    <mergeCell ref="D203:E203"/>
-    <mergeCell ref="G203:I203"/>
-    <mergeCell ref="D204:E204"/>
-    <mergeCell ref="G204:I204"/>
-    <mergeCell ref="D205:E205"/>
-    <mergeCell ref="G205:I205"/>
-    <mergeCell ref="D200:E200"/>
-    <mergeCell ref="G200:I200"/>
-    <mergeCell ref="D201:E201"/>
-    <mergeCell ref="G201:I201"/>
-    <mergeCell ref="D202:E202"/>
-    <mergeCell ref="G202:I202"/>
-    <mergeCell ref="G207:I207"/>
-    <mergeCell ref="G208:I208"/>
-    <mergeCell ref="C209:C221"/>
-    <mergeCell ref="D209:E209"/>
-    <mergeCell ref="G209:I209"/>
-    <mergeCell ref="D210:E210"/>
-    <mergeCell ref="G210:I210"/>
-    <mergeCell ref="D211:E211"/>
-    <mergeCell ref="G211:I211"/>
-    <mergeCell ref="D212:E212"/>
-    <mergeCell ref="G219:I219"/>
-    <mergeCell ref="D220:E220"/>
-    <mergeCell ref="G220:I220"/>
-    <mergeCell ref="G212:I212"/>
-    <mergeCell ref="D213:E216"/>
-    <mergeCell ref="F213:F216"/>
-    <mergeCell ref="G213:G216"/>
-    <mergeCell ref="D217:E217"/>
-    <mergeCell ref="G217:I217"/>
-    <mergeCell ref="C234:C243"/>
-    <mergeCell ref="D234:E234"/>
-    <mergeCell ref="G234:I234"/>
-    <mergeCell ref="D235:D236"/>
-    <mergeCell ref="G235:I235"/>
-    <mergeCell ref="G236:I236"/>
-    <mergeCell ref="D237:E241"/>
-    <mergeCell ref="F237:F241"/>
-    <mergeCell ref="G227:I227"/>
-    <mergeCell ref="D228:E228"/>
-    <mergeCell ref="G228:I228"/>
-    <mergeCell ref="D229:E229"/>
-    <mergeCell ref="G229:I229"/>
-    <mergeCell ref="D230:E230"/>
-    <mergeCell ref="G230:I230"/>
-    <mergeCell ref="C225:C230"/>
-    <mergeCell ref="D225:E225"/>
-    <mergeCell ref="G225:I225"/>
-    <mergeCell ref="D226:E226"/>
-    <mergeCell ref="G226:I226"/>
-    <mergeCell ref="D227:E227"/>
-    <mergeCell ref="C247:C252"/>
-    <mergeCell ref="D247:E247"/>
-    <mergeCell ref="G247:I247"/>
-    <mergeCell ref="D248:E248"/>
-    <mergeCell ref="G248:I248"/>
-    <mergeCell ref="D249:E249"/>
-    <mergeCell ref="G249:I249"/>
-    <mergeCell ref="D250:E250"/>
-    <mergeCell ref="G250:I250"/>
-    <mergeCell ref="C4:C19"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="C256:C260"/>
-    <mergeCell ref="D256:E256"/>
-    <mergeCell ref="G256:I256"/>
-    <mergeCell ref="D257:E257"/>
-    <mergeCell ref="G257:I257"/>
-    <mergeCell ref="D258:E258"/>
-    <mergeCell ref="G258:I258"/>
-    <mergeCell ref="D259:E259"/>
-    <mergeCell ref="G259:I259"/>
-    <mergeCell ref="D260:E260"/>
-    <mergeCell ref="D251:E251"/>
-    <mergeCell ref="G251:I251"/>
-    <mergeCell ref="D252:E252"/>
-    <mergeCell ref="G252:I252"/>
-    <mergeCell ref="G254:I254"/>
-    <mergeCell ref="G255:I255"/>
-    <mergeCell ref="G246:I246"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="G260:I260"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="G237:G241"/>
-    <mergeCell ref="D242:E242"/>
-    <mergeCell ref="G242:I242"/>
-    <mergeCell ref="D243:E243"/>
-    <mergeCell ref="G243:I243"/>
-    <mergeCell ref="G245:I245"/>
-    <mergeCell ref="G232:I232"/>
-    <mergeCell ref="G233:I233"/>
-    <mergeCell ref="D221:E221"/>
-    <mergeCell ref="G221:I221"/>
-    <mergeCell ref="G223:I223"/>
-    <mergeCell ref="G224:I224"/>
-    <mergeCell ref="D218:E218"/>
-    <mergeCell ref="G218:I218"/>
-    <mergeCell ref="D219:E219"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="D10:D14"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G14:I14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/Table_List/00_TableList.xlsx
+++ b/Documents/Table_List/00_TableList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-02\Desktop\github\DefensiveDungeon\Documents\Table_List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC08D54D-F2DE-4F71-9B34-5198C01E035A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{494536B7-5EE1-49B4-A52F-3E36F37F1AB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{81B8BADF-0D58-4324-99A2-78BDE441F027}"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="11385" xr2:uid="{81B8BADF-0D58-4324-99A2-78BDE441F027}"/>
   </bookViews>
   <sheets>
     <sheet name="Table_List" sheetId="1" r:id="rId1"/>
@@ -602,14 +602,7 @@
     <t>데미지</t>
   </si>
   <si>
-    <t>Dmg</t>
-  </si>
-  <si>
     <t>타겟의 HP 감소를 위한 [Atk] % 함수 값 (1.00 = 100%)</t>
-  </si>
-  <si>
-    <t>Dmg_plus</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>float</t>
@@ -1384,6 +1377,14 @@
   </si>
   <si>
     <t>타워가 가지게되는 레벨이며 최대 3까지 증가 가능하다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dmg_Percent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dmg_Fix</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1476,7 +1477,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -1681,13 +1682,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1766,17 +1782,17 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1787,7 +1803,79 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1808,74 +1896,17 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2193,8 +2224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2830DD9-FF1F-44AD-8D27-2F6B2C372548}">
   <dimension ref="A1:K262"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G119" sqref="G119:I119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="13.5"/>
@@ -2229,10 +2260,10 @@
       <c r="F2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="27"/>
+      <c r="H2" s="29"/>
       <c r="I2" s="28"/>
       <c r="J2" s="3" t="s">
         <v>6</v>
@@ -2254,10 +2285,10 @@
       <c r="F3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="29" t="s">
+      <c r="G3" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="27"/>
+      <c r="H3" s="29"/>
       <c r="I3" s="28"/>
       <c r="J3" s="4" t="s">
         <v>13</v>
@@ -2268,19 +2299,19 @@
         <v>1</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>421</v>
-      </c>
-      <c r="D4" s="33" t="s">
+        <v>419</v>
+      </c>
+      <c r="D4" s="27" t="s">
         <v>0</v>
       </c>
       <c r="E4" s="28"/>
       <c r="F4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="27"/>
+      <c r="G4" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="29"/>
       <c r="I4" s="28"/>
       <c r="J4" s="6" t="s">
         <v>16</v>
@@ -2291,17 +2322,17 @@
         <v>2</v>
       </c>
       <c r="C5" s="31"/>
-      <c r="D5" s="33" t="s">
+      <c r="D5" s="27" t="s">
         <v>17</v>
       </c>
       <c r="E5" s="28"/>
       <c r="F5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="33" t="s">
+      <c r="G5" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="27"/>
+      <c r="H5" s="29"/>
       <c r="I5" s="28"/>
       <c r="J5" s="6" t="s">
         <v>19</v>
@@ -2312,17 +2343,17 @@
         <v>3</v>
       </c>
       <c r="C6" s="31"/>
-      <c r="D6" s="33" t="s">
+      <c r="D6" s="27" t="s">
         <v>20</v>
       </c>
       <c r="E6" s="28"/>
       <c r="F6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="33" t="s">
+      <c r="G6" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="27"/>
+      <c r="H6" s="29"/>
       <c r="I6" s="28"/>
       <c r="J6" s="6" t="s">
         <v>21</v>
@@ -2333,20 +2364,20 @@
         <v>4</v>
       </c>
       <c r="C7" s="31"/>
-      <c r="D7" s="33" t="s">
+      <c r="D7" s="27" t="s">
         <v>22</v>
       </c>
       <c r="E7" s="28"/>
       <c r="F7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="27"/>
+      <c r="G7" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="29"/>
       <c r="I7" s="28"/>
       <c r="J7" s="6" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="8" spans="2:10">
@@ -2363,13 +2394,13 @@
       <c r="F8" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="33" t="s">
+      <c r="G8" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="27"/>
+      <c r="H8" s="29"/>
       <c r="I8" s="28"/>
       <c r="J8" s="6" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="27">
@@ -2384,10 +2415,10 @@
       <c r="F9" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="33" t="s">
+      <c r="G9" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="H9" s="27"/>
+      <c r="H9" s="29"/>
       <c r="I9" s="28"/>
       <c r="J9" s="7" t="s">
         <v>34</v>
@@ -2405,10 +2436,10 @@
       <c r="F10" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G10" s="33" t="s">
+      <c r="G10" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="27"/>
+      <c r="H10" s="29"/>
       <c r="I10" s="28"/>
       <c r="J10" s="6" t="s">
         <v>37</v>
@@ -2426,10 +2457,10 @@
       <c r="F11" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="33" t="s">
+      <c r="G11" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="H11" s="27"/>
+      <c r="H11" s="29"/>
       <c r="I11" s="28"/>
       <c r="J11" s="6" t="s">
         <v>40</v>
@@ -2447,13 +2478,13 @@
       <c r="F12" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G12" s="33" t="s">
+      <c r="G12" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="H12" s="27"/>
+      <c r="H12" s="29"/>
       <c r="I12" s="28"/>
       <c r="J12" s="6" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="13" spans="2:10">
@@ -2470,13 +2501,13 @@
       <c r="F13" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="G13" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="27"/>
+      <c r="G13" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="29"/>
       <c r="I13" s="28"/>
       <c r="J13" s="6" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="14" spans="2:10">
@@ -2491,10 +2522,10 @@
       <c r="F14" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="G14" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="27"/>
+      <c r="G14" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="29"/>
       <c r="I14" s="28"/>
       <c r="J14" s="6" t="s">
         <v>48</v>
@@ -2512,10 +2543,10 @@
       <c r="F15" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G15" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" s="27"/>
+      <c r="G15" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="29"/>
       <c r="I15" s="28"/>
       <c r="J15" s="6" t="s">
         <v>48</v>
@@ -2526,20 +2557,20 @@
         <v>13</v>
       </c>
       <c r="C16" s="31"/>
-      <c r="D16" s="40" t="s">
-        <v>422</v>
-      </c>
-      <c r="E16" s="41"/>
+      <c r="D16" s="33" t="s">
+        <v>420</v>
+      </c>
+      <c r="E16" s="34"/>
       <c r="F16" s="6" t="s">
-        <v>423</v>
-      </c>
-      <c r="G16" s="33" t="s">
+        <v>421</v>
+      </c>
+      <c r="G16" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="H16" s="27"/>
+      <c r="H16" s="29"/>
       <c r="I16" s="28"/>
       <c r="J16" s="6" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -2547,17 +2578,17 @@
         <v>14</v>
       </c>
       <c r="C17" s="31"/>
-      <c r="D17" s="33" t="s">
+      <c r="D17" s="27" t="s">
         <v>61</v>
       </c>
       <c r="E17" s="28"/>
       <c r="F17" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="G17" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="H17" s="27"/>
+      <c r="G17" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="29"/>
       <c r="I17" s="28"/>
       <c r="J17" s="6" t="s">
         <v>63</v>
@@ -2568,17 +2599,17 @@
         <v>15</v>
       </c>
       <c r="C18" s="32"/>
-      <c r="D18" s="33" t="s">
+      <c r="D18" s="27" t="s">
         <v>64</v>
       </c>
       <c r="E18" s="28"/>
       <c r="F18" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="G18" s="33" t="s">
+      <c r="G18" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="H18" s="27"/>
+      <c r="H18" s="29"/>
       <c r="I18" s="28"/>
       <c r="J18" s="6" t="s">
         <v>66</v>
@@ -2614,10 +2645,10 @@
       <c r="F20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G20" s="26" t="s">
+      <c r="G20" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="H20" s="27"/>
+      <c r="H20" s="29"/>
       <c r="I20" s="28"/>
       <c r="J20" s="3" t="s">
         <v>6</v>
@@ -2641,10 +2672,10 @@
       <c r="F21" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="29" t="s">
+      <c r="G21" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="H21" s="27"/>
+      <c r="H21" s="29"/>
       <c r="I21" s="28"/>
       <c r="J21" s="4" t="s">
         <v>13</v>
@@ -2659,17 +2690,17 @@
       <c r="C22" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="33" t="s">
+      <c r="D22" s="27" t="s">
         <v>0</v>
       </c>
       <c r="E22" s="28"/>
       <c r="F22" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G22" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="H22" s="27"/>
+      <c r="G22" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="29"/>
       <c r="I22" s="28"/>
       <c r="J22" s="6" t="s">
         <v>16</v>
@@ -2682,17 +2713,17 @@
         <v>2</v>
       </c>
       <c r="C23" s="31"/>
-      <c r="D23" s="33" t="s">
+      <c r="D23" s="27" t="s">
         <v>17</v>
       </c>
       <c r="E23" s="28"/>
       <c r="F23" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G23" s="33" t="s">
+      <c r="G23" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="H23" s="27"/>
+      <c r="H23" s="29"/>
       <c r="I23" s="28"/>
       <c r="J23" s="6" t="s">
         <v>19</v>
@@ -2705,17 +2736,17 @@
         <v>3</v>
       </c>
       <c r="C24" s="31"/>
-      <c r="D24" s="33" t="s">
+      <c r="D24" s="27" t="s">
         <v>20</v>
       </c>
       <c r="E24" s="28"/>
       <c r="F24" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G24" s="33" t="s">
+      <c r="G24" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="H24" s="27"/>
+      <c r="H24" s="29"/>
       <c r="I24" s="28"/>
       <c r="J24" s="6" t="s">
         <v>21</v>
@@ -2728,20 +2759,20 @@
         <v>4</v>
       </c>
       <c r="C25" s="31"/>
-      <c r="D25" s="33" t="s">
+      <c r="D25" s="27" t="s">
         <v>22</v>
       </c>
       <c r="E25" s="28"/>
       <c r="F25" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G25" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="H25" s="27"/>
+      <c r="G25" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" s="29"/>
       <c r="I25" s="28"/>
       <c r="J25" s="6" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="K25" s="1"/>
     </row>
@@ -2751,20 +2782,20 @@
         <v>5</v>
       </c>
       <c r="C26" s="31"/>
-      <c r="D26" s="33" t="s">
+      <c r="D26" s="27" t="s">
         <v>24</v>
       </c>
       <c r="E26" s="28"/>
       <c r="F26" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G26" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="H26" s="27"/>
+      <c r="G26" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" s="29"/>
       <c r="I26" s="28"/>
       <c r="J26" s="7" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="K26" s="1"/>
     </row>
@@ -2774,20 +2805,20 @@
         <v>6</v>
       </c>
       <c r="C27" s="31"/>
-      <c r="D27" s="33" t="s">
-        <v>384</v>
+      <c r="D27" s="27" t="s">
+        <v>382</v>
       </c>
       <c r="E27" s="28"/>
       <c r="F27" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G27" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="H27" s="27"/>
+      <c r="G27" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" s="29"/>
       <c r="I27" s="28"/>
       <c r="J27" s="7" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="K27" s="1"/>
     </row>
@@ -2797,20 +2828,20 @@
         <v>7</v>
       </c>
       <c r="C28" s="31"/>
-      <c r="D28" s="34" t="s">
-        <v>385</v>
-      </c>
-      <c r="E28" s="35"/>
+      <c r="D28" s="58" t="s">
+        <v>383</v>
+      </c>
+      <c r="E28" s="59"/>
       <c r="F28" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="G28" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="H28" s="36"/>
-      <c r="I28" s="37"/>
+      <c r="G28" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="H28" s="60"/>
+      <c r="I28" s="61"/>
       <c r="J28" s="24" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="K28" s="1"/>
     </row>
@@ -2829,13 +2860,13 @@
       <c r="F29" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G29" s="33" t="s">
+      <c r="G29" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="H29" s="27"/>
+      <c r="H29" s="29"/>
       <c r="I29" s="28"/>
       <c r="J29" s="6" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="K29" s="1"/>
     </row>
@@ -2852,10 +2883,10 @@
       <c r="F30" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="G30" s="33" t="s">
+      <c r="G30" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="H30" s="27"/>
+      <c r="H30" s="29"/>
       <c r="I30" s="28"/>
       <c r="J30" s="6" t="s">
         <v>40</v>
@@ -2875,13 +2906,13 @@
       <c r="F31" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G31" s="33" t="s">
+      <c r="G31" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="H31" s="27"/>
+      <c r="H31" s="29"/>
       <c r="I31" s="28"/>
       <c r="J31" s="6" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="K31" s="1"/>
     </row>
@@ -2900,13 +2931,13 @@
       <c r="F32" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="G32" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="H32" s="27"/>
+      <c r="G32" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H32" s="29"/>
       <c r="I32" s="28"/>
       <c r="J32" s="6" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="K32" s="1"/>
     </row>
@@ -2923,10 +2954,10 @@
       <c r="F33" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="G33" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="H33" s="27"/>
+      <c r="G33" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H33" s="29"/>
       <c r="I33" s="28"/>
       <c r="J33" s="6" t="s">
         <v>48</v>
@@ -2946,10 +2977,10 @@
       <c r="F34" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G34" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="H34" s="27"/>
+      <c r="G34" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H34" s="29"/>
       <c r="I34" s="28"/>
       <c r="J34" s="6" t="s">
         <v>48</v>
@@ -2971,10 +3002,10 @@
       <c r="F35" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="G35" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="H35" s="27"/>
+      <c r="G35" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H35" s="29"/>
       <c r="I35" s="28"/>
       <c r="J35" s="6" t="s">
         <v>54</v>
@@ -2994,10 +3025,10 @@
       <c r="F36" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G36" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="H36" s="27"/>
+      <c r="G36" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H36" s="29"/>
       <c r="I36" s="28"/>
       <c r="J36" s="6" t="s">
         <v>54</v>
@@ -3010,20 +3041,20 @@
         <v>18</v>
       </c>
       <c r="C37" s="31"/>
-      <c r="D37" s="38" t="s">
-        <v>390</v>
-      </c>
-      <c r="E37" s="39"/>
+      <c r="D37" s="62" t="s">
+        <v>388</v>
+      </c>
+      <c r="E37" s="63"/>
       <c r="F37" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="G37" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="H37" s="36"/>
-      <c r="I37" s="37"/>
+      <c r="G37" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="H37" s="60"/>
+      <c r="I37" s="61"/>
       <c r="J37" s="23" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="K37" s="1"/>
     </row>
@@ -3033,17 +3064,17 @@
         <v>19</v>
       </c>
       <c r="C38" s="31"/>
-      <c r="D38" s="33" t="s">
+      <c r="D38" s="27" t="s">
         <v>58</v>
       </c>
       <c r="E38" s="28"/>
       <c r="F38" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="G38" s="33" t="s">
+      <c r="G38" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="H38" s="27"/>
+      <c r="H38" s="29"/>
       <c r="I38" s="28"/>
       <c r="J38" s="6" t="s">
         <v>60</v>
@@ -3056,20 +3087,20 @@
         <v>20</v>
       </c>
       <c r="C39" s="31"/>
-      <c r="D39" s="40" t="s">
-        <v>422</v>
-      </c>
-      <c r="E39" s="41"/>
+      <c r="D39" s="33" t="s">
+        <v>420</v>
+      </c>
+      <c r="E39" s="34"/>
       <c r="F39" s="6" t="s">
-        <v>423</v>
-      </c>
-      <c r="G39" s="33" t="s">
+        <v>421</v>
+      </c>
+      <c r="G39" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="H39" s="27"/>
+      <c r="H39" s="29"/>
       <c r="I39" s="28"/>
       <c r="J39" s="6" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="K39" s="1"/>
     </row>
@@ -3079,17 +3110,17 @@
         <v>21</v>
       </c>
       <c r="C40" s="31"/>
-      <c r="D40" s="33" t="s">
+      <c r="D40" s="27" t="s">
         <v>61</v>
       </c>
       <c r="E40" s="28"/>
       <c r="F40" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="G40" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="H40" s="27"/>
+      <c r="G40" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H40" s="29"/>
       <c r="I40" s="28"/>
       <c r="J40" s="6" t="s">
         <v>63</v>
@@ -3102,17 +3133,17 @@
         <v>22</v>
       </c>
       <c r="C41" s="32"/>
-      <c r="D41" s="33" t="s">
+      <c r="D41" s="27" t="s">
         <v>64</v>
       </c>
       <c r="E41" s="28"/>
       <c r="F41" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="G41" s="33" t="s">
+      <c r="G41" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="H41" s="27"/>
+      <c r="H41" s="29"/>
       <c r="I41" s="28"/>
       <c r="J41" s="6" t="s">
         <v>66</v>
@@ -3149,10 +3180,10 @@
       <c r="F43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G43" s="26" t="s">
+      <c r="G43" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="H43" s="27"/>
+      <c r="H43" s="29"/>
       <c r="I43" s="28"/>
       <c r="J43" s="3" t="s">
         <v>6</v>
@@ -3176,10 +3207,10 @@
       <c r="F44" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G44" s="29" t="s">
+      <c r="G44" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="H44" s="27"/>
+      <c r="H44" s="29"/>
       <c r="I44" s="28"/>
       <c r="J44" s="4" t="s">
         <v>13</v>
@@ -3194,17 +3225,17 @@
       <c r="C45" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="D45" s="33" t="s">
+      <c r="D45" s="27" t="s">
         <v>0</v>
       </c>
       <c r="E45" s="28"/>
       <c r="F45" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G45" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="H45" s="27"/>
+      <c r="G45" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H45" s="29"/>
       <c r="I45" s="28"/>
       <c r="J45" s="6" t="s">
         <v>16</v>
@@ -3217,17 +3248,17 @@
         <v>2</v>
       </c>
       <c r="C46" s="31"/>
-      <c r="D46" s="33" t="s">
+      <c r="D46" s="27" t="s">
         <v>17</v>
       </c>
       <c r="E46" s="28"/>
       <c r="F46" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G46" s="33" t="s">
+      <c r="G46" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="H46" s="27"/>
+      <c r="H46" s="29"/>
       <c r="I46" s="28"/>
       <c r="J46" s="6" t="s">
         <v>19</v>
@@ -3240,17 +3271,17 @@
         <v>3</v>
       </c>
       <c r="C47" s="31"/>
-      <c r="D47" s="33" t="s">
+      <c r="D47" s="27" t="s">
         <v>20</v>
       </c>
       <c r="E47" s="28"/>
       <c r="F47" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G47" s="33" t="s">
+      <c r="G47" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="H47" s="27"/>
+      <c r="H47" s="29"/>
       <c r="I47" s="28"/>
       <c r="J47" s="6" t="s">
         <v>21</v>
@@ -3263,33 +3294,33 @@
         <v>4</v>
       </c>
       <c r="C48" s="31"/>
-      <c r="D48" s="33" t="s">
+      <c r="D48" s="27" t="s">
         <v>22</v>
       </c>
       <c r="E48" s="28"/>
       <c r="F48" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G48" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="H48" s="27"/>
+      <c r="G48" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H48" s="29"/>
       <c r="I48" s="28"/>
       <c r="J48" s="6" t="s">
         <v>68</v>
       </c>
       <c r="K48" s="1"/>
     </row>
-    <row r="49" spans="1:11" ht="27">
+    <row r="49" spans="1:11" ht="27" hidden="1">
       <c r="A49" s="1"/>
       <c r="B49" s="5">
         <v>5</v>
       </c>
       <c r="C49" s="31"/>
-      <c r="D49" s="42" t="s">
+      <c r="D49" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="E49" s="43"/>
+      <c r="E49" s="41"/>
       <c r="F49" s="30" t="s">
         <v>70</v>
       </c>
@@ -3307,14 +3338,14 @@
       </c>
       <c r="K49" s="1"/>
     </row>
-    <row r="50" spans="1:11" ht="27">
+    <row r="50" spans="1:11" ht="27" hidden="1">
       <c r="A50" s="1"/>
       <c r="B50" s="5">
         <v>6</v>
       </c>
       <c r="C50" s="31"/>
-      <c r="D50" s="44"/>
-      <c r="E50" s="45"/>
+      <c r="D50" s="45"/>
+      <c r="E50" s="46"/>
       <c r="F50" s="32"/>
       <c r="G50" s="32"/>
       <c r="H50" s="6">
@@ -3343,10 +3374,10 @@
       <c r="F51" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G51" s="33" t="s">
+      <c r="G51" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="H51" s="27"/>
+      <c r="H51" s="29"/>
       <c r="I51" s="28"/>
       <c r="J51" s="6" t="s">
         <v>74</v>
@@ -3366,10 +3397,10 @@
       <c r="F52" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="G52" s="33" t="s">
+      <c r="G52" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="H52" s="27"/>
+      <c r="H52" s="29"/>
       <c r="I52" s="28"/>
       <c r="J52" s="6" t="s">
         <v>76</v>
@@ -3389,10 +3420,10 @@
       <c r="F53" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G53" s="33" t="s">
+      <c r="G53" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="H53" s="27"/>
+      <c r="H53" s="29"/>
       <c r="I53" s="28"/>
       <c r="J53" s="6" t="s">
         <v>77</v>
@@ -3412,10 +3443,10 @@
       <c r="F54" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="G54" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="H54" s="27"/>
+      <c r="G54" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H54" s="29"/>
       <c r="I54" s="28"/>
       <c r="J54" s="6" t="s">
         <v>80</v>
@@ -3435,17 +3466,17 @@
       <c r="F55" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="G55" s="33" t="s">
+      <c r="G55" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="H55" s="27"/>
+      <c r="H55" s="29"/>
       <c r="I55" s="28"/>
       <c r="J55" s="6" t="s">
         <v>83</v>
       </c>
       <c r="K55" s="1"/>
     </row>
-    <row r="56" spans="1:11" ht="27">
+    <row r="56" spans="1:11" ht="27" hidden="1">
       <c r="A56" s="1"/>
       <c r="B56" s="5">
         <v>13</v>
@@ -3460,17 +3491,17 @@
       <c r="F56" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="G56" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="H56" s="47"/>
-      <c r="I56" s="48"/>
+      <c r="G56" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="H56" s="55"/>
+      <c r="I56" s="56"/>
       <c r="J56" s="7" t="s">
         <v>87</v>
       </c>
       <c r="K56" s="1"/>
     </row>
-    <row r="57" spans="1:11" ht="15" customHeight="1">
+    <row r="57" spans="1:11" ht="15" hidden="1" customHeight="1">
       <c r="A57" s="1"/>
       <c r="B57" s="5">
         <v>14</v>
@@ -3479,7 +3510,7 @@
       <c r="D57" s="31"/>
       <c r="E57" s="31"/>
       <c r="F57" s="31"/>
-      <c r="G57" s="49" t="s">
+      <c r="G57" s="57" t="s">
         <v>15</v>
       </c>
       <c r="H57" s="6">
@@ -3493,7 +3524,7 @@
       </c>
       <c r="K57" s="1"/>
     </row>
-    <row r="58" spans="1:11" ht="15" customHeight="1">
+    <row r="58" spans="1:11" ht="15" hidden="1" customHeight="1">
       <c r="A58" s="1"/>
       <c r="B58" s="5">
         <v>15</v>
@@ -3514,7 +3545,7 @@
       </c>
       <c r="K58" s="1"/>
     </row>
-    <row r="59" spans="1:11" ht="15" customHeight="1">
+    <row r="59" spans="1:11" ht="15" hidden="1" customHeight="1">
       <c r="A59" s="1"/>
       <c r="B59" s="5">
         <v>16</v>
@@ -3535,7 +3566,7 @@
       </c>
       <c r="K59" s="1"/>
     </row>
-    <row r="60" spans="1:11" ht="15" customHeight="1">
+    <row r="60" spans="1:11" ht="15" hidden="1" customHeight="1">
       <c r="A60" s="1"/>
       <c r="B60" s="5">
         <v>17</v>
@@ -3556,7 +3587,7 @@
       </c>
       <c r="K60" s="1"/>
     </row>
-    <row r="61" spans="1:11" ht="15" customHeight="1">
+    <row r="61" spans="1:11" ht="15" hidden="1" customHeight="1">
       <c r="A61" s="1"/>
       <c r="B61" s="5">
         <v>18</v>
@@ -3577,7 +3608,7 @@
       </c>
       <c r="K61" s="1"/>
     </row>
-    <row r="62" spans="1:11" ht="15" customHeight="1">
+    <row r="62" spans="1:11" ht="15" hidden="1" customHeight="1">
       <c r="A62" s="1"/>
       <c r="B62" s="5">
         <v>19</v>
@@ -3598,7 +3629,7 @@
       </c>
       <c r="K62" s="1"/>
     </row>
-    <row r="63" spans="1:11" ht="15" customHeight="1">
+    <row r="63" spans="1:11" ht="15" hidden="1" customHeight="1">
       <c r="A63" s="1"/>
       <c r="B63" s="5">
         <v>20</v>
@@ -3619,7 +3650,7 @@
       </c>
       <c r="K63" s="1"/>
     </row>
-    <row r="64" spans="1:11" ht="15" customHeight="1">
+    <row r="64" spans="1:11" ht="15" hidden="1" customHeight="1">
       <c r="A64" s="1"/>
       <c r="B64" s="5">
         <v>21</v>
@@ -3640,7 +3671,7 @@
       </c>
       <c r="K64" s="1"/>
     </row>
-    <row r="65" spans="1:11" ht="15" customHeight="1">
+    <row r="65" spans="1:11" ht="15" hidden="1" customHeight="1">
       <c r="A65" s="1"/>
       <c r="B65" s="5">
         <v>22</v>
@@ -3661,7 +3692,7 @@
       </c>
       <c r="K65" s="1"/>
     </row>
-    <row r="66" spans="1:11" ht="15" customHeight="1">
+    <row r="66" spans="1:11" ht="15" hidden="1" customHeight="1">
       <c r="A66" s="1"/>
       <c r="B66" s="5">
         <v>23</v>
@@ -3682,7 +3713,7 @@
       </c>
       <c r="K66" s="1"/>
     </row>
-    <row r="67" spans="1:11" ht="15" customHeight="1">
+    <row r="67" spans="1:11" ht="15" hidden="1" customHeight="1">
       <c r="A67" s="1"/>
       <c r="B67" s="5">
         <v>24</v>
@@ -3696,14 +3727,14 @@
         <v>11</v>
       </c>
       <c r="I67" s="6" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="J67" s="6" t="s">
         <v>104</v>
       </c>
       <c r="K67" s="1"/>
     </row>
-    <row r="68" spans="1:11" ht="15" customHeight="1">
+    <row r="68" spans="1:11" ht="15" hidden="1" customHeight="1">
       <c r="A68" s="1"/>
       <c r="B68" s="5">
         <v>25</v>
@@ -3717,7 +3748,7 @@
         <v>12</v>
       </c>
       <c r="I68" s="6" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="J68" s="6" t="s">
         <v>105</v>
@@ -3739,10 +3770,10 @@
       <c r="F69" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="G69" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="H69" s="27"/>
+      <c r="G69" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H69" s="29"/>
       <c r="I69" s="28"/>
       <c r="J69" s="6" t="s">
         <v>107</v>
@@ -3762,10 +3793,10 @@
       <c r="F70" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="G70" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="H70" s="27"/>
+      <c r="G70" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H70" s="29"/>
       <c r="I70" s="28"/>
       <c r="J70" s="6" t="s">
         <v>48</v>
@@ -3785,17 +3816,17 @@
       <c r="F71" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G71" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="H71" s="27"/>
+      <c r="G71" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H71" s="29"/>
       <c r="I71" s="28"/>
       <c r="J71" s="6" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="K71" s="1"/>
     </row>
-    <row r="72" spans="1:11" ht="15" customHeight="1">
+    <row r="72" spans="1:11" ht="15" hidden="1" customHeight="1">
       <c r="A72" s="1"/>
       <c r="B72" s="5">
         <v>29</v>
@@ -3808,13 +3839,13 @@
       <c r="F72" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="G72" s="33" t="s">
+      <c r="G72" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="H72" s="27"/>
+      <c r="H72" s="29"/>
       <c r="I72" s="28"/>
       <c r="J72" s="6" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K72" s="1"/>
     </row>
@@ -3824,20 +3855,20 @@
         <v>30</v>
       </c>
       <c r="C73" s="31"/>
-      <c r="D73" s="40" t="s">
-        <v>422</v>
-      </c>
-      <c r="E73" s="41"/>
+      <c r="D73" s="33" t="s">
+        <v>420</v>
+      </c>
+      <c r="E73" s="34"/>
       <c r="F73" s="6" t="s">
-        <v>423</v>
-      </c>
-      <c r="G73" s="33" t="s">
+        <v>421</v>
+      </c>
+      <c r="G73" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="H73" s="27"/>
+      <c r="H73" s="29"/>
       <c r="I73" s="28"/>
       <c r="J73" s="6" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="K73" s="1"/>
     </row>
@@ -3847,20 +3878,20 @@
         <v>31</v>
       </c>
       <c r="C74" s="31"/>
-      <c r="D74" s="33" t="s">
+      <c r="D74" s="27" t="s">
         <v>61</v>
       </c>
       <c r="E74" s="28"/>
       <c r="F74" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="G74" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="H74" s="27"/>
+      <c r="G74" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H74" s="29"/>
       <c r="I74" s="28"/>
       <c r="J74" s="6" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="K74" s="1"/>
     </row>
@@ -3870,17 +3901,17 @@
         <v>32</v>
       </c>
       <c r="C75" s="32"/>
-      <c r="D75" s="33" t="s">
+      <c r="D75" s="27" t="s">
         <v>64</v>
       </c>
       <c r="E75" s="28"/>
       <c r="F75" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="G75" s="33" t="s">
+      <c r="G75" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="H75" s="27"/>
+      <c r="H75" s="29"/>
       <c r="I75" s="28"/>
       <c r="J75" s="6" t="s">
         <v>66</v>
@@ -3917,10 +3948,10 @@
       <c r="F77" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G77" s="26" t="s">
+      <c r="G77" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="H77" s="27"/>
+      <c r="H77" s="29"/>
       <c r="I77" s="28"/>
       <c r="J77" s="3" t="s">
         <v>6</v>
@@ -3944,10 +3975,10 @@
       <c r="F78" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G78" s="29" t="s">
+      <c r="G78" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="H78" s="27"/>
+      <c r="H78" s="29"/>
       <c r="I78" s="28"/>
       <c r="J78" s="4" t="s">
         <v>13</v>
@@ -3962,20 +3993,20 @@
       <c r="C79" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="D79" s="33" t="s">
+      <c r="D79" s="27" t="s">
         <v>0</v>
       </c>
       <c r="E79" s="28"/>
       <c r="F79" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G79" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="H79" s="27"/>
+      <c r="G79" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H79" s="29"/>
       <c r="I79" s="28"/>
       <c r="J79" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="K79" s="1"/>
     </row>
@@ -3985,20 +4016,20 @@
         <v>2</v>
       </c>
       <c r="C80" s="31"/>
-      <c r="D80" s="33" t="s">
+      <c r="D80" s="27" t="s">
         <v>17</v>
       </c>
       <c r="E80" s="28"/>
       <c r="F80" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G80" s="33" t="s">
+      <c r="G80" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="H80" s="27"/>
+      <c r="H80" s="29"/>
       <c r="I80" s="28"/>
       <c r="J80" s="6" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="K80" s="1"/>
     </row>
@@ -4008,20 +4039,20 @@
         <v>3</v>
       </c>
       <c r="C81" s="31"/>
-      <c r="D81" s="33" t="s">
+      <c r="D81" s="27" t="s">
         <v>20</v>
       </c>
       <c r="E81" s="28"/>
       <c r="F81" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G81" s="33" t="s">
+      <c r="G81" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="H81" s="27"/>
+      <c r="H81" s="29"/>
       <c r="I81" s="28"/>
       <c r="J81" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="K81" s="1"/>
     </row>
@@ -4031,20 +4062,20 @@
         <v>4</v>
       </c>
       <c r="C82" s="31"/>
-      <c r="D82" s="33" t="s">
+      <c r="D82" s="27" t="s">
         <v>22</v>
       </c>
       <c r="E82" s="28"/>
       <c r="F82" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G82" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="H82" s="27"/>
+      <c r="G82" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H82" s="29"/>
       <c r="I82" s="28"/>
       <c r="J82" s="6" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="K82" s="1"/>
     </row>
@@ -4055,10 +4086,10 @@
       </c>
       <c r="C83" s="31"/>
       <c r="D83" s="30" t="s">
-        <v>400</v>
-      </c>
-      <c r="E83" s="52" t="s">
-        <v>401</v>
+        <v>398</v>
+      </c>
+      <c r="E83" s="53" t="s">
+        <v>399</v>
       </c>
       <c r="F83" s="30" t="s">
         <v>111</v>
@@ -4073,7 +4104,7 @@
         <v>112</v>
       </c>
       <c r="J83" s="6" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="K83" s="1"/>
     </row>
@@ -4082,14 +4113,14 @@
       <c r="B84" s="5"/>
       <c r="C84" s="31"/>
       <c r="D84" s="31"/>
-      <c r="E84" s="51"/>
+      <c r="E84" s="44"/>
       <c r="F84" s="31"/>
       <c r="G84" s="31"/>
       <c r="H84" s="8">
         <v>2</v>
       </c>
       <c r="I84" s="8" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="J84" s="6" t="s">
         <v>113</v>
@@ -4103,61 +4134,61 @@
       </c>
       <c r="C85" s="31"/>
       <c r="D85" s="31"/>
-      <c r="E85" s="45"/>
+      <c r="E85" s="46"/>
       <c r="F85" s="32"/>
-      <c r="G85" s="32"/>
-      <c r="H85" s="8">
+      <c r="G85" s="45"/>
+      <c r="H85" s="65">
         <v>3</v>
       </c>
-      <c r="I85" s="8" t="s">
-        <v>404</v>
-      </c>
-      <c r="J85" s="6" t="s">
-        <v>405</v>
+      <c r="I85" s="65" t="s">
+        <v>402</v>
+      </c>
+      <c r="J85" s="26" t="s">
+        <v>403</v>
       </c>
       <c r="K85" s="1"/>
     </row>
-    <row r="86" spans="1:11" ht="15" customHeight="1">
+    <row r="86" spans="1:11" ht="15" hidden="1" customHeight="1">
       <c r="A86" s="1"/>
       <c r="B86" s="5">
         <v>7</v>
       </c>
       <c r="C86" s="31"/>
       <c r="D86" s="31"/>
-      <c r="E86" s="52" t="s">
-        <v>406</v>
+      <c r="E86" s="53" t="s">
+        <v>404</v>
       </c>
       <c r="F86" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="G86" s="42" t="s">
+      <c r="G86" s="49" t="s">
         <v>115</v>
       </c>
-      <c r="H86" s="33" t="b">
+      <c r="H86" s="66" t="b">
         <v>1</v>
       </c>
-      <c r="I86" s="28"/>
+      <c r="I86" s="67"/>
       <c r="J86" s="9" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="K86" s="1"/>
     </row>
-    <row r="87" spans="1:11" ht="15" customHeight="1">
+    <row r="87" spans="1:11" ht="15" hidden="1" customHeight="1">
       <c r="A87" s="1"/>
       <c r="B87" s="5">
         <v>8</v>
       </c>
       <c r="C87" s="31"/>
       <c r="D87" s="32"/>
-      <c r="E87" s="45"/>
+      <c r="E87" s="46"/>
       <c r="F87" s="32"/>
-      <c r="G87" s="44"/>
-      <c r="H87" s="33" t="b">
+      <c r="G87" s="45"/>
+      <c r="H87" s="66" t="b">
         <v>0</v>
       </c>
-      <c r="I87" s="28"/>
+      <c r="I87" s="67"/>
       <c r="J87" s="9" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="K87" s="1"/>
     </row>
@@ -4167,23 +4198,23 @@
         <v>9</v>
       </c>
       <c r="C88" s="31"/>
-      <c r="D88" s="42" t="s">
+      <c r="D88" s="49" t="s">
         <v>116</v>
       </c>
-      <c r="E88" s="43"/>
+      <c r="E88" s="41"/>
       <c r="F88" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="G88" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H88" s="10">
+      <c r="G88" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="H88" s="65">
         <v>1</v>
       </c>
-      <c r="I88" s="10" t="s">
+      <c r="I88" s="65" t="s">
         <v>118</v>
       </c>
-      <c r="J88" s="7" t="s">
+      <c r="J88" s="64" t="s">
         <v>119</v>
       </c>
       <c r="K88" s="1"/>
@@ -4194,14 +4225,14 @@
         <v>10</v>
       </c>
       <c r="C89" s="31"/>
-      <c r="D89" s="50"/>
-      <c r="E89" s="51"/>
+      <c r="D89" s="43"/>
+      <c r="E89" s="44"/>
       <c r="F89" s="31"/>
       <c r="G89" s="31"/>
-      <c r="H89" s="6">
+      <c r="H89" s="10">
         <v>2</v>
       </c>
-      <c r="I89" s="6" t="s">
+      <c r="I89" s="10" t="s">
         <v>120</v>
       </c>
       <c r="J89" s="7" t="s">
@@ -4215,8 +4246,8 @@
         <v>11</v>
       </c>
       <c r="C90" s="31"/>
-      <c r="D90" s="50"/>
-      <c r="E90" s="51"/>
+      <c r="D90" s="43"/>
+      <c r="E90" s="44"/>
       <c r="F90" s="31"/>
       <c r="G90" s="31"/>
       <c r="H90" s="6">
@@ -4236,8 +4267,8 @@
         <v>12</v>
       </c>
       <c r="C91" s="31"/>
-      <c r="D91" s="50"/>
-      <c r="E91" s="51"/>
+      <c r="D91" s="43"/>
+      <c r="E91" s="44"/>
       <c r="F91" s="31"/>
       <c r="G91" s="31"/>
       <c r="H91" s="6">
@@ -4257,10 +4288,10 @@
         <v>14</v>
       </c>
       <c r="C92" s="31"/>
-      <c r="D92" s="42" t="s">
+      <c r="D92" s="49" t="s">
         <v>126</v>
       </c>
-      <c r="E92" s="43"/>
+      <c r="E92" s="41"/>
       <c r="F92" s="30" t="s">
         <v>127</v>
       </c>
@@ -4284,8 +4315,8 @@
         <v>15</v>
       </c>
       <c r="C93" s="31"/>
-      <c r="D93" s="50"/>
-      <c r="E93" s="51"/>
+      <c r="D93" s="43"/>
+      <c r="E93" s="44"/>
       <c r="F93" s="31"/>
       <c r="G93" s="31"/>
       <c r="H93" s="6">
@@ -4305,8 +4336,8 @@
         <v>16</v>
       </c>
       <c r="C94" s="31"/>
-      <c r="D94" s="44"/>
-      <c r="E94" s="45"/>
+      <c r="D94" s="45"/>
+      <c r="E94" s="46"/>
       <c r="F94" s="32"/>
       <c r="G94" s="32"/>
       <c r="H94" s="6">
@@ -4320,16 +4351,16 @@
       </c>
       <c r="K94" s="1"/>
     </row>
-    <row r="95" spans="1:11" ht="15" customHeight="1">
+    <row r="95" spans="1:11" ht="27">
       <c r="A95" s="1"/>
       <c r="B95" s="5">
         <v>17</v>
       </c>
       <c r="C95" s="31"/>
-      <c r="D95" s="42" t="s">
+      <c r="D95" s="49" t="s">
         <v>134</v>
       </c>
-      <c r="E95" s="43"/>
+      <c r="E95" s="41"/>
       <c r="F95" s="30" t="s">
         <v>135</v>
       </c>
@@ -4347,14 +4378,14 @@
       </c>
       <c r="K95" s="1"/>
     </row>
-    <row r="96" spans="1:11" ht="15" customHeight="1">
+    <row r="96" spans="1:11" ht="27">
       <c r="A96" s="1"/>
       <c r="B96" s="5">
         <v>18</v>
       </c>
       <c r="C96" s="31"/>
-      <c r="D96" s="50"/>
-      <c r="E96" s="51"/>
+      <c r="D96" s="43"/>
+      <c r="E96" s="44"/>
       <c r="F96" s="31"/>
       <c r="G96" s="31"/>
       <c r="H96" s="6">
@@ -4368,14 +4399,14 @@
       </c>
       <c r="K96" s="1"/>
     </row>
-    <row r="97" spans="1:11" ht="15" customHeight="1">
+    <row r="97" spans="1:11" ht="27">
       <c r="A97" s="1"/>
       <c r="B97" s="5">
         <v>19</v>
       </c>
       <c r="C97" s="31"/>
-      <c r="D97" s="50"/>
-      <c r="E97" s="51"/>
+      <c r="D97" s="43"/>
+      <c r="E97" s="44"/>
       <c r="F97" s="31"/>
       <c r="G97" s="31"/>
       <c r="H97" s="6">
@@ -4389,14 +4420,14 @@
       </c>
       <c r="K97" s="1"/>
     </row>
-    <row r="98" spans="1:11" ht="15" customHeight="1">
+    <row r="98" spans="1:11" ht="27">
       <c r="A98" s="1"/>
       <c r="B98" s="5">
         <v>20</v>
       </c>
       <c r="C98" s="31"/>
-      <c r="D98" s="50"/>
-      <c r="E98" s="51"/>
+      <c r="D98" s="43"/>
+      <c r="E98" s="44"/>
       <c r="F98" s="31"/>
       <c r="G98" s="31"/>
       <c r="H98" s="6">
@@ -4473,10 +4504,10 @@
       <c r="F101" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="G101" s="33" t="s">
+      <c r="G101" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="H101" s="27"/>
+      <c r="H101" s="29"/>
       <c r="I101" s="28"/>
       <c r="J101" s="6" t="s">
         <v>153</v>
@@ -4496,10 +4527,10 @@
       <c r="F102" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="G102" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="H102" s="27"/>
+      <c r="G102" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H102" s="29"/>
       <c r="I102" s="28"/>
       <c r="J102" s="6" t="s">
         <v>156</v>
@@ -4521,10 +4552,10 @@
       <c r="F103" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="G103" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="H103" s="27"/>
+      <c r="G103" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H103" s="29"/>
       <c r="I103" s="28"/>
       <c r="J103" s="6" t="s">
         <v>160</v>
@@ -4544,10 +4575,10 @@
       <c r="F104" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="G104" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="H104" s="27"/>
+      <c r="G104" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H104" s="29"/>
       <c r="I104" s="28"/>
       <c r="J104" s="6" t="s">
         <v>163</v>
@@ -4567,10 +4598,10 @@
       <c r="F105" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="G105" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="H105" s="27"/>
+      <c r="G105" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H105" s="29"/>
       <c r="I105" s="28"/>
       <c r="J105" s="6" t="s">
         <v>166</v>
@@ -4583,20 +4614,20 @@
         <v>28</v>
       </c>
       <c r="C106" s="31"/>
-      <c r="D106" s="33" t="s">
+      <c r="D106" s="27" t="s">
         <v>167</v>
       </c>
       <c r="E106" s="28"/>
       <c r="F106" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="G106" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="H106" s="27"/>
+      <c r="G106" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H106" s="29"/>
       <c r="I106" s="28"/>
       <c r="J106" s="6" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="K106" s="1"/>
     </row>
@@ -4606,17 +4637,17 @@
         <v>29</v>
       </c>
       <c r="C107" s="31"/>
-      <c r="D107" s="33" t="s">
+      <c r="D107" s="27" t="s">
         <v>169</v>
       </c>
       <c r="E107" s="28"/>
       <c r="F107" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="G107" s="33" t="s">
+      <c r="G107" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="H107" s="27"/>
+      <c r="H107" s="29"/>
       <c r="I107" s="28"/>
       <c r="J107" s="6" t="s">
         <v>171</v>
@@ -4629,17 +4660,17 @@
         <v>30</v>
       </c>
       <c r="C108" s="32"/>
-      <c r="D108" s="33" t="s">
+      <c r="D108" s="27" t="s">
         <v>64</v>
       </c>
       <c r="E108" s="28"/>
       <c r="F108" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="G108" s="33" t="s">
+      <c r="G108" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="H108" s="27"/>
+      <c r="H108" s="29"/>
       <c r="I108" s="28"/>
       <c r="J108" s="6" t="s">
         <v>66</v>
@@ -4676,10 +4707,10 @@
       <c r="F110" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G110" s="26" t="s">
+      <c r="G110" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="H110" s="27"/>
+      <c r="H110" s="29"/>
       <c r="I110" s="28"/>
       <c r="J110" s="3" t="s">
         <v>6</v>
@@ -4703,10 +4734,10 @@
       <c r="F111" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G111" s="29" t="s">
+      <c r="G111" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="H111" s="27"/>
+      <c r="H111" s="29"/>
       <c r="I111" s="28"/>
       <c r="J111" s="4" t="s">
         <v>13</v>
@@ -4721,17 +4752,17 @@
       <c r="C112" s="30" t="s">
         <v>172</v>
       </c>
-      <c r="D112" s="33" t="s">
+      <c r="D112" s="27" t="s">
         <v>0</v>
       </c>
       <c r="E112" s="28"/>
       <c r="F112" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G112" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="H112" s="27"/>
+      <c r="G112" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H112" s="29"/>
       <c r="I112" s="28"/>
       <c r="J112" s="6" t="s">
         <v>16</v>
@@ -4744,17 +4775,17 @@
         <v>2</v>
       </c>
       <c r="C113" s="31"/>
-      <c r="D113" s="33" t="s">
+      <c r="D113" s="27" t="s">
         <v>17</v>
       </c>
       <c r="E113" s="28"/>
       <c r="F113" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G113" s="33" t="s">
+      <c r="G113" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="H113" s="27"/>
+      <c r="H113" s="29"/>
       <c r="I113" s="28"/>
       <c r="J113" s="6" t="s">
         <v>19</v>
@@ -4767,17 +4798,17 @@
         <v>3</v>
       </c>
       <c r="C114" s="31"/>
-      <c r="D114" s="33" t="s">
+      <c r="D114" s="27" t="s">
         <v>20</v>
       </c>
       <c r="E114" s="28"/>
       <c r="F114" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G114" s="33" t="s">
+      <c r="G114" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="H114" s="27"/>
+      <c r="H114" s="29"/>
       <c r="I114" s="28"/>
       <c r="J114" s="6" t="s">
         <v>21</v>
@@ -4790,17 +4821,17 @@
         <v>4</v>
       </c>
       <c r="C115" s="31"/>
-      <c r="D115" s="33" t="s">
+      <c r="D115" s="27" t="s">
         <v>22</v>
       </c>
       <c r="E115" s="28"/>
       <c r="F115" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G115" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="H115" s="27"/>
+      <c r="G115" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H115" s="29"/>
       <c r="I115" s="28"/>
       <c r="J115" s="6" t="s">
         <v>68</v>
@@ -4822,10 +4853,10 @@
       <c r="F116" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="G116" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="H116" s="27"/>
+      <c r="G116" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H116" s="29"/>
       <c r="I116" s="28"/>
       <c r="J116" s="6" t="s">
         <v>176</v>
@@ -4845,10 +4876,10 @@
       <c r="F117" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="G117" s="33" t="s">
+      <c r="G117" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="H117" s="27"/>
+      <c r="H117" s="29"/>
       <c r="I117" s="28"/>
       <c r="J117" s="6" t="s">
         <v>179</v>
@@ -4861,20 +4892,20 @@
         <v>7</v>
       </c>
       <c r="C118" s="31"/>
-      <c r="D118" s="33" t="s">
+      <c r="D118" s="27" t="s">
         <v>180</v>
       </c>
       <c r="E118" s="28"/>
       <c r="F118" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="G118" s="33" t="s">
+        <v>425</v>
+      </c>
+      <c r="G118" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="H118" s="27"/>
+      <c r="H118" s="29"/>
       <c r="I118" s="28"/>
       <c r="J118" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K118" s="1"/>
     </row>
@@ -4884,20 +4915,20 @@
         <v>8</v>
       </c>
       <c r="C119" s="31"/>
-      <c r="D119" s="33" t="s">
-        <v>410</v>
-      </c>
-      <c r="E119" s="54"/>
+      <c r="D119" s="27" t="s">
+        <v>408</v>
+      </c>
+      <c r="E119" s="50"/>
       <c r="F119" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="G119" s="33" t="s">
-        <v>184</v>
-      </c>
-      <c r="H119" s="55"/>
-      <c r="I119" s="54"/>
+        <v>426</v>
+      </c>
+      <c r="G119" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="H119" s="52"/>
+      <c r="I119" s="50"/>
       <c r="J119" s="6" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="K119" s="1"/>
     </row>
@@ -4907,20 +4938,20 @@
         <v>9</v>
       </c>
       <c r="C120" s="31"/>
-      <c r="D120" s="42" t="s">
+      <c r="D120" s="49" t="s">
         <v>89</v>
       </c>
-      <c r="E120" s="43"/>
+      <c r="E120" s="41"/>
       <c r="F120" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="G120" s="33" t="s">
+        <v>183</v>
+      </c>
+      <c r="G120" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="H120" s="27"/>
+      <c r="H120" s="29"/>
       <c r="I120" s="28"/>
       <c r="J120" s="6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K120" s="1"/>
     </row>
@@ -4930,20 +4961,20 @@
         <v>10</v>
       </c>
       <c r="C121" s="31"/>
-      <c r="D121" s="33" t="s">
-        <v>187</v>
+      <c r="D121" s="27" t="s">
+        <v>185</v>
       </c>
       <c r="E121" s="28"/>
       <c r="F121" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="G121" s="33" t="s">
+        <v>186</v>
+      </c>
+      <c r="G121" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="H121" s="27"/>
+      <c r="H121" s="29"/>
       <c r="I121" s="28"/>
       <c r="J121" s="6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K121" s="1"/>
     </row>
@@ -4953,20 +4984,20 @@
         <v>11</v>
       </c>
       <c r="C122" s="31"/>
-      <c r="D122" s="53" t="s">
-        <v>190</v>
-      </c>
-      <c r="E122" s="45"/>
+      <c r="D122" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="E122" s="46"/>
       <c r="F122" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="G122" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="H122" s="27"/>
+        <v>189</v>
+      </c>
+      <c r="G122" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H122" s="29"/>
       <c r="I122" s="28"/>
       <c r="J122" s="6" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K122" s="1"/>
     </row>
@@ -4976,20 +5007,20 @@
         <v>12</v>
       </c>
       <c r="C123" s="31"/>
-      <c r="D123" s="33" t="s">
-        <v>193</v>
+      <c r="D123" s="27" t="s">
+        <v>191</v>
       </c>
       <c r="E123" s="28"/>
       <c r="F123" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="G123" s="33" t="s">
+        <v>192</v>
+      </c>
+      <c r="G123" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="H123" s="27"/>
+      <c r="H123" s="29"/>
       <c r="I123" s="28"/>
       <c r="J123" s="6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K123" s="1"/>
     </row>
@@ -4999,20 +5030,20 @@
         <v>13</v>
       </c>
       <c r="C124" s="31"/>
-      <c r="D124" s="33" t="s">
-        <v>196</v>
+      <c r="D124" s="27" t="s">
+        <v>194</v>
       </c>
       <c r="E124" s="28"/>
       <c r="F124" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="G124" s="33" t="s">
+        <v>195</v>
+      </c>
+      <c r="G124" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="H124" s="27"/>
+      <c r="H124" s="29"/>
       <c r="I124" s="28"/>
       <c r="J124" s="6" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K124" s="1"/>
     </row>
@@ -5022,20 +5053,20 @@
         <v>14</v>
       </c>
       <c r="C125" s="31"/>
-      <c r="D125" s="33" t="s">
-        <v>199</v>
+      <c r="D125" s="27" t="s">
+        <v>197</v>
       </c>
       <c r="E125" s="28"/>
       <c r="F125" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="G125" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="H125" s="27"/>
+        <v>198</v>
+      </c>
+      <c r="G125" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H125" s="29"/>
       <c r="I125" s="28"/>
       <c r="J125" s="6" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K125" s="1"/>
     </row>
@@ -5045,20 +5076,20 @@
         <v>15</v>
       </c>
       <c r="C126" s="31"/>
-      <c r="D126" s="33" t="s">
-        <v>202</v>
+      <c r="D126" s="27" t="s">
+        <v>200</v>
       </c>
       <c r="E126" s="28"/>
       <c r="F126" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="G126" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="H126" s="27"/>
+        <v>201</v>
+      </c>
+      <c r="G126" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H126" s="29"/>
       <c r="I126" s="28"/>
       <c r="J126" s="6" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K126" s="1"/>
     </row>
@@ -5068,17 +5099,17 @@
         <v>16</v>
       </c>
       <c r="C127" s="32"/>
-      <c r="D127" s="33" t="s">
+      <c r="D127" s="27" t="s">
         <v>64</v>
       </c>
       <c r="E127" s="28"/>
       <c r="F127" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="G127" s="33" t="s">
+      <c r="G127" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="H127" s="27"/>
+      <c r="H127" s="29"/>
       <c r="I127" s="28"/>
       <c r="J127" s="6" t="s">
         <v>66</v>
@@ -5115,10 +5146,10 @@
       <c r="F129" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G129" s="26" t="s">
+      <c r="G129" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="H129" s="27"/>
+      <c r="H129" s="29"/>
       <c r="I129" s="28"/>
       <c r="J129" s="3" t="s">
         <v>6</v>
@@ -5142,10 +5173,10 @@
       <c r="F130" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G130" s="29" t="s">
+      <c r="G130" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="H130" s="27"/>
+      <c r="H130" s="29"/>
       <c r="I130" s="28"/>
       <c r="J130" s="4" t="s">
         <v>13</v>
@@ -5158,19 +5189,19 @@
         <v>1</v>
       </c>
       <c r="C131" s="30" t="s">
-        <v>205</v>
-      </c>
-      <c r="D131" s="33" t="s">
+        <v>203</v>
+      </c>
+      <c r="D131" s="27" t="s">
         <v>0</v>
       </c>
       <c r="E131" s="28"/>
       <c r="F131" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G131" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="H131" s="27"/>
+      <c r="G131" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H131" s="29"/>
       <c r="I131" s="28"/>
       <c r="J131" s="6" t="s">
         <v>16</v>
@@ -5183,17 +5214,17 @@
         <v>2</v>
       </c>
       <c r="C132" s="31"/>
-      <c r="D132" s="33" t="s">
+      <c r="D132" s="27" t="s">
         <v>17</v>
       </c>
       <c r="E132" s="28"/>
       <c r="F132" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G132" s="33" t="s">
+      <c r="G132" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="H132" s="27"/>
+      <c r="H132" s="29"/>
       <c r="I132" s="28"/>
       <c r="J132" s="6" t="s">
         <v>19</v>
@@ -5206,17 +5237,17 @@
         <v>3</v>
       </c>
       <c r="C133" s="31"/>
-      <c r="D133" s="33" t="s">
+      <c r="D133" s="27" t="s">
         <v>20</v>
       </c>
       <c r="E133" s="28"/>
       <c r="F133" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G133" s="33" t="s">
+      <c r="G133" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="H133" s="27"/>
+      <c r="H133" s="29"/>
       <c r="I133" s="28"/>
       <c r="J133" s="6" t="s">
         <v>21</v>
@@ -5229,17 +5260,17 @@
         <v>4</v>
       </c>
       <c r="C134" s="31"/>
-      <c r="D134" s="33" t="s">
+      <c r="D134" s="27" t="s">
         <v>22</v>
       </c>
       <c r="E134" s="28"/>
       <c r="F134" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G134" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="H134" s="27"/>
+      <c r="G134" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H134" s="29"/>
       <c r="I134" s="28"/>
       <c r="J134" s="6" t="s">
         <v>68</v>
@@ -5253,13 +5284,13 @@
       </c>
       <c r="C135" s="31"/>
       <c r="D135" s="30" t="s">
+        <v>204</v>
+      </c>
+      <c r="E135" s="30" t="s">
+        <v>205</v>
+      </c>
+      <c r="F135" s="30" t="s">
         <v>206</v>
-      </c>
-      <c r="E135" s="30" t="s">
-        <v>207</v>
-      </c>
-      <c r="F135" s="30" t="s">
-        <v>208</v>
       </c>
       <c r="G135" s="30" t="s">
         <v>15</v>
@@ -5271,7 +5302,7 @@
         <v>29</v>
       </c>
       <c r="J135" s="6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K135" s="1"/>
     </row>
@@ -5292,7 +5323,7 @@
         <v>89</v>
       </c>
       <c r="J136" s="6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K136" s="1"/>
     </row>
@@ -5313,7 +5344,7 @@
         <v>35</v>
       </c>
       <c r="J137" s="6" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K137" s="1"/>
     </row>
@@ -5334,7 +5365,7 @@
         <v>92</v>
       </c>
       <c r="J138" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K138" s="1"/>
     </row>
@@ -5355,7 +5386,7 @@
         <v>94</v>
       </c>
       <c r="J139" s="6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K139" s="1"/>
     </row>
@@ -5376,7 +5407,7 @@
         <v>38</v>
       </c>
       <c r="J140" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K140" s="1"/>
     </row>
@@ -5397,7 +5428,7 @@
         <v>41</v>
       </c>
       <c r="J141" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K141" s="1"/>
     </row>
@@ -5418,7 +5449,7 @@
         <v>98</v>
       </c>
       <c r="J142" s="6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K142" s="1"/>
     </row>
@@ -5439,7 +5470,7 @@
         <v>100</v>
       </c>
       <c r="J143" s="6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K143" s="1"/>
     </row>
@@ -5457,10 +5488,10 @@
         <v>10</v>
       </c>
       <c r="I144" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="J144" s="6" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K144" s="1"/>
     </row>
@@ -5478,10 +5509,10 @@
         <v>11</v>
       </c>
       <c r="I145" s="6" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J145" s="6" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K145" s="1"/>
     </row>
@@ -5499,10 +5530,10 @@
         <v>12</v>
       </c>
       <c r="I146" s="6" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="J146" s="6" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K146" s="1"/>
     </row>
@@ -5520,10 +5551,10 @@
         <v>13</v>
       </c>
       <c r="I147" s="6" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="J147" s="6" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K147" s="1"/>
     </row>
@@ -5541,10 +5572,10 @@
         <v>14</v>
       </c>
       <c r="I148" s="6" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="J148" s="6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K148" s="1"/>
     </row>
@@ -5562,10 +5593,10 @@
         <v>15</v>
       </c>
       <c r="I149" s="6" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="J149" s="6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K149" s="1"/>
     </row>
@@ -5577,10 +5608,10 @@
       <c r="C150" s="31"/>
       <c r="D150" s="31"/>
       <c r="E150" s="30" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F150" s="30" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G150" s="30" t="s">
         <v>15</v>
@@ -5589,10 +5620,10 @@
         <v>1</v>
       </c>
       <c r="I150" s="6" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="J150" s="6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K150" s="1"/>
     </row>
@@ -5610,10 +5641,10 @@
         <v>2</v>
       </c>
       <c r="I151" s="6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J151" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K151" s="1"/>
     </row>
@@ -5625,18 +5656,18 @@
       <c r="C152" s="31"/>
       <c r="D152" s="31"/>
       <c r="E152" s="6" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F152" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="G152" s="33" t="s">
+        <v>235</v>
+      </c>
+      <c r="G152" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="H152" s="27"/>
+      <c r="H152" s="29"/>
       <c r="I152" s="28"/>
       <c r="J152" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K152" s="1"/>
     </row>
@@ -5648,18 +5679,18 @@
       <c r="C153" s="31"/>
       <c r="D153" s="31"/>
       <c r="E153" s="6" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F153" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="G153" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="G153" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="H153" s="27"/>
+      <c r="H153" s="29"/>
       <c r="I153" s="28"/>
       <c r="J153" s="6" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K153" s="1"/>
     </row>
@@ -5671,18 +5702,18 @@
       <c r="C154" s="31"/>
       <c r="D154" s="32"/>
       <c r="E154" s="6" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F154" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="G154" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="H154" s="27"/>
+        <v>241</v>
+      </c>
+      <c r="G154" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H154" s="29"/>
       <c r="I154" s="28"/>
       <c r="J154" s="6" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K154" s="1"/>
     </row>
@@ -5692,20 +5723,20 @@
         <v>25</v>
       </c>
       <c r="C155" s="31"/>
-      <c r="D155" s="33" t="s">
-        <v>196</v>
+      <c r="D155" s="27" t="s">
+        <v>194</v>
       </c>
       <c r="E155" s="28"/>
       <c r="F155" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="G155" s="33" t="s">
+        <v>243</v>
+      </c>
+      <c r="G155" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="H155" s="27"/>
+      <c r="H155" s="29"/>
       <c r="I155" s="28"/>
       <c r="J155" s="6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K155" s="1"/>
     </row>
@@ -5715,20 +5746,20 @@
         <v>26</v>
       </c>
       <c r="C156" s="31"/>
-      <c r="D156" s="33" t="s">
+      <c r="D156" s="27" t="s">
         <v>61</v>
       </c>
       <c r="E156" s="28"/>
       <c r="F156" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="G156" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="H156" s="27"/>
+      <c r="G156" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H156" s="29"/>
       <c r="I156" s="28"/>
       <c r="J156" s="6" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K156" s="1"/>
     </row>
@@ -5738,17 +5769,17 @@
         <v>27</v>
       </c>
       <c r="C157" s="32"/>
-      <c r="D157" s="33" t="s">
+      <c r="D157" s="27" t="s">
         <v>64</v>
       </c>
       <c r="E157" s="28"/>
       <c r="F157" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="G157" s="33" t="s">
+      <c r="G157" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="H157" s="27"/>
+      <c r="H157" s="29"/>
       <c r="I157" s="28"/>
       <c r="J157" s="6" t="s">
         <v>66</v>
@@ -5785,10 +5816,10 @@
       <c r="F159" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G159" s="26" t="s">
+      <c r="G159" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="H159" s="27"/>
+      <c r="H159" s="29"/>
       <c r="I159" s="28"/>
       <c r="J159" s="3" t="s">
         <v>6</v>
@@ -5812,10 +5843,10 @@
       <c r="F160" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G160" s="29" t="s">
+      <c r="G160" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="H160" s="27"/>
+      <c r="H160" s="29"/>
       <c r="I160" s="28"/>
       <c r="J160" s="4" t="s">
         <v>13</v>
@@ -5828,19 +5859,19 @@
         <v>1</v>
       </c>
       <c r="C161" s="30" t="s">
-        <v>248</v>
-      </c>
-      <c r="D161" s="33" t="s">
+        <v>246</v>
+      </c>
+      <c r="D161" s="27" t="s">
         <v>0</v>
       </c>
       <c r="E161" s="28"/>
       <c r="F161" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G161" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="H161" s="27"/>
+      <c r="G161" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H161" s="29"/>
       <c r="I161" s="28"/>
       <c r="J161" s="6" t="s">
         <v>16</v>
@@ -5853,17 +5884,17 @@
         <v>2</v>
       </c>
       <c r="C162" s="31"/>
-      <c r="D162" s="33" t="s">
+      <c r="D162" s="27" t="s">
         <v>17</v>
       </c>
       <c r="E162" s="28"/>
       <c r="F162" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G162" s="33" t="s">
+      <c r="G162" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="H162" s="27"/>
+      <c r="H162" s="29"/>
       <c r="I162" s="28"/>
       <c r="J162" s="6" t="s">
         <v>19</v>
@@ -5876,17 +5907,17 @@
         <v>3</v>
       </c>
       <c r="C163" s="31"/>
-      <c r="D163" s="33" t="s">
+      <c r="D163" s="27" t="s">
         <v>20</v>
       </c>
       <c r="E163" s="28"/>
       <c r="F163" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G163" s="33" t="s">
+      <c r="G163" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="H163" s="27"/>
+      <c r="H163" s="29"/>
       <c r="I163" s="28"/>
       <c r="J163" s="6" t="s">
         <v>21</v>
@@ -5899,17 +5930,17 @@
         <v>4</v>
       </c>
       <c r="C164" s="31"/>
-      <c r="D164" s="33" t="s">
+      <c r="D164" s="27" t="s">
         <v>22</v>
       </c>
       <c r="E164" s="28"/>
       <c r="F164" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G164" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="H164" s="27"/>
+      <c r="G164" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H164" s="29"/>
       <c r="I164" s="28"/>
       <c r="J164" s="6" t="s">
         <v>68</v>
@@ -5922,20 +5953,20 @@
         <v>5</v>
       </c>
       <c r="C165" s="31"/>
-      <c r="D165" s="33" t="s">
-        <v>249</v>
+      <c r="D165" s="27" t="s">
+        <v>247</v>
       </c>
       <c r="E165" s="28"/>
       <c r="F165" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G165" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="H165" s="27"/>
+      <c r="G165" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H165" s="29"/>
       <c r="I165" s="28"/>
       <c r="J165" s="6" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K165" s="1"/>
     </row>
@@ -5945,20 +5976,20 @@
         <v>6</v>
       </c>
       <c r="C166" s="31"/>
-      <c r="D166" s="33" t="s">
-        <v>251</v>
+      <c r="D166" s="27" t="s">
+        <v>249</v>
       </c>
       <c r="E166" s="28"/>
       <c r="F166" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="G166" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="H166" s="27"/>
+        <v>250</v>
+      </c>
+      <c r="G166" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H166" s="29"/>
       <c r="I166" s="28"/>
       <c r="J166" s="6" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K166" s="1"/>
     </row>
@@ -5968,12 +5999,12 @@
         <v>7</v>
       </c>
       <c r="C167" s="31"/>
-      <c r="D167" s="42" t="s">
-        <v>254</v>
-      </c>
-      <c r="E167" s="43"/>
+      <c r="D167" s="49" t="s">
+        <v>252</v>
+      </c>
+      <c r="E167" s="41"/>
       <c r="F167" s="30" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G167" s="30" t="s">
         <v>15</v>
@@ -5982,10 +6013,10 @@
         <v>1</v>
       </c>
       <c r="I167" s="6" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="J167" s="6" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K167" s="1"/>
     </row>
@@ -5995,18 +6026,18 @@
         <v>8</v>
       </c>
       <c r="C168" s="31"/>
-      <c r="D168" s="44"/>
-      <c r="E168" s="45"/>
+      <c r="D168" s="45"/>
+      <c r="E168" s="46"/>
       <c r="F168" s="32"/>
       <c r="G168" s="32"/>
       <c r="H168" s="6">
         <v>2</v>
       </c>
       <c r="I168" s="6" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="J168" s="6" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K168" s="1"/>
     </row>
@@ -6017,13 +6048,13 @@
       </c>
       <c r="C169" s="31"/>
       <c r="D169" s="30" t="s">
+        <v>258</v>
+      </c>
+      <c r="E169" s="30" t="s">
+        <v>259</v>
+      </c>
+      <c r="F169" s="30" t="s">
         <v>260</v>
-      </c>
-      <c r="E169" s="30" t="s">
-        <v>261</v>
-      </c>
-      <c r="F169" s="30" t="s">
-        <v>262</v>
       </c>
       <c r="G169" s="30" t="s">
         <v>15</v>
@@ -6032,10 +6063,10 @@
         <v>1</v>
       </c>
       <c r="I169" s="6" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J169" s="6" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K169" s="1"/>
     </row>
@@ -6053,10 +6084,10 @@
         <v>2</v>
       </c>
       <c r="I170" s="6" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="J170" s="6" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K170" s="1"/>
     </row>
@@ -6074,10 +6105,10 @@
         <v>3</v>
       </c>
       <c r="I171" s="6" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="J171" s="6" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K171" s="1"/>
     </row>
@@ -6095,10 +6126,10 @@
         <v>4</v>
       </c>
       <c r="I172" s="6" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="J172" s="7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K172" s="1"/>
     </row>
@@ -6116,10 +6147,10 @@
         <v>5</v>
       </c>
       <c r="I173" s="6" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="J173" s="6" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K173" s="1"/>
     </row>
@@ -6131,10 +6162,10 @@
       <c r="C174" s="31"/>
       <c r="D174" s="31"/>
       <c r="E174" s="30" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F174" s="30" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G174" s="30" t="s">
         <v>15</v>
@@ -6146,7 +6177,7 @@
         <v>112</v>
       </c>
       <c r="J174" s="6" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K174" s="1"/>
     </row>
@@ -6164,10 +6195,10 @@
         <v>2</v>
       </c>
       <c r="I175" s="6" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="J175" s="6" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K175" s="1"/>
     </row>
@@ -6185,10 +6216,10 @@
         <v>3</v>
       </c>
       <c r="I176" s="6" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="J176" s="6" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K176" s="1"/>
     </row>
@@ -6200,18 +6231,18 @@
       <c r="C177" s="31"/>
       <c r="D177" s="31"/>
       <c r="E177" s="6" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F177" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="G177" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="H177" s="27"/>
+        <v>279</v>
+      </c>
+      <c r="G177" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H177" s="29"/>
       <c r="I177" s="28"/>
       <c r="J177" s="6" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K177" s="1"/>
     </row>
@@ -6223,10 +6254,10 @@
       <c r="C178" s="31"/>
       <c r="D178" s="31"/>
       <c r="E178" s="30" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F178" s="30" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G178" s="30" t="s">
         <v>15</v>
@@ -6238,7 +6269,7 @@
         <v>118</v>
       </c>
       <c r="J178" s="7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K178" s="1"/>
     </row>
@@ -6259,7 +6290,7 @@
         <v>120</v>
       </c>
       <c r="J179" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K179" s="1"/>
     </row>
@@ -6280,7 +6311,7 @@
         <v>122</v>
       </c>
       <c r="J180" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="K180" s="1"/>
     </row>
@@ -6301,7 +6332,7 @@
         <v>124</v>
       </c>
       <c r="J181" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K181" s="1"/>
     </row>
@@ -6313,18 +6344,18 @@
       <c r="C182" s="31"/>
       <c r="D182" s="31"/>
       <c r="E182" s="6" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F182" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="G182" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="H182" s="27"/>
+        <v>288</v>
+      </c>
+      <c r="G182" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H182" s="29"/>
       <c r="I182" s="28"/>
       <c r="J182" s="6" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K182" s="1"/>
     </row>
@@ -6336,18 +6367,18 @@
       <c r="C183" s="31"/>
       <c r="D183" s="32"/>
       <c r="E183" s="6" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F183" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="G183" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="G183" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="H183" s="27"/>
+      <c r="H183" s="29"/>
       <c r="I183" s="28"/>
       <c r="J183" s="6" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K183" s="1"/>
     </row>
@@ -6357,20 +6388,20 @@
         <v>24</v>
       </c>
       <c r="C184" s="31"/>
-      <c r="D184" s="33" t="s">
+      <c r="D184" s="27" t="s">
         <v>167</v>
       </c>
       <c r="E184" s="28"/>
       <c r="F184" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="G184" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="H184" s="27"/>
+        <v>290</v>
+      </c>
+      <c r="G184" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H184" s="29"/>
       <c r="I184" s="28"/>
       <c r="J184" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="K184" s="1"/>
     </row>
@@ -6380,20 +6411,20 @@
         <v>25</v>
       </c>
       <c r="C185" s="31"/>
-      <c r="D185" s="33" t="s">
+      <c r="D185" s="27" t="s">
         <v>61</v>
       </c>
       <c r="E185" s="28"/>
       <c r="F185" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="G185" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="H185" s="27"/>
+      <c r="G185" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H185" s="29"/>
       <c r="I185" s="28"/>
       <c r="J185" s="6" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="K185" s="1"/>
     </row>
@@ -6403,20 +6434,20 @@
         <v>26</v>
       </c>
       <c r="C186" s="31"/>
-      <c r="D186" s="33" t="s">
+      <c r="D186" s="27" t="s">
         <v>169</v>
       </c>
       <c r="E186" s="28"/>
       <c r="F186" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="G186" s="33" t="s">
+        <v>292</v>
+      </c>
+      <c r="G186" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="H186" s="27"/>
+      <c r="H186" s="29"/>
       <c r="I186" s="28"/>
       <c r="J186" s="6" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="K186" s="1"/>
     </row>
@@ -6426,20 +6457,20 @@
         <v>27</v>
       </c>
       <c r="C187" s="31"/>
-      <c r="D187" s="33" t="s">
-        <v>295</v>
+      <c r="D187" s="27" t="s">
+        <v>293</v>
       </c>
       <c r="E187" s="28"/>
       <c r="F187" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="G187" s="33" t="s">
+        <v>294</v>
+      </c>
+      <c r="G187" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="H187" s="27"/>
+      <c r="H187" s="29"/>
       <c r="I187" s="28"/>
       <c r="J187" s="6" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="K187" s="1"/>
     </row>
@@ -6449,17 +6480,17 @@
         <v>28</v>
       </c>
       <c r="C188" s="32"/>
-      <c r="D188" s="33" t="s">
+      <c r="D188" s="27" t="s">
         <v>64</v>
       </c>
       <c r="E188" s="28"/>
       <c r="F188" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="G188" s="33" t="s">
+      <c r="G188" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="H188" s="27"/>
+      <c r="H188" s="29"/>
       <c r="I188" s="28"/>
       <c r="J188" s="6" t="s">
         <v>66</v>
@@ -6496,10 +6527,10 @@
       <c r="F190" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G190" s="26" t="s">
+      <c r="G190" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="H190" s="27"/>
+      <c r="H190" s="29"/>
       <c r="I190" s="28"/>
       <c r="J190" s="3" t="s">
         <v>6</v>
@@ -6523,11 +6554,11 @@
       <c r="F191" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G191" s="56" t="s">
+      <c r="G191" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="H191" s="57"/>
-      <c r="I191" s="43"/>
+      <c r="H191" s="40"/>
+      <c r="I191" s="41"/>
       <c r="J191" s="12" t="s">
         <v>13</v>
       </c>
@@ -6539,19 +6570,19 @@
         <v>1</v>
       </c>
       <c r="C192" s="30" t="s">
-        <v>298</v>
-      </c>
-      <c r="D192" s="33" t="s">
+        <v>296</v>
+      </c>
+      <c r="D192" s="27" t="s">
         <v>0</v>
       </c>
       <c r="E192" s="28"/>
       <c r="F192" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G192" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="H192" s="27"/>
+      <c r="G192" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H192" s="29"/>
       <c r="I192" s="28"/>
       <c r="J192" s="6" t="s">
         <v>16</v>
@@ -6564,17 +6595,17 @@
         <v>2</v>
       </c>
       <c r="C193" s="31"/>
-      <c r="D193" s="33" t="s">
+      <c r="D193" s="27" t="s">
         <v>17</v>
       </c>
       <c r="E193" s="28"/>
       <c r="F193" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G193" s="33" t="s">
+      <c r="G193" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="H193" s="27"/>
+      <c r="H193" s="29"/>
       <c r="I193" s="28"/>
       <c r="J193" s="6" t="s">
         <v>19</v>
@@ -6587,17 +6618,17 @@
         <v>3</v>
       </c>
       <c r="C194" s="31"/>
-      <c r="D194" s="33" t="s">
+      <c r="D194" s="27" t="s">
         <v>20</v>
       </c>
       <c r="E194" s="28"/>
       <c r="F194" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G194" s="33" t="s">
+      <c r="G194" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="H194" s="27"/>
+      <c r="H194" s="29"/>
       <c r="I194" s="28"/>
       <c r="J194" s="6" t="s">
         <v>21</v>
@@ -6610,18 +6641,18 @@
         <v>4</v>
       </c>
       <c r="C195" s="31"/>
-      <c r="D195" s="33" t="s">
+      <c r="D195" s="27" t="s">
         <v>22</v>
       </c>
       <c r="E195" s="28"/>
       <c r="F195" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="G195" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="H195" s="57"/>
-      <c r="I195" s="43"/>
+      <c r="G195" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="H195" s="40"/>
+      <c r="I195" s="41"/>
       <c r="J195" s="8" t="s">
         <v>68</v>
       </c>
@@ -6633,20 +6664,20 @@
         <v>5</v>
       </c>
       <c r="C196" s="31"/>
-      <c r="D196" s="33" t="s">
-        <v>299</v>
+      <c r="D196" s="27" t="s">
+        <v>297</v>
       </c>
       <c r="E196" s="28"/>
       <c r="F196" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="G196" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="H196" s="27"/>
+        <v>298</v>
+      </c>
+      <c r="G196" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H196" s="29"/>
       <c r="I196" s="28"/>
       <c r="J196" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="K196" s="1"/>
     </row>
@@ -6656,12 +6687,12 @@
         <v>6</v>
       </c>
       <c r="C197" s="31"/>
-      <c r="D197" s="42" t="s">
-        <v>302</v>
-      </c>
-      <c r="E197" s="43"/>
+      <c r="D197" s="49" t="s">
+        <v>300</v>
+      </c>
+      <c r="E197" s="41"/>
       <c r="F197" s="30" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G197" s="30" t="s">
         <v>15</v>
@@ -6670,10 +6701,10 @@
         <v>1</v>
       </c>
       <c r="I197" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="J197" s="6" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="K197" s="1"/>
     </row>
@@ -6683,18 +6714,18 @@
         <v>7</v>
       </c>
       <c r="C198" s="31"/>
-      <c r="D198" s="50"/>
-      <c r="E198" s="51"/>
+      <c r="D198" s="43"/>
+      <c r="E198" s="44"/>
       <c r="F198" s="31"/>
       <c r="G198" s="31"/>
       <c r="H198" s="6">
         <v>2</v>
       </c>
       <c r="I198" s="6" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="J198" s="6" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="K198" s="1"/>
     </row>
@@ -6704,18 +6735,18 @@
         <v>8</v>
       </c>
       <c r="C199" s="31"/>
-      <c r="D199" s="44"/>
-      <c r="E199" s="45"/>
+      <c r="D199" s="45"/>
+      <c r="E199" s="46"/>
       <c r="F199" s="32"/>
       <c r="G199" s="32"/>
       <c r="H199" s="6">
         <v>3</v>
       </c>
       <c r="I199" s="6" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="J199" s="6" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="K199" s="1"/>
     </row>
@@ -6725,20 +6756,20 @@
         <v>9</v>
       </c>
       <c r="C200" s="31"/>
-      <c r="D200" s="33" t="s">
-        <v>310</v>
+      <c r="D200" s="27" t="s">
+        <v>308</v>
       </c>
       <c r="E200" s="28"/>
       <c r="F200" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="G200" s="33" t="s">
+        <v>309</v>
+      </c>
+      <c r="G200" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="H200" s="27"/>
+      <c r="H200" s="29"/>
       <c r="I200" s="28"/>
       <c r="J200" s="8" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="K200" s="1"/>
     </row>
@@ -6748,20 +6779,20 @@
         <v>10</v>
       </c>
       <c r="C201" s="31"/>
-      <c r="D201" s="58" t="s">
-        <v>313</v>
+      <c r="D201" s="38" t="s">
+        <v>311</v>
       </c>
       <c r="E201" s="28"/>
       <c r="F201" s="14" t="s">
-        <v>414</v>
-      </c>
-      <c r="G201" s="58" t="s">
-        <v>15</v>
-      </c>
-      <c r="H201" s="27"/>
+        <v>412</v>
+      </c>
+      <c r="G201" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="H201" s="29"/>
       <c r="I201" s="28"/>
       <c r="J201" s="15" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="K201" s="1"/>
     </row>
@@ -6771,20 +6802,20 @@
         <v>11</v>
       </c>
       <c r="C202" s="31"/>
-      <c r="D202" s="33" t="s">
-        <v>314</v>
+      <c r="D202" s="27" t="s">
+        <v>312</v>
       </c>
       <c r="E202" s="28"/>
       <c r="F202" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="G202" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="H202" s="27"/>
+        <v>313</v>
+      </c>
+      <c r="G202" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H202" s="29"/>
       <c r="I202" s="28"/>
       <c r="J202" s="6" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="K202" s="1"/>
     </row>
@@ -6794,20 +6825,20 @@
         <v>12</v>
       </c>
       <c r="C203" s="31"/>
-      <c r="D203" s="33" t="s">
-        <v>317</v>
+      <c r="D203" s="27" t="s">
+        <v>315</v>
       </c>
       <c r="E203" s="28"/>
       <c r="F203" s="9" t="s">
-        <v>318</v>
-      </c>
-      <c r="G203" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="H203" s="27"/>
+        <v>316</v>
+      </c>
+      <c r="G203" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H203" s="29"/>
       <c r="I203" s="28"/>
       <c r="J203" s="6" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="K203" s="1"/>
     </row>
@@ -6815,20 +6846,20 @@
       <c r="A204" s="1"/>
       <c r="B204" s="5"/>
       <c r="C204" s="31"/>
-      <c r="D204" s="33" t="s">
-        <v>416</v>
-      </c>
-      <c r="E204" s="54"/>
+      <c r="D204" s="27" t="s">
+        <v>414</v>
+      </c>
+      <c r="E204" s="50"/>
       <c r="F204" s="9" t="s">
-        <v>320</v>
-      </c>
-      <c r="G204" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="H204" s="27"/>
+        <v>318</v>
+      </c>
+      <c r="G204" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H204" s="29"/>
       <c r="I204" s="28"/>
       <c r="J204" s="6" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="K204" s="1"/>
     </row>
@@ -6838,20 +6869,20 @@
         <v>13</v>
       </c>
       <c r="C205" s="31"/>
-      <c r="D205" s="33" t="s">
+      <c r="D205" s="27" t="s">
         <v>61</v>
       </c>
       <c r="E205" s="28"/>
       <c r="F205" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="G205" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="H205" s="27"/>
+      <c r="G205" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H205" s="29"/>
       <c r="I205" s="28"/>
       <c r="J205" s="6" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="K205" s="1"/>
     </row>
@@ -6861,17 +6892,17 @@
         <v>14</v>
       </c>
       <c r="C206" s="32"/>
-      <c r="D206" s="33" t="s">
+      <c r="D206" s="27" t="s">
         <v>64</v>
       </c>
       <c r="E206" s="28"/>
       <c r="F206" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="G206" s="33" t="s">
+      <c r="G206" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="H206" s="27"/>
+      <c r="H206" s="29"/>
       <c r="I206" s="28"/>
       <c r="J206" s="6" t="s">
         <v>66</v>
@@ -6908,10 +6939,10 @@
       <c r="F208" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G208" s="26" t="s">
+      <c r="G208" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="H208" s="27"/>
+      <c r="H208" s="29"/>
       <c r="I208" s="28"/>
       <c r="J208" s="3" t="s">
         <v>6</v>
@@ -6935,11 +6966,11 @@
       <c r="F209" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G209" s="56" t="s">
+      <c r="G209" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="H209" s="57"/>
-      <c r="I209" s="43"/>
+      <c r="H209" s="40"/>
+      <c r="I209" s="41"/>
       <c r="J209" s="12" t="s">
         <v>13</v>
       </c>
@@ -6950,20 +6981,20 @@
       <c r="B210" s="5">
         <v>1</v>
       </c>
-      <c r="C210" s="59" t="s">
-        <v>322</v>
-      </c>
-      <c r="D210" s="40" t="s">
+      <c r="C210" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="D210" s="33" t="s">
         <v>0</v>
       </c>
       <c r="E210" s="28"/>
       <c r="F210" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G210" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="H210" s="27"/>
+      <c r="G210" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="H210" s="29"/>
       <c r="I210" s="28"/>
       <c r="J210" s="19" t="s">
         <v>16</v>
@@ -6976,17 +7007,17 @@
         <v>2</v>
       </c>
       <c r="C211" s="31"/>
-      <c r="D211" s="40" t="s">
+      <c r="D211" s="33" t="s">
         <v>17</v>
       </c>
       <c r="E211" s="28"/>
       <c r="F211" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="G211" s="40" t="s">
+      <c r="G211" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="H211" s="27"/>
+      <c r="H211" s="29"/>
       <c r="I211" s="28"/>
       <c r="J211" s="19" t="s">
         <v>19</v>
@@ -6999,17 +7030,17 @@
         <v>3</v>
       </c>
       <c r="C212" s="31"/>
-      <c r="D212" s="40" t="s">
+      <c r="D212" s="33" t="s">
         <v>20</v>
       </c>
       <c r="E212" s="28"/>
       <c r="F212" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="G212" s="40" t="s">
+      <c r="G212" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="H212" s="27"/>
+      <c r="H212" s="29"/>
       <c r="I212" s="28"/>
       <c r="J212" s="20" t="s">
         <v>21</v>
@@ -7022,18 +7053,18 @@
         <v>4</v>
       </c>
       <c r="C213" s="31"/>
-      <c r="D213" s="60" t="s">
+      <c r="D213" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="E213" s="43"/>
+      <c r="E213" s="41"/>
       <c r="F213" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="G213" s="60" t="s">
-        <v>15</v>
-      </c>
-      <c r="H213" s="57"/>
-      <c r="I213" s="57"/>
+      <c r="G213" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="H213" s="40"/>
+      <c r="I213" s="40"/>
       <c r="J213" s="19" t="s">
         <v>68</v>
       </c>
@@ -7045,24 +7076,24 @@
         <v>5</v>
       </c>
       <c r="C214" s="31"/>
-      <c r="D214" s="60" t="s">
-        <v>323</v>
-      </c>
-      <c r="E214" s="43"/>
-      <c r="F214" s="59" t="s">
-        <v>324</v>
-      </c>
-      <c r="G214" s="59" t="s">
+      <c r="D214" s="48" t="s">
+        <v>321</v>
+      </c>
+      <c r="E214" s="41"/>
+      <c r="F214" s="47" t="s">
+        <v>322</v>
+      </c>
+      <c r="G214" s="47" t="s">
         <v>15</v>
       </c>
       <c r="H214" s="19">
         <v>1</v>
       </c>
       <c r="I214" s="22" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="J214" s="19" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="K214" s="1"/>
     </row>
@@ -7072,18 +7103,18 @@
         <v>6</v>
       </c>
       <c r="C215" s="31"/>
-      <c r="D215" s="50"/>
-      <c r="E215" s="51"/>
+      <c r="D215" s="43"/>
+      <c r="E215" s="44"/>
       <c r="F215" s="31"/>
       <c r="G215" s="31"/>
       <c r="H215" s="19">
         <v>2</v>
       </c>
       <c r="I215" s="22" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="J215" s="19" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="K215" s="1"/>
     </row>
@@ -7093,18 +7124,18 @@
         <v>7</v>
       </c>
       <c r="C216" s="31"/>
-      <c r="D216" s="50"/>
-      <c r="E216" s="51"/>
+      <c r="D216" s="43"/>
+      <c r="E216" s="44"/>
       <c r="F216" s="31"/>
       <c r="G216" s="31"/>
       <c r="H216" s="19">
         <v>3</v>
       </c>
       <c r="I216" s="22" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="J216" s="19" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="K216" s="1"/>
     </row>
@@ -7114,18 +7145,18 @@
         <v>8</v>
       </c>
       <c r="C217" s="31"/>
-      <c r="D217" s="44"/>
-      <c r="E217" s="45"/>
+      <c r="D217" s="45"/>
+      <c r="E217" s="46"/>
       <c r="F217" s="32"/>
       <c r="G217" s="32"/>
       <c r="H217" s="19">
         <v>4</v>
       </c>
       <c r="I217" s="22" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="J217" s="19" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="K217" s="1"/>
     </row>
@@ -7135,20 +7166,20 @@
         <v>9</v>
       </c>
       <c r="C218" s="31"/>
-      <c r="D218" s="40" t="s">
-        <v>330</v>
+      <c r="D218" s="33" t="s">
+        <v>328</v>
       </c>
       <c r="E218" s="28"/>
       <c r="F218" s="19" t="s">
-        <v>331</v>
-      </c>
-      <c r="G218" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="H218" s="27"/>
-      <c r="I218" s="27"/>
+        <v>329</v>
+      </c>
+      <c r="G218" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="H218" s="29"/>
+      <c r="I218" s="29"/>
       <c r="J218" s="19" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="K218" s="1"/>
     </row>
@@ -7158,20 +7189,20 @@
         <v>10</v>
       </c>
       <c r="C219" s="31"/>
-      <c r="D219" s="40" t="s">
-        <v>333</v>
+      <c r="D219" s="33" t="s">
+        <v>331</v>
       </c>
       <c r="E219" s="28"/>
       <c r="F219" s="19" t="s">
-        <v>334</v>
-      </c>
-      <c r="G219" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="H219" s="27"/>
-      <c r="I219" s="27"/>
+        <v>332</v>
+      </c>
+      <c r="G219" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="H219" s="29"/>
+      <c r="I219" s="29"/>
       <c r="J219" s="19" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="K219" s="1"/>
     </row>
@@ -7181,20 +7212,20 @@
         <v>11</v>
       </c>
       <c r="C220" s="31"/>
-      <c r="D220" s="40" t="s">
-        <v>335</v>
+      <c r="D220" s="33" t="s">
+        <v>333</v>
       </c>
       <c r="E220" s="28"/>
       <c r="F220" s="19" t="s">
-        <v>336</v>
-      </c>
-      <c r="G220" s="40" t="s">
+        <v>334</v>
+      </c>
+      <c r="G220" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="H220" s="27"/>
-      <c r="I220" s="27"/>
+      <c r="H220" s="29"/>
+      <c r="I220" s="29"/>
       <c r="J220" s="19" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="K220" s="1"/>
     </row>
@@ -7204,20 +7235,20 @@
         <v>12</v>
       </c>
       <c r="C221" s="31"/>
-      <c r="D221" s="40" t="s">
-        <v>338</v>
+      <c r="D221" s="33" t="s">
+        <v>336</v>
       </c>
       <c r="E221" s="28"/>
       <c r="F221" s="19" t="s">
-        <v>339</v>
-      </c>
-      <c r="G221" s="40" t="s">
+        <v>337</v>
+      </c>
+      <c r="G221" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="H221" s="27"/>
-      <c r="I221" s="27"/>
+      <c r="H221" s="29"/>
+      <c r="I221" s="29"/>
       <c r="J221" s="19" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K221" s="1"/>
     </row>
@@ -7227,17 +7258,17 @@
         <v>13</v>
       </c>
       <c r="C222" s="32"/>
-      <c r="D222" s="40" t="s">
+      <c r="D222" s="33" t="s">
         <v>64</v>
       </c>
       <c r="E222" s="28"/>
       <c r="F222" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="G222" s="40" t="s">
+      <c r="G222" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="H222" s="27"/>
+      <c r="H222" s="29"/>
       <c r="I222" s="28"/>
       <c r="J222" s="19" t="s">
         <v>66</v>
@@ -7274,10 +7305,10 @@
       <c r="F224" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G224" s="26" t="s">
+      <c r="G224" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="H224" s="27"/>
+      <c r="H224" s="29"/>
       <c r="I224" s="28"/>
       <c r="J224" s="3" t="s">
         <v>6</v>
@@ -7301,11 +7332,11 @@
       <c r="F225" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G225" s="56" t="s">
+      <c r="G225" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="H225" s="57"/>
-      <c r="I225" s="43"/>
+      <c r="H225" s="40"/>
+      <c r="I225" s="41"/>
       <c r="J225" s="12" t="s">
         <v>13</v>
       </c>
@@ -7317,19 +7348,19 @@
         <v>1</v>
       </c>
       <c r="C226" s="30" t="s">
-        <v>341</v>
-      </c>
-      <c r="D226" s="33" t="s">
+        <v>339</v>
+      </c>
+      <c r="D226" s="27" t="s">
         <v>0</v>
       </c>
       <c r="E226" s="28"/>
       <c r="F226" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G226" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="H226" s="27"/>
+      <c r="G226" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H226" s="29"/>
       <c r="I226" s="28"/>
       <c r="J226" s="6" t="s">
         <v>16</v>
@@ -7342,20 +7373,20 @@
         <v>2</v>
       </c>
       <c r="C227" s="31"/>
-      <c r="D227" s="33" t="s">
-        <v>342</v>
+      <c r="D227" s="27" t="s">
+        <v>340</v>
       </c>
       <c r="E227" s="28"/>
       <c r="F227" s="6" t="s">
-        <v>343</v>
-      </c>
-      <c r="G227" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="H227" s="27"/>
+        <v>341</v>
+      </c>
+      <c r="G227" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H227" s="29"/>
       <c r="I227" s="28"/>
       <c r="J227" s="6" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="K227" s="1"/>
     </row>
@@ -7365,20 +7396,20 @@
         <v>3</v>
       </c>
       <c r="C228" s="31"/>
-      <c r="D228" s="33" t="s">
-        <v>345</v>
+      <c r="D228" s="27" t="s">
+        <v>343</v>
       </c>
       <c r="E228" s="28"/>
       <c r="F228" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="G228" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="H228" s="27"/>
+        <v>344</v>
+      </c>
+      <c r="G228" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H228" s="29"/>
       <c r="I228" s="28"/>
       <c r="J228" s="6" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="K228" s="1"/>
     </row>
@@ -7388,20 +7419,20 @@
         <v>4</v>
       </c>
       <c r="C229" s="31"/>
-      <c r="D229" s="33" t="s">
-        <v>348</v>
+      <c r="D229" s="27" t="s">
+        <v>346</v>
       </c>
       <c r="E229" s="28"/>
       <c r="F229" s="6" t="s">
-        <v>349</v>
-      </c>
-      <c r="G229" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="H229" s="27"/>
+        <v>347</v>
+      </c>
+      <c r="G229" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H229" s="29"/>
       <c r="I229" s="28"/>
       <c r="J229" s="6" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="K229" s="1"/>
     </row>
@@ -7411,20 +7442,20 @@
         <v>5</v>
       </c>
       <c r="C230" s="31"/>
-      <c r="D230" s="33" t="s">
-        <v>351</v>
+      <c r="D230" s="27" t="s">
+        <v>349</v>
       </c>
       <c r="E230" s="28"/>
       <c r="F230" s="6" t="s">
-        <v>352</v>
-      </c>
-      <c r="G230" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="H230" s="27"/>
+        <v>350</v>
+      </c>
+      <c r="G230" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H230" s="29"/>
       <c r="I230" s="28"/>
       <c r="J230" s="6" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="K230" s="1"/>
     </row>
@@ -7434,17 +7465,17 @@
         <v>6</v>
       </c>
       <c r="C231" s="32"/>
-      <c r="D231" s="33" t="s">
+      <c r="D231" s="27" t="s">
         <v>64</v>
       </c>
       <c r="E231" s="28"/>
       <c r="F231" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="G231" s="33" t="s">
+      <c r="G231" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="H231" s="27"/>
+      <c r="H231" s="29"/>
       <c r="I231" s="28"/>
       <c r="J231" s="6" t="s">
         <v>66</v>
@@ -7481,10 +7512,10 @@
       <c r="F233" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G233" s="26" t="s">
+      <c r="G233" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="H233" s="27"/>
+      <c r="H233" s="29"/>
       <c r="I233" s="28"/>
       <c r="J233" s="3" t="s">
         <v>6</v>
@@ -7508,11 +7539,11 @@
       <c r="F234" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G234" s="56" t="s">
+      <c r="G234" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="H234" s="57"/>
-      <c r="I234" s="43"/>
+      <c r="H234" s="40"/>
+      <c r="I234" s="41"/>
       <c r="J234" s="12" t="s">
         <v>13</v>
       </c>
@@ -7523,23 +7554,23 @@
       <c r="B235" s="5">
         <v>1</v>
       </c>
-      <c r="C235" s="61" t="s">
-        <v>353</v>
-      </c>
-      <c r="D235" s="58" t="s">
-        <v>342</v>
+      <c r="C235" s="37" t="s">
+        <v>351</v>
+      </c>
+      <c r="D235" s="38" t="s">
+        <v>340</v>
       </c>
       <c r="E235" s="28"/>
       <c r="F235" s="15" t="s">
-        <v>343</v>
-      </c>
-      <c r="G235" s="58" t="s">
-        <v>15</v>
-      </c>
-      <c r="H235" s="27"/>
+        <v>341</v>
+      </c>
+      <c r="G235" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="H235" s="29"/>
       <c r="I235" s="28"/>
       <c r="J235" s="15" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="K235" s="1"/>
     </row>
@@ -7549,22 +7580,22 @@
         <v>2</v>
       </c>
       <c r="C236" s="31"/>
-      <c r="D236" s="61" t="s">
+      <c r="D236" s="37" t="s">
+        <v>352</v>
+      </c>
+      <c r="E236" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="F236" s="15" t="s">
         <v>354</v>
       </c>
-      <c r="E236" s="15" t="s">
-        <v>355</v>
-      </c>
-      <c r="F236" s="15" t="s">
-        <v>356</v>
-      </c>
-      <c r="G236" s="58" t="s">
-        <v>15</v>
-      </c>
-      <c r="H236" s="27"/>
+      <c r="G236" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="H236" s="29"/>
       <c r="I236" s="28"/>
       <c r="J236" s="15" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="K236" s="1"/>
     </row>
@@ -7576,18 +7607,18 @@
       <c r="C237" s="31"/>
       <c r="D237" s="32"/>
       <c r="E237" s="15" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F237" s="15" t="s">
-        <v>359</v>
-      </c>
-      <c r="G237" s="58" t="s">
+        <v>357</v>
+      </c>
+      <c r="G237" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="H237" s="27"/>
+      <c r="H237" s="29"/>
       <c r="I237" s="28"/>
       <c r="J237" s="15" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="K237" s="1"/>
     </row>
@@ -7597,24 +7628,24 @@
         <v>4</v>
       </c>
       <c r="C238" s="31"/>
-      <c r="D238" s="62" t="s">
-        <v>361</v>
-      </c>
-      <c r="E238" s="43"/>
-      <c r="F238" s="61" t="s">
-        <v>362</v>
-      </c>
-      <c r="G238" s="61" t="s">
+      <c r="D238" s="42" t="s">
+        <v>359</v>
+      </c>
+      <c r="E238" s="41"/>
+      <c r="F238" s="37" t="s">
+        <v>360</v>
+      </c>
+      <c r="G238" s="37" t="s">
         <v>15</v>
       </c>
       <c r="H238" s="15">
         <v>1</v>
       </c>
       <c r="I238" s="15" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="J238" s="15" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="K238" s="1"/>
     </row>
@@ -7624,18 +7655,18 @@
         <v>5</v>
       </c>
       <c r="C239" s="31"/>
-      <c r="D239" s="50"/>
-      <c r="E239" s="51"/>
+      <c r="D239" s="43"/>
+      <c r="E239" s="44"/>
       <c r="F239" s="31"/>
       <c r="G239" s="31"/>
       <c r="H239" s="15">
         <v>2</v>
       </c>
       <c r="I239" s="15" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="J239" s="15" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="K239" s="1"/>
     </row>
@@ -7645,18 +7676,18 @@
         <v>6</v>
       </c>
       <c r="C240" s="31"/>
-      <c r="D240" s="50"/>
-      <c r="E240" s="51"/>
+      <c r="D240" s="43"/>
+      <c r="E240" s="44"/>
       <c r="F240" s="31"/>
       <c r="G240" s="31"/>
       <c r="H240" s="15">
         <v>3</v>
       </c>
       <c r="I240" s="15" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="J240" s="15" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="K240" s="1"/>
     </row>
@@ -7666,18 +7697,18 @@
         <v>7</v>
       </c>
       <c r="C241" s="31"/>
-      <c r="D241" s="50"/>
-      <c r="E241" s="51"/>
+      <c r="D241" s="43"/>
+      <c r="E241" s="44"/>
       <c r="F241" s="31"/>
       <c r="G241" s="31"/>
       <c r="H241" s="15">
         <v>4</v>
       </c>
       <c r="I241" s="15" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="J241" s="15" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="K241" s="1"/>
     </row>
@@ -7687,18 +7718,18 @@
         <v>8</v>
       </c>
       <c r="C242" s="31"/>
-      <c r="D242" s="44"/>
-      <c r="E242" s="45"/>
+      <c r="D242" s="45"/>
+      <c r="E242" s="46"/>
       <c r="F242" s="32"/>
       <c r="G242" s="32"/>
       <c r="H242" s="15">
         <v>5</v>
       </c>
       <c r="I242" s="15" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="J242" s="15" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="K242" s="1"/>
     </row>
@@ -7708,20 +7739,20 @@
         <v>9</v>
       </c>
       <c r="C243" s="31"/>
-      <c r="D243" s="58" t="s">
-        <v>373</v>
+      <c r="D243" s="38" t="s">
+        <v>371</v>
       </c>
       <c r="E243" s="28"/>
       <c r="F243" s="15" t="s">
-        <v>374</v>
-      </c>
-      <c r="G243" s="58" t="s">
-        <v>15</v>
-      </c>
-      <c r="H243" s="27"/>
+        <v>372</v>
+      </c>
+      <c r="G243" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="H243" s="29"/>
       <c r="I243" s="28"/>
       <c r="J243" s="15" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="K243" s="1"/>
     </row>
@@ -7731,17 +7762,17 @@
         <v>10</v>
       </c>
       <c r="C244" s="32"/>
-      <c r="D244" s="58" t="s">
+      <c r="D244" s="38" t="s">
         <v>64</v>
       </c>
       <c r="E244" s="28"/>
       <c r="F244" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="G244" s="58" t="s">
+      <c r="G244" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="H244" s="27"/>
+      <c r="H244" s="29"/>
       <c r="I244" s="28"/>
       <c r="J244" s="15" t="s">
         <v>66</v>
@@ -7778,10 +7809,10 @@
       <c r="F246" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G246" s="26" t="s">
+      <c r="G246" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="H246" s="27"/>
+      <c r="H246" s="29"/>
       <c r="I246" s="28"/>
       <c r="J246" s="3" t="s">
         <v>6</v>
@@ -7805,11 +7836,11 @@
       <c r="F247" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G247" s="56" t="s">
+      <c r="G247" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="H247" s="57"/>
-      <c r="I247" s="43"/>
+      <c r="H247" s="40"/>
+      <c r="I247" s="41"/>
       <c r="J247" s="12" t="s">
         <v>13</v>
       </c>
@@ -7820,20 +7851,20 @@
       <c r="B248" s="5">
         <v>1</v>
       </c>
-      <c r="C248" s="61" t="s">
-        <v>376</v>
-      </c>
-      <c r="D248" s="33" t="s">
+      <c r="C248" s="37" t="s">
+        <v>374</v>
+      </c>
+      <c r="D248" s="27" t="s">
         <v>0</v>
       </c>
       <c r="E248" s="28"/>
       <c r="F248" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G248" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="H248" s="27"/>
+      <c r="G248" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H248" s="29"/>
       <c r="I248" s="28"/>
       <c r="J248" s="6" t="s">
         <v>16</v>
@@ -7846,17 +7877,17 @@
         <v>2</v>
       </c>
       <c r="C249" s="31"/>
-      <c r="D249" s="33" t="s">
+      <c r="D249" s="27" t="s">
         <v>17</v>
       </c>
       <c r="E249" s="28"/>
       <c r="F249" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G249" s="33" t="s">
+      <c r="G249" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="H249" s="27"/>
+      <c r="H249" s="29"/>
       <c r="I249" s="28"/>
       <c r="J249" s="6" t="s">
         <v>19</v>
@@ -7869,17 +7900,17 @@
         <v>3</v>
       </c>
       <c r="C250" s="31"/>
-      <c r="D250" s="33" t="s">
+      <c r="D250" s="27" t="s">
         <v>22</v>
       </c>
       <c r="E250" s="28"/>
       <c r="F250" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G250" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="H250" s="27"/>
+      <c r="G250" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H250" s="29"/>
       <c r="I250" s="28"/>
       <c r="J250" s="6" t="s">
         <v>68</v>
@@ -7892,20 +7923,20 @@
         <v>4</v>
       </c>
       <c r="C251" s="31"/>
-      <c r="D251" s="33" t="s">
-        <v>377</v>
+      <c r="D251" s="27" t="s">
+        <v>375</v>
       </c>
       <c r="E251" s="28"/>
       <c r="F251" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="G251" s="58" t="s">
+        <v>192</v>
+      </c>
+      <c r="G251" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="H251" s="27"/>
+      <c r="H251" s="29"/>
       <c r="I251" s="28"/>
       <c r="J251" s="6" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="K251" s="1"/>
     </row>
@@ -7915,20 +7946,20 @@
         <v>5</v>
       </c>
       <c r="C252" s="31"/>
-      <c r="D252" s="58" t="s">
-        <v>379</v>
+      <c r="D252" s="38" t="s">
+        <v>377</v>
       </c>
       <c r="E252" s="28"/>
       <c r="F252" s="15" t="s">
-        <v>380</v>
-      </c>
-      <c r="G252" s="33" t="s">
+        <v>378</v>
+      </c>
+      <c r="G252" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="H252" s="27"/>
+      <c r="H252" s="29"/>
       <c r="I252" s="28"/>
       <c r="J252" s="15" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="K252" s="1"/>
     </row>
@@ -7938,17 +7969,17 @@
         <v>6</v>
       </c>
       <c r="C253" s="32"/>
-      <c r="D253" s="33" t="s">
+      <c r="D253" s="27" t="s">
         <v>64</v>
       </c>
       <c r="E253" s="28"/>
       <c r="F253" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="G253" s="33" t="s">
+      <c r="G253" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="H253" s="27"/>
+      <c r="H253" s="29"/>
       <c r="I253" s="28"/>
       <c r="J253" s="6" t="s">
         <v>66</v>
@@ -7985,10 +8016,10 @@
       <c r="F255" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G255" s="26" t="s">
+      <c r="G255" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="H255" s="27"/>
+      <c r="H255" s="29"/>
       <c r="I255" s="28"/>
       <c r="J255" s="3" t="s">
         <v>6</v>
@@ -8012,11 +8043,11 @@
       <c r="F256" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G256" s="56" t="s">
+      <c r="G256" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="H256" s="57"/>
-      <c r="I256" s="43"/>
+      <c r="H256" s="40"/>
+      <c r="I256" s="41"/>
       <c r="J256" s="12" t="s">
         <v>13</v>
       </c>
@@ -8027,20 +8058,20 @@
       <c r="B257" s="5">
         <v>1</v>
       </c>
-      <c r="C257" s="61" t="s">
-        <v>382</v>
-      </c>
-      <c r="D257" s="33" t="s">
+      <c r="C257" s="37" t="s">
+        <v>380</v>
+      </c>
+      <c r="D257" s="27" t="s">
         <v>0</v>
       </c>
       <c r="E257" s="28"/>
       <c r="F257" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G257" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="H257" s="27"/>
+      <c r="G257" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H257" s="29"/>
       <c r="I257" s="28"/>
       <c r="J257" s="6" t="s">
         <v>16</v>
@@ -8053,17 +8084,17 @@
         <v>2</v>
       </c>
       <c r="C258" s="31"/>
-      <c r="D258" s="33" t="s">
+      <c r="D258" s="27" t="s">
         <v>17</v>
       </c>
       <c r="E258" s="28"/>
       <c r="F258" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G258" s="33" t="s">
+      <c r="G258" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="H258" s="27"/>
+      <c r="H258" s="29"/>
       <c r="I258" s="28"/>
       <c r="J258" s="6" t="s">
         <v>19</v>
@@ -8076,17 +8107,17 @@
         <v>3</v>
       </c>
       <c r="C259" s="31"/>
-      <c r="D259" s="33" t="s">
+      <c r="D259" s="27" t="s">
         <v>22</v>
       </c>
       <c r="E259" s="28"/>
       <c r="F259" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G259" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="H259" s="27"/>
+      <c r="G259" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H259" s="29"/>
       <c r="I259" s="28"/>
       <c r="J259" s="6" t="s">
         <v>68</v>
@@ -8099,20 +8130,20 @@
         <v>4</v>
       </c>
       <c r="C260" s="31"/>
-      <c r="D260" s="58" t="s">
-        <v>379</v>
+      <c r="D260" s="38" t="s">
+        <v>377</v>
       </c>
       <c r="E260" s="28"/>
       <c r="F260" s="15" t="s">
-        <v>380</v>
-      </c>
-      <c r="G260" s="33" t="s">
+        <v>378</v>
+      </c>
+      <c r="G260" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="H260" s="27"/>
+      <c r="H260" s="29"/>
       <c r="I260" s="28"/>
       <c r="J260" s="15" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="K260" s="1"/>
     </row>
@@ -8122,17 +8153,17 @@
         <v>5</v>
       </c>
       <c r="C261" s="32"/>
-      <c r="D261" s="33" t="s">
+      <c r="D261" s="27" t="s">
         <v>64</v>
       </c>
       <c r="E261" s="28"/>
       <c r="F261" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="G261" s="33" t="s">
+      <c r="G261" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="H261" s="27"/>
+      <c r="H261" s="29"/>
       <c r="I261" s="28"/>
       <c r="J261" s="6" t="s">
         <v>66</v>
@@ -8154,42 +8185,302 @@
     </row>
   </sheetData>
   <mergeCells count="360">
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="D8:D12"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G261:I261"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="G238:G242"/>
-    <mergeCell ref="D243:E243"/>
-    <mergeCell ref="G243:I243"/>
-    <mergeCell ref="D244:E244"/>
-    <mergeCell ref="G244:I244"/>
-    <mergeCell ref="G246:I246"/>
-    <mergeCell ref="G233:I233"/>
-    <mergeCell ref="G234:I234"/>
-    <mergeCell ref="D222:E222"/>
-    <mergeCell ref="G222:I222"/>
-    <mergeCell ref="G224:I224"/>
-    <mergeCell ref="G225:I225"/>
-    <mergeCell ref="D219:E219"/>
-    <mergeCell ref="G219:I219"/>
-    <mergeCell ref="D220:E220"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="C22:C41"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D29:D31"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="C45:C75"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D51:D55"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="D49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="G74:I74"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="G75:I75"/>
+    <mergeCell ref="G77:I77"/>
+    <mergeCell ref="G78:I78"/>
+    <mergeCell ref="D56:D68"/>
+    <mergeCell ref="E56:E68"/>
+    <mergeCell ref="F56:F68"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="G57:G68"/>
+    <mergeCell ref="D69:D72"/>
+    <mergeCell ref="G69:I69"/>
+    <mergeCell ref="G70:I70"/>
+    <mergeCell ref="G71:I71"/>
+    <mergeCell ref="G72:I72"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="G73:I73"/>
+    <mergeCell ref="C79:C108"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="G79:I79"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="G80:I80"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="G81:I81"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="G82:I82"/>
+    <mergeCell ref="D83:D87"/>
+    <mergeCell ref="H86:I86"/>
+    <mergeCell ref="H87:I87"/>
+    <mergeCell ref="D88:E91"/>
+    <mergeCell ref="F88:F91"/>
+    <mergeCell ref="G88:G91"/>
+    <mergeCell ref="D92:E94"/>
+    <mergeCell ref="F92:F94"/>
+    <mergeCell ref="G92:G94"/>
+    <mergeCell ref="E83:E85"/>
+    <mergeCell ref="F83:F85"/>
+    <mergeCell ref="G83:G85"/>
+    <mergeCell ref="E86:E87"/>
+    <mergeCell ref="F86:F87"/>
+    <mergeCell ref="G86:G87"/>
+    <mergeCell ref="D95:E98"/>
+    <mergeCell ref="F95:F98"/>
+    <mergeCell ref="G95:G98"/>
+    <mergeCell ref="D99:D102"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="G101:I101"/>
+    <mergeCell ref="G102:I102"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="G107:I107"/>
+    <mergeCell ref="D108:E108"/>
+    <mergeCell ref="G108:I108"/>
+    <mergeCell ref="G110:I110"/>
+    <mergeCell ref="G111:I111"/>
+    <mergeCell ref="D103:D105"/>
+    <mergeCell ref="G103:I103"/>
+    <mergeCell ref="G104:I104"/>
+    <mergeCell ref="G105:I105"/>
+    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="G106:I106"/>
+    <mergeCell ref="C112:C127"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="G112:I112"/>
+    <mergeCell ref="D113:E113"/>
+    <mergeCell ref="G113:I113"/>
+    <mergeCell ref="D114:E114"/>
+    <mergeCell ref="G114:I114"/>
+    <mergeCell ref="D115:E115"/>
+    <mergeCell ref="G115:I115"/>
+    <mergeCell ref="D116:D117"/>
+    <mergeCell ref="D120:E120"/>
+    <mergeCell ref="G120:I120"/>
+    <mergeCell ref="D121:E121"/>
+    <mergeCell ref="G121:I121"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="G122:I122"/>
+    <mergeCell ref="G116:I116"/>
+    <mergeCell ref="G117:I117"/>
+    <mergeCell ref="D118:E118"/>
+    <mergeCell ref="G118:I118"/>
+    <mergeCell ref="D119:E119"/>
+    <mergeCell ref="G119:I119"/>
+    <mergeCell ref="D126:E126"/>
+    <mergeCell ref="G126:I126"/>
+    <mergeCell ref="D127:E127"/>
+    <mergeCell ref="G127:I127"/>
+    <mergeCell ref="G129:I129"/>
+    <mergeCell ref="G130:I130"/>
+    <mergeCell ref="D123:E123"/>
+    <mergeCell ref="G123:I123"/>
+    <mergeCell ref="D124:E124"/>
+    <mergeCell ref="G124:I124"/>
+    <mergeCell ref="D125:E125"/>
+    <mergeCell ref="G125:I125"/>
+    <mergeCell ref="E135:E149"/>
+    <mergeCell ref="F135:F149"/>
+    <mergeCell ref="G135:G149"/>
+    <mergeCell ref="E150:E151"/>
+    <mergeCell ref="F150:F151"/>
+    <mergeCell ref="G150:G151"/>
+    <mergeCell ref="C131:C157"/>
+    <mergeCell ref="D131:E131"/>
+    <mergeCell ref="G131:I131"/>
+    <mergeCell ref="D132:E132"/>
+    <mergeCell ref="G132:I132"/>
+    <mergeCell ref="D133:E133"/>
+    <mergeCell ref="G133:I133"/>
+    <mergeCell ref="D134:E134"/>
+    <mergeCell ref="G134:I134"/>
+    <mergeCell ref="D135:D154"/>
+    <mergeCell ref="C161:C188"/>
+    <mergeCell ref="D161:E161"/>
+    <mergeCell ref="G161:I161"/>
+    <mergeCell ref="D162:E162"/>
+    <mergeCell ref="G162:I162"/>
+    <mergeCell ref="D163:E163"/>
+    <mergeCell ref="G152:I152"/>
+    <mergeCell ref="G153:I153"/>
+    <mergeCell ref="G154:I154"/>
+    <mergeCell ref="D155:E155"/>
+    <mergeCell ref="G155:I155"/>
+    <mergeCell ref="D156:E156"/>
+    <mergeCell ref="G156:I156"/>
+    <mergeCell ref="G163:I163"/>
+    <mergeCell ref="D164:E164"/>
+    <mergeCell ref="G164:I164"/>
+    <mergeCell ref="D165:E165"/>
+    <mergeCell ref="G165:I165"/>
+    <mergeCell ref="D166:E166"/>
+    <mergeCell ref="G166:I166"/>
+    <mergeCell ref="D157:E157"/>
+    <mergeCell ref="G157:I157"/>
+    <mergeCell ref="G159:I159"/>
+    <mergeCell ref="G160:I160"/>
+    <mergeCell ref="G177:I177"/>
+    <mergeCell ref="E178:E181"/>
+    <mergeCell ref="F178:F181"/>
+    <mergeCell ref="G178:G181"/>
+    <mergeCell ref="G182:I182"/>
+    <mergeCell ref="G183:I183"/>
+    <mergeCell ref="D167:E168"/>
+    <mergeCell ref="F167:F168"/>
+    <mergeCell ref="G167:G168"/>
+    <mergeCell ref="D169:D183"/>
+    <mergeCell ref="E169:E173"/>
+    <mergeCell ref="F169:F173"/>
+    <mergeCell ref="G169:G173"/>
+    <mergeCell ref="E174:E176"/>
+    <mergeCell ref="F174:F176"/>
+    <mergeCell ref="G174:G176"/>
+    <mergeCell ref="D187:E187"/>
+    <mergeCell ref="G187:I187"/>
+    <mergeCell ref="D188:E188"/>
+    <mergeCell ref="G188:I188"/>
+    <mergeCell ref="G190:I190"/>
+    <mergeCell ref="G191:I191"/>
+    <mergeCell ref="D184:E184"/>
+    <mergeCell ref="G184:I184"/>
+    <mergeCell ref="D185:E185"/>
+    <mergeCell ref="G185:I185"/>
+    <mergeCell ref="D186:E186"/>
+    <mergeCell ref="G186:I186"/>
+    <mergeCell ref="G196:I196"/>
+    <mergeCell ref="D197:E199"/>
+    <mergeCell ref="F197:F199"/>
+    <mergeCell ref="G197:G199"/>
+    <mergeCell ref="D200:E200"/>
+    <mergeCell ref="G200:I200"/>
+    <mergeCell ref="C192:C206"/>
+    <mergeCell ref="D192:E192"/>
+    <mergeCell ref="G192:I192"/>
+    <mergeCell ref="D193:E193"/>
+    <mergeCell ref="G193:I193"/>
+    <mergeCell ref="D194:E194"/>
+    <mergeCell ref="G194:I194"/>
+    <mergeCell ref="D195:E195"/>
+    <mergeCell ref="G195:I195"/>
+    <mergeCell ref="D196:E196"/>
+    <mergeCell ref="D204:E204"/>
+    <mergeCell ref="G204:I204"/>
+    <mergeCell ref="D205:E205"/>
+    <mergeCell ref="G205:I205"/>
+    <mergeCell ref="D206:E206"/>
+    <mergeCell ref="G206:I206"/>
+    <mergeCell ref="D201:E201"/>
+    <mergeCell ref="G201:I201"/>
+    <mergeCell ref="G208:I208"/>
+    <mergeCell ref="G209:I209"/>
+    <mergeCell ref="C210:C222"/>
+    <mergeCell ref="D210:E210"/>
+    <mergeCell ref="G210:I210"/>
+    <mergeCell ref="D211:E211"/>
+    <mergeCell ref="G211:I211"/>
+    <mergeCell ref="D212:E212"/>
+    <mergeCell ref="G212:I212"/>
+    <mergeCell ref="D213:E213"/>
+    <mergeCell ref="G220:I220"/>
+    <mergeCell ref="D221:E221"/>
+    <mergeCell ref="G221:I221"/>
+    <mergeCell ref="G213:I213"/>
+    <mergeCell ref="D214:E217"/>
+    <mergeCell ref="F214:F217"/>
+    <mergeCell ref="G214:G217"/>
+    <mergeCell ref="D218:E218"/>
+    <mergeCell ref="G218:I218"/>
+    <mergeCell ref="C235:C244"/>
+    <mergeCell ref="D235:E235"/>
+    <mergeCell ref="G235:I235"/>
+    <mergeCell ref="D236:D237"/>
+    <mergeCell ref="G236:I236"/>
+    <mergeCell ref="G237:I237"/>
+    <mergeCell ref="D238:E242"/>
+    <mergeCell ref="F238:F242"/>
+    <mergeCell ref="G228:I228"/>
+    <mergeCell ref="D229:E229"/>
+    <mergeCell ref="G229:I229"/>
+    <mergeCell ref="D230:E230"/>
+    <mergeCell ref="G230:I230"/>
+    <mergeCell ref="D231:E231"/>
+    <mergeCell ref="G231:I231"/>
+    <mergeCell ref="C226:C231"/>
+    <mergeCell ref="D226:E226"/>
+    <mergeCell ref="G226:I226"/>
+    <mergeCell ref="D227:E227"/>
+    <mergeCell ref="G227:I227"/>
+    <mergeCell ref="D228:E228"/>
+    <mergeCell ref="C248:C253"/>
+    <mergeCell ref="D248:E248"/>
+    <mergeCell ref="G248:I248"/>
+    <mergeCell ref="D249:E249"/>
+    <mergeCell ref="G249:I249"/>
+    <mergeCell ref="D250:E250"/>
+    <mergeCell ref="G250:I250"/>
+    <mergeCell ref="D251:E251"/>
+    <mergeCell ref="G251:I251"/>
     <mergeCell ref="C4:C18"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="G4:I4"/>
@@ -8214,306 +8505,46 @@
     <mergeCell ref="G255:I255"/>
     <mergeCell ref="G256:I256"/>
     <mergeCell ref="G247:I247"/>
-    <mergeCell ref="C248:C253"/>
-    <mergeCell ref="D248:E248"/>
-    <mergeCell ref="G248:I248"/>
-    <mergeCell ref="D249:E249"/>
-    <mergeCell ref="G249:I249"/>
-    <mergeCell ref="D250:E250"/>
-    <mergeCell ref="G250:I250"/>
-    <mergeCell ref="D251:E251"/>
-    <mergeCell ref="G251:I251"/>
-    <mergeCell ref="C235:C244"/>
-    <mergeCell ref="D235:E235"/>
-    <mergeCell ref="G235:I235"/>
-    <mergeCell ref="D236:D237"/>
-    <mergeCell ref="G236:I236"/>
-    <mergeCell ref="G237:I237"/>
-    <mergeCell ref="D238:E242"/>
-    <mergeCell ref="F238:F242"/>
-    <mergeCell ref="G228:I228"/>
-    <mergeCell ref="D229:E229"/>
-    <mergeCell ref="G229:I229"/>
-    <mergeCell ref="D230:E230"/>
-    <mergeCell ref="G230:I230"/>
-    <mergeCell ref="D231:E231"/>
-    <mergeCell ref="G231:I231"/>
-    <mergeCell ref="C226:C231"/>
-    <mergeCell ref="D226:E226"/>
-    <mergeCell ref="G226:I226"/>
-    <mergeCell ref="D227:E227"/>
-    <mergeCell ref="G227:I227"/>
-    <mergeCell ref="D228:E228"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G261:I261"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="G238:G242"/>
+    <mergeCell ref="D243:E243"/>
+    <mergeCell ref="G243:I243"/>
+    <mergeCell ref="D244:E244"/>
+    <mergeCell ref="G244:I244"/>
+    <mergeCell ref="G246:I246"/>
+    <mergeCell ref="G233:I233"/>
+    <mergeCell ref="G234:I234"/>
+    <mergeCell ref="D222:E222"/>
+    <mergeCell ref="G222:I222"/>
+    <mergeCell ref="G224:I224"/>
+    <mergeCell ref="G225:I225"/>
+    <mergeCell ref="D219:E219"/>
+    <mergeCell ref="G219:I219"/>
+    <mergeCell ref="D220:E220"/>
     <mergeCell ref="D202:E202"/>
     <mergeCell ref="G202:I202"/>
     <mergeCell ref="D203:E203"/>
     <mergeCell ref="G203:I203"/>
-    <mergeCell ref="G208:I208"/>
-    <mergeCell ref="G209:I209"/>
-    <mergeCell ref="C210:C222"/>
-    <mergeCell ref="D210:E210"/>
-    <mergeCell ref="G210:I210"/>
-    <mergeCell ref="D211:E211"/>
-    <mergeCell ref="G211:I211"/>
-    <mergeCell ref="D212:E212"/>
-    <mergeCell ref="G212:I212"/>
-    <mergeCell ref="D213:E213"/>
-    <mergeCell ref="G220:I220"/>
-    <mergeCell ref="D221:E221"/>
-    <mergeCell ref="G221:I221"/>
-    <mergeCell ref="G213:I213"/>
-    <mergeCell ref="D214:E217"/>
-    <mergeCell ref="F214:F217"/>
-    <mergeCell ref="G214:G217"/>
-    <mergeCell ref="D218:E218"/>
-    <mergeCell ref="G218:I218"/>
-    <mergeCell ref="G196:I196"/>
-    <mergeCell ref="D197:E199"/>
-    <mergeCell ref="F197:F199"/>
-    <mergeCell ref="G197:G199"/>
-    <mergeCell ref="D200:E200"/>
-    <mergeCell ref="G200:I200"/>
-    <mergeCell ref="C192:C206"/>
-    <mergeCell ref="D192:E192"/>
-    <mergeCell ref="G192:I192"/>
-    <mergeCell ref="D193:E193"/>
-    <mergeCell ref="G193:I193"/>
-    <mergeCell ref="D194:E194"/>
-    <mergeCell ref="G194:I194"/>
-    <mergeCell ref="D195:E195"/>
-    <mergeCell ref="G195:I195"/>
-    <mergeCell ref="D196:E196"/>
-    <mergeCell ref="D204:E204"/>
-    <mergeCell ref="G204:I204"/>
-    <mergeCell ref="D205:E205"/>
-    <mergeCell ref="G205:I205"/>
-    <mergeCell ref="D206:E206"/>
-    <mergeCell ref="G206:I206"/>
-    <mergeCell ref="D201:E201"/>
-    <mergeCell ref="G201:I201"/>
-    <mergeCell ref="D187:E187"/>
-    <mergeCell ref="G187:I187"/>
-    <mergeCell ref="D188:E188"/>
-    <mergeCell ref="G188:I188"/>
-    <mergeCell ref="G190:I190"/>
-    <mergeCell ref="G191:I191"/>
-    <mergeCell ref="D184:E184"/>
-    <mergeCell ref="G184:I184"/>
-    <mergeCell ref="D185:E185"/>
-    <mergeCell ref="G185:I185"/>
-    <mergeCell ref="D186:E186"/>
-    <mergeCell ref="G186:I186"/>
-    <mergeCell ref="G177:I177"/>
-    <mergeCell ref="E178:E181"/>
-    <mergeCell ref="F178:F181"/>
-    <mergeCell ref="G178:G181"/>
-    <mergeCell ref="G182:I182"/>
-    <mergeCell ref="G183:I183"/>
-    <mergeCell ref="D167:E168"/>
-    <mergeCell ref="F167:F168"/>
-    <mergeCell ref="G167:G168"/>
-    <mergeCell ref="D169:D183"/>
-    <mergeCell ref="E169:E173"/>
-    <mergeCell ref="F169:F173"/>
-    <mergeCell ref="G169:G173"/>
-    <mergeCell ref="E174:E176"/>
-    <mergeCell ref="F174:F176"/>
-    <mergeCell ref="G174:G176"/>
-    <mergeCell ref="C161:C188"/>
-    <mergeCell ref="D161:E161"/>
-    <mergeCell ref="G161:I161"/>
-    <mergeCell ref="D162:E162"/>
-    <mergeCell ref="G162:I162"/>
-    <mergeCell ref="D163:E163"/>
-    <mergeCell ref="G152:I152"/>
-    <mergeCell ref="G153:I153"/>
-    <mergeCell ref="G154:I154"/>
-    <mergeCell ref="D155:E155"/>
-    <mergeCell ref="G155:I155"/>
-    <mergeCell ref="D156:E156"/>
-    <mergeCell ref="G156:I156"/>
-    <mergeCell ref="G163:I163"/>
-    <mergeCell ref="D164:E164"/>
-    <mergeCell ref="G164:I164"/>
-    <mergeCell ref="D165:E165"/>
-    <mergeCell ref="G165:I165"/>
-    <mergeCell ref="D166:E166"/>
-    <mergeCell ref="G166:I166"/>
-    <mergeCell ref="D157:E157"/>
-    <mergeCell ref="G157:I157"/>
-    <mergeCell ref="G159:I159"/>
-    <mergeCell ref="G160:I160"/>
-    <mergeCell ref="E135:E149"/>
-    <mergeCell ref="F135:F149"/>
-    <mergeCell ref="G135:G149"/>
-    <mergeCell ref="E150:E151"/>
-    <mergeCell ref="F150:F151"/>
-    <mergeCell ref="G150:G151"/>
-    <mergeCell ref="C131:C157"/>
-    <mergeCell ref="D131:E131"/>
-    <mergeCell ref="G131:I131"/>
-    <mergeCell ref="D132:E132"/>
-    <mergeCell ref="G132:I132"/>
-    <mergeCell ref="D133:E133"/>
-    <mergeCell ref="G133:I133"/>
-    <mergeCell ref="D134:E134"/>
-    <mergeCell ref="G134:I134"/>
-    <mergeCell ref="D135:D154"/>
-    <mergeCell ref="D127:E127"/>
-    <mergeCell ref="G127:I127"/>
-    <mergeCell ref="G129:I129"/>
-    <mergeCell ref="G130:I130"/>
-    <mergeCell ref="D123:E123"/>
-    <mergeCell ref="G123:I123"/>
-    <mergeCell ref="D124:E124"/>
-    <mergeCell ref="G124:I124"/>
-    <mergeCell ref="D125:E125"/>
-    <mergeCell ref="G125:I125"/>
-    <mergeCell ref="C112:C127"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="G112:I112"/>
-    <mergeCell ref="D113:E113"/>
-    <mergeCell ref="G113:I113"/>
-    <mergeCell ref="D114:E114"/>
-    <mergeCell ref="G114:I114"/>
-    <mergeCell ref="D115:E115"/>
-    <mergeCell ref="G115:I115"/>
-    <mergeCell ref="D116:D117"/>
-    <mergeCell ref="D120:E120"/>
-    <mergeCell ref="G120:I120"/>
-    <mergeCell ref="D121:E121"/>
-    <mergeCell ref="G121:I121"/>
-    <mergeCell ref="D122:E122"/>
-    <mergeCell ref="G122:I122"/>
-    <mergeCell ref="G116:I116"/>
-    <mergeCell ref="G117:I117"/>
-    <mergeCell ref="D118:E118"/>
-    <mergeCell ref="G118:I118"/>
-    <mergeCell ref="D119:E119"/>
-    <mergeCell ref="G119:I119"/>
-    <mergeCell ref="D126:E126"/>
-    <mergeCell ref="G126:I126"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="G107:I107"/>
-    <mergeCell ref="D108:E108"/>
-    <mergeCell ref="G108:I108"/>
-    <mergeCell ref="G110:I110"/>
-    <mergeCell ref="G111:I111"/>
-    <mergeCell ref="D103:D105"/>
-    <mergeCell ref="G103:I103"/>
-    <mergeCell ref="G104:I104"/>
-    <mergeCell ref="G105:I105"/>
-    <mergeCell ref="D106:E106"/>
-    <mergeCell ref="G106:I106"/>
-    <mergeCell ref="D95:E98"/>
-    <mergeCell ref="F95:F98"/>
-    <mergeCell ref="G95:G98"/>
-    <mergeCell ref="D99:D102"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="G101:I101"/>
-    <mergeCell ref="G102:I102"/>
-    <mergeCell ref="C79:C108"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="G79:I79"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="G80:I80"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="G81:I81"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="G82:I82"/>
-    <mergeCell ref="D83:D87"/>
-    <mergeCell ref="H86:I86"/>
-    <mergeCell ref="H87:I87"/>
-    <mergeCell ref="D88:E91"/>
-    <mergeCell ref="F88:F91"/>
-    <mergeCell ref="G88:G91"/>
-    <mergeCell ref="D92:E94"/>
-    <mergeCell ref="F92:F94"/>
-    <mergeCell ref="G92:G94"/>
-    <mergeCell ref="E83:E85"/>
-    <mergeCell ref="F83:F85"/>
-    <mergeCell ref="G83:G85"/>
-    <mergeCell ref="E86:E87"/>
-    <mergeCell ref="F86:F87"/>
-    <mergeCell ref="G86:G87"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="G75:I75"/>
-    <mergeCell ref="G77:I77"/>
-    <mergeCell ref="G78:I78"/>
-    <mergeCell ref="D56:D68"/>
-    <mergeCell ref="E56:E68"/>
-    <mergeCell ref="F56:F68"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="G57:G68"/>
-    <mergeCell ref="D69:D72"/>
-    <mergeCell ref="G69:I69"/>
-    <mergeCell ref="G70:I70"/>
-    <mergeCell ref="G71:I71"/>
-    <mergeCell ref="G72:I72"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="G73:I73"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="C45:C75"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D51:D55"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="D49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="G74:I74"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="C22:C41"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D29:D31"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="D8:D12"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="G16:I16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/Table_List/00_TableList.xlsx
+++ b/Documents/Table_List/00_TableList.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-02\Desktop\github\DefensiveDungeon\Documents\Table_List\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-07\Desktop\Def\DefensiveDungeon\Documents\Table_List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{494536B7-5EE1-49B4-A52F-3E36F37F1AB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FC08881-41A6-457D-9354-81031CB47BB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="11385" xr2:uid="{81B8BADF-0D58-4324-99A2-78BDE441F027}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{81B8BADF-0D58-4324-99A2-78BDE441F027}"/>
   </bookViews>
   <sheets>
     <sheet name="Table_List" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -732,12 +732,6 @@
     <t>시전자의 최대 체력에서 [BuffAmount]%를 곱한 값을 회복</t>
   </si>
   <si>
-    <t>소환</t>
-  </si>
-  <si>
-    <t>[Summon]코드에 해당하는 몬스터를 소환</t>
-  </si>
-  <si>
     <t>방어막 부여</t>
   </si>
   <si>
@@ -1386,6 +1380,14 @@
   <si>
     <t>Dmg_Fix</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>마왕의 스킬 쿨타임 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마왕쿨타임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1785,14 +1787,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1803,79 +1814,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1896,10 +1835,34 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1907,6 +1870,45 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2224,8 +2226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2830DD9-FF1F-44AD-8D27-2F6B2C372548}">
   <dimension ref="A1:K262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G119" sqref="G119:I119"/>
+    <sheetView tabSelected="1" topLeftCell="A118" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I149" sqref="I149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="13.5"/>
@@ -2260,11 +2262,11 @@
       <c r="F2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="35" t="s">
+      <c r="G2" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="29"/>
-      <c r="I2" s="28"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="31"/>
       <c r="J2" s="3" t="s">
         <v>6</v>
       </c>
@@ -2285,11 +2287,11 @@
       <c r="F3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="36" t="s">
+      <c r="G3" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="29"/>
-      <c r="I3" s="28"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="31"/>
       <c r="J3" s="4" t="s">
         <v>13</v>
       </c>
@@ -2298,21 +2300,21 @@
       <c r="B4" s="5">
         <v>1</v>
       </c>
-      <c r="C4" s="30" t="s">
-        <v>419</v>
-      </c>
-      <c r="D4" s="27" t="s">
+      <c r="C4" s="33" t="s">
+        <v>417</v>
+      </c>
+      <c r="D4" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="28"/>
+      <c r="E4" s="31"/>
       <c r="F4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="29"/>
-      <c r="I4" s="28"/>
+      <c r="G4" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="30"/>
+      <c r="I4" s="31"/>
       <c r="J4" s="6" t="s">
         <v>16</v>
       </c>
@@ -2321,19 +2323,19 @@
       <c r="B5" s="5">
         <v>2</v>
       </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="27" t="s">
+      <c r="C5" s="34"/>
+      <c r="D5" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="28"/>
+      <c r="E5" s="31"/>
       <c r="F5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="27" t="s">
+      <c r="G5" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="29"/>
-      <c r="I5" s="28"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="31"/>
       <c r="J5" s="6" t="s">
         <v>19</v>
       </c>
@@ -2342,19 +2344,19 @@
       <c r="B6" s="5">
         <v>3</v>
       </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="27" t="s">
+      <c r="C6" s="34"/>
+      <c r="D6" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="28"/>
+      <c r="E6" s="31"/>
       <c r="F6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="27" t="s">
+      <c r="G6" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="29"/>
-      <c r="I6" s="28"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="31"/>
       <c r="J6" s="6" t="s">
         <v>21</v>
       </c>
@@ -2363,29 +2365,29 @@
       <c r="B7" s="5">
         <v>4</v>
       </c>
-      <c r="C7" s="31"/>
-      <c r="D7" s="27" t="s">
+      <c r="C7" s="34"/>
+      <c r="D7" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="28"/>
+      <c r="E7" s="31"/>
       <c r="F7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="29"/>
-      <c r="I7" s="28"/>
+      <c r="G7" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="30"/>
+      <c r="I7" s="31"/>
       <c r="J7" s="6" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="8" spans="2:10">
       <c r="B8" s="5">
         <v>5</v>
       </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="30" t="s">
+      <c r="C8" s="34"/>
+      <c r="D8" s="33" t="s">
         <v>28</v>
       </c>
       <c r="E8" s="6" t="s">
@@ -2394,32 +2396,32 @@
       <c r="F8" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="27" t="s">
+      <c r="G8" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="29"/>
-      <c r="I8" s="28"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="31"/>
       <c r="J8" s="6" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="27">
       <c r="B9" s="5">
         <v>6</v>
       </c>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
       <c r="E9" s="6" t="s">
         <v>32</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="27" t="s">
+      <c r="G9" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="H9" s="29"/>
-      <c r="I9" s="28"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="31"/>
       <c r="J9" s="7" t="s">
         <v>34</v>
       </c>
@@ -2428,19 +2430,19 @@
       <c r="B10" s="5">
         <v>7</v>
       </c>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
       <c r="E10" s="6" t="s">
         <v>35</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G10" s="27" t="s">
+      <c r="G10" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="29"/>
-      <c r="I10" s="28"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="31"/>
       <c r="J10" s="6" t="s">
         <v>37</v>
       </c>
@@ -2449,19 +2451,19 @@
       <c r="B11" s="5">
         <v>8</v>
       </c>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
       <c r="E11" s="6" t="s">
         <v>38</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="27" t="s">
+      <c r="G11" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="H11" s="29"/>
-      <c r="I11" s="28"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="31"/>
       <c r="J11" s="6" t="s">
         <v>40</v>
       </c>
@@ -2470,29 +2472,29 @@
       <c r="B12" s="5">
         <v>9</v>
       </c>
-      <c r="C12" s="31"/>
-      <c r="D12" s="32"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="35"/>
       <c r="E12" s="6" t="s">
         <v>41</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G12" s="27" t="s">
+      <c r="G12" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="H12" s="29"/>
-      <c r="I12" s="28"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="31"/>
       <c r="J12" s="6" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="13" spans="2:10">
       <c r="B13" s="5">
         <v>10</v>
       </c>
-      <c r="C13" s="31"/>
-      <c r="D13" s="30" t="s">
+      <c r="C13" s="34"/>
+      <c r="D13" s="33" t="s">
         <v>43</v>
       </c>
       <c r="E13" s="6" t="s">
@@ -2501,32 +2503,32 @@
       <c r="F13" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="G13" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="29"/>
-      <c r="I13" s="28"/>
+      <c r="G13" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="30"/>
+      <c r="I13" s="31"/>
       <c r="J13" s="6" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="14" spans="2:10">
       <c r="B14" s="5">
         <v>11</v>
       </c>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
       <c r="E14" s="6" t="s">
         <v>46</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="G14" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="29"/>
-      <c r="I14" s="28"/>
+      <c r="G14" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="30"/>
+      <c r="I14" s="31"/>
       <c r="J14" s="6" t="s">
         <v>48</v>
       </c>
@@ -2535,19 +2537,19 @@
       <c r="B15" s="5">
         <v>12</v>
       </c>
-      <c r="C15" s="31"/>
-      <c r="D15" s="32"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="35"/>
       <c r="E15" s="6" t="s">
         <v>49</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G15" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" s="29"/>
-      <c r="I15" s="28"/>
+      <c r="G15" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="30"/>
+      <c r="I15" s="31"/>
       <c r="J15" s="6" t="s">
         <v>48</v>
       </c>
@@ -2556,40 +2558,40 @@
       <c r="B16" s="5">
         <v>13</v>
       </c>
-      <c r="C16" s="31"/>
-      <c r="D16" s="33" t="s">
+      <c r="C16" s="34"/>
+      <c r="D16" s="43" t="s">
+        <v>418</v>
+      </c>
+      <c r="E16" s="44"/>
+      <c r="F16" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="G16" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" s="30"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="6" t="s">
         <v>420</v>
-      </c>
-      <c r="E16" s="34"/>
-      <c r="F16" s="6" t="s">
-        <v>421</v>
-      </c>
-      <c r="G16" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="H16" s="29"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="6" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="B17" s="5">
         <v>14</v>
       </c>
-      <c r="C17" s="31"/>
-      <c r="D17" s="27" t="s">
+      <c r="C17" s="34"/>
+      <c r="D17" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="E17" s="28"/>
+      <c r="E17" s="31"/>
       <c r="F17" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="G17" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="H17" s="29"/>
-      <c r="I17" s="28"/>
+      <c r="G17" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="30"/>
+      <c r="I17" s="31"/>
       <c r="J17" s="6" t="s">
         <v>63</v>
       </c>
@@ -2598,19 +2600,19 @@
       <c r="B18" s="5">
         <v>15</v>
       </c>
-      <c r="C18" s="32"/>
-      <c r="D18" s="27" t="s">
+      <c r="C18" s="35"/>
+      <c r="D18" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="E18" s="28"/>
+      <c r="E18" s="31"/>
       <c r="F18" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="G18" s="27" t="s">
+      <c r="G18" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="H18" s="29"/>
-      <c r="I18" s="28"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="31"/>
       <c r="J18" s="6" t="s">
         <v>66</v>
       </c>
@@ -2645,11 +2647,11 @@
       <c r="F20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G20" s="35" t="s">
+      <c r="G20" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="H20" s="29"/>
-      <c r="I20" s="28"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="31"/>
       <c r="J20" s="3" t="s">
         <v>6</v>
       </c>
@@ -2672,11 +2674,11 @@
       <c r="F21" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="36" t="s">
+      <c r="G21" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="H21" s="29"/>
-      <c r="I21" s="28"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="31"/>
       <c r="J21" s="4" t="s">
         <v>13</v>
       </c>
@@ -2687,21 +2689,21 @@
       <c r="B22" s="5">
         <v>1</v>
       </c>
-      <c r="C22" s="30" t="s">
+      <c r="C22" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="27" t="s">
+      <c r="D22" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="E22" s="28"/>
+      <c r="E22" s="31"/>
       <c r="F22" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G22" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="H22" s="29"/>
-      <c r="I22" s="28"/>
+      <c r="G22" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="30"/>
+      <c r="I22" s="31"/>
       <c r="J22" s="6" t="s">
         <v>16</v>
       </c>
@@ -2712,19 +2714,19 @@
       <c r="B23" s="5">
         <v>2</v>
       </c>
-      <c r="C23" s="31"/>
-      <c r="D23" s="27" t="s">
+      <c r="C23" s="34"/>
+      <c r="D23" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="E23" s="28"/>
+      <c r="E23" s="31"/>
       <c r="F23" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G23" s="27" t="s">
+      <c r="G23" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="H23" s="29"/>
-      <c r="I23" s="28"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="31"/>
       <c r="J23" s="6" t="s">
         <v>19</v>
       </c>
@@ -2735,19 +2737,19 @@
       <c r="B24" s="5">
         <v>3</v>
       </c>
-      <c r="C24" s="31"/>
-      <c r="D24" s="27" t="s">
+      <c r="C24" s="34"/>
+      <c r="D24" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="E24" s="28"/>
+      <c r="E24" s="31"/>
       <c r="F24" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G24" s="27" t="s">
+      <c r="G24" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="H24" s="29"/>
-      <c r="I24" s="28"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="31"/>
       <c r="J24" s="6" t="s">
         <v>21</v>
       </c>
@@ -2758,21 +2760,21 @@
       <c r="B25" s="5">
         <v>4</v>
       </c>
-      <c r="C25" s="31"/>
-      <c r="D25" s="27" t="s">
+      <c r="C25" s="34"/>
+      <c r="D25" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="E25" s="28"/>
+      <c r="E25" s="31"/>
       <c r="F25" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G25" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="H25" s="29"/>
-      <c r="I25" s="28"/>
+      <c r="G25" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" s="30"/>
+      <c r="I25" s="31"/>
       <c r="J25" s="6" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="K25" s="1"/>
     </row>
@@ -2781,21 +2783,21 @@
       <c r="B26" s="5">
         <v>5</v>
       </c>
-      <c r="C26" s="31"/>
-      <c r="D26" s="27" t="s">
+      <c r="C26" s="34"/>
+      <c r="D26" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="E26" s="28"/>
+      <c r="E26" s="31"/>
       <c r="F26" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G26" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="H26" s="29"/>
-      <c r="I26" s="28"/>
+      <c r="G26" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" s="30"/>
+      <c r="I26" s="31"/>
       <c r="J26" s="7" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="K26" s="1"/>
     </row>
@@ -2804,21 +2806,21 @@
       <c r="B27" s="5">
         <v>6</v>
       </c>
-      <c r="C27" s="31"/>
-      <c r="D27" s="27" t="s">
-        <v>382</v>
-      </c>
-      <c r="E27" s="28"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="36" t="s">
+        <v>380</v>
+      </c>
+      <c r="E27" s="31"/>
       <c r="F27" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G27" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="H27" s="29"/>
-      <c r="I27" s="28"/>
+      <c r="G27" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" s="30"/>
+      <c r="I27" s="31"/>
       <c r="J27" s="7" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="K27" s="1"/>
     </row>
@@ -2827,21 +2829,21 @@
       <c r="B28" s="5">
         <v>7</v>
       </c>
-      <c r="C28" s="31"/>
-      <c r="D28" s="58" t="s">
-        <v>383</v>
-      </c>
-      <c r="E28" s="59"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="37" t="s">
+        <v>381</v>
+      </c>
+      <c r="E28" s="38"/>
       <c r="F28" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="G28" s="58" t="s">
-        <v>15</v>
-      </c>
-      <c r="H28" s="60"/>
-      <c r="I28" s="61"/>
+      <c r="G28" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="H28" s="39"/>
+      <c r="I28" s="40"/>
       <c r="J28" s="24" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="K28" s="1"/>
     </row>
@@ -2850,8 +2852,8 @@
       <c r="B29" s="5">
         <v>8</v>
       </c>
-      <c r="C29" s="31"/>
-      <c r="D29" s="30" t="s">
+      <c r="C29" s="34"/>
+      <c r="D29" s="33" t="s">
         <v>28</v>
       </c>
       <c r="E29" s="6" t="s">
@@ -2860,13 +2862,13 @@
       <c r="F29" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G29" s="27" t="s">
+      <c r="G29" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="H29" s="29"/>
-      <c r="I29" s="28"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="31"/>
       <c r="J29" s="6" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="K29" s="1"/>
     </row>
@@ -2875,19 +2877,19 @@
       <c r="B30" s="5">
         <v>11</v>
       </c>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="34"/>
       <c r="E30" s="6" t="s">
         <v>38</v>
       </c>
       <c r="F30" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="G30" s="27" t="s">
+      <c r="G30" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="H30" s="29"/>
-      <c r="I30" s="28"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="31"/>
       <c r="J30" s="6" t="s">
         <v>40</v>
       </c>
@@ -2898,21 +2900,21 @@
       <c r="B31" s="5">
         <v>12</v>
       </c>
-      <c r="C31" s="31"/>
-      <c r="D31" s="32"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="35"/>
       <c r="E31" s="6" t="s">
         <v>41</v>
       </c>
       <c r="F31" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G31" s="27" t="s">
+      <c r="G31" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="H31" s="29"/>
-      <c r="I31" s="28"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="31"/>
       <c r="J31" s="6" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="K31" s="1"/>
     </row>
@@ -2921,8 +2923,8 @@
       <c r="B32" s="5">
         <v>13</v>
       </c>
-      <c r="C32" s="31"/>
-      <c r="D32" s="30" t="s">
+      <c r="C32" s="34"/>
+      <c r="D32" s="33" t="s">
         <v>43</v>
       </c>
       <c r="E32" s="6" t="s">
@@ -2931,13 +2933,13 @@
       <c r="F32" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="G32" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="H32" s="29"/>
-      <c r="I32" s="28"/>
+      <c r="G32" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="H32" s="30"/>
+      <c r="I32" s="31"/>
       <c r="J32" s="6" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="K32" s="1"/>
     </row>
@@ -2946,19 +2948,19 @@
       <c r="B33" s="5">
         <v>14</v>
       </c>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="34"/>
       <c r="E33" s="6" t="s">
         <v>46</v>
       </c>
       <c r="F33" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="G33" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="H33" s="29"/>
-      <c r="I33" s="28"/>
+      <c r="G33" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="H33" s="30"/>
+      <c r="I33" s="31"/>
       <c r="J33" s="6" t="s">
         <v>48</v>
       </c>
@@ -2969,19 +2971,19 @@
       <c r="B34" s="5">
         <v>15</v>
       </c>
-      <c r="C34" s="31"/>
-      <c r="D34" s="32"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="35"/>
       <c r="E34" s="6" t="s">
         <v>49</v>
       </c>
       <c r="F34" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G34" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="H34" s="29"/>
-      <c r="I34" s="28"/>
+      <c r="G34" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="H34" s="30"/>
+      <c r="I34" s="31"/>
       <c r="J34" s="6" t="s">
         <v>48</v>
       </c>
@@ -2992,8 +2994,8 @@
       <c r="B35" s="5">
         <v>16</v>
       </c>
-      <c r="C35" s="31"/>
-      <c r="D35" s="30" t="s">
+      <c r="C35" s="34"/>
+      <c r="D35" s="33" t="s">
         <v>51</v>
       </c>
       <c r="E35" s="6" t="s">
@@ -3002,11 +3004,11 @@
       <c r="F35" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="G35" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="H35" s="29"/>
-      <c r="I35" s="28"/>
+      <c r="G35" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="H35" s="30"/>
+      <c r="I35" s="31"/>
       <c r="J35" s="6" t="s">
         <v>54</v>
       </c>
@@ -3017,19 +3019,19 @@
       <c r="B36" s="5">
         <v>17</v>
       </c>
-      <c r="C36" s="31"/>
-      <c r="D36" s="32"/>
+      <c r="C36" s="34"/>
+      <c r="D36" s="35"/>
       <c r="E36" s="6" t="s">
         <v>55</v>
       </c>
       <c r="F36" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G36" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="H36" s="29"/>
-      <c r="I36" s="28"/>
+      <c r="G36" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="H36" s="30"/>
+      <c r="I36" s="31"/>
       <c r="J36" s="6" t="s">
         <v>54</v>
       </c>
@@ -3040,21 +3042,21 @@
       <c r="B37" s="5">
         <v>18</v>
       </c>
-      <c r="C37" s="31"/>
-      <c r="D37" s="62" t="s">
-        <v>388</v>
-      </c>
-      <c r="E37" s="63"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="41" t="s">
+        <v>386</v>
+      </c>
+      <c r="E37" s="42"/>
       <c r="F37" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="G37" s="58" t="s">
-        <v>15</v>
-      </c>
-      <c r="H37" s="60"/>
-      <c r="I37" s="61"/>
+      <c r="G37" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="H37" s="39"/>
+      <c r="I37" s="40"/>
       <c r="J37" s="23" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="K37" s="1"/>
     </row>
@@ -3063,19 +3065,19 @@
       <c r="B38" s="5">
         <v>19</v>
       </c>
-      <c r="C38" s="31"/>
-      <c r="D38" s="27" t="s">
+      <c r="C38" s="34"/>
+      <c r="D38" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="E38" s="28"/>
+      <c r="E38" s="31"/>
       <c r="F38" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="G38" s="27" t="s">
+      <c r="G38" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="H38" s="29"/>
-      <c r="I38" s="28"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="31"/>
       <c r="J38" s="6" t="s">
         <v>60</v>
       </c>
@@ -3086,21 +3088,21 @@
       <c r="B39" s="5">
         <v>20</v>
       </c>
-      <c r="C39" s="31"/>
-      <c r="D39" s="33" t="s">
+      <c r="C39" s="34"/>
+      <c r="D39" s="43" t="s">
+        <v>418</v>
+      </c>
+      <c r="E39" s="44"/>
+      <c r="F39" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="G39" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="H39" s="30"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="6" t="s">
         <v>420</v>
-      </c>
-      <c r="E39" s="34"/>
-      <c r="F39" s="6" t="s">
-        <v>421</v>
-      </c>
-      <c r="G39" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="H39" s="29"/>
-      <c r="I39" s="28"/>
-      <c r="J39" s="6" t="s">
-        <v>422</v>
       </c>
       <c r="K39" s="1"/>
     </row>
@@ -3109,19 +3111,19 @@
       <c r="B40" s="5">
         <v>21</v>
       </c>
-      <c r="C40" s="31"/>
-      <c r="D40" s="27" t="s">
+      <c r="C40" s="34"/>
+      <c r="D40" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="E40" s="28"/>
+      <c r="E40" s="31"/>
       <c r="F40" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="G40" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="H40" s="29"/>
-      <c r="I40" s="28"/>
+      <c r="G40" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="H40" s="30"/>
+      <c r="I40" s="31"/>
       <c r="J40" s="6" t="s">
         <v>63</v>
       </c>
@@ -3132,19 +3134,19 @@
       <c r="B41" s="5">
         <v>22</v>
       </c>
-      <c r="C41" s="32"/>
-      <c r="D41" s="27" t="s">
+      <c r="C41" s="35"/>
+      <c r="D41" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="E41" s="28"/>
+      <c r="E41" s="31"/>
       <c r="F41" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="G41" s="27" t="s">
+      <c r="G41" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="H41" s="29"/>
-      <c r="I41" s="28"/>
+      <c r="H41" s="30"/>
+      <c r="I41" s="31"/>
       <c r="J41" s="6" t="s">
         <v>66</v>
       </c>
@@ -3180,11 +3182,11 @@
       <c r="F43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G43" s="35" t="s">
+      <c r="G43" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="H43" s="29"/>
-      <c r="I43" s="28"/>
+      <c r="H43" s="30"/>
+      <c r="I43" s="31"/>
       <c r="J43" s="3" t="s">
         <v>6</v>
       </c>
@@ -3207,11 +3209,11 @@
       <c r="F44" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G44" s="36" t="s">
+      <c r="G44" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="H44" s="29"/>
-      <c r="I44" s="28"/>
+      <c r="H44" s="30"/>
+      <c r="I44" s="31"/>
       <c r="J44" s="4" t="s">
         <v>13</v>
       </c>
@@ -3222,21 +3224,21 @@
       <c r="B45" s="5">
         <v>1</v>
       </c>
-      <c r="C45" s="30" t="s">
+      <c r="C45" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="D45" s="27" t="s">
+      <c r="D45" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="E45" s="28"/>
+      <c r="E45" s="31"/>
       <c r="F45" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G45" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="H45" s="29"/>
-      <c r="I45" s="28"/>
+      <c r="G45" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="H45" s="30"/>
+      <c r="I45" s="31"/>
       <c r="J45" s="6" t="s">
         <v>16</v>
       </c>
@@ -3247,19 +3249,19 @@
       <c r="B46" s="5">
         <v>2</v>
       </c>
-      <c r="C46" s="31"/>
-      <c r="D46" s="27" t="s">
+      <c r="C46" s="34"/>
+      <c r="D46" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="E46" s="28"/>
+      <c r="E46" s="31"/>
       <c r="F46" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G46" s="27" t="s">
+      <c r="G46" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="H46" s="29"/>
-      <c r="I46" s="28"/>
+      <c r="H46" s="30"/>
+      <c r="I46" s="31"/>
       <c r="J46" s="6" t="s">
         <v>19</v>
       </c>
@@ -3270,19 +3272,19 @@
       <c r="B47" s="5">
         <v>3</v>
       </c>
-      <c r="C47" s="31"/>
-      <c r="D47" s="27" t="s">
+      <c r="C47" s="34"/>
+      <c r="D47" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="E47" s="28"/>
+      <c r="E47" s="31"/>
       <c r="F47" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G47" s="27" t="s">
+      <c r="G47" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="H47" s="29"/>
-      <c r="I47" s="28"/>
+      <c r="H47" s="30"/>
+      <c r="I47" s="31"/>
       <c r="J47" s="6" t="s">
         <v>21</v>
       </c>
@@ -3293,19 +3295,19 @@
       <c r="B48" s="5">
         <v>4</v>
       </c>
-      <c r="C48" s="31"/>
-      <c r="D48" s="27" t="s">
+      <c r="C48" s="34"/>
+      <c r="D48" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="E48" s="28"/>
+      <c r="E48" s="31"/>
       <c r="F48" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G48" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="H48" s="29"/>
-      <c r="I48" s="28"/>
+      <c r="G48" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="H48" s="30"/>
+      <c r="I48" s="31"/>
       <c r="J48" s="6" t="s">
         <v>68</v>
       </c>
@@ -3316,15 +3318,15 @@
       <c r="B49" s="5">
         <v>5</v>
       </c>
-      <c r="C49" s="31"/>
-      <c r="D49" s="49" t="s">
+      <c r="C49" s="34"/>
+      <c r="D49" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="E49" s="41"/>
-      <c r="F49" s="30" t="s">
+      <c r="E49" s="46"/>
+      <c r="F49" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="G49" s="30" t="s">
+      <c r="G49" s="33" t="s">
         <v>15</v>
       </c>
       <c r="H49" s="6">
@@ -3343,11 +3345,11 @@
       <c r="B50" s="5">
         <v>6</v>
       </c>
-      <c r="C50" s="31"/>
-      <c r="D50" s="45"/>
-      <c r="E50" s="46"/>
-      <c r="F50" s="32"/>
-      <c r="G50" s="32"/>
+      <c r="C50" s="34"/>
+      <c r="D50" s="47"/>
+      <c r="E50" s="48"/>
+      <c r="F50" s="35"/>
+      <c r="G50" s="35"/>
       <c r="H50" s="6">
         <v>2</v>
       </c>
@@ -3364,8 +3366,8 @@
       <c r="B51" s="5">
         <v>7</v>
       </c>
-      <c r="C51" s="31"/>
-      <c r="D51" s="30" t="s">
+      <c r="C51" s="34"/>
+      <c r="D51" s="33" t="s">
         <v>28</v>
       </c>
       <c r="E51" s="6" t="s">
@@ -3374,11 +3376,11 @@
       <c r="F51" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G51" s="27" t="s">
+      <c r="G51" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="H51" s="29"/>
-      <c r="I51" s="28"/>
+      <c r="H51" s="30"/>
+      <c r="I51" s="31"/>
       <c r="J51" s="6" t="s">
         <v>74</v>
       </c>
@@ -3389,19 +3391,19 @@
       <c r="B52" s="5">
         <v>9</v>
       </c>
-      <c r="C52" s="31"/>
-      <c r="D52" s="31"/>
+      <c r="C52" s="34"/>
+      <c r="D52" s="34"/>
       <c r="E52" s="6" t="s">
         <v>32</v>
       </c>
       <c r="F52" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="G52" s="27" t="s">
+      <c r="G52" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="H52" s="29"/>
-      <c r="I52" s="28"/>
+      <c r="H52" s="30"/>
+      <c r="I52" s="31"/>
       <c r="J52" s="6" t="s">
         <v>76</v>
       </c>
@@ -3412,19 +3414,19 @@
       <c r="B53" s="5">
         <v>10</v>
       </c>
-      <c r="C53" s="31"/>
-      <c r="D53" s="31"/>
+      <c r="C53" s="34"/>
+      <c r="D53" s="34"/>
       <c r="E53" s="6" t="s">
         <v>35</v>
       </c>
       <c r="F53" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G53" s="27" t="s">
+      <c r="G53" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="H53" s="29"/>
-      <c r="I53" s="28"/>
+      <c r="H53" s="30"/>
+      <c r="I53" s="31"/>
       <c r="J53" s="6" t="s">
         <v>77</v>
       </c>
@@ -3435,19 +3437,19 @@
       <c r="B54" s="5">
         <v>11</v>
       </c>
-      <c r="C54" s="31"/>
-      <c r="D54" s="31"/>
+      <c r="C54" s="34"/>
+      <c r="D54" s="34"/>
       <c r="E54" s="6" t="s">
         <v>78</v>
       </c>
       <c r="F54" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="G54" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="H54" s="29"/>
-      <c r="I54" s="28"/>
+      <c r="G54" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="H54" s="30"/>
+      <c r="I54" s="31"/>
       <c r="J54" s="6" t="s">
         <v>80</v>
       </c>
@@ -3458,19 +3460,19 @@
       <c r="B55" s="5">
         <v>12</v>
       </c>
-      <c r="C55" s="31"/>
-      <c r="D55" s="32"/>
+      <c r="C55" s="34"/>
+      <c r="D55" s="35"/>
       <c r="E55" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F55" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="G55" s="27" t="s">
+      <c r="G55" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="H55" s="29"/>
-      <c r="I55" s="28"/>
+      <c r="H55" s="30"/>
+      <c r="I55" s="31"/>
       <c r="J55" s="6" t="s">
         <v>83</v>
       </c>
@@ -3481,21 +3483,21 @@
       <c r="B56" s="5">
         <v>13</v>
       </c>
-      <c r="C56" s="31"/>
-      <c r="D56" s="30" t="s">
+      <c r="C56" s="34"/>
+      <c r="D56" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="E56" s="30" t="s">
+      <c r="E56" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="F56" s="30" t="s">
+      <c r="F56" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="G56" s="54" t="s">
-        <v>15</v>
-      </c>
-      <c r="H56" s="55"/>
-      <c r="I56" s="56"/>
+      <c r="G56" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="H56" s="50"/>
+      <c r="I56" s="51"/>
       <c r="J56" s="7" t="s">
         <v>87</v>
       </c>
@@ -3506,11 +3508,11 @@
       <c r="B57" s="5">
         <v>14</v>
       </c>
-      <c r="C57" s="31"/>
-      <c r="D57" s="31"/>
-      <c r="E57" s="31"/>
-      <c r="F57" s="31"/>
-      <c r="G57" s="57" t="s">
+      <c r="C57" s="34"/>
+      <c r="D57" s="34"/>
+      <c r="E57" s="34"/>
+      <c r="F57" s="34"/>
+      <c r="G57" s="52" t="s">
         <v>15</v>
       </c>
       <c r="H57" s="6">
@@ -3529,11 +3531,11 @@
       <c r="B58" s="5">
         <v>15</v>
       </c>
-      <c r="C58" s="31"/>
-      <c r="D58" s="31"/>
-      <c r="E58" s="31"/>
-      <c r="F58" s="31"/>
-      <c r="G58" s="31"/>
+      <c r="C58" s="34"/>
+      <c r="D58" s="34"/>
+      <c r="E58" s="34"/>
+      <c r="F58" s="34"/>
+      <c r="G58" s="34"/>
       <c r="H58" s="6">
         <v>2</v>
       </c>
@@ -3550,11 +3552,11 @@
       <c r="B59" s="5">
         <v>16</v>
       </c>
-      <c r="C59" s="31"/>
-      <c r="D59" s="31"/>
-      <c r="E59" s="31"/>
-      <c r="F59" s="31"/>
-      <c r="G59" s="31"/>
+      <c r="C59" s="34"/>
+      <c r="D59" s="34"/>
+      <c r="E59" s="34"/>
+      <c r="F59" s="34"/>
+      <c r="G59" s="34"/>
       <c r="H59" s="6">
         <v>3</v>
       </c>
@@ -3571,11 +3573,11 @@
       <c r="B60" s="5">
         <v>17</v>
       </c>
-      <c r="C60" s="31"/>
-      <c r="D60" s="31"/>
-      <c r="E60" s="31"/>
-      <c r="F60" s="31"/>
-      <c r="G60" s="31"/>
+      <c r="C60" s="34"/>
+      <c r="D60" s="34"/>
+      <c r="E60" s="34"/>
+      <c r="F60" s="34"/>
+      <c r="G60" s="34"/>
       <c r="H60" s="6">
         <v>4</v>
       </c>
@@ -3592,11 +3594,11 @@
       <c r="B61" s="5">
         <v>18</v>
       </c>
-      <c r="C61" s="31"/>
-      <c r="D61" s="31"/>
-      <c r="E61" s="31"/>
-      <c r="F61" s="31"/>
-      <c r="G61" s="31"/>
+      <c r="C61" s="34"/>
+      <c r="D61" s="34"/>
+      <c r="E61" s="34"/>
+      <c r="F61" s="34"/>
+      <c r="G61" s="34"/>
       <c r="H61" s="6">
         <v>5</v>
       </c>
@@ -3613,11 +3615,11 @@
       <c r="B62" s="5">
         <v>19</v>
       </c>
-      <c r="C62" s="31"/>
-      <c r="D62" s="31"/>
-      <c r="E62" s="31"/>
-      <c r="F62" s="31"/>
-      <c r="G62" s="31"/>
+      <c r="C62" s="34"/>
+      <c r="D62" s="34"/>
+      <c r="E62" s="34"/>
+      <c r="F62" s="34"/>
+      <c r="G62" s="34"/>
       <c r="H62" s="6">
         <v>6</v>
       </c>
@@ -3634,11 +3636,11 @@
       <c r="B63" s="5">
         <v>20</v>
       </c>
-      <c r="C63" s="31"/>
-      <c r="D63" s="31"/>
-      <c r="E63" s="31"/>
-      <c r="F63" s="31"/>
-      <c r="G63" s="31"/>
+      <c r="C63" s="34"/>
+      <c r="D63" s="34"/>
+      <c r="E63" s="34"/>
+      <c r="F63" s="34"/>
+      <c r="G63" s="34"/>
       <c r="H63" s="6">
         <v>7</v>
       </c>
@@ -3655,11 +3657,11 @@
       <c r="B64" s="5">
         <v>21</v>
       </c>
-      <c r="C64" s="31"/>
-      <c r="D64" s="31"/>
-      <c r="E64" s="31"/>
-      <c r="F64" s="31"/>
-      <c r="G64" s="31"/>
+      <c r="C64" s="34"/>
+      <c r="D64" s="34"/>
+      <c r="E64" s="34"/>
+      <c r="F64" s="34"/>
+      <c r="G64" s="34"/>
       <c r="H64" s="6">
         <v>8</v>
       </c>
@@ -3676,11 +3678,11 @@
       <c r="B65" s="5">
         <v>22</v>
       </c>
-      <c r="C65" s="31"/>
-      <c r="D65" s="31"/>
-      <c r="E65" s="31"/>
-      <c r="F65" s="31"/>
-      <c r="G65" s="31"/>
+      <c r="C65" s="34"/>
+      <c r="D65" s="34"/>
+      <c r="E65" s="34"/>
+      <c r="F65" s="34"/>
+      <c r="G65" s="34"/>
       <c r="H65" s="6">
         <v>9</v>
       </c>
@@ -3697,11 +3699,11 @@
       <c r="B66" s="5">
         <v>23</v>
       </c>
-      <c r="C66" s="31"/>
-      <c r="D66" s="31"/>
-      <c r="E66" s="31"/>
-      <c r="F66" s="31"/>
-      <c r="G66" s="31"/>
+      <c r="C66" s="34"/>
+      <c r="D66" s="34"/>
+      <c r="E66" s="34"/>
+      <c r="F66" s="34"/>
+      <c r="G66" s="34"/>
       <c r="H66" s="6">
         <v>10</v>
       </c>
@@ -3718,16 +3720,16 @@
       <c r="B67" s="5">
         <v>24</v>
       </c>
-      <c r="C67" s="31"/>
-      <c r="D67" s="31"/>
-      <c r="E67" s="31"/>
-      <c r="F67" s="31"/>
-      <c r="G67" s="31"/>
+      <c r="C67" s="34"/>
+      <c r="D67" s="34"/>
+      <c r="E67" s="34"/>
+      <c r="F67" s="34"/>
+      <c r="G67" s="34"/>
       <c r="H67" s="6">
         <v>11</v>
       </c>
       <c r="I67" s="6" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="J67" s="6" t="s">
         <v>104</v>
@@ -3739,16 +3741,16 @@
       <c r="B68" s="5">
         <v>25</v>
       </c>
-      <c r="C68" s="31"/>
-      <c r="D68" s="32"/>
-      <c r="E68" s="31"/>
-      <c r="F68" s="31"/>
-      <c r="G68" s="32"/>
+      <c r="C68" s="34"/>
+      <c r="D68" s="35"/>
+      <c r="E68" s="34"/>
+      <c r="F68" s="34"/>
+      <c r="G68" s="35"/>
       <c r="H68" s="6">
         <v>12</v>
       </c>
       <c r="I68" s="6" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="J68" s="6" t="s">
         <v>105</v>
@@ -3760,8 +3762,8 @@
       <c r="B69" s="5">
         <v>26</v>
       </c>
-      <c r="C69" s="31"/>
-      <c r="D69" s="30" t="s">
+      <c r="C69" s="34"/>
+      <c r="D69" s="33" t="s">
         <v>43</v>
       </c>
       <c r="E69" s="6" t="s">
@@ -3770,11 +3772,11 @@
       <c r="F69" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="G69" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="H69" s="29"/>
-      <c r="I69" s="28"/>
+      <c r="G69" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="H69" s="30"/>
+      <c r="I69" s="31"/>
       <c r="J69" s="6" t="s">
         <v>107</v>
       </c>
@@ -3785,19 +3787,19 @@
       <c r="B70" s="5">
         <v>27</v>
       </c>
-      <c r="C70" s="31"/>
-      <c r="D70" s="31"/>
+      <c r="C70" s="34"/>
+      <c r="D70" s="34"/>
       <c r="E70" s="6" t="s">
         <v>46</v>
       </c>
       <c r="F70" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="G70" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="H70" s="29"/>
-      <c r="I70" s="28"/>
+      <c r="G70" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="H70" s="30"/>
+      <c r="I70" s="31"/>
       <c r="J70" s="6" t="s">
         <v>48</v>
       </c>
@@ -3808,21 +3810,21 @@
       <c r="B71" s="5">
         <v>28</v>
       </c>
-      <c r="C71" s="31"/>
-      <c r="D71" s="31"/>
+      <c r="C71" s="34"/>
+      <c r="D71" s="34"/>
       <c r="E71" s="6" t="s">
         <v>49</v>
       </c>
       <c r="F71" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G71" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="H71" s="29"/>
-      <c r="I71" s="28"/>
+      <c r="G71" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="H71" s="30"/>
+      <c r="I71" s="31"/>
       <c r="J71" s="6" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="K71" s="1"/>
     </row>
@@ -3831,21 +3833,21 @@
       <c r="B72" s="5">
         <v>29</v>
       </c>
-      <c r="C72" s="31"/>
-      <c r="D72" s="32"/>
+      <c r="C72" s="34"/>
+      <c r="D72" s="35"/>
       <c r="E72" s="6" t="s">
         <v>108</v>
       </c>
       <c r="F72" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="G72" s="27" t="s">
+      <c r="G72" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="H72" s="29"/>
-      <c r="I72" s="28"/>
+      <c r="H72" s="30"/>
+      <c r="I72" s="31"/>
       <c r="J72" s="6" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="K72" s="1"/>
     </row>
@@ -3854,21 +3856,21 @@
       <c r="B73" s="5">
         <v>30</v>
       </c>
-      <c r="C73" s="31"/>
-      <c r="D73" s="33" t="s">
+      <c r="C73" s="34"/>
+      <c r="D73" s="43" t="s">
+        <v>418</v>
+      </c>
+      <c r="E73" s="44"/>
+      <c r="F73" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="G73" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="H73" s="30"/>
+      <c r="I73" s="31"/>
+      <c r="J73" s="6" t="s">
         <v>420</v>
-      </c>
-      <c r="E73" s="34"/>
-      <c r="F73" s="6" t="s">
-        <v>421</v>
-      </c>
-      <c r="G73" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="H73" s="29"/>
-      <c r="I73" s="28"/>
-      <c r="J73" s="6" t="s">
-        <v>422</v>
       </c>
       <c r="K73" s="1"/>
     </row>
@@ -3877,21 +3879,21 @@
       <c r="B74" s="5">
         <v>31</v>
       </c>
-      <c r="C74" s="31"/>
-      <c r="D74" s="27" t="s">
+      <c r="C74" s="34"/>
+      <c r="D74" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="E74" s="28"/>
+      <c r="E74" s="31"/>
       <c r="F74" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="G74" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="H74" s="29"/>
-      <c r="I74" s="28"/>
+      <c r="G74" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="H74" s="30"/>
+      <c r="I74" s="31"/>
       <c r="J74" s="6" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="K74" s="1"/>
     </row>
@@ -3900,19 +3902,19 @@
       <c r="B75" s="5">
         <v>32</v>
       </c>
-      <c r="C75" s="32"/>
-      <c r="D75" s="27" t="s">
+      <c r="C75" s="35"/>
+      <c r="D75" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="E75" s="28"/>
+      <c r="E75" s="31"/>
       <c r="F75" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="G75" s="27" t="s">
+      <c r="G75" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="H75" s="29"/>
-      <c r="I75" s="28"/>
+      <c r="H75" s="30"/>
+      <c r="I75" s="31"/>
       <c r="J75" s="6" t="s">
         <v>66</v>
       </c>
@@ -3948,11 +3950,11 @@
       <c r="F77" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G77" s="35" t="s">
+      <c r="G77" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="H77" s="29"/>
-      <c r="I77" s="28"/>
+      <c r="H77" s="30"/>
+      <c r="I77" s="31"/>
       <c r="J77" s="3" t="s">
         <v>6</v>
       </c>
@@ -3975,11 +3977,11 @@
       <c r="F78" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G78" s="36" t="s">
+      <c r="G78" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="H78" s="29"/>
-      <c r="I78" s="28"/>
+      <c r="H78" s="30"/>
+      <c r="I78" s="31"/>
       <c r="J78" s="4" t="s">
         <v>13</v>
       </c>
@@ -3990,23 +3992,23 @@
       <c r="B79" s="5">
         <v>1</v>
       </c>
-      <c r="C79" s="30" t="s">
+      <c r="C79" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="D79" s="27" t="s">
+      <c r="D79" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="E79" s="28"/>
+      <c r="E79" s="31"/>
       <c r="F79" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G79" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="H79" s="29"/>
-      <c r="I79" s="28"/>
+      <c r="G79" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="H79" s="30"/>
+      <c r="I79" s="31"/>
       <c r="J79" s="6" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K79" s="1"/>
     </row>
@@ -4015,21 +4017,21 @@
       <c r="B80" s="5">
         <v>2</v>
       </c>
-      <c r="C80" s="31"/>
-      <c r="D80" s="27" t="s">
+      <c r="C80" s="34"/>
+      <c r="D80" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="E80" s="28"/>
+      <c r="E80" s="31"/>
       <c r="F80" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G80" s="27" t="s">
+      <c r="G80" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="H80" s="29"/>
-      <c r="I80" s="28"/>
+      <c r="H80" s="30"/>
+      <c r="I80" s="31"/>
       <c r="J80" s="6" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="K80" s="1"/>
     </row>
@@ -4038,21 +4040,21 @@
       <c r="B81" s="5">
         <v>3</v>
       </c>
-      <c r="C81" s="31"/>
-      <c r="D81" s="27" t="s">
+      <c r="C81" s="34"/>
+      <c r="D81" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="E81" s="28"/>
+      <c r="E81" s="31"/>
       <c r="F81" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G81" s="27" t="s">
+      <c r="G81" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="H81" s="29"/>
-      <c r="I81" s="28"/>
+      <c r="H81" s="30"/>
+      <c r="I81" s="31"/>
       <c r="J81" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="K81" s="1"/>
     </row>
@@ -4061,21 +4063,21 @@
       <c r="B82" s="5">
         <v>4</v>
       </c>
-      <c r="C82" s="31"/>
-      <c r="D82" s="27" t="s">
+      <c r="C82" s="34"/>
+      <c r="D82" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="E82" s="28"/>
+      <c r="E82" s="31"/>
       <c r="F82" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G82" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="H82" s="29"/>
-      <c r="I82" s="28"/>
+      <c r="G82" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="H82" s="30"/>
+      <c r="I82" s="31"/>
       <c r="J82" s="6" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="K82" s="1"/>
     </row>
@@ -4084,17 +4086,17 @@
       <c r="B83" s="5">
         <v>5</v>
       </c>
-      <c r="C83" s="31"/>
-      <c r="D83" s="30" t="s">
-        <v>398</v>
-      </c>
-      <c r="E83" s="53" t="s">
-        <v>399</v>
-      </c>
-      <c r="F83" s="30" t="s">
+      <c r="C83" s="34"/>
+      <c r="D83" s="33" t="s">
+        <v>396</v>
+      </c>
+      <c r="E83" s="57" t="s">
+        <v>397</v>
+      </c>
+      <c r="F83" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="G83" s="30" t="s">
+      <c r="G83" s="33" t="s">
         <v>15</v>
       </c>
       <c r="H83" s="6">
@@ -4104,23 +4106,23 @@
         <v>112</v>
       </c>
       <c r="J83" s="6" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="K83" s="1"/>
     </row>
     <row r="84" spans="1:11" ht="15" customHeight="1">
       <c r="A84" s="1"/>
       <c r="B84" s="5"/>
-      <c r="C84" s="31"/>
-      <c r="D84" s="31"/>
-      <c r="E84" s="44"/>
-      <c r="F84" s="31"/>
-      <c r="G84" s="31"/>
+      <c r="C84" s="34"/>
+      <c r="D84" s="34"/>
+      <c r="E84" s="56"/>
+      <c r="F84" s="34"/>
+      <c r="G84" s="34"/>
       <c r="H84" s="8">
         <v>2</v>
       </c>
       <c r="I84" s="8" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="J84" s="6" t="s">
         <v>113</v>
@@ -4132,19 +4134,19 @@
       <c r="B85" s="5">
         <v>6</v>
       </c>
-      <c r="C85" s="31"/>
-      <c r="D85" s="31"/>
-      <c r="E85" s="46"/>
-      <c r="F85" s="32"/>
-      <c r="G85" s="45"/>
-      <c r="H85" s="65">
+      <c r="C85" s="34"/>
+      <c r="D85" s="34"/>
+      <c r="E85" s="48"/>
+      <c r="F85" s="35"/>
+      <c r="G85" s="47"/>
+      <c r="H85" s="28">
         <v>3</v>
       </c>
-      <c r="I85" s="65" t="s">
-        <v>402</v>
+      <c r="I85" s="28" t="s">
+        <v>400</v>
       </c>
       <c r="J85" s="26" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="K85" s="1"/>
     </row>
@@ -4153,23 +4155,23 @@
       <c r="B86" s="5">
         <v>7</v>
       </c>
-      <c r="C86" s="31"/>
-      <c r="D86" s="31"/>
-      <c r="E86" s="53" t="s">
-        <v>404</v>
-      </c>
-      <c r="F86" s="30" t="s">
+      <c r="C86" s="34"/>
+      <c r="D86" s="34"/>
+      <c r="E86" s="57" t="s">
+        <v>402</v>
+      </c>
+      <c r="F86" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="G86" s="49" t="s">
+      <c r="G86" s="45" t="s">
         <v>115</v>
       </c>
-      <c r="H86" s="66" t="b">
+      <c r="H86" s="53" t="b">
         <v>1</v>
       </c>
-      <c r="I86" s="67"/>
+      <c r="I86" s="54"/>
       <c r="J86" s="9" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="K86" s="1"/>
     </row>
@@ -4178,17 +4180,17 @@
       <c r="B87" s="5">
         <v>8</v>
       </c>
-      <c r="C87" s="31"/>
-      <c r="D87" s="32"/>
-      <c r="E87" s="46"/>
-      <c r="F87" s="32"/>
-      <c r="G87" s="45"/>
-      <c r="H87" s="66" t="b">
+      <c r="C87" s="34"/>
+      <c r="D87" s="35"/>
+      <c r="E87" s="48"/>
+      <c r="F87" s="35"/>
+      <c r="G87" s="47"/>
+      <c r="H87" s="53" t="b">
         <v>0</v>
       </c>
-      <c r="I87" s="67"/>
+      <c r="I87" s="54"/>
       <c r="J87" s="9" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="K87" s="1"/>
     </row>
@@ -4197,24 +4199,24 @@
       <c r="B88" s="5">
         <v>9</v>
       </c>
-      <c r="C88" s="31"/>
-      <c r="D88" s="49" t="s">
+      <c r="C88" s="34"/>
+      <c r="D88" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="E88" s="41"/>
-      <c r="F88" s="30" t="s">
+      <c r="E88" s="46"/>
+      <c r="F88" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="G88" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="H88" s="65">
+      <c r="G88" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="H88" s="28">
         <v>1</v>
       </c>
-      <c r="I88" s="65" t="s">
+      <c r="I88" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="J88" s="64" t="s">
+      <c r="J88" s="27" t="s">
         <v>119</v>
       </c>
       <c r="K88" s="1"/>
@@ -4224,11 +4226,11 @@
       <c r="B89" s="5">
         <v>10</v>
       </c>
-      <c r="C89" s="31"/>
-      <c r="D89" s="43"/>
-      <c r="E89" s="44"/>
-      <c r="F89" s="31"/>
-      <c r="G89" s="31"/>
+      <c r="C89" s="34"/>
+      <c r="D89" s="55"/>
+      <c r="E89" s="56"/>
+      <c r="F89" s="34"/>
+      <c r="G89" s="34"/>
       <c r="H89" s="10">
         <v>2</v>
       </c>
@@ -4245,11 +4247,11 @@
       <c r="B90" s="5">
         <v>11</v>
       </c>
-      <c r="C90" s="31"/>
-      <c r="D90" s="43"/>
-      <c r="E90" s="44"/>
-      <c r="F90" s="31"/>
-      <c r="G90" s="31"/>
+      <c r="C90" s="34"/>
+      <c r="D90" s="55"/>
+      <c r="E90" s="56"/>
+      <c r="F90" s="34"/>
+      <c r="G90" s="34"/>
       <c r="H90" s="6">
         <v>3</v>
       </c>
@@ -4266,11 +4268,11 @@
       <c r="B91" s="5">
         <v>12</v>
       </c>
-      <c r="C91" s="31"/>
-      <c r="D91" s="43"/>
-      <c r="E91" s="44"/>
-      <c r="F91" s="31"/>
-      <c r="G91" s="31"/>
+      <c r="C91" s="34"/>
+      <c r="D91" s="55"/>
+      <c r="E91" s="56"/>
+      <c r="F91" s="34"/>
+      <c r="G91" s="34"/>
       <c r="H91" s="6">
         <v>4</v>
       </c>
@@ -4287,15 +4289,15 @@
       <c r="B92" s="5">
         <v>14</v>
       </c>
-      <c r="C92" s="31"/>
-      <c r="D92" s="49" t="s">
+      <c r="C92" s="34"/>
+      <c r="D92" s="45" t="s">
         <v>126</v>
       </c>
-      <c r="E92" s="41"/>
-      <c r="F92" s="30" t="s">
+      <c r="E92" s="46"/>
+      <c r="F92" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="G92" s="30" t="s">
+      <c r="G92" s="33" t="s">
         <v>15</v>
       </c>
       <c r="H92" s="6">
@@ -4314,11 +4316,11 @@
       <c r="B93" s="5">
         <v>15</v>
       </c>
-      <c r="C93" s="31"/>
-      <c r="D93" s="43"/>
-      <c r="E93" s="44"/>
-      <c r="F93" s="31"/>
-      <c r="G93" s="31"/>
+      <c r="C93" s="34"/>
+      <c r="D93" s="55"/>
+      <c r="E93" s="56"/>
+      <c r="F93" s="34"/>
+      <c r="G93" s="34"/>
       <c r="H93" s="6">
         <v>2</v>
       </c>
@@ -4335,11 +4337,11 @@
       <c r="B94" s="5">
         <v>16</v>
       </c>
-      <c r="C94" s="31"/>
-      <c r="D94" s="45"/>
-      <c r="E94" s="46"/>
-      <c r="F94" s="32"/>
-      <c r="G94" s="32"/>
+      <c r="C94" s="34"/>
+      <c r="D94" s="47"/>
+      <c r="E94" s="48"/>
+      <c r="F94" s="35"/>
+      <c r="G94" s="35"/>
       <c r="H94" s="6">
         <v>3</v>
       </c>
@@ -4356,15 +4358,15 @@
       <c r="B95" s="5">
         <v>17</v>
       </c>
-      <c r="C95" s="31"/>
-      <c r="D95" s="49" t="s">
+      <c r="C95" s="34"/>
+      <c r="D95" s="45" t="s">
         <v>134</v>
       </c>
-      <c r="E95" s="41"/>
-      <c r="F95" s="30" t="s">
+      <c r="E95" s="46"/>
+      <c r="F95" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="G95" s="30" t="s">
+      <c r="G95" s="33" t="s">
         <v>15</v>
       </c>
       <c r="H95" s="6">
@@ -4383,11 +4385,11 @@
       <c r="B96" s="5">
         <v>18</v>
       </c>
-      <c r="C96" s="31"/>
-      <c r="D96" s="43"/>
-      <c r="E96" s="44"/>
-      <c r="F96" s="31"/>
-      <c r="G96" s="31"/>
+      <c r="C96" s="34"/>
+      <c r="D96" s="55"/>
+      <c r="E96" s="56"/>
+      <c r="F96" s="34"/>
+      <c r="G96" s="34"/>
       <c r="H96" s="6">
         <v>2</v>
       </c>
@@ -4404,11 +4406,11 @@
       <c r="B97" s="5">
         <v>19</v>
       </c>
-      <c r="C97" s="31"/>
-      <c r="D97" s="43"/>
-      <c r="E97" s="44"/>
-      <c r="F97" s="31"/>
-      <c r="G97" s="31"/>
+      <c r="C97" s="34"/>
+      <c r="D97" s="55"/>
+      <c r="E97" s="56"/>
+      <c r="F97" s="34"/>
+      <c r="G97" s="34"/>
       <c r="H97" s="6">
         <v>3</v>
       </c>
@@ -4425,11 +4427,11 @@
       <c r="B98" s="5">
         <v>20</v>
       </c>
-      <c r="C98" s="31"/>
-      <c r="D98" s="43"/>
-      <c r="E98" s="44"/>
-      <c r="F98" s="31"/>
-      <c r="G98" s="31"/>
+      <c r="C98" s="34"/>
+      <c r="D98" s="55"/>
+      <c r="E98" s="56"/>
+      <c r="F98" s="34"/>
+      <c r="G98" s="34"/>
       <c r="H98" s="6">
         <v>4</v>
       </c>
@@ -4446,17 +4448,17 @@
       <c r="B99" s="5">
         <v>21</v>
       </c>
-      <c r="C99" s="31"/>
-      <c r="D99" s="30" t="s">
+      <c r="C99" s="34"/>
+      <c r="D99" s="33" t="s">
         <v>144</v>
       </c>
-      <c r="E99" s="30" t="s">
+      <c r="E99" s="33" t="s">
         <v>145</v>
       </c>
-      <c r="F99" s="30" t="s">
+      <c r="F99" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="G99" s="30" t="s">
+      <c r="G99" s="33" t="s">
         <v>15</v>
       </c>
       <c r="H99" s="6">
@@ -4475,11 +4477,11 @@
       <c r="B100" s="5">
         <v>22</v>
       </c>
-      <c r="C100" s="31"/>
-      <c r="D100" s="31"/>
-      <c r="E100" s="32"/>
-      <c r="F100" s="32"/>
-      <c r="G100" s="32"/>
+      <c r="C100" s="34"/>
+      <c r="D100" s="34"/>
+      <c r="E100" s="35"/>
+      <c r="F100" s="35"/>
+      <c r="G100" s="35"/>
       <c r="H100" s="6">
         <v>2</v>
       </c>
@@ -4496,19 +4498,19 @@
       <c r="B101" s="5">
         <v>23</v>
       </c>
-      <c r="C101" s="31"/>
-      <c r="D101" s="31"/>
+      <c r="C101" s="34"/>
+      <c r="D101" s="34"/>
       <c r="E101" s="6" t="s">
         <v>151</v>
       </c>
       <c r="F101" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="G101" s="27" t="s">
+      <c r="G101" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="H101" s="29"/>
-      <c r="I101" s="28"/>
+      <c r="H101" s="30"/>
+      <c r="I101" s="31"/>
       <c r="J101" s="6" t="s">
         <v>153</v>
       </c>
@@ -4519,19 +4521,19 @@
       <c r="B102" s="5">
         <v>24</v>
       </c>
-      <c r="C102" s="31"/>
-      <c r="D102" s="32"/>
+      <c r="C102" s="34"/>
+      <c r="D102" s="35"/>
       <c r="E102" s="6" t="s">
         <v>154</v>
       </c>
       <c r="F102" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="G102" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="H102" s="29"/>
-      <c r="I102" s="28"/>
+      <c r="G102" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="H102" s="30"/>
+      <c r="I102" s="31"/>
       <c r="J102" s="6" t="s">
         <v>156</v>
       </c>
@@ -4542,8 +4544,8 @@
       <c r="B103" s="5">
         <v>25</v>
       </c>
-      <c r="C103" s="31"/>
-      <c r="D103" s="30" t="s">
+      <c r="C103" s="34"/>
+      <c r="D103" s="33" t="s">
         <v>157</v>
       </c>
       <c r="E103" s="6" t="s">
@@ -4552,11 +4554,11 @@
       <c r="F103" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="G103" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="H103" s="29"/>
-      <c r="I103" s="28"/>
+      <c r="G103" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="H103" s="30"/>
+      <c r="I103" s="31"/>
       <c r="J103" s="6" t="s">
         <v>160</v>
       </c>
@@ -4567,19 +4569,19 @@
       <c r="B104" s="5">
         <v>26</v>
       </c>
-      <c r="C104" s="31"/>
-      <c r="D104" s="31"/>
+      <c r="C104" s="34"/>
+      <c r="D104" s="34"/>
       <c r="E104" s="6" t="s">
         <v>161</v>
       </c>
       <c r="F104" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="G104" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="H104" s="29"/>
-      <c r="I104" s="28"/>
+      <c r="G104" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="H104" s="30"/>
+      <c r="I104" s="31"/>
       <c r="J104" s="6" t="s">
         <v>163</v>
       </c>
@@ -4590,19 +4592,19 @@
       <c r="B105" s="5">
         <v>27</v>
       </c>
-      <c r="C105" s="31"/>
-      <c r="D105" s="32"/>
+      <c r="C105" s="34"/>
+      <c r="D105" s="35"/>
       <c r="E105" s="6" t="s">
         <v>164</v>
       </c>
       <c r="F105" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="G105" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="H105" s="29"/>
-      <c r="I105" s="28"/>
+      <c r="G105" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="H105" s="30"/>
+      <c r="I105" s="31"/>
       <c r="J105" s="6" t="s">
         <v>166</v>
       </c>
@@ -4613,21 +4615,21 @@
       <c r="B106" s="5">
         <v>28</v>
       </c>
-      <c r="C106" s="31"/>
-      <c r="D106" s="27" t="s">
+      <c r="C106" s="34"/>
+      <c r="D106" s="36" t="s">
         <v>167</v>
       </c>
-      <c r="E106" s="28"/>
+      <c r="E106" s="31"/>
       <c r="F106" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="G106" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="H106" s="29"/>
-      <c r="I106" s="28"/>
+      <c r="G106" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="H106" s="30"/>
+      <c r="I106" s="31"/>
       <c r="J106" s="6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="K106" s="1"/>
     </row>
@@ -4636,19 +4638,19 @@
       <c r="B107" s="5">
         <v>29</v>
       </c>
-      <c r="C107" s="31"/>
-      <c r="D107" s="27" t="s">
+      <c r="C107" s="34"/>
+      <c r="D107" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="E107" s="28"/>
+      <c r="E107" s="31"/>
       <c r="F107" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="G107" s="27" t="s">
+      <c r="G107" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="H107" s="29"/>
-      <c r="I107" s="28"/>
+      <c r="H107" s="30"/>
+      <c r="I107" s="31"/>
       <c r="J107" s="6" t="s">
         <v>171</v>
       </c>
@@ -4659,19 +4661,19 @@
       <c r="B108" s="5">
         <v>30</v>
       </c>
-      <c r="C108" s="32"/>
-      <c r="D108" s="27" t="s">
+      <c r="C108" s="35"/>
+      <c r="D108" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="E108" s="28"/>
+      <c r="E108" s="31"/>
       <c r="F108" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="G108" s="27" t="s">
+      <c r="G108" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="H108" s="29"/>
-      <c r="I108" s="28"/>
+      <c r="H108" s="30"/>
+      <c r="I108" s="31"/>
       <c r="J108" s="6" t="s">
         <v>66</v>
       </c>
@@ -4707,11 +4709,11 @@
       <c r="F110" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G110" s="35" t="s">
+      <c r="G110" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="H110" s="29"/>
-      <c r="I110" s="28"/>
+      <c r="H110" s="30"/>
+      <c r="I110" s="31"/>
       <c r="J110" s="3" t="s">
         <v>6</v>
       </c>
@@ -4734,11 +4736,11 @@
       <c r="F111" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G111" s="36" t="s">
+      <c r="G111" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="H111" s="29"/>
-      <c r="I111" s="28"/>
+      <c r="H111" s="30"/>
+      <c r="I111" s="31"/>
       <c r="J111" s="4" t="s">
         <v>13</v>
       </c>
@@ -4749,21 +4751,21 @@
       <c r="B112" s="5">
         <v>1</v>
       </c>
-      <c r="C112" s="30" t="s">
+      <c r="C112" s="33" t="s">
         <v>172</v>
       </c>
-      <c r="D112" s="27" t="s">
+      <c r="D112" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="E112" s="28"/>
+      <c r="E112" s="31"/>
       <c r="F112" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G112" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="H112" s="29"/>
-      <c r="I112" s="28"/>
+      <c r="G112" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="H112" s="30"/>
+      <c r="I112" s="31"/>
       <c r="J112" s="6" t="s">
         <v>16</v>
       </c>
@@ -4774,19 +4776,19 @@
       <c r="B113" s="5">
         <v>2</v>
       </c>
-      <c r="C113" s="31"/>
-      <c r="D113" s="27" t="s">
+      <c r="C113" s="34"/>
+      <c r="D113" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="E113" s="28"/>
+      <c r="E113" s="31"/>
       <c r="F113" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G113" s="27" t="s">
+      <c r="G113" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="H113" s="29"/>
-      <c r="I113" s="28"/>
+      <c r="H113" s="30"/>
+      <c r="I113" s="31"/>
       <c r="J113" s="6" t="s">
         <v>19</v>
       </c>
@@ -4797,19 +4799,19 @@
       <c r="B114" s="5">
         <v>3</v>
       </c>
-      <c r="C114" s="31"/>
-      <c r="D114" s="27" t="s">
+      <c r="C114" s="34"/>
+      <c r="D114" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="E114" s="28"/>
+      <c r="E114" s="31"/>
       <c r="F114" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G114" s="27" t="s">
+      <c r="G114" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="H114" s="29"/>
-      <c r="I114" s="28"/>
+      <c r="H114" s="30"/>
+      <c r="I114" s="31"/>
       <c r="J114" s="6" t="s">
         <v>21</v>
       </c>
@@ -4820,19 +4822,19 @@
       <c r="B115" s="5">
         <v>4</v>
       </c>
-      <c r="C115" s="31"/>
-      <c r="D115" s="27" t="s">
+      <c r="C115" s="34"/>
+      <c r="D115" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="E115" s="28"/>
+      <c r="E115" s="31"/>
       <c r="F115" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G115" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="H115" s="29"/>
-      <c r="I115" s="28"/>
+      <c r="G115" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="H115" s="30"/>
+      <c r="I115" s="31"/>
       <c r="J115" s="6" t="s">
         <v>68</v>
       </c>
@@ -4843,8 +4845,8 @@
       <c r="B116" s="5">
         <v>5</v>
       </c>
-      <c r="C116" s="31"/>
-      <c r="D116" s="30" t="s">
+      <c r="C116" s="34"/>
+      <c r="D116" s="33" t="s">
         <v>173</v>
       </c>
       <c r="E116" s="6" t="s">
@@ -4853,11 +4855,11 @@
       <c r="F116" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="G116" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="H116" s="29"/>
-      <c r="I116" s="28"/>
+      <c r="G116" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="H116" s="30"/>
+      <c r="I116" s="31"/>
       <c r="J116" s="6" t="s">
         <v>176</v>
       </c>
@@ -4868,19 +4870,19 @@
       <c r="B117" s="5">
         <v>6</v>
       </c>
-      <c r="C117" s="31"/>
-      <c r="D117" s="32"/>
+      <c r="C117" s="34"/>
+      <c r="D117" s="35"/>
       <c r="E117" s="6" t="s">
         <v>177</v>
       </c>
       <c r="F117" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="G117" s="27" t="s">
+      <c r="G117" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="H117" s="29"/>
-      <c r="I117" s="28"/>
+      <c r="H117" s="30"/>
+      <c r="I117" s="31"/>
       <c r="J117" s="6" t="s">
         <v>179</v>
       </c>
@@ -4891,19 +4893,19 @@
       <c r="B118" s="5">
         <v>7</v>
       </c>
-      <c r="C118" s="31"/>
-      <c r="D118" s="27" t="s">
+      <c r="C118" s="34"/>
+      <c r="D118" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="E118" s="28"/>
+      <c r="E118" s="31"/>
       <c r="F118" s="6" t="s">
-        <v>425</v>
-      </c>
-      <c r="G118" s="27" t="s">
+        <v>423</v>
+      </c>
+      <c r="G118" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="H118" s="29"/>
-      <c r="I118" s="28"/>
+      <c r="H118" s="30"/>
+      <c r="I118" s="31"/>
       <c r="J118" s="6" t="s">
         <v>181</v>
       </c>
@@ -4914,21 +4916,21 @@
       <c r="B119" s="5">
         <v>8</v>
       </c>
-      <c r="C119" s="31"/>
-      <c r="D119" s="27" t="s">
-        <v>408</v>
-      </c>
-      <c r="E119" s="50"/>
+      <c r="C119" s="34"/>
+      <c r="D119" s="36" t="s">
+        <v>406</v>
+      </c>
+      <c r="E119" s="59"/>
       <c r="F119" s="6" t="s">
-        <v>426</v>
-      </c>
-      <c r="G119" s="27" t="s">
+        <v>424</v>
+      </c>
+      <c r="G119" s="36" t="s">
         <v>182</v>
       </c>
-      <c r="H119" s="52"/>
-      <c r="I119" s="50"/>
+      <c r="H119" s="60"/>
+      <c r="I119" s="59"/>
       <c r="J119" s="6" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="K119" s="1"/>
     </row>
@@ -4937,19 +4939,19 @@
       <c r="B120" s="5">
         <v>9</v>
       </c>
-      <c r="C120" s="31"/>
-      <c r="D120" s="49" t="s">
+      <c r="C120" s="34"/>
+      <c r="D120" s="45" t="s">
         <v>89</v>
       </c>
-      <c r="E120" s="41"/>
+      <c r="E120" s="46"/>
       <c r="F120" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="G120" s="27" t="s">
+      <c r="G120" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="H120" s="29"/>
-      <c r="I120" s="28"/>
+      <c r="H120" s="30"/>
+      <c r="I120" s="31"/>
       <c r="J120" s="6" t="s">
         <v>184</v>
       </c>
@@ -4960,19 +4962,19 @@
       <c r="B121" s="5">
         <v>10</v>
       </c>
-      <c r="C121" s="31"/>
-      <c r="D121" s="27" t="s">
+      <c r="C121" s="34"/>
+      <c r="D121" s="36" t="s">
         <v>185</v>
       </c>
-      <c r="E121" s="28"/>
+      <c r="E121" s="31"/>
       <c r="F121" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="G121" s="27" t="s">
+      <c r="G121" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="H121" s="29"/>
-      <c r="I121" s="28"/>
+      <c r="H121" s="30"/>
+      <c r="I121" s="31"/>
       <c r="J121" s="6" t="s">
         <v>187</v>
       </c>
@@ -4983,19 +4985,19 @@
       <c r="B122" s="5">
         <v>11</v>
       </c>
-      <c r="C122" s="31"/>
-      <c r="D122" s="51" t="s">
+      <c r="C122" s="34"/>
+      <c r="D122" s="58" t="s">
         <v>188</v>
       </c>
-      <c r="E122" s="46"/>
+      <c r="E122" s="48"/>
       <c r="F122" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="G122" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="H122" s="29"/>
-      <c r="I122" s="28"/>
+      <c r="G122" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="H122" s="30"/>
+      <c r="I122" s="31"/>
       <c r="J122" s="6" t="s">
         <v>190</v>
       </c>
@@ -5006,19 +5008,19 @@
       <c r="B123" s="5">
         <v>12</v>
       </c>
-      <c r="C123" s="31"/>
-      <c r="D123" s="27" t="s">
+      <c r="C123" s="34"/>
+      <c r="D123" s="36" t="s">
         <v>191</v>
       </c>
-      <c r="E123" s="28"/>
+      <c r="E123" s="31"/>
       <c r="F123" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="G123" s="27" t="s">
+      <c r="G123" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="H123" s="29"/>
-      <c r="I123" s="28"/>
+      <c r="H123" s="30"/>
+      <c r="I123" s="31"/>
       <c r="J123" s="6" t="s">
         <v>193</v>
       </c>
@@ -5029,19 +5031,19 @@
       <c r="B124" s="5">
         <v>13</v>
       </c>
-      <c r="C124" s="31"/>
-      <c r="D124" s="27" t="s">
+      <c r="C124" s="34"/>
+      <c r="D124" s="36" t="s">
         <v>194</v>
       </c>
-      <c r="E124" s="28"/>
+      <c r="E124" s="31"/>
       <c r="F124" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="G124" s="27" t="s">
+      <c r="G124" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="H124" s="29"/>
-      <c r="I124" s="28"/>
+      <c r="H124" s="30"/>
+      <c r="I124" s="31"/>
       <c r="J124" s="6" t="s">
         <v>196</v>
       </c>
@@ -5052,19 +5054,19 @@
       <c r="B125" s="5">
         <v>14</v>
       </c>
-      <c r="C125" s="31"/>
-      <c r="D125" s="27" t="s">
+      <c r="C125" s="34"/>
+      <c r="D125" s="36" t="s">
         <v>197</v>
       </c>
-      <c r="E125" s="28"/>
+      <c r="E125" s="31"/>
       <c r="F125" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="G125" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="H125" s="29"/>
-      <c r="I125" s="28"/>
+      <c r="G125" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="H125" s="30"/>
+      <c r="I125" s="31"/>
       <c r="J125" s="6" t="s">
         <v>199</v>
       </c>
@@ -5075,19 +5077,19 @@
       <c r="B126" s="5">
         <v>15</v>
       </c>
-      <c r="C126" s="31"/>
-      <c r="D126" s="27" t="s">
+      <c r="C126" s="34"/>
+      <c r="D126" s="36" t="s">
         <v>200</v>
       </c>
-      <c r="E126" s="28"/>
+      <c r="E126" s="31"/>
       <c r="F126" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="G126" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="H126" s="29"/>
-      <c r="I126" s="28"/>
+      <c r="G126" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="H126" s="30"/>
+      <c r="I126" s="31"/>
       <c r="J126" s="6" t="s">
         <v>202</v>
       </c>
@@ -5098,19 +5100,19 @@
       <c r="B127" s="5">
         <v>16</v>
       </c>
-      <c r="C127" s="32"/>
-      <c r="D127" s="27" t="s">
+      <c r="C127" s="35"/>
+      <c r="D127" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="E127" s="28"/>
+      <c r="E127" s="31"/>
       <c r="F127" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="G127" s="27" t="s">
+      <c r="G127" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="H127" s="29"/>
-      <c r="I127" s="28"/>
+      <c r="H127" s="30"/>
+      <c r="I127" s="31"/>
       <c r="J127" s="6" t="s">
         <v>66</v>
       </c>
@@ -5146,11 +5148,11 @@
       <c r="F129" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G129" s="35" t="s">
+      <c r="G129" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="H129" s="29"/>
-      <c r="I129" s="28"/>
+      <c r="H129" s="30"/>
+      <c r="I129" s="31"/>
       <c r="J129" s="3" t="s">
         <v>6</v>
       </c>
@@ -5173,11 +5175,11 @@
       <c r="F130" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G130" s="36" t="s">
+      <c r="G130" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="H130" s="29"/>
-      <c r="I130" s="28"/>
+      <c r="H130" s="30"/>
+      <c r="I130" s="31"/>
       <c r="J130" s="4" t="s">
         <v>13</v>
       </c>
@@ -5188,21 +5190,21 @@
       <c r="B131" s="5">
         <v>1</v>
       </c>
-      <c r="C131" s="30" t="s">
+      <c r="C131" s="33" t="s">
         <v>203</v>
       </c>
-      <c r="D131" s="27" t="s">
+      <c r="D131" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="E131" s="28"/>
+      <c r="E131" s="31"/>
       <c r="F131" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G131" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="H131" s="29"/>
-      <c r="I131" s="28"/>
+      <c r="G131" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="H131" s="30"/>
+      <c r="I131" s="31"/>
       <c r="J131" s="6" t="s">
         <v>16</v>
       </c>
@@ -5213,19 +5215,19 @@
       <c r="B132" s="5">
         <v>2</v>
       </c>
-      <c r="C132" s="31"/>
-      <c r="D132" s="27" t="s">
+      <c r="C132" s="34"/>
+      <c r="D132" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="E132" s="28"/>
+      <c r="E132" s="31"/>
       <c r="F132" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G132" s="27" t="s">
+      <c r="G132" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="H132" s="29"/>
-      <c r="I132" s="28"/>
+      <c r="H132" s="30"/>
+      <c r="I132" s="31"/>
       <c r="J132" s="6" t="s">
         <v>19</v>
       </c>
@@ -5236,19 +5238,19 @@
       <c r="B133" s="5">
         <v>3</v>
       </c>
-      <c r="C133" s="31"/>
-      <c r="D133" s="27" t="s">
+      <c r="C133" s="34"/>
+      <c r="D133" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="E133" s="28"/>
+      <c r="E133" s="31"/>
       <c r="F133" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G133" s="27" t="s">
+      <c r="G133" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="H133" s="29"/>
-      <c r="I133" s="28"/>
+      <c r="H133" s="30"/>
+      <c r="I133" s="31"/>
       <c r="J133" s="6" t="s">
         <v>21</v>
       </c>
@@ -5259,19 +5261,19 @@
       <c r="B134" s="5">
         <v>4</v>
       </c>
-      <c r="C134" s="31"/>
-      <c r="D134" s="27" t="s">
+      <c r="C134" s="34"/>
+      <c r="D134" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="E134" s="28"/>
+      <c r="E134" s="31"/>
       <c r="F134" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G134" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="H134" s="29"/>
-      <c r="I134" s="28"/>
+      <c r="G134" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="H134" s="30"/>
+      <c r="I134" s="31"/>
       <c r="J134" s="6" t="s">
         <v>68</v>
       </c>
@@ -5282,17 +5284,17 @@
       <c r="B135" s="5">
         <v>5</v>
       </c>
-      <c r="C135" s="31"/>
-      <c r="D135" s="30" t="s">
+      <c r="C135" s="34"/>
+      <c r="D135" s="33" t="s">
         <v>204</v>
       </c>
-      <c r="E135" s="30" t="s">
+      <c r="E135" s="33" t="s">
         <v>205</v>
       </c>
-      <c r="F135" s="30" t="s">
+      <c r="F135" s="33" t="s">
         <v>206</v>
       </c>
-      <c r="G135" s="30" t="s">
+      <c r="G135" s="33" t="s">
         <v>15</v>
       </c>
       <c r="H135" s="6">
@@ -5311,11 +5313,11 @@
       <c r="B136" s="5">
         <v>6</v>
       </c>
-      <c r="C136" s="31"/>
-      <c r="D136" s="31"/>
-      <c r="E136" s="31"/>
-      <c r="F136" s="31"/>
-      <c r="G136" s="31"/>
+      <c r="C136" s="34"/>
+      <c r="D136" s="34"/>
+      <c r="E136" s="34"/>
+      <c r="F136" s="34"/>
+      <c r="G136" s="34"/>
       <c r="H136" s="6">
         <v>2</v>
       </c>
@@ -5332,11 +5334,11 @@
       <c r="B137" s="5">
         <v>7</v>
       </c>
-      <c r="C137" s="31"/>
-      <c r="D137" s="31"/>
-      <c r="E137" s="31"/>
-      <c r="F137" s="31"/>
-      <c r="G137" s="31"/>
+      <c r="C137" s="34"/>
+      <c r="D137" s="34"/>
+      <c r="E137" s="34"/>
+      <c r="F137" s="34"/>
+      <c r="G137" s="34"/>
       <c r="H137" s="6">
         <v>3</v>
       </c>
@@ -5353,11 +5355,11 @@
       <c r="B138" s="5">
         <v>8</v>
       </c>
-      <c r="C138" s="31"/>
-      <c r="D138" s="31"/>
-      <c r="E138" s="31"/>
-      <c r="F138" s="31"/>
-      <c r="G138" s="31"/>
+      <c r="C138" s="34"/>
+      <c r="D138" s="34"/>
+      <c r="E138" s="34"/>
+      <c r="F138" s="34"/>
+      <c r="G138" s="34"/>
       <c r="H138" s="6">
         <v>4</v>
       </c>
@@ -5374,11 +5376,11 @@
       <c r="B139" s="5">
         <v>9</v>
       </c>
-      <c r="C139" s="31"/>
-      <c r="D139" s="31"/>
-      <c r="E139" s="31"/>
-      <c r="F139" s="31"/>
-      <c r="G139" s="31"/>
+      <c r="C139" s="34"/>
+      <c r="D139" s="34"/>
+      <c r="E139" s="34"/>
+      <c r="F139" s="34"/>
+      <c r="G139" s="34"/>
       <c r="H139" s="6">
         <v>5</v>
       </c>
@@ -5395,11 +5397,11 @@
       <c r="B140" s="5">
         <v>10</v>
       </c>
-      <c r="C140" s="31"/>
-      <c r="D140" s="31"/>
-      <c r="E140" s="31"/>
-      <c r="F140" s="31"/>
-      <c r="G140" s="31"/>
+      <c r="C140" s="34"/>
+      <c r="D140" s="34"/>
+      <c r="E140" s="34"/>
+      <c r="F140" s="34"/>
+      <c r="G140" s="34"/>
       <c r="H140" s="6">
         <v>6</v>
       </c>
@@ -5416,11 +5418,11 @@
       <c r="B141" s="5">
         <v>11</v>
       </c>
-      <c r="C141" s="31"/>
-      <c r="D141" s="31"/>
-      <c r="E141" s="31"/>
-      <c r="F141" s="31"/>
-      <c r="G141" s="31"/>
+      <c r="C141" s="34"/>
+      <c r="D141" s="34"/>
+      <c r="E141" s="34"/>
+      <c r="F141" s="34"/>
+      <c r="G141" s="34"/>
       <c r="H141" s="6">
         <v>7</v>
       </c>
@@ -5437,11 +5439,11 @@
       <c r="B142" s="5">
         <v>12</v>
       </c>
-      <c r="C142" s="31"/>
-      <c r="D142" s="31"/>
-      <c r="E142" s="31"/>
-      <c r="F142" s="31"/>
-      <c r="G142" s="31"/>
+      <c r="C142" s="34"/>
+      <c r="D142" s="34"/>
+      <c r="E142" s="34"/>
+      <c r="F142" s="34"/>
+      <c r="G142" s="34"/>
       <c r="H142" s="6">
         <v>8</v>
       </c>
@@ -5458,11 +5460,11 @@
       <c r="B143" s="5">
         <v>13</v>
       </c>
-      <c r="C143" s="31"/>
-      <c r="D143" s="31"/>
-      <c r="E143" s="31"/>
-      <c r="F143" s="31"/>
-      <c r="G143" s="31"/>
+      <c r="C143" s="34"/>
+      <c r="D143" s="34"/>
+      <c r="E143" s="34"/>
+      <c r="F143" s="34"/>
+      <c r="G143" s="34"/>
       <c r="H143" s="6">
         <v>9</v>
       </c>
@@ -5479,11 +5481,11 @@
       <c r="B144" s="5">
         <v>14</v>
       </c>
-      <c r="C144" s="31"/>
-      <c r="D144" s="31"/>
-      <c r="E144" s="31"/>
-      <c r="F144" s="31"/>
-      <c r="G144" s="31"/>
+      <c r="C144" s="34"/>
+      <c r="D144" s="34"/>
+      <c r="E144" s="34"/>
+      <c r="F144" s="34"/>
+      <c r="G144" s="34"/>
       <c r="H144" s="6">
         <v>10</v>
       </c>
@@ -5500,11 +5502,11 @@
       <c r="B145" s="5">
         <v>15</v>
       </c>
-      <c r="C145" s="31"/>
-      <c r="D145" s="31"/>
-      <c r="E145" s="31"/>
-      <c r="F145" s="31"/>
-      <c r="G145" s="31"/>
+      <c r="C145" s="34"/>
+      <c r="D145" s="34"/>
+      <c r="E145" s="34"/>
+      <c r="F145" s="34"/>
+      <c r="G145" s="34"/>
       <c r="H145" s="6">
         <v>11</v>
       </c>
@@ -5521,11 +5523,11 @@
       <c r="B146" s="5">
         <v>16</v>
       </c>
-      <c r="C146" s="31"/>
-      <c r="D146" s="31"/>
-      <c r="E146" s="31"/>
-      <c r="F146" s="31"/>
-      <c r="G146" s="31"/>
+      <c r="C146" s="34"/>
+      <c r="D146" s="34"/>
+      <c r="E146" s="34"/>
+      <c r="F146" s="34"/>
+      <c r="G146" s="34"/>
       <c r="H146" s="6">
         <v>12</v>
       </c>
@@ -5542,11 +5544,11 @@
       <c r="B147" s="5">
         <v>17</v>
       </c>
-      <c r="C147" s="31"/>
-      <c r="D147" s="31"/>
-      <c r="E147" s="31"/>
-      <c r="F147" s="31"/>
-      <c r="G147" s="31"/>
+      <c r="C147" s="34"/>
+      <c r="D147" s="34"/>
+      <c r="E147" s="34"/>
+      <c r="F147" s="34"/>
+      <c r="G147" s="34"/>
       <c r="H147" s="6">
         <v>13</v>
       </c>
@@ -5563,19 +5565,19 @@
       <c r="B148" s="5">
         <v>18</v>
       </c>
-      <c r="C148" s="31"/>
-      <c r="D148" s="31"/>
-      <c r="E148" s="31"/>
-      <c r="F148" s="31"/>
-      <c r="G148" s="31"/>
+      <c r="C148" s="34"/>
+      <c r="D148" s="34"/>
+      <c r="E148" s="34"/>
+      <c r="F148" s="34"/>
+      <c r="G148" s="34"/>
       <c r="H148" s="6">
         <v>14</v>
       </c>
       <c r="I148" s="6" t="s">
-        <v>224</v>
+        <v>426</v>
       </c>
       <c r="J148" s="6" t="s">
-        <v>225</v>
+        <v>425</v>
       </c>
       <c r="K148" s="1"/>
     </row>
@@ -5584,19 +5586,19 @@
       <c r="B149" s="5">
         <v>19</v>
       </c>
-      <c r="C149" s="31"/>
-      <c r="D149" s="31"/>
-      <c r="E149" s="32"/>
-      <c r="F149" s="32"/>
-      <c r="G149" s="32"/>
+      <c r="C149" s="34"/>
+      <c r="D149" s="34"/>
+      <c r="E149" s="35"/>
+      <c r="F149" s="35"/>
+      <c r="G149" s="35"/>
       <c r="H149" s="6">
         <v>15</v>
       </c>
       <c r="I149" s="6" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="J149" s="6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K149" s="1"/>
     </row>
@@ -5605,25 +5607,25 @@
       <c r="B150" s="5">
         <v>20</v>
       </c>
-      <c r="C150" s="31"/>
-      <c r="D150" s="31"/>
-      <c r="E150" s="30" t="s">
-        <v>228</v>
-      </c>
-      <c r="F150" s="30" t="s">
-        <v>229</v>
-      </c>
-      <c r="G150" s="30" t="s">
+      <c r="C150" s="34"/>
+      <c r="D150" s="34"/>
+      <c r="E150" s="33" t="s">
+        <v>226</v>
+      </c>
+      <c r="F150" s="33" t="s">
+        <v>227</v>
+      </c>
+      <c r="G150" s="33" t="s">
         <v>15</v>
       </c>
       <c r="H150" s="6">
         <v>1</v>
       </c>
       <c r="I150" s="6" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="J150" s="6" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K150" s="1"/>
     </row>
@@ -5632,19 +5634,19 @@
       <c r="B151" s="5">
         <v>21</v>
       </c>
-      <c r="C151" s="31"/>
-      <c r="D151" s="31"/>
-      <c r="E151" s="32"/>
-      <c r="F151" s="32"/>
-      <c r="G151" s="32"/>
+      <c r="C151" s="34"/>
+      <c r="D151" s="34"/>
+      <c r="E151" s="35"/>
+      <c r="F151" s="35"/>
+      <c r="G151" s="35"/>
       <c r="H151" s="6">
         <v>2</v>
       </c>
       <c r="I151" s="6" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="J151" s="6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K151" s="1"/>
     </row>
@@ -5653,21 +5655,21 @@
       <c r="B152" s="5">
         <v>22</v>
       </c>
-      <c r="C152" s="31"/>
-      <c r="D152" s="31"/>
+      <c r="C152" s="34"/>
+      <c r="D152" s="34"/>
       <c r="E152" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="F152" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="G152" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="H152" s="30"/>
+      <c r="I152" s="31"/>
+      <c r="J152" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="F152" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="G152" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="H152" s="29"/>
-      <c r="I152" s="28"/>
-      <c r="J152" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="K152" s="1"/>
     </row>
@@ -5676,21 +5678,21 @@
       <c r="B153" s="5">
         <v>23</v>
       </c>
-      <c r="C153" s="31"/>
-      <c r="D153" s="31"/>
+      <c r="C153" s="34"/>
+      <c r="D153" s="34"/>
       <c r="E153" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="F153" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="G153" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="H153" s="30"/>
+      <c r="I153" s="31"/>
+      <c r="J153" s="6" t="s">
         <v>237</v>
-      </c>
-      <c r="F153" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="G153" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="H153" s="29"/>
-      <c r="I153" s="28"/>
-      <c r="J153" s="6" t="s">
-        <v>239</v>
       </c>
       <c r="K153" s="1"/>
     </row>
@@ -5699,21 +5701,21 @@
       <c r="B154" s="5">
         <v>24</v>
       </c>
-      <c r="C154" s="31"/>
-      <c r="D154" s="32"/>
+      <c r="C154" s="34"/>
+      <c r="D154" s="35"/>
       <c r="E154" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="F154" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="G154" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="H154" s="30"/>
+      <c r="I154" s="31"/>
+      <c r="J154" s="6" t="s">
         <v>240</v>
-      </c>
-      <c r="F154" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="G154" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="H154" s="29"/>
-      <c r="I154" s="28"/>
-      <c r="J154" s="6" t="s">
-        <v>242</v>
       </c>
       <c r="K154" s="1"/>
     </row>
@@ -5722,21 +5724,21 @@
       <c r="B155" s="5">
         <v>25</v>
       </c>
-      <c r="C155" s="31"/>
-      <c r="D155" s="27" t="s">
+      <c r="C155" s="34"/>
+      <c r="D155" s="36" t="s">
         <v>194</v>
       </c>
-      <c r="E155" s="28"/>
+      <c r="E155" s="31"/>
       <c r="F155" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="G155" s="27" t="s">
+        <v>241</v>
+      </c>
+      <c r="G155" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="H155" s="29"/>
-      <c r="I155" s="28"/>
+      <c r="H155" s="30"/>
+      <c r="I155" s="31"/>
       <c r="J155" s="6" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K155" s="1"/>
     </row>
@@ -5745,21 +5747,21 @@
       <c r="B156" s="5">
         <v>26</v>
       </c>
-      <c r="C156" s="31"/>
-      <c r="D156" s="27" t="s">
+      <c r="C156" s="34"/>
+      <c r="D156" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="E156" s="28"/>
+      <c r="E156" s="31"/>
       <c r="F156" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="G156" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="H156" s="29"/>
-      <c r="I156" s="28"/>
+      <c r="G156" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="H156" s="30"/>
+      <c r="I156" s="31"/>
       <c r="J156" s="6" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K156" s="1"/>
     </row>
@@ -5768,19 +5770,19 @@
       <c r="B157" s="5">
         <v>27</v>
       </c>
-      <c r="C157" s="32"/>
-      <c r="D157" s="27" t="s">
+      <c r="C157" s="35"/>
+      <c r="D157" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="E157" s="28"/>
+      <c r="E157" s="31"/>
       <c r="F157" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="G157" s="27" t="s">
+      <c r="G157" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="H157" s="29"/>
-      <c r="I157" s="28"/>
+      <c r="H157" s="30"/>
+      <c r="I157" s="31"/>
       <c r="J157" s="6" t="s">
         <v>66</v>
       </c>
@@ -5816,11 +5818,11 @@
       <c r="F159" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G159" s="35" t="s">
+      <c r="G159" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="H159" s="29"/>
-      <c r="I159" s="28"/>
+      <c r="H159" s="30"/>
+      <c r="I159" s="31"/>
       <c r="J159" s="3" t="s">
         <v>6</v>
       </c>
@@ -5843,11 +5845,11 @@
       <c r="F160" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G160" s="36" t="s">
+      <c r="G160" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="H160" s="29"/>
-      <c r="I160" s="28"/>
+      <c r="H160" s="30"/>
+      <c r="I160" s="31"/>
       <c r="J160" s="4" t="s">
         <v>13</v>
       </c>
@@ -5858,21 +5860,21 @@
       <c r="B161" s="5">
         <v>1</v>
       </c>
-      <c r="C161" s="30" t="s">
-        <v>246</v>
-      </c>
-      <c r="D161" s="27" t="s">
+      <c r="C161" s="33" t="s">
+        <v>244</v>
+      </c>
+      <c r="D161" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="E161" s="28"/>
+      <c r="E161" s="31"/>
       <c r="F161" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G161" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="H161" s="29"/>
-      <c r="I161" s="28"/>
+      <c r="G161" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="H161" s="30"/>
+      <c r="I161" s="31"/>
       <c r="J161" s="6" t="s">
         <v>16</v>
       </c>
@@ -5883,19 +5885,19 @@
       <c r="B162" s="5">
         <v>2</v>
       </c>
-      <c r="C162" s="31"/>
-      <c r="D162" s="27" t="s">
+      <c r="C162" s="34"/>
+      <c r="D162" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="E162" s="28"/>
+      <c r="E162" s="31"/>
       <c r="F162" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G162" s="27" t="s">
+      <c r="G162" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="H162" s="29"/>
-      <c r="I162" s="28"/>
+      <c r="H162" s="30"/>
+      <c r="I162" s="31"/>
       <c r="J162" s="6" t="s">
         <v>19</v>
       </c>
@@ -5906,19 +5908,19 @@
       <c r="B163" s="5">
         <v>3</v>
       </c>
-      <c r="C163" s="31"/>
-      <c r="D163" s="27" t="s">
+      <c r="C163" s="34"/>
+      <c r="D163" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="E163" s="28"/>
+      <c r="E163" s="31"/>
       <c r="F163" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G163" s="27" t="s">
+      <c r="G163" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="H163" s="29"/>
-      <c r="I163" s="28"/>
+      <c r="H163" s="30"/>
+      <c r="I163" s="31"/>
       <c r="J163" s="6" t="s">
         <v>21</v>
       </c>
@@ -5929,19 +5931,19 @@
       <c r="B164" s="5">
         <v>4</v>
       </c>
-      <c r="C164" s="31"/>
-      <c r="D164" s="27" t="s">
+      <c r="C164" s="34"/>
+      <c r="D164" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="E164" s="28"/>
+      <c r="E164" s="31"/>
       <c r="F164" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G164" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="H164" s="29"/>
-      <c r="I164" s="28"/>
+      <c r="G164" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="H164" s="30"/>
+      <c r="I164" s="31"/>
       <c r="J164" s="6" t="s">
         <v>68</v>
       </c>
@@ -5952,21 +5954,21 @@
       <c r="B165" s="5">
         <v>5</v>
       </c>
-      <c r="C165" s="31"/>
-      <c r="D165" s="27" t="s">
-        <v>247</v>
-      </c>
-      <c r="E165" s="28"/>
+      <c r="C165" s="34"/>
+      <c r="D165" s="36" t="s">
+        <v>245</v>
+      </c>
+      <c r="E165" s="31"/>
       <c r="F165" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G165" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="H165" s="29"/>
-      <c r="I165" s="28"/>
+      <c r="G165" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="H165" s="30"/>
+      <c r="I165" s="31"/>
       <c r="J165" s="6" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K165" s="1"/>
     </row>
@@ -5975,21 +5977,21 @@
       <c r="B166" s="5">
         <v>6</v>
       </c>
-      <c r="C166" s="31"/>
-      <c r="D166" s="27" t="s">
+      <c r="C166" s="34"/>
+      <c r="D166" s="36" t="s">
+        <v>247</v>
+      </c>
+      <c r="E166" s="31"/>
+      <c r="F166" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="G166" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="H166" s="30"/>
+      <c r="I166" s="31"/>
+      <c r="J166" s="6" t="s">
         <v>249</v>
-      </c>
-      <c r="E166" s="28"/>
-      <c r="F166" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="G166" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="H166" s="29"/>
-      <c r="I166" s="28"/>
-      <c r="J166" s="6" t="s">
-        <v>251</v>
       </c>
       <c r="K166" s="1"/>
     </row>
@@ -5998,25 +6000,25 @@
       <c r="B167" s="5">
         <v>7</v>
       </c>
-      <c r="C167" s="31"/>
-      <c r="D167" s="49" t="s">
-        <v>252</v>
-      </c>
-      <c r="E167" s="41"/>
-      <c r="F167" s="30" t="s">
-        <v>253</v>
-      </c>
-      <c r="G167" s="30" t="s">
+      <c r="C167" s="34"/>
+      <c r="D167" s="45" t="s">
+        <v>250</v>
+      </c>
+      <c r="E167" s="46"/>
+      <c r="F167" s="33" t="s">
+        <v>251</v>
+      </c>
+      <c r="G167" s="33" t="s">
         <v>15</v>
       </c>
       <c r="H167" s="6">
         <v>1</v>
       </c>
       <c r="I167" s="6" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="J167" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K167" s="1"/>
     </row>
@@ -6025,19 +6027,19 @@
       <c r="B168" s="5">
         <v>8</v>
       </c>
-      <c r="C168" s="31"/>
-      <c r="D168" s="45"/>
-      <c r="E168" s="46"/>
-      <c r="F168" s="32"/>
-      <c r="G168" s="32"/>
+      <c r="C168" s="34"/>
+      <c r="D168" s="47"/>
+      <c r="E168" s="48"/>
+      <c r="F168" s="35"/>
+      <c r="G168" s="35"/>
       <c r="H168" s="6">
         <v>2</v>
       </c>
       <c r="I168" s="6" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="J168" s="6" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K168" s="1"/>
     </row>
@@ -6046,27 +6048,27 @@
       <c r="B169" s="5">
         <v>9</v>
       </c>
-      <c r="C169" s="31"/>
-      <c r="D169" s="30" t="s">
+      <c r="C169" s="34"/>
+      <c r="D169" s="33" t="s">
+        <v>256</v>
+      </c>
+      <c r="E169" s="33" t="s">
+        <v>257</v>
+      </c>
+      <c r="F169" s="33" t="s">
         <v>258</v>
       </c>
-      <c r="E169" s="30" t="s">
-        <v>259</v>
-      </c>
-      <c r="F169" s="30" t="s">
-        <v>260</v>
-      </c>
-      <c r="G169" s="30" t="s">
+      <c r="G169" s="33" t="s">
         <v>15</v>
       </c>
       <c r="H169" s="6">
         <v>1</v>
       </c>
       <c r="I169" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="J169" s="6" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K169" s="1"/>
     </row>
@@ -6075,19 +6077,19 @@
       <c r="B170" s="5">
         <v>10</v>
       </c>
-      <c r="C170" s="31"/>
-      <c r="D170" s="31"/>
-      <c r="E170" s="31"/>
-      <c r="F170" s="31"/>
-      <c r="G170" s="31"/>
+      <c r="C170" s="34"/>
+      <c r="D170" s="34"/>
+      <c r="E170" s="34"/>
+      <c r="F170" s="34"/>
+      <c r="G170" s="34"/>
       <c r="H170" s="6">
         <v>2</v>
       </c>
       <c r="I170" s="6" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J170" s="6" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K170" s="1"/>
     </row>
@@ -6096,19 +6098,19 @@
       <c r="B171" s="5">
         <v>11</v>
       </c>
-      <c r="C171" s="31"/>
-      <c r="D171" s="31"/>
-      <c r="E171" s="31"/>
-      <c r="F171" s="31"/>
-      <c r="G171" s="31"/>
+      <c r="C171" s="34"/>
+      <c r="D171" s="34"/>
+      <c r="E171" s="34"/>
+      <c r="F171" s="34"/>
+      <c r="G171" s="34"/>
       <c r="H171" s="6">
         <v>3</v>
       </c>
       <c r="I171" s="6" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="J171" s="6" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K171" s="1"/>
     </row>
@@ -6117,19 +6119,19 @@
       <c r="B172" s="5">
         <v>12</v>
       </c>
-      <c r="C172" s="31"/>
-      <c r="D172" s="31"/>
-      <c r="E172" s="31"/>
-      <c r="F172" s="31"/>
-      <c r="G172" s="31"/>
+      <c r="C172" s="34"/>
+      <c r="D172" s="34"/>
+      <c r="E172" s="34"/>
+      <c r="F172" s="34"/>
+      <c r="G172" s="34"/>
       <c r="H172" s="6">
         <v>4</v>
       </c>
       <c r="I172" s="6" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="J172" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K172" s="1"/>
     </row>
@@ -6138,19 +6140,19 @@
       <c r="B173" s="5">
         <v>13</v>
       </c>
-      <c r="C173" s="31"/>
-      <c r="D173" s="31"/>
-      <c r="E173" s="32"/>
-      <c r="F173" s="32"/>
-      <c r="G173" s="32"/>
+      <c r="C173" s="34"/>
+      <c r="D173" s="34"/>
+      <c r="E173" s="35"/>
+      <c r="F173" s="35"/>
+      <c r="G173" s="35"/>
       <c r="H173" s="6">
         <v>5</v>
       </c>
       <c r="I173" s="6" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="J173" s="6" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K173" s="1"/>
     </row>
@@ -6159,15 +6161,15 @@
       <c r="B174" s="5">
         <v>14</v>
       </c>
-      <c r="C174" s="31"/>
-      <c r="D174" s="31"/>
-      <c r="E174" s="30" t="s">
-        <v>271</v>
-      </c>
-      <c r="F174" s="30" t="s">
-        <v>272</v>
-      </c>
-      <c r="G174" s="30" t="s">
+      <c r="C174" s="34"/>
+      <c r="D174" s="34"/>
+      <c r="E174" s="33" t="s">
+        <v>269</v>
+      </c>
+      <c r="F174" s="33" t="s">
+        <v>270</v>
+      </c>
+      <c r="G174" s="33" t="s">
         <v>15</v>
       </c>
       <c r="H174" s="6">
@@ -6177,7 +6179,7 @@
         <v>112</v>
       </c>
       <c r="J174" s="6" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K174" s="1"/>
     </row>
@@ -6186,19 +6188,19 @@
       <c r="B175" s="5">
         <v>15</v>
       </c>
-      <c r="C175" s="31"/>
-      <c r="D175" s="31"/>
-      <c r="E175" s="31"/>
-      <c r="F175" s="31"/>
-      <c r="G175" s="31"/>
+      <c r="C175" s="34"/>
+      <c r="D175" s="34"/>
+      <c r="E175" s="34"/>
+      <c r="F175" s="34"/>
+      <c r="G175" s="34"/>
       <c r="H175" s="6">
         <v>2</v>
       </c>
       <c r="I175" s="6" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J175" s="6" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K175" s="1"/>
     </row>
@@ -6207,19 +6209,19 @@
       <c r="B176" s="5">
         <v>16</v>
       </c>
-      <c r="C176" s="31"/>
-      <c r="D176" s="31"/>
-      <c r="E176" s="32"/>
-      <c r="F176" s="32"/>
-      <c r="G176" s="32"/>
+      <c r="C176" s="34"/>
+      <c r="D176" s="34"/>
+      <c r="E176" s="35"/>
+      <c r="F176" s="35"/>
+      <c r="G176" s="35"/>
       <c r="H176" s="6">
         <v>3</v>
       </c>
       <c r="I176" s="6" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="J176" s="6" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K176" s="1"/>
     </row>
@@ -6228,21 +6230,21 @@
       <c r="B177" s="5">
         <v>17</v>
       </c>
-      <c r="C177" s="31"/>
-      <c r="D177" s="31"/>
+      <c r="C177" s="34"/>
+      <c r="D177" s="34"/>
       <c r="E177" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="F177" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="G177" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="H177" s="30"/>
+      <c r="I177" s="31"/>
+      <c r="J177" s="6" t="s">
         <v>278</v>
-      </c>
-      <c r="F177" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="G177" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="H177" s="29"/>
-      <c r="I177" s="28"/>
-      <c r="J177" s="6" t="s">
-        <v>280</v>
       </c>
       <c r="K177" s="1"/>
     </row>
@@ -6251,15 +6253,15 @@
       <c r="B178" s="5">
         <v>18</v>
       </c>
-      <c r="C178" s="31"/>
-      <c r="D178" s="31"/>
-      <c r="E178" s="30" t="s">
-        <v>281</v>
-      </c>
-      <c r="F178" s="30" t="s">
-        <v>282</v>
-      </c>
-      <c r="G178" s="30" t="s">
+      <c r="C178" s="34"/>
+      <c r="D178" s="34"/>
+      <c r="E178" s="33" t="s">
+        <v>279</v>
+      </c>
+      <c r="F178" s="33" t="s">
+        <v>280</v>
+      </c>
+      <c r="G178" s="33" t="s">
         <v>15</v>
       </c>
       <c r="H178" s="6">
@@ -6269,7 +6271,7 @@
         <v>118</v>
       </c>
       <c r="J178" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K178" s="1"/>
     </row>
@@ -6278,11 +6280,11 @@
       <c r="B179" s="5">
         <v>19</v>
       </c>
-      <c r="C179" s="31"/>
-      <c r="D179" s="31"/>
-      <c r="E179" s="31"/>
-      <c r="F179" s="31"/>
-      <c r="G179" s="31"/>
+      <c r="C179" s="34"/>
+      <c r="D179" s="34"/>
+      <c r="E179" s="34"/>
+      <c r="F179" s="34"/>
+      <c r="G179" s="34"/>
       <c r="H179" s="6">
         <v>2</v>
       </c>
@@ -6290,7 +6292,7 @@
         <v>120</v>
       </c>
       <c r="J179" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K179" s="1"/>
     </row>
@@ -6299,11 +6301,11 @@
       <c r="B180" s="5">
         <v>20</v>
       </c>
-      <c r="C180" s="31"/>
-      <c r="D180" s="31"/>
-      <c r="E180" s="31"/>
-      <c r="F180" s="31"/>
-      <c r="G180" s="31"/>
+      <c r="C180" s="34"/>
+      <c r="D180" s="34"/>
+      <c r="E180" s="34"/>
+      <c r="F180" s="34"/>
+      <c r="G180" s="34"/>
       <c r="H180" s="6">
         <v>3</v>
       </c>
@@ -6311,7 +6313,7 @@
         <v>122</v>
       </c>
       <c r="J180" s="7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K180" s="1"/>
     </row>
@@ -6320,11 +6322,11 @@
       <c r="B181" s="5">
         <v>21</v>
       </c>
-      <c r="C181" s="31"/>
-      <c r="D181" s="31"/>
-      <c r="E181" s="32"/>
-      <c r="F181" s="32"/>
-      <c r="G181" s="32"/>
+      <c r="C181" s="34"/>
+      <c r="D181" s="34"/>
+      <c r="E181" s="35"/>
+      <c r="F181" s="35"/>
+      <c r="G181" s="35"/>
       <c r="H181" s="6">
         <v>4</v>
       </c>
@@ -6332,7 +6334,7 @@
         <v>124</v>
       </c>
       <c r="J181" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K181" s="1"/>
     </row>
@@ -6341,21 +6343,21 @@
       <c r="B182" s="5">
         <v>22</v>
       </c>
-      <c r="C182" s="31"/>
-      <c r="D182" s="31"/>
+      <c r="C182" s="34"/>
+      <c r="D182" s="34"/>
       <c r="E182" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="F182" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="G182" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="H182" s="30"/>
+      <c r="I182" s="31"/>
+      <c r="J182" s="6" t="s">
         <v>287</v>
-      </c>
-      <c r="F182" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="G182" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="H182" s="29"/>
-      <c r="I182" s="28"/>
-      <c r="J182" s="6" t="s">
-        <v>289</v>
       </c>
       <c r="K182" s="1"/>
     </row>
@@ -6364,21 +6366,21 @@
       <c r="B183" s="5">
         <v>23</v>
       </c>
-      <c r="C183" s="31"/>
-      <c r="D183" s="32"/>
+      <c r="C183" s="34"/>
+      <c r="D183" s="35"/>
       <c r="E183" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="F183" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="G183" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="H183" s="30"/>
+      <c r="I183" s="31"/>
+      <c r="J183" s="6" t="s">
         <v>237</v>
-      </c>
-      <c r="F183" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="G183" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="H183" s="29"/>
-      <c r="I183" s="28"/>
-      <c r="J183" s="6" t="s">
-        <v>239</v>
       </c>
       <c r="K183" s="1"/>
     </row>
@@ -6387,21 +6389,21 @@
       <c r="B184" s="5">
         <v>24</v>
       </c>
-      <c r="C184" s="31"/>
-      <c r="D184" s="27" t="s">
+      <c r="C184" s="34"/>
+      <c r="D184" s="36" t="s">
         <v>167</v>
       </c>
-      <c r="E184" s="28"/>
+      <c r="E184" s="31"/>
       <c r="F184" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="G184" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="H184" s="29"/>
-      <c r="I184" s="28"/>
+        <v>288</v>
+      </c>
+      <c r="G184" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="H184" s="30"/>
+      <c r="I184" s="31"/>
       <c r="J184" s="6" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="K184" s="1"/>
     </row>
@@ -6410,21 +6412,21 @@
       <c r="B185" s="5">
         <v>25</v>
       </c>
-      <c r="C185" s="31"/>
-      <c r="D185" s="27" t="s">
+      <c r="C185" s="34"/>
+      <c r="D185" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="E185" s="28"/>
+      <c r="E185" s="31"/>
       <c r="F185" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="G185" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="H185" s="29"/>
-      <c r="I185" s="28"/>
+      <c r="G185" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="H185" s="30"/>
+      <c r="I185" s="31"/>
       <c r="J185" s="6" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K185" s="1"/>
     </row>
@@ -6433,21 +6435,21 @@
       <c r="B186" s="5">
         <v>26</v>
       </c>
-      <c r="C186" s="31"/>
-      <c r="D186" s="27" t="s">
+      <c r="C186" s="34"/>
+      <c r="D186" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="E186" s="28"/>
+      <c r="E186" s="31"/>
       <c r="F186" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="G186" s="27" t="s">
+        <v>290</v>
+      </c>
+      <c r="G186" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="H186" s="29"/>
-      <c r="I186" s="28"/>
+      <c r="H186" s="30"/>
+      <c r="I186" s="31"/>
       <c r="J186" s="6" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="K186" s="1"/>
     </row>
@@ -6456,21 +6458,21 @@
       <c r="B187" s="5">
         <v>27</v>
       </c>
-      <c r="C187" s="31"/>
-      <c r="D187" s="27" t="s">
+      <c r="C187" s="34"/>
+      <c r="D187" s="36" t="s">
+        <v>291</v>
+      </c>
+      <c r="E187" s="31"/>
+      <c r="F187" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="G187" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="H187" s="30"/>
+      <c r="I187" s="31"/>
+      <c r="J187" s="6" t="s">
         <v>293</v>
-      </c>
-      <c r="E187" s="28"/>
-      <c r="F187" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="G187" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="H187" s="29"/>
-      <c r="I187" s="28"/>
-      <c r="J187" s="6" t="s">
-        <v>295</v>
       </c>
       <c r="K187" s="1"/>
     </row>
@@ -6479,19 +6481,19 @@
       <c r="B188" s="5">
         <v>28</v>
       </c>
-      <c r="C188" s="32"/>
-      <c r="D188" s="27" t="s">
+      <c r="C188" s="35"/>
+      <c r="D188" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="E188" s="28"/>
+      <c r="E188" s="31"/>
       <c r="F188" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="G188" s="27" t="s">
+      <c r="G188" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="H188" s="29"/>
-      <c r="I188" s="28"/>
+      <c r="H188" s="30"/>
+      <c r="I188" s="31"/>
       <c r="J188" s="6" t="s">
         <v>66</v>
       </c>
@@ -6527,11 +6529,11 @@
       <c r="F190" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G190" s="35" t="s">
+      <c r="G190" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="H190" s="29"/>
-      <c r="I190" s="28"/>
+      <c r="H190" s="30"/>
+      <c r="I190" s="31"/>
       <c r="J190" s="3" t="s">
         <v>6</v>
       </c>
@@ -6554,11 +6556,11 @@
       <c r="F191" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G191" s="39" t="s">
+      <c r="G191" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="H191" s="40"/>
-      <c r="I191" s="41"/>
+      <c r="H191" s="62"/>
+      <c r="I191" s="46"/>
       <c r="J191" s="12" t="s">
         <v>13</v>
       </c>
@@ -6569,21 +6571,21 @@
       <c r="B192" s="5">
         <v>1</v>
       </c>
-      <c r="C192" s="30" t="s">
-        <v>296</v>
-      </c>
-      <c r="D192" s="27" t="s">
+      <c r="C192" s="33" t="s">
+        <v>294</v>
+      </c>
+      <c r="D192" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="E192" s="28"/>
+      <c r="E192" s="31"/>
       <c r="F192" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G192" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="H192" s="29"/>
-      <c r="I192" s="28"/>
+      <c r="G192" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="H192" s="30"/>
+      <c r="I192" s="31"/>
       <c r="J192" s="6" t="s">
         <v>16</v>
       </c>
@@ -6594,19 +6596,19 @@
       <c r="B193" s="5">
         <v>2</v>
       </c>
-      <c r="C193" s="31"/>
-      <c r="D193" s="27" t="s">
+      <c r="C193" s="34"/>
+      <c r="D193" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="E193" s="28"/>
+      <c r="E193" s="31"/>
       <c r="F193" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G193" s="27" t="s">
+      <c r="G193" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="H193" s="29"/>
-      <c r="I193" s="28"/>
+      <c r="H193" s="30"/>
+      <c r="I193" s="31"/>
       <c r="J193" s="6" t="s">
         <v>19</v>
       </c>
@@ -6617,19 +6619,19 @@
       <c r="B194" s="5">
         <v>3</v>
       </c>
-      <c r="C194" s="31"/>
-      <c r="D194" s="27" t="s">
+      <c r="C194" s="34"/>
+      <c r="D194" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="E194" s="28"/>
+      <c r="E194" s="31"/>
       <c r="F194" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G194" s="27" t="s">
+      <c r="G194" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="H194" s="29"/>
-      <c r="I194" s="28"/>
+      <c r="H194" s="30"/>
+      <c r="I194" s="31"/>
       <c r="J194" s="6" t="s">
         <v>21</v>
       </c>
@@ -6640,19 +6642,19 @@
       <c r="B195" s="5">
         <v>4</v>
       </c>
-      <c r="C195" s="31"/>
-      <c r="D195" s="27" t="s">
+      <c r="C195" s="34"/>
+      <c r="D195" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="E195" s="28"/>
+      <c r="E195" s="31"/>
       <c r="F195" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="G195" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="H195" s="40"/>
-      <c r="I195" s="41"/>
+      <c r="G195" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="H195" s="62"/>
+      <c r="I195" s="46"/>
       <c r="J195" s="8" t="s">
         <v>68</v>
       </c>
@@ -6663,21 +6665,21 @@
       <c r="B196" s="5">
         <v>5</v>
       </c>
-      <c r="C196" s="31"/>
-      <c r="D196" s="27" t="s">
+      <c r="C196" s="34"/>
+      <c r="D196" s="36" t="s">
+        <v>295</v>
+      </c>
+      <c r="E196" s="31"/>
+      <c r="F196" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="G196" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="H196" s="30"/>
+      <c r="I196" s="31"/>
+      <c r="J196" s="6" t="s">
         <v>297</v>
-      </c>
-      <c r="E196" s="28"/>
-      <c r="F196" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="G196" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="H196" s="29"/>
-      <c r="I196" s="28"/>
-      <c r="J196" s="6" t="s">
-        <v>299</v>
       </c>
       <c r="K196" s="1"/>
     </row>
@@ -6686,25 +6688,25 @@
       <c r="B197" s="5">
         <v>6</v>
       </c>
-      <c r="C197" s="31"/>
-      <c r="D197" s="49" t="s">
-        <v>300</v>
-      </c>
-      <c r="E197" s="41"/>
-      <c r="F197" s="30" t="s">
-        <v>301</v>
-      </c>
-      <c r="G197" s="30" t="s">
+      <c r="C197" s="34"/>
+      <c r="D197" s="45" t="s">
+        <v>298</v>
+      </c>
+      <c r="E197" s="46"/>
+      <c r="F197" s="33" t="s">
+        <v>299</v>
+      </c>
+      <c r="G197" s="33" t="s">
         <v>15</v>
       </c>
       <c r="H197" s="6">
         <v>1</v>
       </c>
       <c r="I197" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="J197" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="K197" s="1"/>
     </row>
@@ -6713,19 +6715,19 @@
       <c r="B198" s="5">
         <v>7</v>
       </c>
-      <c r="C198" s="31"/>
-      <c r="D198" s="43"/>
-      <c r="E198" s="44"/>
-      <c r="F198" s="31"/>
-      <c r="G198" s="31"/>
+      <c r="C198" s="34"/>
+      <c r="D198" s="55"/>
+      <c r="E198" s="56"/>
+      <c r="F198" s="34"/>
+      <c r="G198" s="34"/>
       <c r="H198" s="6">
         <v>2</v>
       </c>
       <c r="I198" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="J198" s="6" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="K198" s="1"/>
     </row>
@@ -6734,19 +6736,19 @@
       <c r="B199" s="5">
         <v>8</v>
       </c>
-      <c r="C199" s="31"/>
-      <c r="D199" s="45"/>
-      <c r="E199" s="46"/>
-      <c r="F199" s="32"/>
-      <c r="G199" s="32"/>
+      <c r="C199" s="34"/>
+      <c r="D199" s="47"/>
+      <c r="E199" s="48"/>
+      <c r="F199" s="35"/>
+      <c r="G199" s="35"/>
       <c r="H199" s="6">
         <v>3</v>
       </c>
       <c r="I199" s="6" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="J199" s="6" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="K199" s="1"/>
     </row>
@@ -6755,21 +6757,21 @@
       <c r="B200" s="5">
         <v>9</v>
       </c>
-      <c r="C200" s="31"/>
-      <c r="D200" s="27" t="s">
+      <c r="C200" s="34"/>
+      <c r="D200" s="36" t="s">
+        <v>306</v>
+      </c>
+      <c r="E200" s="31"/>
+      <c r="F200" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="G200" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="H200" s="30"/>
+      <c r="I200" s="31"/>
+      <c r="J200" s="8" t="s">
         <v>308</v>
-      </c>
-      <c r="E200" s="28"/>
-      <c r="F200" s="13" t="s">
-        <v>309</v>
-      </c>
-      <c r="G200" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="H200" s="29"/>
-      <c r="I200" s="28"/>
-      <c r="J200" s="8" t="s">
-        <v>310</v>
       </c>
       <c r="K200" s="1"/>
     </row>
@@ -6778,21 +6780,21 @@
       <c r="B201" s="5">
         <v>10</v>
       </c>
-      <c r="C201" s="31"/>
-      <c r="D201" s="38" t="s">
-        <v>311</v>
-      </c>
-      <c r="E201" s="28"/>
+      <c r="C201" s="34"/>
+      <c r="D201" s="63" t="s">
+        <v>309</v>
+      </c>
+      <c r="E201" s="31"/>
       <c r="F201" s="14" t="s">
-        <v>412</v>
-      </c>
-      <c r="G201" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="H201" s="29"/>
-      <c r="I201" s="28"/>
+        <v>410</v>
+      </c>
+      <c r="G201" s="63" t="s">
+        <v>15</v>
+      </c>
+      <c r="H201" s="30"/>
+      <c r="I201" s="31"/>
       <c r="J201" s="15" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="K201" s="1"/>
     </row>
@@ -6801,21 +6803,21 @@
       <c r="B202" s="5">
         <v>11</v>
       </c>
-      <c r="C202" s="31"/>
-      <c r="D202" s="27" t="s">
+      <c r="C202" s="34"/>
+      <c r="D202" s="36" t="s">
+        <v>310</v>
+      </c>
+      <c r="E202" s="31"/>
+      <c r="F202" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="G202" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="H202" s="30"/>
+      <c r="I202" s="31"/>
+      <c r="J202" s="6" t="s">
         <v>312</v>
-      </c>
-      <c r="E202" s="28"/>
-      <c r="F202" s="9" t="s">
-        <v>313</v>
-      </c>
-      <c r="G202" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="H202" s="29"/>
-      <c r="I202" s="28"/>
-      <c r="J202" s="6" t="s">
-        <v>314</v>
       </c>
       <c r="K202" s="1"/>
     </row>
@@ -6824,42 +6826,42 @@
       <c r="B203" s="5">
         <v>12</v>
       </c>
-      <c r="C203" s="31"/>
-      <c r="D203" s="27" t="s">
+      <c r="C203" s="34"/>
+      <c r="D203" s="36" t="s">
+        <v>313</v>
+      </c>
+      <c r="E203" s="31"/>
+      <c r="F203" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="G203" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="H203" s="30"/>
+      <c r="I203" s="31"/>
+      <c r="J203" s="6" t="s">
         <v>315</v>
-      </c>
-      <c r="E203" s="28"/>
-      <c r="F203" s="9" t="s">
-        <v>316</v>
-      </c>
-      <c r="G203" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="H203" s="29"/>
-      <c r="I203" s="28"/>
-      <c r="J203" s="6" t="s">
-        <v>317</v>
       </c>
       <c r="K203" s="1"/>
     </row>
     <row r="204" spans="1:11" ht="15" customHeight="1">
       <c r="A204" s="1"/>
       <c r="B204" s="5"/>
-      <c r="C204" s="31"/>
-      <c r="D204" s="27" t="s">
-        <v>414</v>
-      </c>
-      <c r="E204" s="50"/>
+      <c r="C204" s="34"/>
+      <c r="D204" s="36" t="s">
+        <v>412</v>
+      </c>
+      <c r="E204" s="59"/>
       <c r="F204" s="9" t="s">
-        <v>318</v>
-      </c>
-      <c r="G204" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="H204" s="29"/>
-      <c r="I204" s="28"/>
+        <v>316</v>
+      </c>
+      <c r="G204" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="H204" s="30"/>
+      <c r="I204" s="31"/>
       <c r="J204" s="6" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="K204" s="1"/>
     </row>
@@ -6868,21 +6870,21 @@
       <c r="B205" s="5">
         <v>13</v>
       </c>
-      <c r="C205" s="31"/>
-      <c r="D205" s="27" t="s">
+      <c r="C205" s="34"/>
+      <c r="D205" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="E205" s="28"/>
+      <c r="E205" s="31"/>
       <c r="F205" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="G205" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="H205" s="29"/>
-      <c r="I205" s="28"/>
+      <c r="G205" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="H205" s="30"/>
+      <c r="I205" s="31"/>
       <c r="J205" s="6" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="K205" s="1"/>
     </row>
@@ -6891,19 +6893,19 @@
       <c r="B206" s="5">
         <v>14</v>
       </c>
-      <c r="C206" s="32"/>
-      <c r="D206" s="27" t="s">
+      <c r="C206" s="35"/>
+      <c r="D206" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="E206" s="28"/>
+      <c r="E206" s="31"/>
       <c r="F206" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="G206" s="27" t="s">
+      <c r="G206" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="H206" s="29"/>
-      <c r="I206" s="28"/>
+      <c r="H206" s="30"/>
+      <c r="I206" s="31"/>
       <c r="J206" s="6" t="s">
         <v>66</v>
       </c>
@@ -6939,11 +6941,11 @@
       <c r="F208" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G208" s="35" t="s">
+      <c r="G208" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="H208" s="29"/>
-      <c r="I208" s="28"/>
+      <c r="H208" s="30"/>
+      <c r="I208" s="31"/>
       <c r="J208" s="3" t="s">
         <v>6</v>
       </c>
@@ -6966,11 +6968,11 @@
       <c r="F209" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G209" s="39" t="s">
+      <c r="G209" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="H209" s="40"/>
-      <c r="I209" s="41"/>
+      <c r="H209" s="62"/>
+      <c r="I209" s="46"/>
       <c r="J209" s="12" t="s">
         <v>13</v>
       </c>
@@ -6981,21 +6983,21 @@
       <c r="B210" s="5">
         <v>1</v>
       </c>
-      <c r="C210" s="47" t="s">
-        <v>320</v>
-      </c>
-      <c r="D210" s="33" t="s">
+      <c r="C210" s="64" t="s">
+        <v>318</v>
+      </c>
+      <c r="D210" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="E210" s="28"/>
+      <c r="E210" s="31"/>
       <c r="F210" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G210" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="H210" s="29"/>
-      <c r="I210" s="28"/>
+      <c r="G210" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="H210" s="30"/>
+      <c r="I210" s="31"/>
       <c r="J210" s="19" t="s">
         <v>16</v>
       </c>
@@ -7006,19 +7008,19 @@
       <c r="B211" s="5">
         <v>2</v>
       </c>
-      <c r="C211" s="31"/>
-      <c r="D211" s="33" t="s">
+      <c r="C211" s="34"/>
+      <c r="D211" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="E211" s="28"/>
+      <c r="E211" s="31"/>
       <c r="F211" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="G211" s="33" t="s">
+      <c r="G211" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="H211" s="29"/>
-      <c r="I211" s="28"/>
+      <c r="H211" s="30"/>
+      <c r="I211" s="31"/>
       <c r="J211" s="19" t="s">
         <v>19</v>
       </c>
@@ -7029,19 +7031,19 @@
       <c r="B212" s="5">
         <v>3</v>
       </c>
-      <c r="C212" s="31"/>
-      <c r="D212" s="33" t="s">
+      <c r="C212" s="34"/>
+      <c r="D212" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="E212" s="28"/>
+      <c r="E212" s="31"/>
       <c r="F212" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="G212" s="33" t="s">
+      <c r="G212" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="H212" s="29"/>
-      <c r="I212" s="28"/>
+      <c r="H212" s="30"/>
+      <c r="I212" s="31"/>
       <c r="J212" s="20" t="s">
         <v>21</v>
       </c>
@@ -7052,19 +7054,19 @@
       <c r="B213" s="5">
         <v>4</v>
       </c>
-      <c r="C213" s="31"/>
-      <c r="D213" s="48" t="s">
+      <c r="C213" s="34"/>
+      <c r="D213" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="E213" s="41"/>
+      <c r="E213" s="46"/>
       <c r="F213" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="G213" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="H213" s="40"/>
-      <c r="I213" s="40"/>
+      <c r="G213" s="65" t="s">
+        <v>15</v>
+      </c>
+      <c r="H213" s="62"/>
+      <c r="I213" s="62"/>
       <c r="J213" s="19" t="s">
         <v>68</v>
       </c>
@@ -7075,25 +7077,25 @@
       <c r="B214" s="5">
         <v>5</v>
       </c>
-      <c r="C214" s="31"/>
-      <c r="D214" s="48" t="s">
-        <v>321</v>
-      </c>
-      <c r="E214" s="41"/>
-      <c r="F214" s="47" t="s">
-        <v>322</v>
-      </c>
-      <c r="G214" s="47" t="s">
+      <c r="C214" s="34"/>
+      <c r="D214" s="65" t="s">
+        <v>319</v>
+      </c>
+      <c r="E214" s="46"/>
+      <c r="F214" s="64" t="s">
+        <v>320</v>
+      </c>
+      <c r="G214" s="64" t="s">
         <v>15</v>
       </c>
       <c r="H214" s="19">
         <v>1</v>
       </c>
       <c r="I214" s="22" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="J214" s="19" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="K214" s="1"/>
     </row>
@@ -7102,19 +7104,19 @@
       <c r="B215" s="5">
         <v>6</v>
       </c>
-      <c r="C215" s="31"/>
-      <c r="D215" s="43"/>
-      <c r="E215" s="44"/>
-      <c r="F215" s="31"/>
-      <c r="G215" s="31"/>
+      <c r="C215" s="34"/>
+      <c r="D215" s="55"/>
+      <c r="E215" s="56"/>
+      <c r="F215" s="34"/>
+      <c r="G215" s="34"/>
       <c r="H215" s="19">
         <v>2</v>
       </c>
       <c r="I215" s="22" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="J215" s="19" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="K215" s="1"/>
     </row>
@@ -7123,19 +7125,19 @@
       <c r="B216" s="5">
         <v>7</v>
       </c>
-      <c r="C216" s="31"/>
-      <c r="D216" s="43"/>
-      <c r="E216" s="44"/>
-      <c r="F216" s="31"/>
-      <c r="G216" s="31"/>
+      <c r="C216" s="34"/>
+      <c r="D216" s="55"/>
+      <c r="E216" s="56"/>
+      <c r="F216" s="34"/>
+      <c r="G216" s="34"/>
       <c r="H216" s="19">
         <v>3</v>
       </c>
       <c r="I216" s="22" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="J216" s="19" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="K216" s="1"/>
     </row>
@@ -7144,19 +7146,19 @@
       <c r="B217" s="5">
         <v>8</v>
       </c>
-      <c r="C217" s="31"/>
-      <c r="D217" s="45"/>
-      <c r="E217" s="46"/>
-      <c r="F217" s="32"/>
-      <c r="G217" s="32"/>
+      <c r="C217" s="34"/>
+      <c r="D217" s="47"/>
+      <c r="E217" s="48"/>
+      <c r="F217" s="35"/>
+      <c r="G217" s="35"/>
       <c r="H217" s="19">
         <v>4</v>
       </c>
       <c r="I217" s="22" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="J217" s="19" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="K217" s="1"/>
     </row>
@@ -7165,21 +7167,21 @@
       <c r="B218" s="5">
         <v>9</v>
       </c>
-      <c r="C218" s="31"/>
-      <c r="D218" s="33" t="s">
+      <c r="C218" s="34"/>
+      <c r="D218" s="43" t="s">
+        <v>326</v>
+      </c>
+      <c r="E218" s="31"/>
+      <c r="F218" s="19" t="s">
+        <v>327</v>
+      </c>
+      <c r="G218" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="H218" s="30"/>
+      <c r="I218" s="30"/>
+      <c r="J218" s="19" t="s">
         <v>328</v>
-      </c>
-      <c r="E218" s="28"/>
-      <c r="F218" s="19" t="s">
-        <v>329</v>
-      </c>
-      <c r="G218" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="H218" s="29"/>
-      <c r="I218" s="29"/>
-      <c r="J218" s="19" t="s">
-        <v>330</v>
       </c>
       <c r="K218" s="1"/>
     </row>
@@ -7188,21 +7190,21 @@
       <c r="B219" s="5">
         <v>10</v>
       </c>
-      <c r="C219" s="31"/>
-      <c r="D219" s="33" t="s">
-        <v>331</v>
-      </c>
-      <c r="E219" s="28"/>
+      <c r="C219" s="34"/>
+      <c r="D219" s="43" t="s">
+        <v>329</v>
+      </c>
+      <c r="E219" s="31"/>
       <c r="F219" s="19" t="s">
-        <v>332</v>
-      </c>
-      <c r="G219" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="H219" s="29"/>
-      <c r="I219" s="29"/>
+        <v>330</v>
+      </c>
+      <c r="G219" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="H219" s="30"/>
+      <c r="I219" s="30"/>
       <c r="J219" s="19" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="K219" s="1"/>
     </row>
@@ -7211,21 +7213,21 @@
       <c r="B220" s="5">
         <v>11</v>
       </c>
-      <c r="C220" s="31"/>
-      <c r="D220" s="33" t="s">
+      <c r="C220" s="34"/>
+      <c r="D220" s="43" t="s">
+        <v>331</v>
+      </c>
+      <c r="E220" s="31"/>
+      <c r="F220" s="19" t="s">
+        <v>332</v>
+      </c>
+      <c r="G220" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="H220" s="30"/>
+      <c r="I220" s="30"/>
+      <c r="J220" s="19" t="s">
         <v>333</v>
-      </c>
-      <c r="E220" s="28"/>
-      <c r="F220" s="19" t="s">
-        <v>334</v>
-      </c>
-      <c r="G220" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="H220" s="29"/>
-      <c r="I220" s="29"/>
-      <c r="J220" s="19" t="s">
-        <v>335</v>
       </c>
       <c r="K220" s="1"/>
     </row>
@@ -7234,21 +7236,21 @@
       <c r="B221" s="5">
         <v>12</v>
       </c>
-      <c r="C221" s="31"/>
-      <c r="D221" s="33" t="s">
+      <c r="C221" s="34"/>
+      <c r="D221" s="43" t="s">
+        <v>334</v>
+      </c>
+      <c r="E221" s="31"/>
+      <c r="F221" s="19" t="s">
+        <v>335</v>
+      </c>
+      <c r="G221" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="H221" s="30"/>
+      <c r="I221" s="30"/>
+      <c r="J221" s="19" t="s">
         <v>336</v>
-      </c>
-      <c r="E221" s="28"/>
-      <c r="F221" s="19" t="s">
-        <v>337</v>
-      </c>
-      <c r="G221" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="H221" s="29"/>
-      <c r="I221" s="29"/>
-      <c r="J221" s="19" t="s">
-        <v>338</v>
       </c>
       <c r="K221" s="1"/>
     </row>
@@ -7257,19 +7259,19 @@
       <c r="B222" s="5">
         <v>13</v>
       </c>
-      <c r="C222" s="32"/>
-      <c r="D222" s="33" t="s">
+      <c r="C222" s="35"/>
+      <c r="D222" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="E222" s="28"/>
+      <c r="E222" s="31"/>
       <c r="F222" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="G222" s="33" t="s">
+      <c r="G222" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="H222" s="29"/>
-      <c r="I222" s="28"/>
+      <c r="H222" s="30"/>
+      <c r="I222" s="31"/>
       <c r="J222" s="19" t="s">
         <v>66</v>
       </c>
@@ -7305,11 +7307,11 @@
       <c r="F224" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G224" s="35" t="s">
+      <c r="G224" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="H224" s="29"/>
-      <c r="I224" s="28"/>
+      <c r="H224" s="30"/>
+      <c r="I224" s="31"/>
       <c r="J224" s="3" t="s">
         <v>6</v>
       </c>
@@ -7332,11 +7334,11 @@
       <c r="F225" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G225" s="39" t="s">
+      <c r="G225" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="H225" s="40"/>
-      <c r="I225" s="41"/>
+      <c r="H225" s="62"/>
+      <c r="I225" s="46"/>
       <c r="J225" s="12" t="s">
         <v>13</v>
       </c>
@@ -7347,21 +7349,21 @@
       <c r="B226" s="5">
         <v>1</v>
       </c>
-      <c r="C226" s="30" t="s">
-        <v>339</v>
-      </c>
-      <c r="D226" s="27" t="s">
+      <c r="C226" s="33" t="s">
+        <v>337</v>
+      </c>
+      <c r="D226" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="E226" s="28"/>
+      <c r="E226" s="31"/>
       <c r="F226" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G226" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="H226" s="29"/>
-      <c r="I226" s="28"/>
+      <c r="G226" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="H226" s="30"/>
+      <c r="I226" s="31"/>
       <c r="J226" s="6" t="s">
         <v>16</v>
       </c>
@@ -7372,21 +7374,21 @@
       <c r="B227" s="5">
         <v>2</v>
       </c>
-      <c r="C227" s="31"/>
-      <c r="D227" s="27" t="s">
+      <c r="C227" s="34"/>
+      <c r="D227" s="36" t="s">
+        <v>338</v>
+      </c>
+      <c r="E227" s="31"/>
+      <c r="F227" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="G227" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="H227" s="30"/>
+      <c r="I227" s="31"/>
+      <c r="J227" s="6" t="s">
         <v>340</v>
-      </c>
-      <c r="E227" s="28"/>
-      <c r="F227" s="6" t="s">
-        <v>341</v>
-      </c>
-      <c r="G227" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="H227" s="29"/>
-      <c r="I227" s="28"/>
-      <c r="J227" s="6" t="s">
-        <v>342</v>
       </c>
       <c r="K227" s="1"/>
     </row>
@@ -7395,21 +7397,21 @@
       <c r="B228" s="5">
         <v>3</v>
       </c>
-      <c r="C228" s="31"/>
-      <c r="D228" s="27" t="s">
+      <c r="C228" s="34"/>
+      <c r="D228" s="36" t="s">
+        <v>341</v>
+      </c>
+      <c r="E228" s="31"/>
+      <c r="F228" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="G228" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="H228" s="30"/>
+      <c r="I228" s="31"/>
+      <c r="J228" s="6" t="s">
         <v>343</v>
-      </c>
-      <c r="E228" s="28"/>
-      <c r="F228" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="G228" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="H228" s="29"/>
-      <c r="I228" s="28"/>
-      <c r="J228" s="6" t="s">
-        <v>345</v>
       </c>
       <c r="K228" s="1"/>
     </row>
@@ -7418,21 +7420,21 @@
       <c r="B229" s="5">
         <v>4</v>
       </c>
-      <c r="C229" s="31"/>
-      <c r="D229" s="27" t="s">
+      <c r="C229" s="34"/>
+      <c r="D229" s="36" t="s">
+        <v>344</v>
+      </c>
+      <c r="E229" s="31"/>
+      <c r="F229" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="G229" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="H229" s="30"/>
+      <c r="I229" s="31"/>
+      <c r="J229" s="6" t="s">
         <v>346</v>
-      </c>
-      <c r="E229" s="28"/>
-      <c r="F229" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="G229" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="H229" s="29"/>
-      <c r="I229" s="28"/>
-      <c r="J229" s="6" t="s">
-        <v>348</v>
       </c>
       <c r="K229" s="1"/>
     </row>
@@ -7441,21 +7443,21 @@
       <c r="B230" s="5">
         <v>5</v>
       </c>
-      <c r="C230" s="31"/>
-      <c r="D230" s="27" t="s">
-        <v>349</v>
-      </c>
-      <c r="E230" s="28"/>
+      <c r="C230" s="34"/>
+      <c r="D230" s="36" t="s">
+        <v>347</v>
+      </c>
+      <c r="E230" s="31"/>
       <c r="F230" s="6" t="s">
-        <v>350</v>
-      </c>
-      <c r="G230" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="H230" s="29"/>
-      <c r="I230" s="28"/>
+        <v>348</v>
+      </c>
+      <c r="G230" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="H230" s="30"/>
+      <c r="I230" s="31"/>
       <c r="J230" s="6" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="K230" s="1"/>
     </row>
@@ -7464,19 +7466,19 @@
       <c r="B231" s="5">
         <v>6</v>
       </c>
-      <c r="C231" s="32"/>
-      <c r="D231" s="27" t="s">
+      <c r="C231" s="35"/>
+      <c r="D231" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="E231" s="28"/>
+      <c r="E231" s="31"/>
       <c r="F231" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="G231" s="27" t="s">
+      <c r="G231" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="H231" s="29"/>
-      <c r="I231" s="28"/>
+      <c r="H231" s="30"/>
+      <c r="I231" s="31"/>
       <c r="J231" s="6" t="s">
         <v>66</v>
       </c>
@@ -7512,11 +7514,11 @@
       <c r="F233" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G233" s="35" t="s">
+      <c r="G233" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="H233" s="29"/>
-      <c r="I233" s="28"/>
+      <c r="H233" s="30"/>
+      <c r="I233" s="31"/>
       <c r="J233" s="3" t="s">
         <v>6</v>
       </c>
@@ -7539,11 +7541,11 @@
       <c r="F234" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G234" s="39" t="s">
+      <c r="G234" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="H234" s="40"/>
-      <c r="I234" s="41"/>
+      <c r="H234" s="62"/>
+      <c r="I234" s="46"/>
       <c r="J234" s="12" t="s">
         <v>13</v>
       </c>
@@ -7554,23 +7556,23 @@
       <c r="B235" s="5">
         <v>1</v>
       </c>
-      <c r="C235" s="37" t="s">
-        <v>351</v>
-      </c>
-      <c r="D235" s="38" t="s">
+      <c r="C235" s="66" t="s">
+        <v>349</v>
+      </c>
+      <c r="D235" s="63" t="s">
+        <v>338</v>
+      </c>
+      <c r="E235" s="31"/>
+      <c r="F235" s="15" t="s">
+        <v>339</v>
+      </c>
+      <c r="G235" s="63" t="s">
+        <v>15</v>
+      </c>
+      <c r="H235" s="30"/>
+      <c r="I235" s="31"/>
+      <c r="J235" s="15" t="s">
         <v>340</v>
-      </c>
-      <c r="E235" s="28"/>
-      <c r="F235" s="15" t="s">
-        <v>341</v>
-      </c>
-      <c r="G235" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="H235" s="29"/>
-      <c r="I235" s="28"/>
-      <c r="J235" s="15" t="s">
-        <v>342</v>
       </c>
       <c r="K235" s="1"/>
     </row>
@@ -7579,23 +7581,23 @@
       <c r="B236" s="5">
         <v>2</v>
       </c>
-      <c r="C236" s="31"/>
-      <c r="D236" s="37" t="s">
+      <c r="C236" s="34"/>
+      <c r="D236" s="66" t="s">
+        <v>350</v>
+      </c>
+      <c r="E236" s="15" t="s">
+        <v>351</v>
+      </c>
+      <c r="F236" s="15" t="s">
         <v>352</v>
       </c>
-      <c r="E236" s="15" t="s">
+      <c r="G236" s="63" t="s">
+        <v>15</v>
+      </c>
+      <c r="H236" s="30"/>
+      <c r="I236" s="31"/>
+      <c r="J236" s="15" t="s">
         <v>353</v>
-      </c>
-      <c r="F236" s="15" t="s">
-        <v>354</v>
-      </c>
-      <c r="G236" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="H236" s="29"/>
-      <c r="I236" s="28"/>
-      <c r="J236" s="15" t="s">
-        <v>355</v>
       </c>
       <c r="K236" s="1"/>
     </row>
@@ -7604,21 +7606,21 @@
       <c r="B237" s="5">
         <v>3</v>
       </c>
-      <c r="C237" s="31"/>
-      <c r="D237" s="32"/>
+      <c r="C237" s="34"/>
+      <c r="D237" s="35"/>
       <c r="E237" s="15" t="s">
+        <v>354</v>
+      </c>
+      <c r="F237" s="15" t="s">
+        <v>355</v>
+      </c>
+      <c r="G237" s="63" t="s">
+        <v>31</v>
+      </c>
+      <c r="H237" s="30"/>
+      <c r="I237" s="31"/>
+      <c r="J237" s="15" t="s">
         <v>356</v>
-      </c>
-      <c r="F237" s="15" t="s">
-        <v>357</v>
-      </c>
-      <c r="G237" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="H237" s="29"/>
-      <c r="I237" s="28"/>
-      <c r="J237" s="15" t="s">
-        <v>358</v>
       </c>
       <c r="K237" s="1"/>
     </row>
@@ -7627,25 +7629,25 @@
       <c r="B238" s="5">
         <v>4</v>
       </c>
-      <c r="C238" s="31"/>
-      <c r="D238" s="42" t="s">
-        <v>359</v>
-      </c>
-      <c r="E238" s="41"/>
-      <c r="F238" s="37" t="s">
-        <v>360</v>
-      </c>
-      <c r="G238" s="37" t="s">
+      <c r="C238" s="34"/>
+      <c r="D238" s="67" t="s">
+        <v>357</v>
+      </c>
+      <c r="E238" s="46"/>
+      <c r="F238" s="66" t="s">
+        <v>358</v>
+      </c>
+      <c r="G238" s="66" t="s">
         <v>15</v>
       </c>
       <c r="H238" s="15">
         <v>1</v>
       </c>
       <c r="I238" s="15" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="J238" s="15" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="K238" s="1"/>
     </row>
@@ -7654,19 +7656,19 @@
       <c r="B239" s="5">
         <v>5</v>
       </c>
-      <c r="C239" s="31"/>
-      <c r="D239" s="43"/>
-      <c r="E239" s="44"/>
-      <c r="F239" s="31"/>
-      <c r="G239" s="31"/>
+      <c r="C239" s="34"/>
+      <c r="D239" s="55"/>
+      <c r="E239" s="56"/>
+      <c r="F239" s="34"/>
+      <c r="G239" s="34"/>
       <c r="H239" s="15">
         <v>2</v>
       </c>
       <c r="I239" s="15" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="J239" s="15" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="K239" s="1"/>
     </row>
@@ -7675,19 +7677,19 @@
       <c r="B240" s="5">
         <v>6</v>
       </c>
-      <c r="C240" s="31"/>
-      <c r="D240" s="43"/>
-      <c r="E240" s="44"/>
-      <c r="F240" s="31"/>
-      <c r="G240" s="31"/>
+      <c r="C240" s="34"/>
+      <c r="D240" s="55"/>
+      <c r="E240" s="56"/>
+      <c r="F240" s="34"/>
+      <c r="G240" s="34"/>
       <c r="H240" s="15">
         <v>3</v>
       </c>
       <c r="I240" s="15" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="J240" s="15" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="K240" s="1"/>
     </row>
@@ -7696,19 +7698,19 @@
       <c r="B241" s="5">
         <v>7</v>
       </c>
-      <c r="C241" s="31"/>
-      <c r="D241" s="43"/>
-      <c r="E241" s="44"/>
-      <c r="F241" s="31"/>
-      <c r="G241" s="31"/>
+      <c r="C241" s="34"/>
+      <c r="D241" s="55"/>
+      <c r="E241" s="56"/>
+      <c r="F241" s="34"/>
+      <c r="G241" s="34"/>
       <c r="H241" s="15">
         <v>4</v>
       </c>
       <c r="I241" s="15" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="J241" s="15" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="K241" s="1"/>
     </row>
@@ -7717,19 +7719,19 @@
       <c r="B242" s="5">
         <v>8</v>
       </c>
-      <c r="C242" s="31"/>
-      <c r="D242" s="45"/>
-      <c r="E242" s="46"/>
-      <c r="F242" s="32"/>
-      <c r="G242" s="32"/>
+      <c r="C242" s="34"/>
+      <c r="D242" s="47"/>
+      <c r="E242" s="48"/>
+      <c r="F242" s="35"/>
+      <c r="G242" s="35"/>
       <c r="H242" s="15">
         <v>5</v>
       </c>
       <c r="I242" s="15" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="J242" s="15" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="K242" s="1"/>
     </row>
@@ -7738,21 +7740,21 @@
       <c r="B243" s="5">
         <v>9</v>
       </c>
-      <c r="C243" s="31"/>
-      <c r="D243" s="38" t="s">
+      <c r="C243" s="34"/>
+      <c r="D243" s="63" t="s">
+        <v>369</v>
+      </c>
+      <c r="E243" s="31"/>
+      <c r="F243" s="15" t="s">
+        <v>370</v>
+      </c>
+      <c r="G243" s="63" t="s">
+        <v>15</v>
+      </c>
+      <c r="H243" s="30"/>
+      <c r="I243" s="31"/>
+      <c r="J243" s="15" t="s">
         <v>371</v>
-      </c>
-      <c r="E243" s="28"/>
-      <c r="F243" s="15" t="s">
-        <v>372</v>
-      </c>
-      <c r="G243" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="H243" s="29"/>
-      <c r="I243" s="28"/>
-      <c r="J243" s="15" t="s">
-        <v>373</v>
       </c>
       <c r="K243" s="1"/>
     </row>
@@ -7761,19 +7763,19 @@
       <c r="B244" s="5">
         <v>10</v>
       </c>
-      <c r="C244" s="32"/>
-      <c r="D244" s="38" t="s">
+      <c r="C244" s="35"/>
+      <c r="D244" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="E244" s="28"/>
+      <c r="E244" s="31"/>
       <c r="F244" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="G244" s="38" t="s">
+      <c r="G244" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="H244" s="29"/>
-      <c r="I244" s="28"/>
+      <c r="H244" s="30"/>
+      <c r="I244" s="31"/>
       <c r="J244" s="15" t="s">
         <v>66</v>
       </c>
@@ -7809,11 +7811,11 @@
       <c r="F246" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G246" s="35" t="s">
+      <c r="G246" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="H246" s="29"/>
-      <c r="I246" s="28"/>
+      <c r="H246" s="30"/>
+      <c r="I246" s="31"/>
       <c r="J246" s="3" t="s">
         <v>6</v>
       </c>
@@ -7836,11 +7838,11 @@
       <c r="F247" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G247" s="39" t="s">
+      <c r="G247" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="H247" s="40"/>
-      <c r="I247" s="41"/>
+      <c r="H247" s="62"/>
+      <c r="I247" s="46"/>
       <c r="J247" s="12" t="s">
         <v>13</v>
       </c>
@@ -7851,21 +7853,21 @@
       <c r="B248" s="5">
         <v>1</v>
       </c>
-      <c r="C248" s="37" t="s">
-        <v>374</v>
-      </c>
-      <c r="D248" s="27" t="s">
+      <c r="C248" s="66" t="s">
+        <v>372</v>
+      </c>
+      <c r="D248" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="E248" s="28"/>
+      <c r="E248" s="31"/>
       <c r="F248" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G248" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="H248" s="29"/>
-      <c r="I248" s="28"/>
+      <c r="G248" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="H248" s="30"/>
+      <c r="I248" s="31"/>
       <c r="J248" s="6" t="s">
         <v>16</v>
       </c>
@@ -7876,19 +7878,19 @@
       <c r="B249" s="5">
         <v>2</v>
       </c>
-      <c r="C249" s="31"/>
-      <c r="D249" s="27" t="s">
+      <c r="C249" s="34"/>
+      <c r="D249" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="E249" s="28"/>
+      <c r="E249" s="31"/>
       <c r="F249" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G249" s="27" t="s">
+      <c r="G249" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="H249" s="29"/>
-      <c r="I249" s="28"/>
+      <c r="H249" s="30"/>
+      <c r="I249" s="31"/>
       <c r="J249" s="6" t="s">
         <v>19</v>
       </c>
@@ -7899,19 +7901,19 @@
       <c r="B250" s="5">
         <v>3</v>
       </c>
-      <c r="C250" s="31"/>
-      <c r="D250" s="27" t="s">
+      <c r="C250" s="34"/>
+      <c r="D250" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="E250" s="28"/>
+      <c r="E250" s="31"/>
       <c r="F250" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G250" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="H250" s="29"/>
-      <c r="I250" s="28"/>
+      <c r="G250" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="H250" s="30"/>
+      <c r="I250" s="31"/>
       <c r="J250" s="6" t="s">
         <v>68</v>
       </c>
@@ -7922,21 +7924,21 @@
       <c r="B251" s="5">
         <v>4</v>
       </c>
-      <c r="C251" s="31"/>
-      <c r="D251" s="27" t="s">
-        <v>375</v>
-      </c>
-      <c r="E251" s="28"/>
+      <c r="C251" s="34"/>
+      <c r="D251" s="36" t="s">
+        <v>373</v>
+      </c>
+      <c r="E251" s="31"/>
       <c r="F251" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="G251" s="38" t="s">
+      <c r="G251" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="H251" s="29"/>
-      <c r="I251" s="28"/>
+      <c r="H251" s="30"/>
+      <c r="I251" s="31"/>
       <c r="J251" s="6" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="K251" s="1"/>
     </row>
@@ -7945,21 +7947,21 @@
       <c r="B252" s="5">
         <v>5</v>
       </c>
-      <c r="C252" s="31"/>
-      <c r="D252" s="38" t="s">
+      <c r="C252" s="34"/>
+      <c r="D252" s="63" t="s">
+        <v>375</v>
+      </c>
+      <c r="E252" s="31"/>
+      <c r="F252" s="15" t="s">
+        <v>376</v>
+      </c>
+      <c r="G252" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="H252" s="30"/>
+      <c r="I252" s="31"/>
+      <c r="J252" s="15" t="s">
         <v>377</v>
-      </c>
-      <c r="E252" s="28"/>
-      <c r="F252" s="15" t="s">
-        <v>378</v>
-      </c>
-      <c r="G252" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="H252" s="29"/>
-      <c r="I252" s="28"/>
-      <c r="J252" s="15" t="s">
-        <v>379</v>
       </c>
       <c r="K252" s="1"/>
     </row>
@@ -7968,19 +7970,19 @@
       <c r="B253" s="5">
         <v>6</v>
       </c>
-      <c r="C253" s="32"/>
-      <c r="D253" s="27" t="s">
+      <c r="C253" s="35"/>
+      <c r="D253" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="E253" s="28"/>
+      <c r="E253" s="31"/>
       <c r="F253" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="G253" s="27" t="s">
+      <c r="G253" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="H253" s="29"/>
-      <c r="I253" s="28"/>
+      <c r="H253" s="30"/>
+      <c r="I253" s="31"/>
       <c r="J253" s="6" t="s">
         <v>66</v>
       </c>
@@ -8016,11 +8018,11 @@
       <c r="F255" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G255" s="35" t="s">
+      <c r="G255" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="H255" s="29"/>
-      <c r="I255" s="28"/>
+      <c r="H255" s="30"/>
+      <c r="I255" s="31"/>
       <c r="J255" s="3" t="s">
         <v>6</v>
       </c>
@@ -8043,11 +8045,11 @@
       <c r="F256" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G256" s="39" t="s">
+      <c r="G256" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="H256" s="40"/>
-      <c r="I256" s="41"/>
+      <c r="H256" s="62"/>
+      <c r="I256" s="46"/>
       <c r="J256" s="12" t="s">
         <v>13</v>
       </c>
@@ -8058,21 +8060,21 @@
       <c r="B257" s="5">
         <v>1</v>
       </c>
-      <c r="C257" s="37" t="s">
-        <v>380</v>
-      </c>
-      <c r="D257" s="27" t="s">
+      <c r="C257" s="66" t="s">
+        <v>378</v>
+      </c>
+      <c r="D257" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="E257" s="28"/>
+      <c r="E257" s="31"/>
       <c r="F257" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G257" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="H257" s="29"/>
-      <c r="I257" s="28"/>
+      <c r="G257" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="H257" s="30"/>
+      <c r="I257" s="31"/>
       <c r="J257" s="6" t="s">
         <v>16</v>
       </c>
@@ -8083,19 +8085,19 @@
       <c r="B258" s="5">
         <v>2</v>
       </c>
-      <c r="C258" s="31"/>
-      <c r="D258" s="27" t="s">
+      <c r="C258" s="34"/>
+      <c r="D258" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="E258" s="28"/>
+      <c r="E258" s="31"/>
       <c r="F258" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G258" s="27" t="s">
+      <c r="G258" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="H258" s="29"/>
-      <c r="I258" s="28"/>
+      <c r="H258" s="30"/>
+      <c r="I258" s="31"/>
       <c r="J258" s="6" t="s">
         <v>19</v>
       </c>
@@ -8106,19 +8108,19 @@
       <c r="B259" s="5">
         <v>3</v>
       </c>
-      <c r="C259" s="31"/>
-      <c r="D259" s="27" t="s">
+      <c r="C259" s="34"/>
+      <c r="D259" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="E259" s="28"/>
+      <c r="E259" s="31"/>
       <c r="F259" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G259" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="H259" s="29"/>
-      <c r="I259" s="28"/>
+      <c r="G259" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="H259" s="30"/>
+      <c r="I259" s="31"/>
       <c r="J259" s="6" t="s">
         <v>68</v>
       </c>
@@ -8129,21 +8131,21 @@
       <c r="B260" s="5">
         <v>4</v>
       </c>
-      <c r="C260" s="31"/>
-      <c r="D260" s="38" t="s">
+      <c r="C260" s="34"/>
+      <c r="D260" s="63" t="s">
+        <v>375</v>
+      </c>
+      <c r="E260" s="31"/>
+      <c r="F260" s="15" t="s">
+        <v>376</v>
+      </c>
+      <c r="G260" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="H260" s="30"/>
+      <c r="I260" s="31"/>
+      <c r="J260" s="15" t="s">
         <v>377</v>
-      </c>
-      <c r="E260" s="28"/>
-      <c r="F260" s="15" t="s">
-        <v>378</v>
-      </c>
-      <c r="G260" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="H260" s="29"/>
-      <c r="I260" s="28"/>
-      <c r="J260" s="15" t="s">
-        <v>379</v>
       </c>
       <c r="K260" s="1"/>
     </row>
@@ -8152,19 +8154,19 @@
       <c r="B261" s="5">
         <v>5</v>
       </c>
-      <c r="C261" s="32"/>
-      <c r="D261" s="27" t="s">
+      <c r="C261" s="35"/>
+      <c r="D261" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="E261" s="28"/>
+      <c r="E261" s="31"/>
       <c r="F261" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="G261" s="27" t="s">
+      <c r="G261" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="H261" s="29"/>
-      <c r="I261" s="28"/>
+      <c r="H261" s="30"/>
+      <c r="I261" s="31"/>
       <c r="J261" s="6" t="s">
         <v>66</v>
       </c>
@@ -8185,6 +8187,342 @@
     </row>
   </sheetData>
   <mergeCells count="360">
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="D8:D12"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G261:I261"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="G238:G242"/>
+    <mergeCell ref="D243:E243"/>
+    <mergeCell ref="G243:I243"/>
+    <mergeCell ref="D244:E244"/>
+    <mergeCell ref="G244:I244"/>
+    <mergeCell ref="G246:I246"/>
+    <mergeCell ref="G233:I233"/>
+    <mergeCell ref="G234:I234"/>
+    <mergeCell ref="D222:E222"/>
+    <mergeCell ref="G222:I222"/>
+    <mergeCell ref="G224:I224"/>
+    <mergeCell ref="G225:I225"/>
+    <mergeCell ref="D219:E219"/>
+    <mergeCell ref="G219:I219"/>
+    <mergeCell ref="D220:E220"/>
+    <mergeCell ref="D202:E202"/>
+    <mergeCell ref="G202:I202"/>
+    <mergeCell ref="D203:E203"/>
+    <mergeCell ref="G203:I203"/>
+    <mergeCell ref="C4:C18"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="C257:C261"/>
+    <mergeCell ref="D257:E257"/>
+    <mergeCell ref="G257:I257"/>
+    <mergeCell ref="D258:E258"/>
+    <mergeCell ref="G258:I258"/>
+    <mergeCell ref="D259:E259"/>
+    <mergeCell ref="G259:I259"/>
+    <mergeCell ref="D260:E260"/>
+    <mergeCell ref="G260:I260"/>
+    <mergeCell ref="D261:E261"/>
+    <mergeCell ref="D252:E252"/>
+    <mergeCell ref="G252:I252"/>
+    <mergeCell ref="D253:E253"/>
+    <mergeCell ref="G253:I253"/>
+    <mergeCell ref="G255:I255"/>
+    <mergeCell ref="G256:I256"/>
+    <mergeCell ref="G247:I247"/>
+    <mergeCell ref="C248:C253"/>
+    <mergeCell ref="D248:E248"/>
+    <mergeCell ref="G248:I248"/>
+    <mergeCell ref="D249:E249"/>
+    <mergeCell ref="G249:I249"/>
+    <mergeCell ref="D250:E250"/>
+    <mergeCell ref="G250:I250"/>
+    <mergeCell ref="D251:E251"/>
+    <mergeCell ref="G251:I251"/>
+    <mergeCell ref="C235:C244"/>
+    <mergeCell ref="D235:E235"/>
+    <mergeCell ref="G235:I235"/>
+    <mergeCell ref="D236:D237"/>
+    <mergeCell ref="G236:I236"/>
+    <mergeCell ref="G237:I237"/>
+    <mergeCell ref="D238:E242"/>
+    <mergeCell ref="F238:F242"/>
+    <mergeCell ref="G228:I228"/>
+    <mergeCell ref="D229:E229"/>
+    <mergeCell ref="G229:I229"/>
+    <mergeCell ref="D230:E230"/>
+    <mergeCell ref="G230:I230"/>
+    <mergeCell ref="D231:E231"/>
+    <mergeCell ref="G231:I231"/>
+    <mergeCell ref="C226:C231"/>
+    <mergeCell ref="D226:E226"/>
+    <mergeCell ref="G226:I226"/>
+    <mergeCell ref="D227:E227"/>
+    <mergeCell ref="G227:I227"/>
+    <mergeCell ref="D228:E228"/>
+    <mergeCell ref="G208:I208"/>
+    <mergeCell ref="G209:I209"/>
+    <mergeCell ref="C210:C222"/>
+    <mergeCell ref="D210:E210"/>
+    <mergeCell ref="G210:I210"/>
+    <mergeCell ref="D211:E211"/>
+    <mergeCell ref="G211:I211"/>
+    <mergeCell ref="D212:E212"/>
+    <mergeCell ref="G212:I212"/>
+    <mergeCell ref="D213:E213"/>
+    <mergeCell ref="G220:I220"/>
+    <mergeCell ref="D221:E221"/>
+    <mergeCell ref="G221:I221"/>
+    <mergeCell ref="G213:I213"/>
+    <mergeCell ref="D214:E217"/>
+    <mergeCell ref="F214:F217"/>
+    <mergeCell ref="G214:G217"/>
+    <mergeCell ref="D218:E218"/>
+    <mergeCell ref="G218:I218"/>
+    <mergeCell ref="G196:I196"/>
+    <mergeCell ref="D197:E199"/>
+    <mergeCell ref="F197:F199"/>
+    <mergeCell ref="G197:G199"/>
+    <mergeCell ref="D200:E200"/>
+    <mergeCell ref="G200:I200"/>
+    <mergeCell ref="C192:C206"/>
+    <mergeCell ref="D192:E192"/>
+    <mergeCell ref="G192:I192"/>
+    <mergeCell ref="D193:E193"/>
+    <mergeCell ref="G193:I193"/>
+    <mergeCell ref="D194:E194"/>
+    <mergeCell ref="G194:I194"/>
+    <mergeCell ref="D195:E195"/>
+    <mergeCell ref="G195:I195"/>
+    <mergeCell ref="D196:E196"/>
+    <mergeCell ref="D204:E204"/>
+    <mergeCell ref="G204:I204"/>
+    <mergeCell ref="D205:E205"/>
+    <mergeCell ref="G205:I205"/>
+    <mergeCell ref="D206:E206"/>
+    <mergeCell ref="G206:I206"/>
+    <mergeCell ref="D201:E201"/>
+    <mergeCell ref="G201:I201"/>
+    <mergeCell ref="D187:E187"/>
+    <mergeCell ref="G187:I187"/>
+    <mergeCell ref="D188:E188"/>
+    <mergeCell ref="G188:I188"/>
+    <mergeCell ref="G190:I190"/>
+    <mergeCell ref="G191:I191"/>
+    <mergeCell ref="D184:E184"/>
+    <mergeCell ref="G184:I184"/>
+    <mergeCell ref="D185:E185"/>
+    <mergeCell ref="G185:I185"/>
+    <mergeCell ref="D186:E186"/>
+    <mergeCell ref="G186:I186"/>
+    <mergeCell ref="G177:I177"/>
+    <mergeCell ref="E178:E181"/>
+    <mergeCell ref="F178:F181"/>
+    <mergeCell ref="G178:G181"/>
+    <mergeCell ref="G182:I182"/>
+    <mergeCell ref="G183:I183"/>
+    <mergeCell ref="D167:E168"/>
+    <mergeCell ref="F167:F168"/>
+    <mergeCell ref="G167:G168"/>
+    <mergeCell ref="D169:D183"/>
+    <mergeCell ref="E169:E173"/>
+    <mergeCell ref="F169:F173"/>
+    <mergeCell ref="G169:G173"/>
+    <mergeCell ref="E174:E176"/>
+    <mergeCell ref="F174:F176"/>
+    <mergeCell ref="G174:G176"/>
+    <mergeCell ref="C161:C188"/>
+    <mergeCell ref="D161:E161"/>
+    <mergeCell ref="G161:I161"/>
+    <mergeCell ref="D162:E162"/>
+    <mergeCell ref="G162:I162"/>
+    <mergeCell ref="D163:E163"/>
+    <mergeCell ref="G152:I152"/>
+    <mergeCell ref="G153:I153"/>
+    <mergeCell ref="G154:I154"/>
+    <mergeCell ref="D155:E155"/>
+    <mergeCell ref="G155:I155"/>
+    <mergeCell ref="D156:E156"/>
+    <mergeCell ref="G156:I156"/>
+    <mergeCell ref="G163:I163"/>
+    <mergeCell ref="D164:E164"/>
+    <mergeCell ref="G164:I164"/>
+    <mergeCell ref="D165:E165"/>
+    <mergeCell ref="G165:I165"/>
+    <mergeCell ref="D166:E166"/>
+    <mergeCell ref="G166:I166"/>
+    <mergeCell ref="D157:E157"/>
+    <mergeCell ref="G157:I157"/>
+    <mergeCell ref="G159:I159"/>
+    <mergeCell ref="G160:I160"/>
+    <mergeCell ref="E135:E149"/>
+    <mergeCell ref="F135:F149"/>
+    <mergeCell ref="G135:G149"/>
+    <mergeCell ref="E150:E151"/>
+    <mergeCell ref="F150:F151"/>
+    <mergeCell ref="G150:G151"/>
+    <mergeCell ref="C131:C157"/>
+    <mergeCell ref="D131:E131"/>
+    <mergeCell ref="G131:I131"/>
+    <mergeCell ref="D132:E132"/>
+    <mergeCell ref="G132:I132"/>
+    <mergeCell ref="D133:E133"/>
+    <mergeCell ref="G133:I133"/>
+    <mergeCell ref="D134:E134"/>
+    <mergeCell ref="G134:I134"/>
+    <mergeCell ref="D135:D154"/>
+    <mergeCell ref="D127:E127"/>
+    <mergeCell ref="G127:I127"/>
+    <mergeCell ref="G129:I129"/>
+    <mergeCell ref="G130:I130"/>
+    <mergeCell ref="D123:E123"/>
+    <mergeCell ref="G123:I123"/>
+    <mergeCell ref="D124:E124"/>
+    <mergeCell ref="G124:I124"/>
+    <mergeCell ref="D125:E125"/>
+    <mergeCell ref="G125:I125"/>
+    <mergeCell ref="C112:C127"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="G112:I112"/>
+    <mergeCell ref="D113:E113"/>
+    <mergeCell ref="G113:I113"/>
+    <mergeCell ref="D114:E114"/>
+    <mergeCell ref="G114:I114"/>
+    <mergeCell ref="D115:E115"/>
+    <mergeCell ref="G115:I115"/>
+    <mergeCell ref="D116:D117"/>
+    <mergeCell ref="D120:E120"/>
+    <mergeCell ref="G120:I120"/>
+    <mergeCell ref="D121:E121"/>
+    <mergeCell ref="G121:I121"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="G122:I122"/>
+    <mergeCell ref="G116:I116"/>
+    <mergeCell ref="G117:I117"/>
+    <mergeCell ref="D118:E118"/>
+    <mergeCell ref="G118:I118"/>
+    <mergeCell ref="D119:E119"/>
+    <mergeCell ref="G119:I119"/>
+    <mergeCell ref="D126:E126"/>
+    <mergeCell ref="G126:I126"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="G107:I107"/>
+    <mergeCell ref="D108:E108"/>
+    <mergeCell ref="G108:I108"/>
+    <mergeCell ref="G110:I110"/>
+    <mergeCell ref="G111:I111"/>
+    <mergeCell ref="D103:D105"/>
+    <mergeCell ref="G103:I103"/>
+    <mergeCell ref="G104:I104"/>
+    <mergeCell ref="G105:I105"/>
+    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="G106:I106"/>
+    <mergeCell ref="D95:E98"/>
+    <mergeCell ref="F95:F98"/>
+    <mergeCell ref="G95:G98"/>
+    <mergeCell ref="D99:D102"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="G101:I101"/>
+    <mergeCell ref="G102:I102"/>
+    <mergeCell ref="C79:C108"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="G79:I79"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="G80:I80"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="G81:I81"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="G82:I82"/>
+    <mergeCell ref="D83:D87"/>
+    <mergeCell ref="H86:I86"/>
+    <mergeCell ref="H87:I87"/>
+    <mergeCell ref="D88:E91"/>
+    <mergeCell ref="F88:F91"/>
+    <mergeCell ref="G88:G91"/>
+    <mergeCell ref="D92:E94"/>
+    <mergeCell ref="F92:F94"/>
+    <mergeCell ref="G92:G94"/>
+    <mergeCell ref="E83:E85"/>
+    <mergeCell ref="F83:F85"/>
+    <mergeCell ref="G83:G85"/>
+    <mergeCell ref="E86:E87"/>
+    <mergeCell ref="F86:F87"/>
+    <mergeCell ref="G86:G87"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="G75:I75"/>
+    <mergeCell ref="G77:I77"/>
+    <mergeCell ref="G78:I78"/>
+    <mergeCell ref="D56:D68"/>
+    <mergeCell ref="E56:E68"/>
+    <mergeCell ref="F56:F68"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="G57:G68"/>
+    <mergeCell ref="D69:D72"/>
+    <mergeCell ref="G69:I69"/>
+    <mergeCell ref="G70:I70"/>
+    <mergeCell ref="G71:I71"/>
+    <mergeCell ref="G72:I72"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="G73:I73"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="C45:C75"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D51:D55"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="D49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="G74:I74"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="G39:I39"/>
     <mergeCell ref="G20:I20"/>
     <mergeCell ref="G21:I21"/>
     <mergeCell ref="C22:C41"/>
@@ -8209,342 +8547,6 @@
     <mergeCell ref="D37:E37"/>
     <mergeCell ref="G37:I37"/>
     <mergeCell ref="D38:E38"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="C45:C75"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D51:D55"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="D49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="G74:I74"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="G75:I75"/>
-    <mergeCell ref="G77:I77"/>
-    <mergeCell ref="G78:I78"/>
-    <mergeCell ref="D56:D68"/>
-    <mergeCell ref="E56:E68"/>
-    <mergeCell ref="F56:F68"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="G57:G68"/>
-    <mergeCell ref="D69:D72"/>
-    <mergeCell ref="G69:I69"/>
-    <mergeCell ref="G70:I70"/>
-    <mergeCell ref="G71:I71"/>
-    <mergeCell ref="G72:I72"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="G73:I73"/>
-    <mergeCell ref="C79:C108"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="G79:I79"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="G80:I80"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="G81:I81"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="G82:I82"/>
-    <mergeCell ref="D83:D87"/>
-    <mergeCell ref="H86:I86"/>
-    <mergeCell ref="H87:I87"/>
-    <mergeCell ref="D88:E91"/>
-    <mergeCell ref="F88:F91"/>
-    <mergeCell ref="G88:G91"/>
-    <mergeCell ref="D92:E94"/>
-    <mergeCell ref="F92:F94"/>
-    <mergeCell ref="G92:G94"/>
-    <mergeCell ref="E83:E85"/>
-    <mergeCell ref="F83:F85"/>
-    <mergeCell ref="G83:G85"/>
-    <mergeCell ref="E86:E87"/>
-    <mergeCell ref="F86:F87"/>
-    <mergeCell ref="G86:G87"/>
-    <mergeCell ref="D95:E98"/>
-    <mergeCell ref="F95:F98"/>
-    <mergeCell ref="G95:G98"/>
-    <mergeCell ref="D99:D102"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="G101:I101"/>
-    <mergeCell ref="G102:I102"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="G107:I107"/>
-    <mergeCell ref="D108:E108"/>
-    <mergeCell ref="G108:I108"/>
-    <mergeCell ref="G110:I110"/>
-    <mergeCell ref="G111:I111"/>
-    <mergeCell ref="D103:D105"/>
-    <mergeCell ref="G103:I103"/>
-    <mergeCell ref="G104:I104"/>
-    <mergeCell ref="G105:I105"/>
-    <mergeCell ref="D106:E106"/>
-    <mergeCell ref="G106:I106"/>
-    <mergeCell ref="C112:C127"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="G112:I112"/>
-    <mergeCell ref="D113:E113"/>
-    <mergeCell ref="G113:I113"/>
-    <mergeCell ref="D114:E114"/>
-    <mergeCell ref="G114:I114"/>
-    <mergeCell ref="D115:E115"/>
-    <mergeCell ref="G115:I115"/>
-    <mergeCell ref="D116:D117"/>
-    <mergeCell ref="D120:E120"/>
-    <mergeCell ref="G120:I120"/>
-    <mergeCell ref="D121:E121"/>
-    <mergeCell ref="G121:I121"/>
-    <mergeCell ref="D122:E122"/>
-    <mergeCell ref="G122:I122"/>
-    <mergeCell ref="G116:I116"/>
-    <mergeCell ref="G117:I117"/>
-    <mergeCell ref="D118:E118"/>
-    <mergeCell ref="G118:I118"/>
-    <mergeCell ref="D119:E119"/>
-    <mergeCell ref="G119:I119"/>
-    <mergeCell ref="D126:E126"/>
-    <mergeCell ref="G126:I126"/>
-    <mergeCell ref="D127:E127"/>
-    <mergeCell ref="G127:I127"/>
-    <mergeCell ref="G129:I129"/>
-    <mergeCell ref="G130:I130"/>
-    <mergeCell ref="D123:E123"/>
-    <mergeCell ref="G123:I123"/>
-    <mergeCell ref="D124:E124"/>
-    <mergeCell ref="G124:I124"/>
-    <mergeCell ref="D125:E125"/>
-    <mergeCell ref="G125:I125"/>
-    <mergeCell ref="E135:E149"/>
-    <mergeCell ref="F135:F149"/>
-    <mergeCell ref="G135:G149"/>
-    <mergeCell ref="E150:E151"/>
-    <mergeCell ref="F150:F151"/>
-    <mergeCell ref="G150:G151"/>
-    <mergeCell ref="C131:C157"/>
-    <mergeCell ref="D131:E131"/>
-    <mergeCell ref="G131:I131"/>
-    <mergeCell ref="D132:E132"/>
-    <mergeCell ref="G132:I132"/>
-    <mergeCell ref="D133:E133"/>
-    <mergeCell ref="G133:I133"/>
-    <mergeCell ref="D134:E134"/>
-    <mergeCell ref="G134:I134"/>
-    <mergeCell ref="D135:D154"/>
-    <mergeCell ref="C161:C188"/>
-    <mergeCell ref="D161:E161"/>
-    <mergeCell ref="G161:I161"/>
-    <mergeCell ref="D162:E162"/>
-    <mergeCell ref="G162:I162"/>
-    <mergeCell ref="D163:E163"/>
-    <mergeCell ref="G152:I152"/>
-    <mergeCell ref="G153:I153"/>
-    <mergeCell ref="G154:I154"/>
-    <mergeCell ref="D155:E155"/>
-    <mergeCell ref="G155:I155"/>
-    <mergeCell ref="D156:E156"/>
-    <mergeCell ref="G156:I156"/>
-    <mergeCell ref="G163:I163"/>
-    <mergeCell ref="D164:E164"/>
-    <mergeCell ref="G164:I164"/>
-    <mergeCell ref="D165:E165"/>
-    <mergeCell ref="G165:I165"/>
-    <mergeCell ref="D166:E166"/>
-    <mergeCell ref="G166:I166"/>
-    <mergeCell ref="D157:E157"/>
-    <mergeCell ref="G157:I157"/>
-    <mergeCell ref="G159:I159"/>
-    <mergeCell ref="G160:I160"/>
-    <mergeCell ref="G177:I177"/>
-    <mergeCell ref="E178:E181"/>
-    <mergeCell ref="F178:F181"/>
-    <mergeCell ref="G178:G181"/>
-    <mergeCell ref="G182:I182"/>
-    <mergeCell ref="G183:I183"/>
-    <mergeCell ref="D167:E168"/>
-    <mergeCell ref="F167:F168"/>
-    <mergeCell ref="G167:G168"/>
-    <mergeCell ref="D169:D183"/>
-    <mergeCell ref="E169:E173"/>
-    <mergeCell ref="F169:F173"/>
-    <mergeCell ref="G169:G173"/>
-    <mergeCell ref="E174:E176"/>
-    <mergeCell ref="F174:F176"/>
-    <mergeCell ref="G174:G176"/>
-    <mergeCell ref="D187:E187"/>
-    <mergeCell ref="G187:I187"/>
-    <mergeCell ref="D188:E188"/>
-    <mergeCell ref="G188:I188"/>
-    <mergeCell ref="G190:I190"/>
-    <mergeCell ref="G191:I191"/>
-    <mergeCell ref="D184:E184"/>
-    <mergeCell ref="G184:I184"/>
-    <mergeCell ref="D185:E185"/>
-    <mergeCell ref="G185:I185"/>
-    <mergeCell ref="D186:E186"/>
-    <mergeCell ref="G186:I186"/>
-    <mergeCell ref="G196:I196"/>
-    <mergeCell ref="D197:E199"/>
-    <mergeCell ref="F197:F199"/>
-    <mergeCell ref="G197:G199"/>
-    <mergeCell ref="D200:E200"/>
-    <mergeCell ref="G200:I200"/>
-    <mergeCell ref="C192:C206"/>
-    <mergeCell ref="D192:E192"/>
-    <mergeCell ref="G192:I192"/>
-    <mergeCell ref="D193:E193"/>
-    <mergeCell ref="G193:I193"/>
-    <mergeCell ref="D194:E194"/>
-    <mergeCell ref="G194:I194"/>
-    <mergeCell ref="D195:E195"/>
-    <mergeCell ref="G195:I195"/>
-    <mergeCell ref="D196:E196"/>
-    <mergeCell ref="D204:E204"/>
-    <mergeCell ref="G204:I204"/>
-    <mergeCell ref="D205:E205"/>
-    <mergeCell ref="G205:I205"/>
-    <mergeCell ref="D206:E206"/>
-    <mergeCell ref="G206:I206"/>
-    <mergeCell ref="D201:E201"/>
-    <mergeCell ref="G201:I201"/>
-    <mergeCell ref="G208:I208"/>
-    <mergeCell ref="G209:I209"/>
-    <mergeCell ref="C210:C222"/>
-    <mergeCell ref="D210:E210"/>
-    <mergeCell ref="G210:I210"/>
-    <mergeCell ref="D211:E211"/>
-    <mergeCell ref="G211:I211"/>
-    <mergeCell ref="D212:E212"/>
-    <mergeCell ref="G212:I212"/>
-    <mergeCell ref="D213:E213"/>
-    <mergeCell ref="G220:I220"/>
-    <mergeCell ref="D221:E221"/>
-    <mergeCell ref="G221:I221"/>
-    <mergeCell ref="G213:I213"/>
-    <mergeCell ref="D214:E217"/>
-    <mergeCell ref="F214:F217"/>
-    <mergeCell ref="G214:G217"/>
-    <mergeCell ref="D218:E218"/>
-    <mergeCell ref="G218:I218"/>
-    <mergeCell ref="C235:C244"/>
-    <mergeCell ref="D235:E235"/>
-    <mergeCell ref="G235:I235"/>
-    <mergeCell ref="D236:D237"/>
-    <mergeCell ref="G236:I236"/>
-    <mergeCell ref="G237:I237"/>
-    <mergeCell ref="D238:E242"/>
-    <mergeCell ref="F238:F242"/>
-    <mergeCell ref="G228:I228"/>
-    <mergeCell ref="D229:E229"/>
-    <mergeCell ref="G229:I229"/>
-    <mergeCell ref="D230:E230"/>
-    <mergeCell ref="G230:I230"/>
-    <mergeCell ref="D231:E231"/>
-    <mergeCell ref="G231:I231"/>
-    <mergeCell ref="C226:C231"/>
-    <mergeCell ref="D226:E226"/>
-    <mergeCell ref="G226:I226"/>
-    <mergeCell ref="D227:E227"/>
-    <mergeCell ref="G227:I227"/>
-    <mergeCell ref="D228:E228"/>
-    <mergeCell ref="C248:C253"/>
-    <mergeCell ref="D248:E248"/>
-    <mergeCell ref="G248:I248"/>
-    <mergeCell ref="D249:E249"/>
-    <mergeCell ref="G249:I249"/>
-    <mergeCell ref="D250:E250"/>
-    <mergeCell ref="G250:I250"/>
-    <mergeCell ref="D251:E251"/>
-    <mergeCell ref="G251:I251"/>
-    <mergeCell ref="C4:C18"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="C257:C261"/>
-    <mergeCell ref="D257:E257"/>
-    <mergeCell ref="G257:I257"/>
-    <mergeCell ref="D258:E258"/>
-    <mergeCell ref="G258:I258"/>
-    <mergeCell ref="D259:E259"/>
-    <mergeCell ref="G259:I259"/>
-    <mergeCell ref="D260:E260"/>
-    <mergeCell ref="G260:I260"/>
-    <mergeCell ref="D261:E261"/>
-    <mergeCell ref="D252:E252"/>
-    <mergeCell ref="G252:I252"/>
-    <mergeCell ref="D253:E253"/>
-    <mergeCell ref="G253:I253"/>
-    <mergeCell ref="G255:I255"/>
-    <mergeCell ref="G256:I256"/>
-    <mergeCell ref="G247:I247"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G261:I261"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="G238:G242"/>
-    <mergeCell ref="D243:E243"/>
-    <mergeCell ref="G243:I243"/>
-    <mergeCell ref="D244:E244"/>
-    <mergeCell ref="G244:I244"/>
-    <mergeCell ref="G246:I246"/>
-    <mergeCell ref="G233:I233"/>
-    <mergeCell ref="G234:I234"/>
-    <mergeCell ref="D222:E222"/>
-    <mergeCell ref="G222:I222"/>
-    <mergeCell ref="G224:I224"/>
-    <mergeCell ref="G225:I225"/>
-    <mergeCell ref="D219:E219"/>
-    <mergeCell ref="G219:I219"/>
-    <mergeCell ref="D220:E220"/>
-    <mergeCell ref="D202:E202"/>
-    <mergeCell ref="G202:I202"/>
-    <mergeCell ref="D203:E203"/>
-    <mergeCell ref="G203:I203"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="D8:D12"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="G16:I16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
